--- a/Article_17_EU-2022.xlsx
+++ b/Article_17_EU-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD03A37-075B-49AD-BD5E-39913BC4F457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59F21D-E1EA-404C-8CFB-5C195DEC5A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1313" yWindow="907" windowWidth="14614" windowHeight="10053" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="article_17_synthesis_table" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="395">
   <si>
     <t>Forecast for investments needs by national authorities</t>
   </si>
@@ -1456,9 +1456,6 @@
     <t>Population eurostat</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2026-2031</t>
   </si>
   <si>
@@ -1495,27 +1492,6 @@
     <t>2028-2029</t>
   </si>
   <si>
-    <t>163,4</t>
-  </si>
-  <si>
-    <t>26,2</t>
-  </si>
-  <si>
-    <t>413,3</t>
-  </si>
-  <si>
-    <t>347,1</t>
-  </si>
-  <si>
-    <t>21,6</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>950,9</t>
-  </si>
-  <si>
     <t>2010-2023</t>
   </si>
   <si>
@@ -1540,42 +1516,6 @@
     <t>2013-2021</t>
   </si>
   <si>
-    <t>183,8</t>
-  </si>
-  <si>
-    <t>49,6</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>542,3</t>
-  </si>
-  <si>
-    <t>31,8</t>
-  </si>
-  <si>
-    <t>3296,5 (+IAS 523)</t>
-  </si>
-  <si>
-    <t>30,9</t>
-  </si>
-  <si>
-    <t>197,6</t>
-  </si>
-  <si>
-    <t>700,7</t>
-  </si>
-  <si>
-    <t>32,5</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>24,7</t>
-  </si>
-  <si>
     <t>2022-2024</t>
   </si>
   <si>
@@ -1583,42 +1523,6 @@
   </si>
   <si>
     <t>2020-2025</t>
-  </si>
-  <si>
-    <t>204,8</t>
-  </si>
-  <si>
-    <t>193,5</t>
-  </si>
-  <si>
-    <t>96,4</t>
-  </si>
-  <si>
-    <t>92,6</t>
-  </si>
-  <si>
-    <t>258,4</t>
-  </si>
-  <si>
-    <t>3567,8</t>
-  </si>
-  <si>
-    <t>299,4</t>
-  </si>
-  <si>
-    <t>362,5</t>
-  </si>
-  <si>
-    <t>312,9</t>
-  </si>
-  <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>1166,2</t>
-  </si>
-  <si>
-    <t>75,4</t>
   </si>
   <si>
     <t>2024-2032</t>
@@ -1640,9 +1544,6 @@
   </si>
   <si>
     <t>2024 - 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
   </si>
   <si>
     <t>2030 - 2030</t>
@@ -1682,6 +1583,9 @@
   </si>
   <si>
     <t>2024 - 2028</t>
+  </si>
+  <si>
+    <t>3296.5 (+IAS 523)</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1765,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1937,6 +1841,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2159,7 +2081,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2409,29 +2331,28 @@
     <xf numFmtId="3" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2457,14 +2378,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2484,6 +2420,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2781,11 +2718,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:DI56"/>
+  <dimension ref="A1:HC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2795,7 +2732,8 @@
     <col min="4" max="8" width="11.87890625" customWidth="1"/>
     <col min="9" max="11" width="11.41015625" customWidth="1"/>
     <col min="12" max="13" width="11.87890625" customWidth="1"/>
-    <col min="14" max="15" width="11.29296875" customWidth="1"/>
+    <col min="14" max="14" width="11.29296875" customWidth="1"/>
+    <col min="15" max="15" width="15.64453125" customWidth="1"/>
     <col min="16" max="16" width="11.87890625" customWidth="1"/>
     <col min="17" max="19" width="13.64453125" customWidth="1"/>
     <col min="20" max="23" width="11.87890625" customWidth="1"/>
@@ -2843,172 +2781,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" s="88" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="111" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="111" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="111" t="s">
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="111" t="s">
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="111" t="s">
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="111" t="s">
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="111" t="s">
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="111" t="s">
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="111" t="s">
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="111" t="s">
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="111" t="s">
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="111" t="s">
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="111" t="s">
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="103"/>
+      <c r="BD1" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="111" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="103"/>
+      <c r="BH1" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="111" t="s">
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="103"/>
+      <c r="BL1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="112"/>
-      <c r="BP1" s="111" t="s">
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="102"/>
+      <c r="BO1" s="103"/>
+      <c r="BP1" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="113"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="112"/>
-      <c r="BT1" s="111" t="s">
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
+      <c r="BS1" s="103"/>
+      <c r="BT1" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="113"/>
-      <c r="BV1" s="113"/>
-      <c r="BW1" s="112"/>
-      <c r="BX1" s="111" t="s">
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="103"/>
+      <c r="BX1" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="BY1" s="113"/>
-      <c r="BZ1" s="113"/>
-      <c r="CA1" s="112"/>
-      <c r="CB1" s="111" t="s">
+      <c r="BY1" s="102"/>
+      <c r="BZ1" s="102"/>
+      <c r="CA1" s="103"/>
+      <c r="CB1" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="CC1" s="113"/>
-      <c r="CD1" s="113"/>
-      <c r="CE1" s="112"/>
-      <c r="CF1" s="111" t="s">
+      <c r="CC1" s="102"/>
+      <c r="CD1" s="102"/>
+      <c r="CE1" s="103"/>
+      <c r="CF1" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="113"/>
-      <c r="CH1" s="113"/>
-      <c r="CI1" s="112"/>
-      <c r="CJ1" s="111" t="s">
+      <c r="CG1" s="102"/>
+      <c r="CH1" s="102"/>
+      <c r="CI1" s="103"/>
+      <c r="CJ1" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="CK1" s="113"/>
-      <c r="CL1" s="113"/>
-      <c r="CM1" s="112"/>
-      <c r="CN1" s="111" t="s">
+      <c r="CK1" s="102"/>
+      <c r="CL1" s="102"/>
+      <c r="CM1" s="103"/>
+      <c r="CN1" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="113"/>
-      <c r="CP1" s="113"/>
-      <c r="CQ1" s="112"/>
-      <c r="CR1" s="111" t="s">
+      <c r="CO1" s="102"/>
+      <c r="CP1" s="102"/>
+      <c r="CQ1" s="103"/>
+      <c r="CR1" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="113"/>
-      <c r="CT1" s="113"/>
-      <c r="CU1" s="112"/>
-      <c r="CV1" s="111" t="s">
+      <c r="CS1" s="102"/>
+      <c r="CT1" s="102"/>
+      <c r="CU1" s="103"/>
+      <c r="CV1" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="CW1" s="113"/>
-      <c r="CX1" s="113"/>
-      <c r="CY1" s="112"/>
-      <c r="CZ1" s="111" t="s">
+      <c r="CW1" s="102"/>
+      <c r="CX1" s="102"/>
+      <c r="CY1" s="103"/>
+      <c r="CZ1" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="DA1" s="113"/>
-      <c r="DB1" s="113"/>
-      <c r="DC1" s="112"/>
-      <c r="DD1" s="111" t="s">
+      <c r="DA1" s="102"/>
+      <c r="DB1" s="102"/>
+      <c r="DC1" s="103"/>
+      <c r="DD1" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="DE1" s="113"/>
-      <c r="DF1" s="113"/>
-      <c r="DG1" s="112"/>
-      <c r="DH1" s="111" t="s">
+      <c r="DE1" s="102"/>
+      <c r="DF1" s="102"/>
+      <c r="DG1" s="103"/>
+      <c r="DH1" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="DI1" s="112"/>
+      <c r="DI1" s="103"/>
     </row>
     <row r="2" spans="2:113" s="90" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="91" t="s">
@@ -3343,10 +3281,10 @@
       </c>
     </row>
     <row r="3" spans="2:113" s="93" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="105"/>
+      <c r="B3" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="106"/>
       <c r="D3" s="92">
         <v>2016</v>
       </c>
@@ -3911,7 +3849,7 @@
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3926,7 +3864,9 @@
       <c r="F6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="H6" s="16">
         <v>0</v>
       </c>
@@ -3936,7 +3876,9 @@
       <c r="J6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="L6" s="16">
         <v>2251.2199999999998</v>
       </c>
@@ -3982,7 +3924,9 @@
       <c r="Z6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AA6" s="17"/>
+      <c r="AA6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AB6" s="16" t="s">
         <v>137</v>
       </c>
@@ -3992,7 +3936,9 @@
       <c r="AD6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF6" s="16">
         <v>53.64</v>
       </c>
@@ -4002,7 +3948,9 @@
       <c r="AH6" s="17">
         <v>0</v>
       </c>
-      <c r="AI6" s="17"/>
+      <c r="AI6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AJ6" s="16">
         <v>0</v>
       </c>
@@ -4012,7 +3960,9 @@
       <c r="AL6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AM6" s="17"/>
+      <c r="AM6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AN6" s="16" t="s">
         <v>137</v>
       </c>
@@ -4034,7 +3984,9 @@
       <c r="AT6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU6" s="17"/>
+      <c r="AU6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV6" s="16">
         <v>1324.46</v>
       </c>
@@ -4092,7 +4044,9 @@
       <c r="BN6" s="16">
         <v>131.65209200000001</v>
       </c>
-      <c r="BO6" s="16"/>
+      <c r="BO6" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="BP6" s="16">
         <v>1.08</v>
       </c>
@@ -4126,7 +4080,9 @@
       <c r="BZ6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="CA6" s="17"/>
+      <c r="CA6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CB6" s="34" t="s">
         <v>139</v>
       </c>
@@ -4136,7 +4092,9 @@
       <c r="CD6" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="CE6" s="34"/>
+      <c r="CE6" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="CF6" s="16">
         <v>3464.7782003000002</v>
       </c>
@@ -4158,7 +4116,9 @@
       <c r="CL6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="CM6" s="17"/>
+      <c r="CM6" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CN6" s="16">
         <v>5118.01</v>
       </c>
@@ -4168,7 +4128,9 @@
       <c r="CP6" s="16">
         <v>5715.6546484</v>
       </c>
-      <c r="CQ6" s="16"/>
+      <c r="CQ6" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CR6" s="16">
         <v>526.57000000000005</v>
       </c>
@@ -4190,7 +4152,9 @@
       <c r="CX6" s="16">
         <v>111.952</v>
       </c>
-      <c r="CY6" s="16"/>
+      <c r="CY6" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ6" s="16">
         <v>2044.33</v>
       </c>
@@ -4223,7 +4187,7 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -4236,7 +4200,9 @@
       <c r="F7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="H7" s="16">
         <v>0</v>
       </c>
@@ -4246,7 +4212,9 @@
       <c r="J7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="L7" s="16">
         <v>581.88</v>
       </c>
@@ -4292,7 +4260,9 @@
       <c r="Z7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AB7" s="16" t="s">
         <v>137</v>
       </c>
@@ -4302,7 +4272,9 @@
       <c r="AD7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF7" s="16">
         <v>44.67</v>
       </c>
@@ -4312,7 +4284,9 @@
       <c r="AH7" s="17">
         <v>0</v>
       </c>
-      <c r="AI7" s="17"/>
+      <c r="AI7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AJ7" s="16">
         <v>0</v>
       </c>
@@ -4322,7 +4296,9 @@
       <c r="AL7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AM7" s="17"/>
+      <c r="AM7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AN7" s="16" t="s">
         <v>137</v>
       </c>
@@ -4332,7 +4308,9 @@
       <c r="AP7" s="17">
         <v>0</v>
       </c>
-      <c r="AQ7" s="17"/>
+      <c r="AQ7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AR7" s="16" t="s">
         <v>137</v>
       </c>
@@ -4342,7 +4320,9 @@
       <c r="AT7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU7" s="17"/>
+      <c r="AU7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV7" s="16">
         <v>1125.8900000000001</v>
       </c>
@@ -4376,7 +4356,9 @@
       <c r="BF7" s="16">
         <v>0</v>
       </c>
-      <c r="BG7" s="16"/>
+      <c r="BG7" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="BH7" s="16" t="s">
         <v>137</v>
       </c>
@@ -4398,7 +4380,9 @@
       <c r="BN7" s="16">
         <v>90.776180999999994</v>
       </c>
-      <c r="BO7" s="16"/>
+      <c r="BO7" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="BP7" s="16">
         <v>1.08</v>
       </c>
@@ -4408,7 +4392,9 @@
       <c r="BR7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BS7" s="17"/>
+      <c r="BS7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BT7" s="16">
         <v>0</v>
       </c>
@@ -4430,7 +4416,9 @@
       <c r="BZ7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="CA7" s="17"/>
+      <c r="CA7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CB7" s="34" t="s">
         <v>139</v>
       </c>
@@ -4440,7 +4428,9 @@
       <c r="CD7" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="CE7" s="34"/>
+      <c r="CE7" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="CF7" s="16" t="s">
         <v>137</v>
       </c>
@@ -4450,7 +4440,9 @@
       <c r="CH7" s="17">
         <v>0</v>
       </c>
-      <c r="CI7" s="17"/>
+      <c r="CI7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ7" s="16">
         <v>0</v>
       </c>
@@ -4460,7 +4452,9 @@
       <c r="CL7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="CM7" s="17"/>
+      <c r="CM7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CN7" s="16">
         <v>2533.59</v>
       </c>
@@ -4470,7 +4464,9 @@
       <c r="CP7" s="16">
         <v>3270.5237000000002</v>
       </c>
-      <c r="CQ7" s="16"/>
+      <c r="CQ7" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CR7" s="16">
         <v>442.1</v>
       </c>
@@ -4492,7 +4488,9 @@
       <c r="CX7" s="16">
         <v>55.293399999999998</v>
       </c>
-      <c r="CY7" s="16"/>
+      <c r="CY7" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ7" s="16">
         <v>35.86</v>
       </c>
@@ -4514,7 +4512,9 @@
       <c r="DF7" s="17">
         <v>0</v>
       </c>
-      <c r="DG7" s="17"/>
+      <c r="DG7" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="DH7" s="16">
         <v>0</v>
       </c>
@@ -4523,7 +4523,7 @@
       </c>
     </row>
     <row r="8" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>137</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="H8" s="16">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>137</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>230</v>
@@ -4561,7 +4561,7 @@
         <v>290</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>231</v>
@@ -4573,7 +4573,7 @@
         <v>336</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="T8" s="16" t="s">
         <v>232</v>
@@ -4585,7 +4585,7 @@
         <v>307</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X8" s="16">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>137</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AB8" s="16" t="s">
         <v>137</v>
@@ -4609,7 +4609,7 @@
         <v>137</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AF8" s="16" t="s">
         <v>187</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AJ8" s="16">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>137</v>
       </c>
       <c r="AM8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AN8" s="16" t="s">
         <v>137</v>
@@ -4657,7 +4657,7 @@
         <v>137</v>
       </c>
       <c r="AU8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AV8" s="16" t="s">
         <v>192</v>
@@ -4693,7 +4693,7 @@
         <v>290</v>
       </c>
       <c r="BG8" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BH8" s="16" t="s">
         <v>233</v>
@@ -4705,7 +4705,7 @@
         <v>290</v>
       </c>
       <c r="BK8" s="16" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="BL8" s="16" t="s">
         <v>181</v>
@@ -4717,7 +4717,7 @@
         <v>335</v>
       </c>
       <c r="BO8" s="16" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="BP8" s="16" t="s">
         <v>153</v>
@@ -4729,7 +4729,7 @@
         <v>137</v>
       </c>
       <c r="BS8" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BT8" s="16">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="CA8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CB8" s="34" t="s">
         <v>139</v>
@@ -4765,7 +4765,7 @@
         <v>139</v>
       </c>
       <c r="CE8" s="34" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CF8" s="16" t="s">
         <v>187</v>
@@ -4777,7 +4777,7 @@
         <v>292</v>
       </c>
       <c r="CI8" s="17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="CJ8" s="16" t="s">
         <v>234</v>
@@ -4789,7 +4789,7 @@
         <v>137</v>
       </c>
       <c r="CM8" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CN8" s="16" t="s">
         <v>194</v>
@@ -4801,7 +4801,7 @@
         <v>292</v>
       </c>
       <c r="CQ8" s="16" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CR8" s="16" t="s">
         <v>181</v>
@@ -4813,7 +4813,7 @@
         <v>307</v>
       </c>
       <c r="CU8" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CV8" s="16" t="s">
         <v>235</v>
@@ -4825,7 +4825,7 @@
         <v>340</v>
       </c>
       <c r="CY8" s="16" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CZ8" s="16" t="s">
         <v>236</v>
@@ -4837,7 +4837,7 @@
         <v>290</v>
       </c>
       <c r="DC8" s="16" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="DD8" s="16" t="s">
         <v>137</v>
@@ -4849,7 +4849,7 @@
         <v>312</v>
       </c>
       <c r="DG8" s="17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="DH8" s="16" t="s">
         <v>181</v>
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="9" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="109" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4874,7 +4874,9 @@
       <c r="F9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="H9" s="16">
         <v>5.75</v>
       </c>
@@ -4932,7 +4934,9 @@
       <c r="Z9" s="17">
         <v>245.1</v>
       </c>
-      <c r="AA9" s="17"/>
+      <c r="AA9" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AB9" s="16" t="s">
         <v>137</v>
       </c>
@@ -4942,7 +4946,9 @@
       <c r="AD9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AE9" s="17"/>
+      <c r="AE9" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF9" s="16">
         <v>6.5</v>
       </c>
@@ -4988,7 +4994,9 @@
       <c r="AT9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU9" s="17"/>
+      <c r="AU9" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV9" s="16">
         <v>0</v>
       </c>
@@ -5046,7 +5054,9 @@
       <c r="BN9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BO9" s="17"/>
+      <c r="BO9" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BP9" s="16">
         <v>3.12</v>
       </c>
@@ -5068,7 +5078,9 @@
       <c r="BV9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BW9" s="17"/>
+      <c r="BW9" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BX9" s="16">
         <v>4.25</v>
       </c>
@@ -5090,7 +5102,9 @@
       <c r="CD9" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="CE9" s="34"/>
+      <c r="CE9" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="CF9" s="16">
         <v>4269.5336500000003</v>
       </c>
@@ -5124,7 +5138,9 @@
       <c r="CP9" s="16">
         <v>2231.37844</v>
       </c>
-      <c r="CQ9" s="16"/>
+      <c r="CQ9" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CR9" s="16">
         <v>170.65</v>
       </c>
@@ -5146,7 +5162,9 @@
       <c r="CX9" s="16">
         <v>8.9067319999999999</v>
       </c>
-      <c r="CY9" s="16"/>
+      <c r="CY9" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ9" s="16">
         <v>4450.6400000000003</v>
       </c>
@@ -5179,7 +5197,7 @@
       </c>
     </row>
     <row r="10" spans="2:113" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -5192,7 +5210,9 @@
       <c r="F10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="H10" s="16">
         <v>0</v>
       </c>
@@ -5202,7 +5222,9 @@
       <c r="J10" s="17">
         <v>0</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="L10" s="16">
         <v>205</v>
       </c>
@@ -5248,7 +5270,9 @@
       <c r="Z10" s="17">
         <v>0</v>
       </c>
-      <c r="AA10" s="17"/>
+      <c r="AA10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AB10" s="16" t="s">
         <v>137</v>
       </c>
@@ -5258,7 +5282,9 @@
       <c r="AD10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AE10" s="17"/>
+      <c r="AE10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF10" s="16" t="s">
         <v>137</v>
       </c>
@@ -5268,7 +5294,9 @@
       <c r="AH10" s="17">
         <v>0</v>
       </c>
-      <c r="AI10" s="17"/>
+      <c r="AI10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AJ10" s="16">
         <v>0</v>
       </c>
@@ -5278,7 +5306,9 @@
       <c r="AL10" s="17">
         <v>0</v>
       </c>
-      <c r="AM10" s="17"/>
+      <c r="AM10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AN10" s="16">
         <v>32</v>
       </c>
@@ -5300,7 +5330,9 @@
       <c r="AT10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU10" s="17"/>
+      <c r="AU10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV10" s="16">
         <v>0</v>
       </c>
@@ -5358,7 +5390,9 @@
       <c r="BN10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BO10" s="17"/>
+      <c r="BO10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BP10" s="16">
         <v>1.56</v>
       </c>
@@ -5368,7 +5402,9 @@
       <c r="BR10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BS10" s="17"/>
+      <c r="BS10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BT10" s="16">
         <v>0</v>
       </c>
@@ -5378,7 +5414,9 @@
       <c r="BV10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BW10" s="17"/>
+      <c r="BW10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BX10" s="16">
         <v>4.25</v>
       </c>
@@ -5388,7 +5426,9 @@
       <c r="BZ10" s="17">
         <v>0</v>
       </c>
-      <c r="CA10" s="17"/>
+      <c r="CA10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CB10" s="34" t="s">
         <v>139</v>
       </c>
@@ -5398,7 +5438,9 @@
       <c r="CD10" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="CE10" s="34"/>
+      <c r="CE10" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="CF10" s="16" t="s">
         <v>137</v>
       </c>
@@ -5408,7 +5450,9 @@
       <c r="CH10" s="17">
         <v>0</v>
       </c>
-      <c r="CI10" s="17"/>
+      <c r="CI10" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ10" s="16" t="s">
         <v>237</v>
       </c>
@@ -5430,7 +5474,9 @@
       <c r="CP10" s="16">
         <v>1267.164</v>
       </c>
-      <c r="CQ10" s="16"/>
+      <c r="CQ10" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CR10" s="16">
         <v>107.11</v>
       </c>
@@ -5452,7 +5498,9 @@
       <c r="CX10" s="16">
         <v>5.084352</v>
       </c>
-      <c r="CY10" s="16"/>
+      <c r="CY10" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ10" s="16">
         <v>99.71</v>
       </c>
@@ -5474,7 +5522,9 @@
       <c r="DF10" s="16">
         <v>0</v>
       </c>
-      <c r="DG10" s="16"/>
+      <c r="DG10" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="DH10" s="16" t="s">
         <v>137</v>
       </c>
@@ -5483,7 +5533,7 @@
       </c>
     </row>
     <row r="11" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -5497,7 +5547,7 @@
         <v>137</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>238</v>
@@ -5509,7 +5559,7 @@
         <v>341</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>239</v>
@@ -5521,7 +5571,7 @@
         <v>290</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>196</v>
@@ -5533,7 +5583,7 @@
         <v>330</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T11" s="16" t="s">
         <v>231</v>
@@ -5545,7 +5595,7 @@
         <v>307</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="X11" s="16">
         <v>0</v>
@@ -5557,7 +5607,7 @@
         <v>342</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AB11" s="16" t="s">
         <v>137</v>
@@ -5569,7 +5619,7 @@
         <v>137</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AF11" s="16" t="s">
         <v>174</v>
@@ -5581,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ11" s="16" t="s">
         <v>191</v>
@@ -5605,7 +5655,7 @@
         <v>332</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="AR11" s="16" t="s">
         <v>137</v>
@@ -5617,7 +5667,7 @@
         <v>137</v>
       </c>
       <c r="AU11" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AV11" s="16">
         <v>0</v>
@@ -5629,7 +5679,7 @@
         <v>292</v>
       </c>
       <c r="AY11" s="17" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="AZ11" s="16" t="s">
         <v>231</v>
@@ -5641,7 +5691,7 @@
         <v>309</v>
       </c>
       <c r="BC11" s="24" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="BD11" s="16" t="s">
         <v>231</v>
@@ -5653,7 +5703,7 @@
         <v>333</v>
       </c>
       <c r="BG11" s="16" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="BH11" s="16" t="s">
         <v>193</v>
@@ -5665,7 +5715,7 @@
         <v>332</v>
       </c>
       <c r="BK11" s="16" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="BL11" s="16" t="s">
         <v>172</v>
@@ -5677,7 +5727,7 @@
         <v>137</v>
       </c>
       <c r="BO11" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="BP11" s="16" t="s">
         <v>193</v>
@@ -5701,7 +5751,7 @@
         <v>137</v>
       </c>
       <c r="BW11" s="17" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="BX11" s="16" t="s">
         <v>169</v>
@@ -5725,7 +5775,7 @@
         <v>139</v>
       </c>
       <c r="CE11" s="34" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CF11" s="16" t="s">
         <v>187</v>
@@ -5737,7 +5787,7 @@
         <v>287</v>
       </c>
       <c r="CI11" s="17" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="CJ11" s="16" t="s">
         <v>188</v>
@@ -5749,7 +5799,7 @@
         <v>292</v>
       </c>
       <c r="CM11" s="17" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="CN11" s="16" t="s">
         <v>194</v>
@@ -5761,7 +5811,7 @@
         <v>292</v>
       </c>
       <c r="CQ11" s="16" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CR11" s="16" t="s">
         <v>192</v>
@@ -5773,7 +5823,7 @@
         <v>290</v>
       </c>
       <c r="CU11" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="CV11" s="16" t="s">
         <v>193</v>
@@ -5785,7 +5835,7 @@
         <v>335</v>
       </c>
       <c r="CY11" s="16" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="CZ11" s="16" t="s">
         <v>236</v>
@@ -5797,7 +5847,7 @@
         <v>287</v>
       </c>
       <c r="DC11" s="16" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="DD11" s="16" t="s">
         <v>192</v>
@@ -5819,10 +5869,10 @@
       </c>
     </row>
     <row r="12" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="107"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="21">
         <f t="shared" ref="D12:BO12" si="0">IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -6261,10 +6311,10 @@
       </c>
     </row>
     <row r="13" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
@@ -6275,7 +6325,7 @@
         <v>137</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>137</v>
@@ -6287,7 +6337,7 @@
         <v>341</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>140</v>
@@ -6299,7 +6349,7 @@
         <v>290</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>141</v>
@@ -6311,7 +6361,7 @@
         <v>330</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="T13" s="32" t="s">
         <v>196</v>
@@ -6323,7 +6373,7 @@
         <v>307</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>137</v>
@@ -6335,7 +6385,7 @@
         <v>342</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="AB13" s="17" t="s">
         <v>137</v>
@@ -6347,7 +6397,7 @@
         <v>137</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>187</v>
@@ -6359,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="17" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>191</v>
@@ -6371,7 +6421,7 @@
         <v>312</v>
       </c>
       <c r="AM13" s="17" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="AN13" s="16" t="s">
         <v>240</v>
@@ -6383,7 +6433,7 @@
         <v>332</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="AR13" s="17" t="s">
         <v>137</v>
@@ -6395,7 +6445,7 @@
         <v>137</v>
       </c>
       <c r="AU13" s="17" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="AV13" s="9" t="s">
         <v>192</v>
@@ -6407,7 +6457,7 @@
         <v>292</v>
       </c>
       <c r="AY13" s="17" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="AZ13" s="9" t="s">
         <v>195</v>
@@ -6419,7 +6469,7 @@
         <v>309</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="BD13" s="9" t="s">
         <v>177</v>
@@ -6431,7 +6481,7 @@
         <v>290</v>
       </c>
       <c r="BG13" s="9" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="BH13" s="9" t="s">
         <v>183</v>
@@ -6443,7 +6493,7 @@
         <v>332</v>
       </c>
       <c r="BK13" s="9" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="BL13" s="9" t="s">
         <v>181</v>
@@ -6455,7 +6505,7 @@
         <v>335</v>
       </c>
       <c r="BO13" s="9" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="BP13" s="9" t="s">
         <v>193</v>
@@ -6467,7 +6517,7 @@
         <v>137</v>
       </c>
       <c r="BS13" s="17" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="BT13" s="17" t="s">
         <v>137</v>
@@ -6479,7 +6529,7 @@
         <v>286</v>
       </c>
       <c r="BW13" s="9" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="BX13" s="9" t="s">
         <v>169</v>
@@ -6491,7 +6541,7 @@
         <v>334</v>
       </c>
       <c r="CA13" s="17" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="CB13" s="34" t="s">
         <v>139</v>
@@ -6503,7 +6553,7 @@
         <v>139</v>
       </c>
       <c r="CE13" s="34" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="CF13" s="9" t="s">
         <v>187</v>
@@ -6515,7 +6565,7 @@
         <v>287</v>
       </c>
       <c r="CI13" s="17" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="CJ13" s="17" t="s">
         <v>188</v>
@@ -6527,7 +6577,7 @@
         <v>292</v>
       </c>
       <c r="CM13" s="17" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="CN13" s="9" t="s">
         <v>194</v>
@@ -6539,7 +6589,7 @@
         <v>292</v>
       </c>
       <c r="CQ13" s="9" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="CR13" s="9" t="s">
         <v>192</v>
@@ -6551,7 +6601,7 @@
         <v>290</v>
       </c>
       <c r="CU13" s="9" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="CV13" s="9" t="s">
         <v>193</v>
@@ -6563,7 +6613,7 @@
         <v>340</v>
       </c>
       <c r="CY13" s="9" t="s">
-        <v>413</v>
+        <v>137</v>
       </c>
       <c r="CZ13" s="9" t="s">
         <v>194</v>
@@ -6575,7 +6625,7 @@
         <v>290</v>
       </c>
       <c r="DC13" s="9" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="DD13" s="9" t="s">
         <v>192</v>
@@ -6587,7 +6637,7 @@
         <v>309</v>
       </c>
       <c r="DG13" s="16" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="DH13" s="9" t="s">
         <v>192</v>
@@ -6713,7 +6763,7 @@
       <c r="DI14" s="7"/>
     </row>
     <row r="15" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6728,7 +6778,9 @@
       <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
       <c r="H15" s="17">
         <v>0</v>
       </c>
@@ -6738,7 +6790,9 @@
       <c r="J15" s="17">
         <v>0</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
       <c r="L15" s="17">
         <v>272</v>
       </c>
@@ -6784,7 +6838,9 @@
       <c r="Z15" s="17">
         <v>0</v>
       </c>
-      <c r="AA15" s="17"/>
+      <c r="AA15" s="17">
+        <v>0</v>
+      </c>
       <c r="AB15" s="17" t="s">
         <v>137</v>
       </c>
@@ -6794,7 +6850,9 @@
       <c r="AD15" s="17">
         <v>0</v>
       </c>
-      <c r="AE15" s="17"/>
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
       <c r="AF15" s="17">
         <v>5</v>
       </c>
@@ -6804,7 +6862,9 @@
       <c r="AH15" s="17">
         <v>0</v>
       </c>
-      <c r="AI15" s="17"/>
+      <c r="AI15" s="17">
+        <v>0</v>
+      </c>
       <c r="AJ15" s="17" t="s">
         <v>137</v>
       </c>
@@ -6814,7 +6874,9 @@
       <c r="AL15" s="17">
         <v>0</v>
       </c>
-      <c r="AM15" s="17"/>
+      <c r="AM15" s="17">
+        <v>0</v>
+      </c>
       <c r="AN15" s="17" t="s">
         <v>137</v>
       </c>
@@ -6836,7 +6898,9 @@
       <c r="AT15" s="17">
         <v>0</v>
       </c>
-      <c r="AU15" s="17"/>
+      <c r="AU15" s="17">
+        <v>0</v>
+      </c>
       <c r="AV15" s="17">
         <v>204</v>
       </c>
@@ -6930,7 +6994,9 @@
       <c r="BZ15" s="17">
         <v>0</v>
       </c>
-      <c r="CA15" s="17"/>
+      <c r="CA15" s="17">
+        <v>0</v>
+      </c>
       <c r="CB15" s="34" t="s">
         <v>139</v>
       </c>
@@ -6940,7 +7006,9 @@
       <c r="CD15" s="34">
         <v>0</v>
       </c>
-      <c r="CE15" s="34"/>
+      <c r="CE15" s="34">
+        <v>0</v>
+      </c>
       <c r="CF15" s="17">
         <v>1056</v>
       </c>
@@ -6962,7 +7030,9 @@
       <c r="CL15" s="17">
         <v>0</v>
       </c>
-      <c r="CM15" s="17"/>
+      <c r="CM15" s="17">
+        <v>0</v>
+      </c>
       <c r="CN15" s="17">
         <v>785</v>
       </c>
@@ -6972,7 +7042,9 @@
       <c r="CP15" s="17">
         <v>1613</v>
       </c>
-      <c r="CQ15" s="17"/>
+      <c r="CQ15" s="17">
+        <v>0</v>
+      </c>
       <c r="CR15" s="17">
         <v>92</v>
       </c>
@@ -6994,7 +7066,9 @@
       <c r="CX15" s="17">
         <v>2</v>
       </c>
-      <c r="CY15" s="17"/>
+      <c r="CY15" s="17">
+        <v>0</v>
+      </c>
       <c r="CZ15" s="17">
         <v>89</v>
       </c>
@@ -7027,7 +7101,7 @@
       </c>
     </row>
     <row r="16" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -7040,7 +7114,9 @@
       <c r="F16" s="17">
         <v>0</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
       <c r="H16" s="17" t="s">
         <v>137</v>
       </c>
@@ -7050,7 +7126,9 @@
       <c r="J16" s="17">
         <v>0</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
       <c r="L16" s="17">
         <v>0</v>
       </c>
@@ -7060,7 +7138,9 @@
       <c r="N16" s="17">
         <v>0</v>
       </c>
-      <c r="O16" s="17"/>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
       <c r="P16" s="17">
         <v>252</v>
       </c>
@@ -7082,7 +7162,9 @@
       <c r="V16" s="17">
         <v>0</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
       <c r="X16" s="17">
         <v>0</v>
       </c>
@@ -7092,7 +7174,9 @@
       <c r="Z16" s="17">
         <v>0</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
       <c r="AB16" s="17" t="s">
         <v>137</v>
       </c>
@@ -7102,7 +7186,9 @@
       <c r="AD16" s="17">
         <v>0</v>
       </c>
-      <c r="AE16" s="17"/>
+      <c r="AE16" s="17">
+        <v>0</v>
+      </c>
       <c r="AF16" s="17">
         <v>0</v>
       </c>
@@ -7112,7 +7198,9 @@
       <c r="AH16" s="17">
         <v>0</v>
       </c>
-      <c r="AI16" s="17"/>
+      <c r="AI16" s="17">
+        <v>0</v>
+      </c>
       <c r="AJ16" s="17">
         <v>0</v>
       </c>
@@ -7122,7 +7210,9 @@
       <c r="AL16" s="17">
         <v>0</v>
       </c>
-      <c r="AM16" s="17"/>
+      <c r="AM16" s="17">
+        <v>0</v>
+      </c>
       <c r="AN16" s="17">
         <v>0</v>
       </c>
@@ -7132,7 +7222,9 @@
       <c r="AP16" s="17">
         <v>0</v>
       </c>
-      <c r="AQ16" s="17"/>
+      <c r="AQ16" s="17">
+        <v>0</v>
+      </c>
       <c r="AR16" s="17" t="s">
         <v>137</v>
       </c>
@@ -7142,7 +7234,9 @@
       <c r="AT16" s="17">
         <v>0</v>
       </c>
-      <c r="AU16" s="17"/>
+      <c r="AU16" s="17">
+        <v>0</v>
+      </c>
       <c r="AV16" s="17" t="s">
         <v>137</v>
       </c>
@@ -7152,7 +7246,9 @@
       <c r="AX16" s="17">
         <v>0</v>
       </c>
-      <c r="AY16" s="17"/>
+      <c r="AY16" s="17">
+        <v>0</v>
+      </c>
       <c r="AZ16" s="17">
         <v>0</v>
       </c>
@@ -7174,7 +7270,9 @@
       <c r="BF16" s="17">
         <v>0</v>
       </c>
-      <c r="BG16" s="17"/>
+      <c r="BG16" s="17">
+        <v>0</v>
+      </c>
       <c r="BH16" s="17">
         <v>0</v>
       </c>
@@ -7184,7 +7282,9 @@
       <c r="BJ16" s="17">
         <v>0</v>
       </c>
-      <c r="BK16" s="17"/>
+      <c r="BK16" s="17">
+        <v>0</v>
+      </c>
       <c r="BL16" s="17">
         <v>0</v>
       </c>
@@ -7194,7 +7294,9 @@
       <c r="BN16" s="17">
         <v>0</v>
       </c>
-      <c r="BO16" s="17"/>
+      <c r="BO16" s="17">
+        <v>0</v>
+      </c>
       <c r="BP16" s="17">
         <v>0</v>
       </c>
@@ -7204,7 +7306,9 @@
       <c r="BR16" s="17">
         <v>0</v>
       </c>
-      <c r="BS16" s="17"/>
+      <c r="BS16" s="17">
+        <v>0</v>
+      </c>
       <c r="BT16" s="17">
         <v>0</v>
       </c>
@@ -7214,7 +7318,9 @@
       <c r="BV16" s="17">
         <v>0</v>
       </c>
-      <c r="BW16" s="17"/>
+      <c r="BW16" s="17">
+        <v>0</v>
+      </c>
       <c r="BX16" s="17" t="s">
         <v>137</v>
       </c>
@@ -7224,7 +7330,9 @@
       <c r="BZ16" s="17">
         <v>0</v>
       </c>
-      <c r="CA16" s="17"/>
+      <c r="CA16" s="17">
+        <v>0</v>
+      </c>
       <c r="CB16" s="34" t="s">
         <v>139</v>
       </c>
@@ -7234,7 +7342,9 @@
       <c r="CD16" s="34">
         <v>0</v>
       </c>
-      <c r="CE16" s="34"/>
+      <c r="CE16" s="34">
+        <v>0</v>
+      </c>
       <c r="CF16" s="17">
         <v>0</v>
       </c>
@@ -7244,7 +7354,9 @@
       <c r="CH16" s="17">
         <v>0</v>
       </c>
-      <c r="CI16" s="17"/>
+      <c r="CI16" s="17">
+        <v>0</v>
+      </c>
       <c r="CJ16" s="17">
         <v>0</v>
       </c>
@@ -7254,7 +7366,9 @@
       <c r="CL16" s="17">
         <v>0</v>
       </c>
-      <c r="CM16" s="17"/>
+      <c r="CM16" s="17">
+        <v>0</v>
+      </c>
       <c r="CN16" s="17">
         <v>1017</v>
       </c>
@@ -7264,7 +7378,9 @@
       <c r="CP16" s="17">
         <v>0</v>
       </c>
-      <c r="CQ16" s="17"/>
+      <c r="CQ16" s="17">
+        <v>0</v>
+      </c>
       <c r="CR16" s="17">
         <v>0</v>
       </c>
@@ -7274,7 +7390,9 @@
       <c r="CT16" s="17">
         <v>0</v>
       </c>
-      <c r="CU16" s="17"/>
+      <c r="CU16" s="17">
+        <v>0</v>
+      </c>
       <c r="CV16" s="17">
         <v>0</v>
       </c>
@@ -7284,7 +7402,9 @@
       <c r="CX16" s="17">
         <v>0</v>
       </c>
-      <c r="CY16" s="17"/>
+      <c r="CY16" s="17">
+        <v>0</v>
+      </c>
       <c r="CZ16" s="17">
         <v>0</v>
       </c>
@@ -7294,7 +7414,9 @@
       <c r="DB16" s="17">
         <v>0</v>
       </c>
-      <c r="DC16" s="17"/>
+      <c r="DC16" s="17">
+        <v>0</v>
+      </c>
       <c r="DD16" s="17">
         <v>0</v>
       </c>
@@ -7304,7 +7426,9 @@
       <c r="DF16" s="17">
         <v>0</v>
       </c>
-      <c r="DG16" s="17"/>
+      <c r="DG16" s="17">
+        <v>0</v>
+      </c>
       <c r="DH16" s="17">
         <v>0</v>
       </c>
@@ -7313,7 +7437,7 @@
       </c>
     </row>
     <row r="17" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -7328,7 +7452,9 @@
       <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
       <c r="H17" s="17">
         <v>3</v>
       </c>
@@ -7398,7 +7524,9 @@
       <c r="AD17" s="17">
         <v>0</v>
       </c>
-      <c r="AE17" s="17"/>
+      <c r="AE17" s="17">
+        <v>0</v>
+      </c>
       <c r="AF17" s="17">
         <v>4</v>
       </c>
@@ -7444,7 +7572,9 @@
       <c r="AT17" s="17">
         <v>0</v>
       </c>
-      <c r="AU17" s="17"/>
+      <c r="AU17" s="17">
+        <v>0</v>
+      </c>
       <c r="AV17" s="17" t="s">
         <v>137</v>
       </c>
@@ -7526,7 +7656,9 @@
       <c r="BV17" s="17">
         <v>0</v>
       </c>
-      <c r="BW17" s="17"/>
+      <c r="BW17" s="17">
+        <v>0</v>
+      </c>
       <c r="BX17" s="17">
         <v>3</v>
       </c>
@@ -7548,7 +7680,9 @@
       <c r="CD17" s="34">
         <v>0</v>
       </c>
-      <c r="CE17" s="34"/>
+      <c r="CE17" s="34">
+        <v>0</v>
+      </c>
       <c r="CF17" s="17">
         <v>592</v>
       </c>
@@ -7582,7 +7716,9 @@
       <c r="CP17" s="17">
         <v>1537</v>
       </c>
-      <c r="CQ17" s="17"/>
+      <c r="CQ17" s="17">
+        <v>0</v>
+      </c>
       <c r="CR17" s="17">
         <v>72</v>
       </c>
@@ -7604,7 +7740,9 @@
       <c r="CX17" s="17">
         <v>2</v>
       </c>
-      <c r="CY17" s="17"/>
+      <c r="CY17" s="17">
+        <v>0</v>
+      </c>
       <c r="CZ17" s="17">
         <v>536</v>
       </c>
@@ -7637,7 +7775,7 @@
       </c>
     </row>
     <row r="18" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="103"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7788,9 @@
       <c r="F18" s="17">
         <v>0</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
       <c r="H18" s="17" t="s">
         <v>137</v>
       </c>
@@ -7660,7 +7800,9 @@
       <c r="J18" s="17">
         <v>0</v>
       </c>
-      <c r="K18" s="17"/>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
       <c r="L18" s="17">
         <v>0</v>
       </c>
@@ -7670,7 +7812,9 @@
       <c r="N18" s="17">
         <v>0</v>
       </c>
-      <c r="O18" s="17"/>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
       <c r="P18" s="17">
         <v>239</v>
       </c>
@@ -7692,7 +7836,9 @@
       <c r="V18" s="17">
         <v>0</v>
       </c>
-      <c r="W18" s="17"/>
+      <c r="W18" s="17">
+        <v>0</v>
+      </c>
       <c r="X18" s="17">
         <v>0</v>
       </c>
@@ -7702,7 +7848,9 @@
       <c r="Z18" s="17">
         <v>0</v>
       </c>
-      <c r="AA18" s="17"/>
+      <c r="AA18" s="17">
+        <v>0</v>
+      </c>
       <c r="AB18" s="17" t="s">
         <v>137</v>
       </c>
@@ -7712,7 +7860,9 @@
       <c r="AD18" s="17">
         <v>0</v>
       </c>
-      <c r="AE18" s="17"/>
+      <c r="AE18" s="17">
+        <v>0</v>
+      </c>
       <c r="AF18" s="17">
         <v>0</v>
       </c>
@@ -7722,7 +7872,9 @@
       <c r="AH18" s="17">
         <v>0</v>
       </c>
-      <c r="AI18" s="17"/>
+      <c r="AI18" s="17">
+        <v>0</v>
+      </c>
       <c r="AJ18" s="17">
         <v>0</v>
       </c>
@@ -7732,7 +7884,9 @@
       <c r="AL18" s="17">
         <v>0</v>
       </c>
-      <c r="AM18" s="17"/>
+      <c r="AM18" s="17">
+        <v>0</v>
+      </c>
       <c r="AN18" s="17">
         <v>0</v>
       </c>
@@ -7742,7 +7896,9 @@
       <c r="AP18" s="17">
         <v>0</v>
       </c>
-      <c r="AQ18" s="17"/>
+      <c r="AQ18" s="17">
+        <v>0</v>
+      </c>
       <c r="AR18" s="17" t="s">
         <v>137</v>
       </c>
@@ -7752,7 +7908,9 @@
       <c r="AT18" s="17">
         <v>0</v>
       </c>
-      <c r="AU18" s="17"/>
+      <c r="AU18" s="17">
+        <v>0</v>
+      </c>
       <c r="AV18" s="17" t="s">
         <v>137</v>
       </c>
@@ -7762,7 +7920,9 @@
       <c r="AX18" s="17">
         <v>0</v>
       </c>
-      <c r="AY18" s="17"/>
+      <c r="AY18" s="17">
+        <v>0</v>
+      </c>
       <c r="AZ18" s="17">
         <v>0</v>
       </c>
@@ -7784,7 +7944,9 @@
       <c r="BF18" s="17">
         <v>0</v>
       </c>
-      <c r="BG18" s="17"/>
+      <c r="BG18" s="17">
+        <v>0</v>
+      </c>
       <c r="BH18" s="17">
         <v>0</v>
       </c>
@@ -7794,7 +7956,9 @@
       <c r="BJ18" s="17">
         <v>0</v>
       </c>
-      <c r="BK18" s="17"/>
+      <c r="BK18" s="17">
+        <v>0</v>
+      </c>
       <c r="BL18" s="17">
         <v>0</v>
       </c>
@@ -7804,7 +7968,9 @@
       <c r="BN18" s="17">
         <v>0</v>
       </c>
-      <c r="BO18" s="17"/>
+      <c r="BO18" s="17">
+        <v>0</v>
+      </c>
       <c r="BP18" s="17">
         <v>0</v>
       </c>
@@ -7814,7 +7980,9 @@
       <c r="BR18" s="17">
         <v>0</v>
       </c>
-      <c r="BS18" s="17"/>
+      <c r="BS18" s="17">
+        <v>0</v>
+      </c>
       <c r="BT18" s="17">
         <v>0</v>
       </c>
@@ -7824,7 +7992,9 @@
       <c r="BV18" s="17">
         <v>0</v>
       </c>
-      <c r="BW18" s="17"/>
+      <c r="BW18" s="17">
+        <v>0</v>
+      </c>
       <c r="BX18" s="17" t="s">
         <v>137</v>
       </c>
@@ -7834,7 +8004,9 @@
       <c r="BZ18" s="17">
         <v>0</v>
       </c>
-      <c r="CA18" s="17"/>
+      <c r="CA18" s="17">
+        <v>0</v>
+      </c>
       <c r="CB18" s="34" t="s">
         <v>139</v>
       </c>
@@ -7844,7 +8016,9 @@
       <c r="CD18" s="34">
         <v>0</v>
       </c>
-      <c r="CE18" s="34"/>
+      <c r="CE18" s="34">
+        <v>0</v>
+      </c>
       <c r="CF18" s="17">
         <v>0</v>
       </c>
@@ -7854,7 +8028,9 @@
       <c r="CH18" s="17">
         <v>0</v>
       </c>
-      <c r="CI18" s="17"/>
+      <c r="CI18" s="17">
+        <v>0</v>
+      </c>
       <c r="CJ18" s="17">
         <v>0</v>
       </c>
@@ -7876,7 +8052,9 @@
       <c r="CP18" s="17">
         <v>0</v>
       </c>
-      <c r="CQ18" s="17"/>
+      <c r="CQ18" s="17">
+        <v>0</v>
+      </c>
       <c r="CR18" s="17">
         <v>0</v>
       </c>
@@ -7886,7 +8064,9 @@
       <c r="CT18" s="17">
         <v>0</v>
       </c>
-      <c r="CU18" s="17"/>
+      <c r="CU18" s="17">
+        <v>0</v>
+      </c>
       <c r="CV18" s="17">
         <v>0</v>
       </c>
@@ -7896,7 +8076,9 @@
       <c r="CX18" s="17">
         <v>0</v>
       </c>
-      <c r="CY18" s="17"/>
+      <c r="CY18" s="17">
+        <v>0</v>
+      </c>
       <c r="CZ18" s="17">
         <v>1</v>
       </c>
@@ -7906,7 +8088,9 @@
       <c r="DB18" s="17">
         <v>0</v>
       </c>
-      <c r="DC18" s="17"/>
+      <c r="DC18" s="17">
+        <v>0</v>
+      </c>
       <c r="DD18" s="17">
         <v>0</v>
       </c>
@@ -7916,7 +8100,9 @@
       <c r="DF18" s="17">
         <v>0</v>
       </c>
-      <c r="DG18" s="17"/>
+      <c r="DG18" s="17">
+        <v>0</v>
+      </c>
       <c r="DH18" s="17">
         <v>0</v>
       </c>
@@ -8041,7 +8227,7 @@
       <c r="DI19" s="7"/>
     </row>
     <row r="20" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -8057,9 +8243,8 @@
         <f>'Feuil3-2020'!L3</f>
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="e">
-        <f>'Feuil3-2020'!#REF!</f>
-        <v>#REF!</v>
+      <c r="G20" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -8071,7 +8256,9 @@
         <f>'Feuil3-2020'!L4</f>
         <v>0</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="L20" s="17">
         <v>6382180.0399999972</v>
       </c>
@@ -8118,7 +8305,9 @@
         <f>'Feuil3-2020'!L8</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="17"/>
+      <c r="AA20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AB20" s="17">
         <v>0</v>
       </c>
@@ -8129,7 +8318,9 @@
         <f>'Feuil3-2020'!L9</f>
         <v>0</v>
       </c>
-      <c r="AE20" s="17"/>
+      <c r="AE20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF20" s="17">
         <v>13271.368399999999</v>
       </c>
@@ -8140,7 +8331,9 @@
         <f>'Feuil3-2020'!L10</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="17"/>
+      <c r="AI20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AJ20" s="17">
         <v>0</v>
       </c>
@@ -8151,7 +8344,9 @@
         <f>'Feuil3-2020'!L11</f>
         <v>0</v>
       </c>
-      <c r="AM20" s="17"/>
+      <c r="AM20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AN20" s="17">
         <v>0</v>
       </c>
@@ -8175,7 +8370,9 @@
         <f>'Feuil3-2020'!L13</f>
         <v>0</v>
       </c>
-      <c r="AU20" s="17"/>
+      <c r="AU20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV20" s="17">
         <v>1161609.68</v>
       </c>
@@ -8200,7 +8397,7 @@
         <v>3766528</v>
       </c>
       <c r="BC20" s="17">
-        <v>433299</v>
+        <v>431360</v>
       </c>
       <c r="BD20" s="17">
         <v>582110</v>
@@ -8226,7 +8423,7 @@
         <v>11913153</v>
       </c>
       <c r="BK20" s="17">
-        <v>11657441.155000001</v>
+        <v>11652543.154999999</v>
       </c>
       <c r="BL20" s="17">
         <v>286697</v>
@@ -8239,7 +8436,7 @@
         <v>996766</v>
       </c>
       <c r="BO20" s="17">
-        <v>903878</v>
+        <v>894454</v>
       </c>
       <c r="BP20" s="17">
         <v>2699600</v>
@@ -8277,7 +8474,9 @@
         <f>'Feuil3-2020'!L21</f>
         <v>0</v>
       </c>
-      <c r="CA20" s="17"/>
+      <c r="CA20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CB20" s="34" t="s">
         <v>139</v>
       </c>
@@ -8288,7 +8487,9 @@
         <f>'Feuil3-2020'!L22</f>
         <v>0</v>
       </c>
-      <c r="CE20" s="34"/>
+      <c r="CE20" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="CF20" s="17">
         <v>34312250.631899998</v>
       </c>
@@ -8312,7 +8513,9 @@
         <f>'Feuil3-2020'!L24</f>
         <v>0</v>
       </c>
-      <c r="CM20" s="17"/>
+      <c r="CM20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CN20" s="17">
         <v>19577825.596199989</v>
       </c>
@@ -8323,7 +8526,9 @@
         <f>'Feuil3-2020'!L25</f>
         <v>16214311.431129999</v>
       </c>
-      <c r="CQ20" s="17"/>
+      <c r="CQ20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CR20" s="17">
         <v>218766.55499999996</v>
       </c>
@@ -8346,7 +8551,9 @@
       <c r="CX20" s="17">
         <v>868426</v>
       </c>
-      <c r="CY20" s="17"/>
+      <c r="CY20" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ20" s="17">
         <v>5656506.7399999993</v>
       </c>
@@ -8358,7 +8565,7 @@
         <v>1013226.01</v>
       </c>
       <c r="DC20" s="17">
-        <v>1015916.6799999999</v>
+        <v>1015916.68</v>
       </c>
       <c r="DD20" s="17">
         <v>0</v>
@@ -8382,7 +8589,7 @@
       </c>
     </row>
     <row r="21" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -8398,9 +8605,8 @@
         <f>'Feuil3-2020'!F3</f>
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="str">
-        <f>'Feuil3-2020'!G3</f>
-        <v>at</v>
+      <c r="G21" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="H21" s="17">
         <f>'Feuil3-2020'!D4</f>
@@ -8414,7 +8620,9 @@
         <f>'Feuil3-2020'!F4</f>
         <v>0</v>
       </c>
-      <c r="K21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="L21" s="17">
         <f>'Feuil3-2020'!D5</f>
         <v>64068.959999999992</v>
@@ -8441,7 +8649,9 @@
         <f>'Feuil3-2020'!F6</f>
         <v>0</v>
       </c>
-      <c r="S21" s="17"/>
+      <c r="S21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="T21" s="17">
         <f>'Feuil3-2020'!D7</f>
         <v>0</v>
@@ -8469,7 +8679,9 @@
         <f>'Feuil3-2020'!F8</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="17"/>
+      <c r="AA21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AB21" s="17">
         <f>'Feuil3-2020'!D9</f>
         <v>0</v>
@@ -8482,7 +8694,9 @@
         <f>'Feuil3-2020'!F9</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="17"/>
+      <c r="AE21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF21" s="17">
         <f>'Feuil3-2020'!D10</f>
         <v>3.2115999999999998</v>
@@ -8495,7 +8709,9 @@
         <f>'Feuil3-2020'!F10</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="17"/>
+      <c r="AI21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AJ21" s="17">
         <f>'Feuil3-2020'!D11</f>
         <v>0</v>
@@ -8508,7 +8724,9 @@
         <f>'Feuil3-2020'!F11</f>
         <v>0</v>
       </c>
-      <c r="AM21" s="17"/>
+      <c r="AM21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AN21" s="17">
         <f>'Feuil3-2020'!D12</f>
         <v>0</v>
@@ -8536,7 +8754,9 @@
         <f>'Feuil3-2020'!F13</f>
         <v>0</v>
       </c>
-      <c r="AU21" s="17"/>
+      <c r="AU21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV21" s="17">
         <f>'Feuil3-2020'!D14</f>
         <v>24832.180000000015</v>
@@ -8564,7 +8784,9 @@
         <f>'Feuil3-2020'!F15</f>
         <v>0</v>
       </c>
-      <c r="BC21" s="17"/>
+      <c r="BC21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BD21" s="17">
         <f>'Feuil3-2020'!D16</f>
         <v>0</v>
@@ -8577,7 +8799,9 @@
         <f>'Feuil3-2020'!F16</f>
         <v>0</v>
       </c>
-      <c r="BG21" s="17"/>
+      <c r="BG21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BH21" s="17">
         <f>'Feuil3-2020'!D17</f>
         <v>1853.12</v>
@@ -8605,7 +8829,9 @@
         <f>'Feuil3-2020'!F18</f>
         <v>0</v>
       </c>
-      <c r="BO21" s="17"/>
+      <c r="BO21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BP21" s="17">
         <f>'Feuil3-2020'!D19</f>
         <v>0</v>
@@ -8618,7 +8844,9 @@
         <f>'Feuil3-2020'!F19</f>
         <v>0</v>
       </c>
-      <c r="BS21" s="17"/>
+      <c r="BS21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BT21" s="17">
         <f>'Feuil3-2020'!D20</f>
         <v>0</v>
@@ -8646,7 +8874,9 @@
         <f>'Feuil3-2020'!F21</f>
         <v>0</v>
       </c>
-      <c r="CA21" s="17"/>
+      <c r="CA21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CB21" s="34">
         <f>'Feuil3-2020'!D22</f>
         <v>0</v>
@@ -8659,7 +8889,9 @@
         <f>'Feuil3-2020'!F22</f>
         <v>0</v>
       </c>
-      <c r="CE21" s="34"/>
+      <c r="CE21" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="CF21" s="17">
         <f>'Feuil3-2020'!D23</f>
         <v>91540.076399999962</v>
@@ -8672,7 +8904,9 @@
         <f>'Feuil3-2020'!F23</f>
         <v>61715.97</v>
       </c>
-      <c r="CI21" s="17"/>
+      <c r="CI21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ21" s="17">
         <f>'Feuil3-2020'!D24</f>
         <v>0</v>
@@ -8685,7 +8919,9 @@
         <f>'Feuil3-2020'!F24</f>
         <v>0</v>
       </c>
-      <c r="CM21" s="17"/>
+      <c r="CM21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CN21" s="17">
         <f>'Feuil3-2020'!D25</f>
         <v>226025.64719999998</v>
@@ -8698,7 +8934,9 @@
         <f>'Feuil3-2020'!F25</f>
         <v>62182</v>
       </c>
-      <c r="CQ21" s="17"/>
+      <c r="CQ21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CR21" s="17">
         <f>'Feuil3-2020'!D26</f>
         <v>223772.23199999999</v>
@@ -8711,7 +8949,9 @@
         <f>'Feuil3-2020'!F26</f>
         <v>0</v>
       </c>
-      <c r="CU21" s="17"/>
+      <c r="CU21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CV21" s="17">
         <f>'Feuil3-2020'!D27</f>
         <v>0</v>
@@ -8724,7 +8964,9 @@
         <f>'Feuil3-2020'!F27</f>
         <v>0</v>
       </c>
-      <c r="CY21" s="17"/>
+      <c r="CY21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ21" s="17">
         <f>'Feuil3-2020'!D28</f>
         <v>856216.25999999989</v>
@@ -8752,7 +8994,9 @@
         <f>'Feuil3-2020'!F29</f>
         <v>0</v>
       </c>
-      <c r="DG21" s="17"/>
+      <c r="DG21" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="DH21" s="17">
         <f>'Feuil3-2020'!D30</f>
         <v>0</v>
@@ -8763,7 +9007,7 @@
       </c>
     </row>
     <row r="22" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="105" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -8850,7 +9094,9 @@
       <c r="AD22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AE22" s="17"/>
+      <c r="AE22" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF22" s="17">
         <v>47750</v>
       </c>
@@ -8896,7 +9142,9 @@
       <c r="AT22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU22" s="17"/>
+      <c r="AU22" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV22" s="17">
         <v>0</v>
       </c>
@@ -8978,7 +9226,9 @@
       <c r="BV22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BW22" s="17"/>
+      <c r="BW22" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BX22" s="17">
         <v>620000</v>
       </c>
@@ -9000,7 +9250,9 @@
       <c r="CD22" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="CE22" s="17"/>
+      <c r="CE22" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CF22" s="17">
         <v>15166066</v>
       </c>
@@ -9034,7 +9286,9 @@
       <c r="CP22" s="17">
         <v>14601223</v>
       </c>
-      <c r="CQ22" s="17"/>
+      <c r="CQ22" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CR22" s="17">
         <v>354520</v>
       </c>
@@ -9056,7 +9310,9 @@
       <c r="CX22" s="17">
         <v>9030</v>
       </c>
-      <c r="CY22" s="17"/>
+      <c r="CY22" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ22" s="17">
         <v>13517013</v>
       </c>
@@ -9089,7 +9345,7 @@
       </c>
     </row>
     <row r="23" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B23" s="104"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -9174,7 +9430,9 @@
       <c r="AD23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AE23" s="17"/>
+      <c r="AE23" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AF23" s="17">
         <v>49350</v>
       </c>
@@ -9220,7 +9478,9 @@
       <c r="AT23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AU23" s="17"/>
+      <c r="AU23" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="AV23" s="17">
         <v>0</v>
       </c>
@@ -9302,7 +9562,9 @@
       <c r="BV23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BW23" s="17"/>
+      <c r="BW23" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="BX23" s="17">
         <v>626000</v>
       </c>
@@ -9324,7 +9586,9 @@
       <c r="CD23" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="CE23" s="17"/>
+      <c r="CE23" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CF23" s="17">
         <v>17718377</v>
       </c>
@@ -9358,7 +9622,9 @@
       <c r="CP23" s="17">
         <v>17986147</v>
       </c>
-      <c r="CQ23" s="17"/>
+      <c r="CQ23" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CR23" s="17">
         <v>415617</v>
       </c>
@@ -9380,7 +9646,9 @@
       <c r="CX23" s="17">
         <v>11500</v>
       </c>
-      <c r="CY23" s="17"/>
+      <c r="CY23" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ23" s="17">
         <v>19657354</v>
       </c>
@@ -9414,10 +9682,10 @@
     </row>
     <row r="24" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="96"/>
+      <c r="B25" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="112"/>
       <c r="D25" s="5">
         <f>D$3</f>
         <v>2016</v>
@@ -9860,10 +10128,10 @@
       </c>
     </row>
     <row r="26" spans="2:113" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="102"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -9976,7 +10244,7 @@
       <c r="DI26" s="11"/>
     </row>
     <row r="27" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="113" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -9991,7 +10259,9 @@
       <c r="F27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
       <c r="H27" s="18">
         <v>122</v>
       </c>
@@ -10001,8 +10271,8 @@
       <c r="J27" s="28">
         <v>156.66</v>
       </c>
-      <c r="K27" s="28" t="s">
-        <v>364</v>
+      <c r="K27" s="28">
+        <v>163.4</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>137</v>
@@ -10013,7 +10283,9 @@
       <c r="N27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="O27" s="28"/>
+      <c r="O27" s="28">
+        <v>0</v>
+      </c>
       <c r="P27" s="18" t="s">
         <v>137</v>
       </c>
@@ -10023,7 +10295,9 @@
       <c r="R27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S27" s="28"/>
+      <c r="S27" s="28">
+        <v>0</v>
+      </c>
       <c r="T27" s="18">
         <v>26.775000000000002</v>
       </c>
@@ -10033,8 +10307,8 @@
       <c r="V27" s="18">
         <v>32.743699999999997</v>
       </c>
-      <c r="W27" s="18" t="s">
-        <v>365</v>
+      <c r="W27" s="18">
+        <v>26.2</v>
       </c>
       <c r="X27" s="18" t="s">
         <v>244</v>
@@ -10057,8 +10331,8 @@
       <c r="AD27" s="18">
         <v>413.33330000000001</v>
       </c>
-      <c r="AE27" s="18" t="s">
-        <v>366</v>
+      <c r="AE27" s="18">
+        <v>413.3</v>
       </c>
       <c r="AF27" s="18">
         <v>6.63</v>
@@ -10093,7 +10367,9 @@
       <c r="AP27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AQ27" s="28"/>
+      <c r="AQ27" s="28">
+        <v>0</v>
+      </c>
       <c r="AR27" s="28" t="s">
         <v>137</v>
       </c>
@@ -10115,7 +10391,9 @@
       <c r="AX27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY27" s="28"/>
+      <c r="AY27" s="28">
+        <v>0</v>
+      </c>
       <c r="AZ27" s="18">
         <v>26.775000000000002</v>
       </c>
@@ -10125,7 +10403,9 @@
       <c r="BB27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC27" s="28"/>
+      <c r="BC27" s="28">
+        <v>0</v>
+      </c>
       <c r="BD27" s="18" t="s">
         <v>137</v>
       </c>
@@ -10135,7 +10415,9 @@
       <c r="BF27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG27" s="28"/>
+      <c r="BG27" s="28">
+        <v>0</v>
+      </c>
       <c r="BH27" s="18">
         <v>193.2681818181818</v>
       </c>
@@ -10145,8 +10427,8 @@
       <c r="BJ27" s="18">
         <v>237.4187</v>
       </c>
-      <c r="BK27" s="18" t="s">
-        <v>367</v>
+      <c r="BK27" s="18">
+        <v>347.1</v>
       </c>
       <c r="BL27" s="18">
         <v>35.903333333333336</v>
@@ -10157,8 +10439,8 @@
       <c r="BN27" s="18">
         <v>21.552700000000002</v>
       </c>
-      <c r="BO27" s="18" t="s">
-        <v>368</v>
+      <c r="BO27" s="18">
+        <v>21.6</v>
       </c>
       <c r="BP27" s="18">
         <v>14.75</v>
@@ -10193,8 +10475,8 @@
       <c r="BZ27" s="18">
         <v>7.0321999999999996</v>
       </c>
-      <c r="CA27" s="18" t="s">
-        <v>369</v>
+      <c r="CA27" s="18">
+        <v>7.4</v>
       </c>
       <c r="CB27" s="18">
         <v>1045.3333333333333</v>
@@ -10205,8 +10487,8 @@
       <c r="CD27" s="18">
         <v>954.57140000000004</v>
       </c>
-      <c r="CE27" s="18" t="s">
-        <v>370</v>
+      <c r="CE27" s="18">
+        <v>950.9</v>
       </c>
       <c r="CF27" s="18" t="s">
         <v>137</v>
@@ -10217,7 +10499,9 @@
       <c r="CH27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI27" s="28"/>
+      <c r="CI27" s="28">
+        <v>0</v>
+      </c>
       <c r="CJ27" s="18" t="s">
         <v>139</v>
       </c>
@@ -10239,7 +10523,9 @@
       <c r="CP27" s="18">
         <v>130.44110000000001</v>
       </c>
-      <c r="CQ27" s="18"/>
+      <c r="CQ27" s="18">
+        <v>0</v>
+      </c>
       <c r="CR27" s="18">
         <v>114.52000000000001</v>
       </c>
@@ -10261,7 +10547,9 @@
       <c r="CX27" s="18">
         <v>65.285700000000006</v>
       </c>
-      <c r="CY27" s="18"/>
+      <c r="CY27" s="18">
+        <v>0</v>
+      </c>
       <c r="CZ27" s="18" t="s">
         <v>137</v>
       </c>
@@ -10271,7 +10559,9 @@
       <c r="DB27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC27" s="28"/>
+      <c r="DC27" s="28">
+        <v>0</v>
+      </c>
       <c r="DD27" s="18" t="s">
         <v>137</v>
       </c>
@@ -10281,7 +10571,9 @@
       <c r="DF27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DG27" s="28"/>
+      <c r="DG27" s="28">
+        <v>0</v>
+      </c>
       <c r="DH27" s="18">
         <v>327.38600000000002</v>
       </c>
@@ -10290,7 +10582,7 @@
       </c>
     </row>
     <row r="28" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B28" s="100"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -10303,7 +10595,9 @@
       <c r="F28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>245</v>
       </c>
@@ -10312,7 +10606,7 @@
         <v>291</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>137</v>
@@ -10323,7 +10617,9 @@
       <c r="N28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="28"/>
+      <c r="O28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="P28" s="18" t="s">
         <v>137</v>
       </c>
@@ -10333,7 +10629,9 @@
       <c r="R28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S28" s="28"/>
+      <c r="S28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="T28" s="18" t="s">
         <v>246</v>
       </c>
@@ -10344,7 +10642,7 @@
         <v>300</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="X28" s="18" t="s">
         <v>247</v>
@@ -10356,7 +10654,7 @@
         <v>137</v>
       </c>
       <c r="AA28" s="28" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AB28" s="18" t="s">
         <v>248</v>
@@ -10392,7 +10690,7 @@
         <v>297</v>
       </c>
       <c r="AM28" s="18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AN28" s="18" t="s">
         <v>137</v>
@@ -10403,7 +10701,9 @@
       <c r="AP28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AQ28" s="28"/>
+      <c r="AQ28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AR28" s="28" t="s">
         <v>137</v>
       </c>
@@ -10425,7 +10725,9 @@
       <c r="AX28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY28" s="28"/>
+      <c r="AY28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AZ28" s="18" t="s">
         <v>246</v>
       </c>
@@ -10435,7 +10737,9 @@
       <c r="BB28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC28" s="28"/>
+      <c r="BC28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BD28" s="18" t="s">
         <v>137</v>
       </c>
@@ -10445,7 +10749,9 @@
       <c r="BF28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG28" s="28"/>
+      <c r="BG28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BH28" s="18" t="s">
         <v>251</v>
       </c>
@@ -10456,7 +10762,7 @@
         <v>296</v>
       </c>
       <c r="BK28" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="BL28" s="18" t="s">
         <v>252</v>
@@ -10480,7 +10786,7 @@
         <v>285</v>
       </c>
       <c r="BS28" s="18" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="BT28" s="18" t="s">
         <v>165</v>
@@ -10504,7 +10810,7 @@
         <v>295</v>
       </c>
       <c r="CA28" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="CB28" s="18" t="s">
         <v>253</v>
@@ -10516,7 +10822,7 @@
         <v>273</v>
       </c>
       <c r="CE28" s="18" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="CF28" s="18" t="s">
         <v>137</v>
@@ -10527,7 +10833,9 @@
       <c r="CH28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI28" s="28"/>
+      <c r="CI28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ28" s="18" t="s">
         <v>139</v>
       </c>
@@ -10538,7 +10846,7 @@
         <v>137</v>
       </c>
       <c r="CM28" s="28" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="CN28" s="18" t="s">
         <v>246</v>
@@ -10549,7 +10857,9 @@
       <c r="CP28" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="CQ28" s="18"/>
+      <c r="CQ28" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR28" s="18" t="s">
         <v>246</v>
       </c>
@@ -10571,7 +10881,9 @@
       <c r="CX28" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="CY28" s="18"/>
+      <c r="CY28" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ28" s="18" t="s">
         <v>137</v>
       </c>
@@ -10581,7 +10893,9 @@
       <c r="DB28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC28" s="28"/>
+      <c r="DC28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DD28" s="18" t="s">
         <v>137</v>
       </c>
@@ -10591,7 +10905,9 @@
       <c r="DF28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DG28" s="28"/>
+      <c r="DG28" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DH28" s="18" t="s">
         <v>246</v>
       </c>
@@ -10600,7 +10916,7 @@
       </c>
     </row>
     <row r="29" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="100"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10623,8 +10939,8 @@
       <c r="J29" s="18">
         <v>192.64</v>
       </c>
-      <c r="K29" s="18" t="s">
-        <v>379</v>
+      <c r="K29" s="18">
+        <v>183.8</v>
       </c>
       <c r="L29" s="18">
         <v>100.94285714285715</v>
@@ -10635,8 +10951,8 @@
       <c r="N29" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="O29" s="18" t="s">
-        <v>380</v>
+      <c r="O29" s="18">
+        <v>49.6</v>
       </c>
       <c r="P29" s="18" t="s">
         <v>137</v>
@@ -10647,7 +10963,9 @@
       <c r="R29" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S29" s="28"/>
+      <c r="S29" s="28">
+        <v>0</v>
+      </c>
       <c r="T29" s="18">
         <v>48.195</v>
       </c>
@@ -10657,8 +10975,8 @@
       <c r="V29" s="28">
         <v>0</v>
       </c>
-      <c r="W29" s="28" t="s">
-        <v>381</v>
+      <c r="W29" s="28">
+        <v>6.1</v>
       </c>
       <c r="X29" s="18" t="s">
         <v>255</v>
@@ -10681,8 +10999,8 @@
       <c r="AD29" s="18">
         <v>535.25</v>
       </c>
-      <c r="AE29" s="18" t="s">
-        <v>382</v>
+      <c r="AE29" s="18">
+        <v>542.29999999999995</v>
       </c>
       <c r="AF29" s="18">
         <v>16.489999999999998</v>
@@ -10693,8 +11011,8 @@
       <c r="AH29" s="18">
         <v>32.409999999999997</v>
       </c>
-      <c r="AI29" s="18" t="s">
-        <v>383</v>
+      <c r="AI29" s="18">
+        <v>31.8</v>
       </c>
       <c r="AJ29" s="18">
         <v>55</v>
@@ -10718,7 +11036,7 @@
         <v>316</v>
       </c>
       <c r="AQ29" s="18" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AR29" s="28">
         <v>1989</v>
@@ -10729,7 +11047,9 @@
       <c r="AT29" s="18">
         <v>2479</v>
       </c>
-      <c r="AU29" s="18"/>
+      <c r="AU29" s="18">
+        <v>0</v>
+      </c>
       <c r="AV29" s="28">
         <v>0</v>
       </c>
@@ -10739,7 +11059,9 @@
       <c r="AX29" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY29" s="28"/>
+      <c r="AY29" s="28">
+        <v>0</v>
+      </c>
       <c r="AZ29" s="18">
         <v>48.195</v>
       </c>
@@ -10749,8 +11071,8 @@
       <c r="BB29" s="28">
         <v>31.323699999999999</v>
       </c>
-      <c r="BC29" s="28" t="s">
-        <v>385</v>
+      <c r="BC29" s="28">
+        <v>30.9</v>
       </c>
       <c r="BD29" s="18" t="s">
         <v>137</v>
@@ -10761,8 +11083,8 @@
       <c r="BF29" s="28">
         <v>165</v>
       </c>
-      <c r="BG29" s="28" t="s">
-        <v>386</v>
+      <c r="BG29" s="28">
+        <v>197.6</v>
       </c>
       <c r="BH29" s="18">
         <v>633.36</v>
@@ -10773,8 +11095,8 @@
       <c r="BJ29" s="18">
         <v>516.06079999999997</v>
       </c>
-      <c r="BK29" s="18" t="s">
-        <v>387</v>
+      <c r="BK29" s="18">
+        <v>700.7</v>
       </c>
       <c r="BL29" s="18">
         <v>51.274999999999999</v>
@@ -10797,7 +11119,9 @@
       <c r="BR29" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS29" s="28"/>
+      <c r="BS29" s="28">
+        <v>0</v>
+      </c>
       <c r="BT29" s="18">
         <v>52.5</v>
       </c>
@@ -10807,8 +11131,8 @@
       <c r="BV29" s="18">
         <v>40</v>
       </c>
-      <c r="BW29" s="18" t="s">
-        <v>388</v>
+      <c r="BW29" s="18">
+        <v>32.5</v>
       </c>
       <c r="BX29" s="18">
         <v>5.5600000000000005</v>
@@ -10819,8 +11143,8 @@
       <c r="BZ29" s="18">
         <v>9.6649999999999991</v>
       </c>
-      <c r="CA29" s="18" t="s">
-        <v>389</v>
+      <c r="CA29" s="18">
+        <v>9.1</v>
       </c>
       <c r="CB29" s="18">
         <v>857.5</v>
@@ -10843,7 +11167,9 @@
       <c r="CH29" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI29" s="28"/>
+      <c r="CI29" s="28">
+        <v>0</v>
+      </c>
       <c r="CJ29" s="18">
         <v>2</v>
       </c>
@@ -10865,7 +11191,9 @@
       <c r="CP29" s="18">
         <v>31.969000000000001</v>
       </c>
-      <c r="CQ29" s="18"/>
+      <c r="CQ29" s="18">
+        <v>0</v>
+      </c>
       <c r="CR29" s="18">
         <v>70</v>
       </c>
@@ -10875,8 +11203,8 @@
       <c r="CT29" s="18">
         <v>61.5</v>
       </c>
-      <c r="CU29" s="18" t="s">
-        <v>390</v>
+      <c r="CU29" s="18">
+        <v>24.7</v>
       </c>
       <c r="CV29" s="18">
         <v>59</v>
@@ -10887,7 +11215,9 @@
       <c r="CX29" s="18">
         <v>75</v>
       </c>
-      <c r="CY29" s="18"/>
+      <c r="CY29" s="18">
+        <v>0</v>
+      </c>
       <c r="CZ29" s="18" t="s">
         <v>137</v>
       </c>
@@ -10897,7 +11227,9 @@
       <c r="DB29" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC29" s="28"/>
+      <c r="DC29" s="28">
+        <v>0</v>
+      </c>
       <c r="DD29" s="18">
         <v>441</v>
       </c>
@@ -10918,7 +11250,7 @@
       </c>
     </row>
     <row r="30" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B30" s="100"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -10965,7 +11297,9 @@
       <c r="R30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S30" s="28"/>
+      <c r="S30" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="T30" s="18" t="s">
         <v>199</v>
       </c>
@@ -10976,7 +11310,7 @@
         <v>305</v>
       </c>
       <c r="W30" s="28" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="X30" s="18" t="s">
         <v>199</v>
@@ -11000,7 +11334,7 @@
         <v>303</v>
       </c>
       <c r="AE30" s="18" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AF30" s="18" t="s">
         <v>199</v>
@@ -11047,7 +11381,9 @@
       <c r="AT30" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="AU30" s="18"/>
+      <c r="AU30" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="AV30" s="28">
         <v>0</v>
       </c>
@@ -11057,7 +11393,9 @@
       <c r="AX30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY30" s="28"/>
+      <c r="AY30" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AZ30" s="18" t="s">
         <v>199</v>
       </c>
@@ -11068,7 +11406,7 @@
         <v>304</v>
       </c>
       <c r="BC30" s="28" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="BD30" s="18" t="s">
         <v>137</v>
@@ -11080,7 +11418,7 @@
         <v>305</v>
       </c>
       <c r="BG30" s="28" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="BH30" s="18" t="s">
         <v>259</v>
@@ -11115,7 +11453,9 @@
       <c r="BR30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS30" s="28"/>
+      <c r="BS30" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BT30" s="18" t="s">
         <v>259</v>
       </c>
@@ -11138,7 +11478,7 @@
         <v>135</v>
       </c>
       <c r="CA30" s="18" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="CB30" s="18" t="s">
         <v>260</v>
@@ -11161,7 +11501,9 @@
       <c r="CH30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI30" s="28"/>
+      <c r="CI30" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ30" s="18" t="s">
         <v>199</v>
       </c>
@@ -11172,7 +11514,7 @@
         <v>137</v>
       </c>
       <c r="CM30" s="28" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="CN30" s="18" t="s">
         <v>259</v>
@@ -11183,7 +11525,9 @@
       <c r="CP30" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="CQ30" s="18"/>
+      <c r="CQ30" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR30" s="18" t="s">
         <v>259</v>
       </c>
@@ -11205,7 +11549,9 @@
       <c r="CX30" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="CY30" s="18"/>
+      <c r="CY30" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ30" s="18" t="s">
         <v>137</v>
       </c>
@@ -11215,7 +11561,9 @@
       <c r="DB30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC30" s="28"/>
+      <c r="DC30" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DD30" s="18" t="s">
         <v>173</v>
       </c>
@@ -11226,7 +11574,7 @@
         <v>302</v>
       </c>
       <c r="DG30" s="18" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="DH30" s="18" t="s">
         <v>259</v>
@@ -11236,7 +11584,7 @@
       </c>
     </row>
     <row r="31" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="100"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -11259,8 +11607,8 @@
       <c r="J31" s="18">
         <v>71.680000000000007</v>
       </c>
-      <c r="K31" s="18" t="s">
-        <v>394</v>
+      <c r="K31" s="18">
+        <v>204.8</v>
       </c>
       <c r="L31" s="18">
         <v>218.41285714285715</v>
@@ -11271,8 +11619,8 @@
       <c r="N31" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="O31" s="18" t="s">
-        <v>395</v>
+      <c r="O31" s="18">
+        <v>193.5</v>
       </c>
       <c r="P31" s="18">
         <v>249.125</v>
@@ -11283,8 +11631,8 @@
       <c r="R31" s="18">
         <v>196.45</v>
       </c>
-      <c r="S31" s="18" t="s">
-        <v>400</v>
+      <c r="S31" s="18">
+        <v>299.39999999999998</v>
       </c>
       <c r="T31" s="18">
         <v>34.107500000000002</v>
@@ -11295,8 +11643,8 @@
       <c r="V31" s="18">
         <v>44.522849999999998</v>
       </c>
-      <c r="W31" s="18" t="s">
-        <v>396</v>
+      <c r="W31" s="18">
+        <v>96.4</v>
       </c>
       <c r="X31" s="18" t="s">
         <v>261</v>
@@ -11355,8 +11703,8 @@
       <c r="AP31" s="28">
         <v>3549.4285</v>
       </c>
-      <c r="AQ31" s="28" t="s">
-        <v>399</v>
+      <c r="AQ31" s="28">
+        <v>3567.8</v>
       </c>
       <c r="AR31" s="28" t="s">
         <v>137</v>
@@ -11367,7 +11715,9 @@
       <c r="AT31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AU31" s="28"/>
+      <c r="AU31" s="28">
+        <v>0</v>
+      </c>
       <c r="AV31" s="28">
         <v>177</v>
       </c>
@@ -11377,8 +11727,8 @@
       <c r="AX31" s="18">
         <v>118.4816</v>
       </c>
-      <c r="AY31" s="18" t="s">
-        <v>397</v>
+      <c r="AY31" s="18">
+        <v>92.6</v>
       </c>
       <c r="AZ31" s="18">
         <v>34.107500000000002</v>
@@ -11389,7 +11739,9 @@
       <c r="BB31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC31" s="28"/>
+      <c r="BC31" s="28">
+        <v>0</v>
+      </c>
       <c r="BD31" s="18">
         <v>117.55999999999999</v>
       </c>
@@ -11399,8 +11751,8 @@
       <c r="BF31" s="18">
         <v>337.6</v>
       </c>
-      <c r="BG31" s="18" t="s">
-        <v>401</v>
+      <c r="BG31" s="18">
+        <v>362.5</v>
       </c>
       <c r="BH31" s="18">
         <v>353.53000000000003</v>
@@ -11411,8 +11763,8 @@
       <c r="BJ31" s="18">
         <v>2323.5169000000001</v>
       </c>
-      <c r="BK31" s="18" t="s">
-        <v>402</v>
+      <c r="BK31" s="18">
+        <v>312.89999999999998</v>
       </c>
       <c r="BL31" s="18">
         <v>22.444285714285716</v>
@@ -11435,7 +11787,9 @@
       <c r="BR31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS31" s="28"/>
+      <c r="BS31" s="28">
+        <v>0</v>
+      </c>
       <c r="BT31" s="18">
         <v>42.5</v>
       </c>
@@ -11457,8 +11811,8 @@
       <c r="BZ31" s="18">
         <v>12</v>
       </c>
-      <c r="CA31" s="18" t="s">
-        <v>403</v>
+      <c r="CA31" s="18">
+        <v>13.3</v>
       </c>
       <c r="CB31" s="18">
         <v>853.83333333333337</v>
@@ -11481,8 +11835,8 @@
       <c r="CH31" s="18">
         <v>452.54750000000001</v>
       </c>
-      <c r="CI31" s="18" t="s">
-        <v>404</v>
+      <c r="CI31" s="18">
+        <v>1166.2</v>
       </c>
       <c r="CJ31" s="18">
         <v>0</v>
@@ -11505,7 +11859,9 @@
       <c r="CP31" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="CQ31" s="18"/>
+      <c r="CQ31" s="18">
+        <v>0</v>
+      </c>
       <c r="CR31" s="18">
         <v>139.74</v>
       </c>
@@ -11515,8 +11871,8 @@
       <c r="CT31" s="18">
         <v>55.887</v>
       </c>
-      <c r="CU31" s="18" t="s">
-        <v>405</v>
+      <c r="CU31" s="18">
+        <v>75.400000000000006</v>
       </c>
       <c r="CV31" s="18">
         <v>20.9</v>
@@ -11527,7 +11883,9 @@
       <c r="CX31" s="18">
         <v>7.6</v>
       </c>
-      <c r="CY31" s="18"/>
+      <c r="CY31" s="18">
+        <v>0</v>
+      </c>
       <c r="CZ31" s="18" t="s">
         <v>263</v>
       </c>
@@ -11537,8 +11895,8 @@
       <c r="DB31" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="DC31" s="18" t="s">
-        <v>398</v>
+      <c r="DC31" s="18">
+        <v>258.39999999999998</v>
       </c>
       <c r="DD31" s="18">
         <v>372</v>
@@ -11560,7 +11918,7 @@
       </c>
     </row>
     <row r="32" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B32" s="100"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -11584,7 +11942,7 @@
         <v>292</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>265</v>
@@ -11596,7 +11954,7 @@
         <v>307</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>266</v>
@@ -11608,7 +11966,7 @@
         <v>345</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="T32" s="18" t="s">
         <v>195</v>
@@ -11620,7 +11978,7 @@
         <v>307</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X32" s="18" t="s">
         <v>200</v>
@@ -11632,7 +11990,7 @@
         <v>284</v>
       </c>
       <c r="AA32" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB32" s="18" t="s">
         <v>160</v>
@@ -11668,7 +12026,7 @@
         <v>309</v>
       </c>
       <c r="AM32" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN32" s="18" t="s">
         <v>213</v>
@@ -11691,7 +12049,9 @@
       <c r="AT32" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AU32" s="28"/>
+      <c r="AU32" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AV32" s="28" t="s">
         <v>138</v>
       </c>
@@ -11713,7 +12073,9 @@
       <c r="BB32" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC32" s="28"/>
+      <c r="BC32" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BD32" s="18" t="s">
         <v>268</v>
       </c>
@@ -11724,7 +12086,7 @@
         <v>292</v>
       </c>
       <c r="BG32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH32" s="18" t="s">
         <v>267</v>
@@ -11736,7 +12098,7 @@
         <v>292</v>
       </c>
       <c r="BK32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BL32" s="18" t="s">
         <v>182</v>
@@ -11759,7 +12121,9 @@
       <c r="BR32" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS32" s="28"/>
+      <c r="BS32" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BT32" s="18" t="s">
         <v>269</v>
       </c>
@@ -11794,7 +12158,7 @@
         <v>312</v>
       </c>
       <c r="CE32" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CF32" s="18" t="s">
         <v>271</v>
@@ -11818,7 +12182,7 @@
         <v>313</v>
       </c>
       <c r="CM32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CN32" s="18" t="s">
         <v>272</v>
@@ -11829,7 +12193,9 @@
       <c r="CP32" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="CQ32" s="18"/>
+      <c r="CQ32" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR32" s="18" t="s">
         <v>267</v>
       </c>
@@ -11851,7 +12217,9 @@
       <c r="CX32" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="CY32" s="18"/>
+      <c r="CY32" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ32" s="18" t="s">
         <v>178</v>
       </c>
@@ -11874,7 +12242,7 @@
         <v>232</v>
       </c>
       <c r="DG32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DH32" s="18" t="s">
         <v>267</v>
@@ -11884,7 +12252,7 @@
       </c>
     </row>
     <row r="33" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -11899,7 +12267,9 @@
       <c r="F33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H33" s="18">
         <v>169</v>
       </c>
@@ -11921,7 +12291,9 @@
       <c r="N33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="O33" s="28"/>
+      <c r="O33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="P33" s="18" t="s">
         <v>137</v>
       </c>
@@ -11931,7 +12303,9 @@
       <c r="R33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S33" s="28"/>
+      <c r="S33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="T33" s="18">
         <v>0</v>
       </c>
@@ -12001,7 +12375,9 @@
       <c r="AP33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AQ33" s="28"/>
+      <c r="AQ33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AR33" s="28" t="s">
         <v>137</v>
       </c>
@@ -12023,7 +12399,9 @@
       <c r="AX33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY33" s="28"/>
+      <c r="AY33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AZ33" s="28" t="s">
         <v>137</v>
       </c>
@@ -12033,7 +12411,9 @@
       <c r="BB33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC33" s="28"/>
+      <c r="BC33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BD33" s="28" t="s">
         <v>137</v>
       </c>
@@ -12043,7 +12423,9 @@
       <c r="BF33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG33" s="28"/>
+      <c r="BG33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BH33" s="28" t="s">
         <v>137</v>
       </c>
@@ -12125,7 +12507,9 @@
       <c r="CH33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI33" s="28"/>
+      <c r="CI33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ33" s="28" t="s">
         <v>137</v>
       </c>
@@ -12147,7 +12531,9 @@
       <c r="CP33" s="18">
         <v>26.854800000000001</v>
       </c>
-      <c r="CQ33" s="18"/>
+      <c r="CQ33" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR33" s="18">
         <v>49.08</v>
       </c>
@@ -12169,7 +12555,9 @@
       <c r="CX33" s="18">
         <v>37.428570000000001</v>
       </c>
-      <c r="CY33" s="18"/>
+      <c r="CY33" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ33" s="18" t="s">
         <v>137</v>
       </c>
@@ -12179,7 +12567,9 @@
       <c r="DB33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC33" s="28"/>
+      <c r="DC33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DD33" s="28" t="s">
         <v>137</v>
       </c>
@@ -12189,7 +12579,9 @@
       <c r="DF33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DG33" s="28"/>
+      <c r="DG33" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DH33" s="18">
         <v>1069.7339999999999</v>
       </c>
@@ -12198,7 +12590,7 @@
       </c>
     </row>
     <row r="34" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B34" s="100"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -12211,7 +12603,9 @@
       <c r="F34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>245</v>
       </c>
@@ -12220,7 +12614,7 @@
         <v>291</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>137</v>
@@ -12231,7 +12625,9 @@
       <c r="N34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="O34" s="28"/>
+      <c r="O34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="P34" s="18" t="s">
         <v>137</v>
       </c>
@@ -12241,7 +12637,9 @@
       <c r="R34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S34" s="28"/>
+      <c r="S34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="T34" s="18" t="s">
         <v>246</v>
       </c>
@@ -12252,7 +12650,7 @@
         <v>300</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="X34" s="18" t="s">
         <v>247</v>
@@ -12264,7 +12662,7 @@
         <v>137</v>
       </c>
       <c r="AA34" s="28" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AB34" s="18" t="s">
         <v>248</v>
@@ -12300,7 +12698,7 @@
         <v>297</v>
       </c>
       <c r="AM34" s="18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AN34" s="18" t="s">
         <v>137</v>
@@ -12311,7 +12709,9 @@
       <c r="AP34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AQ34" s="28"/>
+      <c r="AQ34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AR34" s="28" t="s">
         <v>137</v>
       </c>
@@ -12333,7 +12733,9 @@
       <c r="AX34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY34" s="28"/>
+      <c r="AY34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AZ34" s="28" t="s">
         <v>137</v>
       </c>
@@ -12343,7 +12745,9 @@
       <c r="BB34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC34" s="28"/>
+      <c r="BC34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BD34" s="28" t="s">
         <v>137</v>
       </c>
@@ -12353,7 +12757,9 @@
       <c r="BF34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BG34" s="28"/>
+      <c r="BG34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BH34" s="28" t="s">
         <v>137</v>
       </c>
@@ -12364,7 +12770,7 @@
         <v>296</v>
       </c>
       <c r="BK34" s="28" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="BL34" s="18" t="s">
         <v>252</v>
@@ -12388,7 +12794,7 @@
         <v>285</v>
       </c>
       <c r="BS34" s="28" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="BT34" s="18" t="s">
         <v>165</v>
@@ -12412,7 +12818,7 @@
         <v>295</v>
       </c>
       <c r="CA34" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="CB34" s="18" t="s">
         <v>253</v>
@@ -12424,7 +12830,7 @@
         <v>273</v>
       </c>
       <c r="CE34" s="18" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="CF34" s="18" t="s">
         <v>137</v>
@@ -12435,7 +12841,9 @@
       <c r="CH34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI34" s="28"/>
+      <c r="CI34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ34" s="28" t="s">
         <v>137</v>
       </c>
@@ -12446,7 +12854,7 @@
         <v>137</v>
       </c>
       <c r="CM34" s="28" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="CN34" s="18" t="s">
         <v>246</v>
@@ -12457,7 +12865,9 @@
       <c r="CP34" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="CQ34" s="18"/>
+      <c r="CQ34" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR34" s="18" t="s">
         <v>246</v>
       </c>
@@ -12479,7 +12889,9 @@
       <c r="CX34" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="CY34" s="18"/>
+      <c r="CY34" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ34" s="18" t="s">
         <v>137</v>
       </c>
@@ -12489,7 +12901,9 @@
       <c r="DB34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC34" s="28"/>
+      <c r="DC34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DD34" s="28" t="s">
         <v>137</v>
       </c>
@@ -12499,7 +12913,9 @@
       <c r="DF34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DG34" s="28"/>
+      <c r="DG34" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DH34" s="18" t="s">
         <v>246</v>
       </c>
@@ -12508,7 +12924,7 @@
       </c>
     </row>
     <row r="35" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="100"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -12555,7 +12971,9 @@
       <c r="R35" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S35" s="28"/>
+      <c r="S35" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="T35" s="18">
         <v>5.2650000000000006</v>
       </c>
@@ -12637,7 +13055,9 @@
       <c r="AT35" s="18">
         <v>1330</v>
       </c>
-      <c r="AU35" s="18"/>
+      <c r="AU35" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="AV35" s="28">
         <v>0</v>
       </c>
@@ -12647,7 +13067,9 @@
       <c r="AX35" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY35" s="28"/>
+      <c r="AY35" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AZ35" s="18">
         <v>5.2650000000000006</v>
       </c>
@@ -12705,7 +13127,9 @@
       <c r="BR35" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS35" s="28"/>
+      <c r="BS35" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BT35" s="18">
         <v>32.5</v>
       </c>
@@ -12751,7 +13175,9 @@
       <c r="CH35" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI35" s="28"/>
+      <c r="CI35" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ35" s="28" t="s">
         <v>137</v>
       </c>
@@ -12773,7 +13199,9 @@
       <c r="CP35" s="18">
         <v>5.6840000000000002</v>
       </c>
-      <c r="CQ35" s="18"/>
+      <c r="CQ35" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR35" s="18">
         <v>30</v>
       </c>
@@ -12795,7 +13223,9 @@
       <c r="CX35" s="18">
         <v>15</v>
       </c>
-      <c r="CY35" s="18"/>
+      <c r="CY35" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ35" s="18" t="s">
         <v>137</v>
       </c>
@@ -12805,7 +13235,9 @@
       <c r="DB35" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC35" s="28"/>
+      <c r="DC35" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DD35" s="18">
         <v>138</v>
       </c>
@@ -12826,7 +13258,7 @@
       </c>
     </row>
     <row r="36" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B36" s="100"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -12873,7 +13305,9 @@
       <c r="R36" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S36" s="28"/>
+      <c r="S36" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="T36" s="18" t="s">
         <v>199</v>
       </c>
@@ -12884,7 +13318,7 @@
         <v>305</v>
       </c>
       <c r="W36" s="28" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="X36" s="18" t="s">
         <v>199</v>
@@ -12908,7 +13342,7 @@
         <v>303</v>
       </c>
       <c r="AE36" s="18" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AF36" s="18" t="s">
         <v>199</v>
@@ -12955,7 +13389,9 @@
       <c r="AT36" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="AU36" s="18"/>
+      <c r="AU36" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="AV36" s="28">
         <v>0</v>
       </c>
@@ -12965,7 +13401,9 @@
       <c r="AX36" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AY36" s="28"/>
+      <c r="AY36" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AZ36" s="18" t="s">
         <v>199</v>
       </c>
@@ -12976,7 +13414,7 @@
         <v>304</v>
       </c>
       <c r="BC36" s="28" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="BD36" s="18" t="s">
         <v>137</v>
@@ -12988,7 +13426,7 @@
         <v>305</v>
       </c>
       <c r="BG36" s="28" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="BH36" s="18" t="s">
         <v>259</v>
@@ -13023,7 +13461,9 @@
       <c r="BR36" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS36" s="28"/>
+      <c r="BS36" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BT36" s="18" t="s">
         <v>259</v>
       </c>
@@ -13046,7 +13486,7 @@
         <v>135</v>
       </c>
       <c r="CA36" s="18" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="CB36" s="18" t="s">
         <v>199</v>
@@ -13069,7 +13509,9 @@
       <c r="CH36" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="CI36" s="28"/>
+      <c r="CI36" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="CJ36" s="28" t="s">
         <v>137</v>
       </c>
@@ -13080,7 +13522,7 @@
         <v>137</v>
       </c>
       <c r="CM36" s="28" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="CN36" s="18" t="s">
         <v>259</v>
@@ -13091,7 +13533,9 @@
       <c r="CP36" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="CQ36" s="18"/>
+      <c r="CQ36" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR36" s="18" t="s">
         <v>197</v>
       </c>
@@ -13113,7 +13557,9 @@
       <c r="CX36" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="CY36" s="18"/>
+      <c r="CY36" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ36" s="18" t="s">
         <v>137</v>
       </c>
@@ -13123,7 +13569,9 @@
       <c r="DB36" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="DC36" s="28"/>
+      <c r="DC36" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="DD36" s="18" t="s">
         <v>173</v>
       </c>
@@ -13134,7 +13582,7 @@
         <v>302</v>
       </c>
       <c r="DG36" s="18" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="DH36" s="18" t="s">
         <v>259</v>
@@ -13144,7 +13592,7 @@
       </c>
     </row>
     <row r="37" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="100"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -13275,7 +13723,9 @@
       <c r="AT37" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AU37" s="28"/>
+      <c r="AU37" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AV37" s="28">
         <v>0.2</v>
       </c>
@@ -13297,7 +13747,9 @@
       <c r="BB37" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC37" s="28"/>
+      <c r="BC37" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BD37" s="18">
         <v>205.34</v>
       </c>
@@ -13343,7 +13795,9 @@
       <c r="BR37" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS37" s="28"/>
+      <c r="BS37" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BT37" s="18">
         <v>45</v>
       </c>
@@ -13413,7 +13867,9 @@
       <c r="CP37" s="18">
         <v>321.19528000000003</v>
       </c>
-      <c r="CQ37" s="18"/>
+      <c r="CQ37" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR37" s="18">
         <v>34.260000000000005</v>
       </c>
@@ -13435,7 +13891,9 @@
       <c r="CX37" s="18">
         <v>1.65</v>
       </c>
-      <c r="CY37" s="18"/>
+      <c r="CY37" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ37" s="18">
         <v>489.19999999999987</v>
       </c>
@@ -13468,7 +13926,7 @@
       </c>
     </row>
     <row r="38" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B38" s="100"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -13492,7 +13950,7 @@
         <v>292</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L38" s="18" t="s">
         <v>265</v>
@@ -13504,7 +13962,7 @@
         <v>307</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P38" s="18" t="s">
         <v>266</v>
@@ -13516,7 +13974,7 @@
         <v>345</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="T38" s="18" t="s">
         <v>195</v>
@@ -13528,7 +13986,7 @@
         <v>307</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X38" s="18" t="s">
         <v>200</v>
@@ -13540,7 +13998,7 @@
         <v>284</v>
       </c>
       <c r="AA38" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB38" s="18" t="s">
         <v>160</v>
@@ -13576,7 +14034,7 @@
         <v>309</v>
       </c>
       <c r="AM38" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN38" s="18" t="s">
         <v>213</v>
@@ -13599,7 +14057,9 @@
       <c r="AT38" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AU38" s="28"/>
+      <c r="AU38" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="AV38" s="28" t="s">
         <v>138</v>
       </c>
@@ -13621,7 +14081,9 @@
       <c r="BB38" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BC38" s="28"/>
+      <c r="BC38" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BD38" s="18" t="s">
         <v>268</v>
       </c>
@@ -13632,7 +14094,7 @@
         <v>292</v>
       </c>
       <c r="BG38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH38" s="18" t="s">
         <v>267</v>
@@ -13644,7 +14106,7 @@
         <v>292</v>
       </c>
       <c r="BK38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BL38" s="18" t="s">
         <v>137</v>
@@ -13667,7 +14129,9 @@
       <c r="BR38" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="BS38" s="28"/>
+      <c r="BS38" s="28" t="s">
+        <v>137</v>
+      </c>
       <c r="BT38" s="18" t="s">
         <v>269</v>
       </c>
@@ -13702,7 +14166,7 @@
         <v>312</v>
       </c>
       <c r="CE38" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CF38" s="18" t="s">
         <v>271</v>
@@ -13724,7 +14188,7 @@
         <v>313</v>
       </c>
       <c r="CM38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CN38" s="18" t="s">
         <v>272</v>
@@ -13735,7 +14199,9 @@
       <c r="CP38" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="CQ38" s="18"/>
+      <c r="CQ38" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CR38" s="18" t="s">
         <v>267</v>
       </c>
@@ -13757,7 +14223,9 @@
       <c r="CX38" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="CY38" s="18"/>
+      <c r="CY38" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ38" s="18" t="s">
         <v>178</v>
       </c>
@@ -13780,7 +14248,7 @@
         <v>232</v>
       </c>
       <c r="DG38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DH38" s="18" t="s">
         <v>267</v>
@@ -13805,22 +14273,18 @@
         <v/>
       </c>
       <c r="G39" s="2">
-        <f>IF(G27&lt;&gt;"no data",IF(G33&lt;&gt;"no data",IF(G29&lt;&gt;"no data",IF(G35&lt;&gt;"no data",(G29+G35)-(G27+G33),""),""),""),"")</f>
         <v>387</v>
       </c>
       <c r="H39" s="2">
         <v>-140.12</v>
       </c>
-      <c r="I39" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2">
         <f>IF(J27&lt;&gt;"no data",IF(J33&lt;&gt;"no data",IF(J29&lt;&gt;"no data",IF(J35&lt;&gt;"no data",(J29+J35)-(J27+J33),""),""),""),"")</f>
         <v>15.169199999999933</v>
       </c>
       <c r="K39" s="2">
-        <f>IF(K27&lt;&gt;"no data",IF(K33&lt;&gt;"no data",IF(K29&lt;&gt;"no data",IF(K35&lt;&gt;"no data",(K29+K35)-(K27+K33),""),""),""),"")</f>
-        <v>11.699999999999989</v>
+        <v>12</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>275</v>
@@ -13833,8 +14297,7 @@
         <v/>
       </c>
       <c r="O39" s="2">
-        <f>IF(O27&lt;&gt;"no data",IF(O33&lt;&gt;"no data",IF(O29&lt;&gt;"no data",IF(O35&lt;&gt;"no data",(O29+O35)-(O27+O33),""),""),""),"")</f>
-        <v>59.5</v>
+        <v>60</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>275</v>
@@ -13847,7 +14310,6 @@
         <v/>
       </c>
       <c r="S39" s="2">
-        <f>IF(S27&lt;&gt;"no data",IF(S33&lt;&gt;"no data",IF(S29&lt;&gt;"no data",IF(S35&lt;&gt;"no data",(S29+S35)-(S27+S33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="T39" s="2">
@@ -13861,8 +14323,7 @@
         <v>-28.998699999999999</v>
       </c>
       <c r="W39" s="2">
-        <f>IF(W27&lt;&gt;"no data",IF(W33&lt;&gt;"no data",IF(W29&lt;&gt;"no data",IF(W35&lt;&gt;"no data",(W29+W35)-(W27+W33),""),""),""),"")</f>
-        <v>-3.1000000000000014</v>
+        <v>-3</v>
       </c>
       <c r="X39" s="2">
         <v>-4.5</v>
@@ -13875,7 +14336,6 @@
         <v/>
       </c>
       <c r="AA39" s="2">
-        <f>IF(AA27&lt;&gt;"no data",IF(AA33&lt;&gt;"no data",IF(AA29&lt;&gt;"no data",IF(AA35&lt;&gt;"no data",(AA29+AA35)-(AA27+AA33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="AB39" s="2">
@@ -13889,8 +14349,7 @@
         <v>182.62509999999997</v>
       </c>
       <c r="AE39" s="2">
-        <f>IF(AE27&lt;&gt;"no data",IF(AE33&lt;&gt;"no data",IF(AE29&lt;&gt;"no data",IF(AE35&lt;&gt;"no data",(AE29+AE35)-(AE27+AE33),""),""),""),"")</f>
-        <v>193.19999999999993</v>
+        <v>193</v>
       </c>
       <c r="AF39" s="2">
         <v>12.1</v>
@@ -13903,8 +14362,7 @@
         <v>8.1099999999999959</v>
       </c>
       <c r="AI39" s="2">
-        <f>IF(AI27&lt;&gt;"no data",IF(AI33&lt;&gt;"no data",IF(AI29&lt;&gt;"no data",IF(AI35&lt;&gt;"no data",(AI29+AI35)-(AI27+AI33),""),""),""),"")</f>
-        <v>7.1000000000000014</v>
+        <v>7</v>
       </c>
       <c r="AJ39" s="2">
         <v>15.25</v>
@@ -13917,37 +14375,36 @@
         <v>11.5</v>
       </c>
       <c r="AM39" s="2">
-        <f>IF(AM27&lt;&gt;"no data",IF(AM33&lt;&gt;"no data",IF(AM29&lt;&gt;"no data",IF(AM35&lt;&gt;"no data",(AM29+AM35)-(AM27+AM33),""),""),""),"")</f>
         <v>15</v>
       </c>
-      <c r="AN39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP39" s="2" t="str">
-        <f>IF(AP27&lt;&gt;"no data",IF(AP33&lt;&gt;"no data",IF(AP29&lt;&gt;"no data",IF(AP35&lt;&gt;"no data",(AP29+AP35)-(AP27+AP33),""),""),""),"")</f>
+      <c r="AN39" s="2" t="str">
+        <f t="shared" ref="AN39:AP39" si="4">IF(AN27&lt;&gt;"no data",IF(AN33&lt;&gt;"no data",IF(AN29&lt;&gt;"no data",IF(AN35&lt;&gt;"no data",(AN29+AN35)-(AN27+AN33),""),""),""),"")</f>
         <v/>
       </c>
-      <c r="AQ39" s="2" t="e">
-        <f>IF(AQ27&lt;&gt;"no data",IF(AQ33&lt;&gt;"no data",IF(AQ29&lt;&gt;"no data",IF(AQ35&lt;&gt;"no data",(AQ29+AQ35)-(AQ27+AQ33),""),""),""),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR39" s="2" t="str">
-        <f t="shared" ref="AR39:AU39" si="4">IF(AR27&lt;&gt;"no data",IF(AR33&lt;&gt;"no data",IF(AR29&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR29+AR35)-(AR27+AR33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="AS39" s="2" t="str">
+      <c r="AO39" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AT39" s="2" t="str">
+      <c r="AP39" s="2" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="AQ39" s="2">
+        <v>5840</v>
+      </c>
+      <c r="AR39" s="2" t="str">
+        <f t="shared" ref="AR39:AT39" si="5">IF(AR27&lt;&gt;"no data",IF(AR33&lt;&gt;"no data",IF(AR29&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR29+AR35)-(AR27+AR33),""),""),""),"")</f>
+        <v/>
+      </c>
+      <c r="AS39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="AU39" s="2">
-        <f t="shared" si="4"/>
         <v>-3996</v>
       </c>
       <c r="AV39" s="2">
@@ -13961,7 +14418,6 @@
         <v/>
       </c>
       <c r="AY39" s="2">
-        <f>IF(AY27&lt;&gt;"no data",IF(AY33&lt;&gt;"no data",IF(AY29&lt;&gt;"no data",IF(AY35&lt;&gt;"no data",(AY29+AY35)-(AY27+AY33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="AZ39" s="2">
@@ -13975,8 +14431,7 @@
         <v/>
       </c>
       <c r="BC39" s="2">
-        <f>IF(BC27&lt;&gt;"no data",IF(BC33&lt;&gt;"no data",IF(BC29&lt;&gt;"no data",IF(BC35&lt;&gt;"no data",(BC29+BC35)-(BC27+BC33),""),""),""),"")</f>
-        <v>62.4</v>
+        <v>62</v>
       </c>
       <c r="BD39" s="2" t="s">
         <v>275</v>
@@ -13989,8 +14444,7 @@
         <v/>
       </c>
       <c r="BG39" s="2">
-        <f>IF(BG27&lt;&gt;"no data",IF(BG33&lt;&gt;"no data",IF(BG29&lt;&gt;"no data",IF(BG35&lt;&gt;"no data",(BG29+BG35)-(BG27+BG33),""),""),""),"")</f>
-        <v>551.6</v>
+        <v>552</v>
       </c>
       <c r="BH39" s="2">
         <v>909.83863636363628</v>
@@ -14003,8 +14457,7 @@
         <v>1004.7163300000001</v>
       </c>
       <c r="BK39" s="2">
-        <f>IF(BK27&lt;&gt;"no data",IF(BK33&lt;&gt;"no data",IF(BK29&lt;&gt;"no data",IF(BK35&lt;&gt;"no data",(BK29+BK35)-(BK27+BK33),""),""),""),"")</f>
-        <v>827.60000000000014</v>
+        <v>828</v>
       </c>
       <c r="BL39" s="2">
         <v>9.4738888888888866</v>
@@ -14017,8 +14470,7 @@
         <v>-22.073900000000002</v>
       </c>
       <c r="BO39" s="2">
-        <f>IF(BO27&lt;&gt;"no data",IF(BO33&lt;&gt;"no data",IF(BO29&lt;&gt;"no data",IF(BO35&lt;&gt;"no data",(BO29+BO35)-(BO27+BO33),""),""),""),"")</f>
-        <v>-22.1</v>
+        <v>-22</v>
       </c>
       <c r="BP39" s="2" t="s">
         <v>275</v>
@@ -14031,8 +14483,7 @@
         <v/>
       </c>
       <c r="BS39" s="2">
-        <f>IF(BS27&lt;&gt;"no data",IF(BS33&lt;&gt;"no data",IF(BS29&lt;&gt;"no data",IF(BS35&lt;&gt;"no data",(BS29+BS35)-(BS27+BS33),""),""),""),"")</f>
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="BT39" s="2">
         <v>2</v>
@@ -14045,8 +14496,7 @@
         <v>-4.9284999999999997</v>
       </c>
       <c r="BW39" s="2">
-        <f>IF(BW27&lt;&gt;"no data",IF(BW33&lt;&gt;"no data",IF(BW29&lt;&gt;"no data",IF(BW35&lt;&gt;"no data",(BW29+BW35)-(BW27+BW33),""),""),""),"")</f>
-        <v>-21.299999999999997</v>
+        <v>-21</v>
       </c>
       <c r="BX39" s="2">
         <v>4.668000000000001</v>
@@ -14059,8 +14509,7 @@
         <v>2.8394999999999992</v>
       </c>
       <c r="CA39" s="2">
-        <f>IF(CA27&lt;&gt;"no data",IF(CA33&lt;&gt;"no data",IF(CA29&lt;&gt;"no data",IF(CA35&lt;&gt;"no data",(CA29+CA35)-(CA27+CA33),""),""),""),"")</f>
-        <v>2.7999999999999989</v>
+        <v>3</v>
       </c>
       <c r="CB39" s="2">
         <v>-91</v>
@@ -14073,8 +14522,7 @@
         <v>46.500029999999924</v>
       </c>
       <c r="CE39" s="2">
-        <f>IF(CE27&lt;&gt;"no data",IF(CE33&lt;&gt;"no data",IF(CE29&lt;&gt;"no data",IF(CE35&lt;&gt;"no data",(CE29+CE35)-(CE27+CE33),""),""),""),"")</f>
-        <v>355.29999999999995</v>
+        <v>355</v>
       </c>
       <c r="CF39" s="2" t="s">
         <v>275</v>
@@ -14087,7 +14535,6 @@
         <v/>
       </c>
       <c r="CI39" s="2">
-        <f>IF(CI27&lt;&gt;"no data",IF(CI33&lt;&gt;"no data",IF(CI29&lt;&gt;"no data",IF(CI35&lt;&gt;"no data",(CI29+CI35)-(CI27+CI33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="CJ39" s="2" t="s">
@@ -14101,8 +14548,7 @@
         <v/>
       </c>
       <c r="CM39" s="2">
-        <f>IF(CM27&lt;&gt;"no data",IF(CM33&lt;&gt;"no data",IF(CM29&lt;&gt;"no data",IF(CM35&lt;&gt;"no data",(CM29+CM35)-(CM27+CM33),""),""),""),"")</f>
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="CN39" s="2">
         <v>43.331999999999994</v>
@@ -14115,7 +14561,6 @@
         <v>-119.64290000000003</v>
       </c>
       <c r="CQ39" s="2">
-        <f>IF(CQ27&lt;&gt;"no data",IF(CQ33&lt;&gt;"no data",IF(CQ29&lt;&gt;"no data",IF(CQ35&lt;&gt;"no data",(CQ29+CQ35)-(CQ27+CQ33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="CR39" s="2">
@@ -14129,8 +14574,7 @@
         <v>-58.285671428570993</v>
       </c>
       <c r="CU39" s="2">
-        <f>IF(CU27&lt;&gt;"no data",IF(CU33&lt;&gt;"no data",IF(CU29&lt;&gt;"no data",IF(CU35&lt;&gt;"no data",(CU29+CU35)-(CU27+CU33),""),""),""),"")</f>
-        <v>-108.79999999999998</v>
+        <v>-109</v>
       </c>
       <c r="CV39" s="2">
         <v>-31.136363636363626</v>
@@ -14143,7 +14587,6 @@
         <v>-12.714269999999999</v>
       </c>
       <c r="CY39" s="2">
-        <f>IF(CY27&lt;&gt;"no data",IF(CY33&lt;&gt;"no data",IF(CY29&lt;&gt;"no data",IF(CY35&lt;&gt;"no data",(CY29+CY35)-(CY27+CY33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="CZ39" s="2" t="s">
@@ -14157,7 +14600,6 @@
         <v/>
       </c>
       <c r="DC39" s="2">
-        <f>IF(DC27&lt;&gt;"no data",IF(DC33&lt;&gt;"no data",IF(DC29&lt;&gt;"no data",IF(DC35&lt;&gt;"no data",(DC29+DC35)-(DC27+DC33),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="DD39" s="2" t="s">
@@ -14171,8 +14613,7 @@
         <v/>
       </c>
       <c r="DG39" s="2">
-        <f>IF(DG27&lt;&gt;"no data",IF(DG33&lt;&gt;"no data",IF(DG29&lt;&gt;"no data",IF(DG35&lt;&gt;"no data",(DG29+DG35)-(DG27+DG33),""),""),""),"")</f>
-        <v>1520.7</v>
+        <v>1521</v>
       </c>
       <c r="DH39" s="2">
         <v>-256</v>
@@ -14197,8 +14638,7 @@
         <v>49</v>
       </c>
       <c r="G40" s="2">
-        <f>IF(G29&lt;&gt;"no data",IF(G37&lt;&gt;"no data",IF(G31&lt;&gt;"no data",IF(G35&lt;&gt;"no data",(G31+G37)-(G29+G35),""),""),""),"")</f>
-        <v>-106.5</v>
+        <v>-106</v>
       </c>
       <c r="H40" s="2">
         <v>1.7866666666666902</v>
@@ -14211,8 +14651,7 @@
         <v>-173.28999999999996</v>
       </c>
       <c r="K40" s="2">
-        <f>IF(K29&lt;&gt;"no data",IF(K37&lt;&gt;"no data",IF(K31&lt;&gt;"no data",IF(K35&lt;&gt;"no data",(K31+K37)-(K29+K35),""),""),""),"")</f>
-        <v>-7.1999999999999886</v>
+        <v>-7</v>
       </c>
       <c r="L40" s="2">
         <v>133.48714285714283</v>
@@ -14225,8 +14664,7 @@
         <v>518.42619000000002</v>
       </c>
       <c r="O40" s="2">
-        <f>IF(O29&lt;&gt;"no data",IF(O37&lt;&gt;"no data",IF(O31&lt;&gt;"no data",IF(O35&lt;&gt;"no data",(479.43+O37)-(10.23+O35),""),""),""),"")</f>
-        <v>511.20000000000005</v>
+        <v>186</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>275</v>
@@ -14239,8 +14677,7 @@
         <v/>
       </c>
       <c r="S40" s="2">
-        <f>IF(S29&lt;&gt;"no data",IF(S37&lt;&gt;"no data",IF(S31&lt;&gt;"no data",IF(S35&lt;&gt;"no data",(S31+S37)-(S29+S35),""),""),""),"")</f>
-        <v>427.79999999999995</v>
+        <v>428</v>
       </c>
       <c r="T40" s="2">
         <v>-1</v>
@@ -14253,8 +14690,7 @@
         <v>47.318549999999995</v>
       </c>
       <c r="W40" s="2">
-        <f>IF(W29&lt;&gt;"no data",IF(W37&lt;&gt;"no data",IF(W31&lt;&gt;"no data",IF(W35&lt;&gt;"no data",(W31+W37)-(W29+W35),""),""),""),"")</f>
-        <v>88.2</v>
+        <v>88</v>
       </c>
       <c r="X40" s="2">
         <v>0.10000000000002274</v>
@@ -14267,7 +14703,6 @@
         <v>-15.714290000000005</v>
       </c>
       <c r="AA40" s="2">
-        <f>IF(AA29&lt;&gt;"no data",IF(AA37&lt;&gt;"no data",IF(AA31&lt;&gt;"no data",IF(AA35&lt;&gt;"no data",(AA31+AA37)-(AA29+AA35),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="AB40" s="2">
@@ -14281,8 +14716,7 @@
         <v>-50.625</v>
       </c>
       <c r="AE40" s="2">
-        <f>IF(AE29&lt;&gt;"no data",IF(AE37&lt;&gt;"no data",IF(AE31&lt;&gt;"no data",IF(AE35&lt;&gt;"no data",(AE31+AE37)-(AE29+AE35),""),""),""),"")</f>
-        <v>-61.199999999999932</v>
+        <v>-61</v>
       </c>
       <c r="AF40" s="2">
         <v>5.6700000000000017</v>
@@ -14295,8 +14729,7 @@
         <v>5.3933000000000035</v>
       </c>
       <c r="AI40" s="2">
-        <f>IF(AI29&lt;&gt;"no data",IF(AI37&lt;&gt;"no data",IF(AI31&lt;&gt;"no data",IF(AI35&lt;&gt;"no data",(AI31+AI37)-(AI29+AI35),""),""),""),"")</f>
-        <v>-2.1000000000000014</v>
+        <v>-2</v>
       </c>
       <c r="AJ40" s="2">
         <v>11</v>
@@ -14309,7 +14742,6 @@
         <v>16.5</v>
       </c>
       <c r="AM40" s="2">
-        <f>IF(AM29&lt;&gt;"no data",IF(AM37&lt;&gt;"no data",IF(AM31&lt;&gt;"no data",IF(AM35&lt;&gt;"no data",(AM31+AM37)-(AM29+AM35),""),""),""),"")</f>
         <v>20</v>
       </c>
       <c r="AN40" s="2">
@@ -14323,24 +14755,22 @@
         <v>22.856999999999971</v>
       </c>
       <c r="AQ40" s="2">
-        <f>IF(AQ29&lt;&gt;"no data",IF(AQ37&lt;&gt;"no data",IF(AQ31&lt;&gt;"no data",IF(AQ35&lt;&gt;"no data",(AQ31+AQ37)-(3710+AQ35),""),""),""),"")</f>
-        <v>24</v>
+        <v>-86</v>
       </c>
       <c r="AR40" s="2" t="str">
-        <f t="shared" ref="AR40:AU40" si="5">IF(AR29&lt;&gt;"no data",IF(AR37&lt;&gt;"no data",IF(AR31&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR31+AR37)-(3710+AR35),""),""),""),"")</f>
+        <f t="shared" ref="AR40:AT40" si="6">IF(AR29&lt;&gt;"no data",IF(AR37&lt;&gt;"no data",IF(AR31&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR31+AR37)-(3710+AR35),""),""),""),"")</f>
         <v/>
       </c>
       <c r="AS40" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT40" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU40" s="2">
-        <f t="shared" si="5"/>
-        <v>-3710</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="2">
         <v>177.2</v>
@@ -14353,8 +14783,7 @@
         <v/>
       </c>
       <c r="AY40" s="2">
-        <f>IF(AY29&lt;&gt;"no data",IF(AY37&lt;&gt;"no data",IF(AY31&lt;&gt;"no data",IF(AY35&lt;&gt;"no data",(AY31+AY37)-(AY29+AY35),""),""),""),"")</f>
-        <v>133.6</v>
+        <v>134</v>
       </c>
       <c r="AZ40" s="2">
         <v>-1.7225000000000037</v>
@@ -14367,8 +14796,7 @@
         <v/>
       </c>
       <c r="BC40" s="2">
-        <f>IF(BC29&lt;&gt;"no data",IF(BC37&lt;&gt;"no data",IF(BC31&lt;&gt;"no data",IF(BC35&lt;&gt;"no data",(BC31+BC37)-(BC29+BC35),""),""),""),"")</f>
-        <v>-62.4</v>
+        <v>-62</v>
       </c>
       <c r="BD40" s="2" t="s">
         <v>275</v>
@@ -14381,8 +14809,7 @@
         <v>346.93340000000001</v>
       </c>
       <c r="BG40" s="2">
-        <f>IF(BG29&lt;&gt;"no data",IF(BG37&lt;&gt;"no data",IF(BG31&lt;&gt;"no data",IF(BG35&lt;&gt;"no data",(BG31+BG37)-(BG29+BG35),""),""),""),"")</f>
-        <v>369.6</v>
+        <v>370</v>
       </c>
       <c r="BH40" s="2">
         <v>-483.11299999999983</v>
@@ -14395,8 +14822,7 @@
         <v>1283.3896</v>
       </c>
       <c r="BK40" s="2">
-        <f>IF(BK29&lt;&gt;"no data",IF(BK37&lt;&gt;"no data",IF(BK31&lt;&gt;"no data",IF(BK35&lt;&gt;"no data",(BK31+BK37)-(BK29+BK35),""),""),""),"")</f>
-        <v>-847.9000000000002</v>
+        <v>-848</v>
       </c>
       <c r="BL40" s="2" t="s">
         <v>275</v>
@@ -14409,8 +14835,7 @@
         <v>9.3479679999999998</v>
       </c>
       <c r="BO40" s="2">
-        <f>IF(BO29&lt;&gt;"no data",IF(BO37&lt;&gt;"no data",IF(BO31&lt;&gt;"no data",IF(BO35&lt;&gt;"no data",(BO31+BO37)-(BO29+BO35),""),""),""),"")</f>
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="BP40" s="2" t="s">
         <v>275</v>
@@ -14423,7 +14848,6 @@
         <v/>
       </c>
       <c r="BS40" s="2">
-        <f>IF(BS29&lt;&gt;"no data",IF(BS37&lt;&gt;"no data",IF(BS31&lt;&gt;"no data",IF(BS35&lt;&gt;"no data",(BS31+BS37)-(BS29+BS35),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="BT40" s="2">
@@ -14437,7 +14861,6 @@
         <v>-8.5</v>
       </c>
       <c r="BW40" s="2">
-        <f>IF(BW29&lt;&gt;"no data",IF(BW37&lt;&gt;"no data",IF(BW31&lt;&gt;"no data",IF(BW35&lt;&gt;"no data",(BW31+BW37)-(BW29+BW35),""),""),""),"")</f>
         <v>21</v>
       </c>
       <c r="BX40" s="2">
@@ -14451,8 +14874,7 @@
         <v>16.285000000000004</v>
       </c>
       <c r="CA40" s="2">
-        <f>IF(CA29&lt;&gt;"no data",IF(CA37&lt;&gt;"no data",IF(CA31&lt;&gt;"no data",IF(CA35&lt;&gt;"no data",(CA31+CA37)-(CA29+CA35),""),""),""),"")</f>
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="CB40" s="2">
         <v>23.5</v>
@@ -14465,8 +14887,7 @@
         <v>54.166630000000168</v>
       </c>
       <c r="CE40" s="2">
-        <f>IF(CE29&lt;&gt;"no data",IF(CE37&lt;&gt;"no data",IF(CE31&lt;&gt;"no data",IF(CE35&lt;&gt;"no data",(CE31+CE37)-(CE29+CE35),""),""),""),"")</f>
-        <v>414.79999999999995</v>
+        <v>415</v>
       </c>
       <c r="CF40" s="2" t="s">
         <v>275</v>
@@ -14479,8 +14900,7 @@
         <v/>
       </c>
       <c r="CI40" s="2">
-        <f>IF(CI29&lt;&gt;"no data",IF(CI37&lt;&gt;"no data",IF(CI31&lt;&gt;"no data",IF(CI35&lt;&gt;"no data",(CI31+CI37)-(CI29+CI35),""),""),""),"")</f>
-        <v>2877.2</v>
+        <v>2877</v>
       </c>
       <c r="CJ40" s="2">
         <v>-22.905999999999999</v>
@@ -14493,8 +14913,7 @@
         <v/>
       </c>
       <c r="CM40" s="2">
-        <f>IF(CM29&lt;&gt;"no data",IF(CM37&lt;&gt;"no data",IF(CM31&lt;&gt;"no data",IF(CM35&lt;&gt;"no data",(CM31+CM37)-(CM29+CM35),""),""),""),"")</f>
-        <v>8.5999999999999979</v>
+        <v>9</v>
       </c>
       <c r="CN40" s="2">
         <v>560.99888888888881</v>
@@ -14507,8 +14926,7 @@
         <v>1030.8422800000001</v>
       </c>
       <c r="CQ40" s="2">
-        <f>IF(CQ29&lt;&gt;"no data",IF(CQ37&lt;&gt;"no data",IF(CQ31&lt;&gt;"no data",IF(CQ35&lt;&gt;"no data",(747.3+CQ37)-(CQ29+CQ35),""),""),""),"")</f>
-        <v>747.3</v>
+        <v>0</v>
       </c>
       <c r="CR40" s="2">
         <v>74</v>
@@ -14521,8 +14939,7 @@
         <v>-15.930999999999997</v>
       </c>
       <c r="CU40" s="2">
-        <f>IF(CU29&lt;&gt;"no data",IF(CU37&lt;&gt;"no data",IF(CU31&lt;&gt;"no data",IF(CU35&lt;&gt;"no data",(CU31+CU37)-(CU29+CU35),""),""),""),"")</f>
-        <v>61.6</v>
+        <v>62</v>
       </c>
       <c r="CV40" s="2">
         <v>-49</v>
@@ -14535,7 +14952,6 @@
         <v>-80.75</v>
       </c>
       <c r="CY40" s="2">
-        <f>IF(CY29&lt;&gt;"no data",IF(CY37&lt;&gt;"no data",IF(CY31&lt;&gt;"no data",IF(CY35&lt;&gt;"no data",(CY31+CY37)-(CY29+CY35),""),""),""),"")</f>
         <v>0</v>
       </c>
       <c r="CZ40" s="2" t="s">
@@ -14549,8 +14965,7 @@
         <v/>
       </c>
       <c r="DC40" s="2">
-        <f>IF(DC29&lt;&gt;"no data",IF(DC37&lt;&gt;"no data",IF(DC31&lt;&gt;"no data",IF(DC35&lt;&gt;"no data",(DC31+DC37)-(DC29+DC35),""),""),""),"")</f>
-        <v>764.09999999999991</v>
+        <v>764</v>
       </c>
       <c r="DD40" s="2">
         <v>84.399999999999977</v>
@@ -14563,8 +14978,7 @@
         <v>372.33332999999993</v>
       </c>
       <c r="DG40" s="2">
-        <f>IF(DG29&lt;&gt;"no data",IF(DG37&lt;&gt;"no data",IF(DG31&lt;&gt;"no data",IF(DG35&lt;&gt;"no data",(DG31+DG37)-(DG29+DG35),""),""),""),"")</f>
-        <v>502.29999999999995</v>
+        <v>502</v>
       </c>
       <c r="DH40" s="2">
         <v>338.23800000000028</v>
@@ -14579,34 +14993,34 @@
         <v>226</v>
       </c>
       <c r="D41" s="54">
+        <f>IF((D40&lt;&gt;"" &amp; D40 &gt; 0),((D31+D37)-(D29+D35))/(D29+D35),"")</f>
         <v>-4.1411042944785273E-2</v>
       </c>
       <c r="E41" s="54">
+        <f t="shared" ref="E41:I41" si="7">IF((E40&lt;&gt;"" &amp; E40 &gt; 0),((E31+E37)-(E29+E35))/(E29+E35),"")</f>
         <v>-0.17721518987341772</v>
       </c>
       <c r="F41" s="54">
-        <f t="shared" ref="F41:K41" si="6">IF(F40&lt;&gt;"",((F31+F37)-(F29+F35))/(F29+F35),"")</f>
+        <f>IF((F40&lt;&gt;"" &amp; F40 &gt; 0),((F31+F37)-(F29+F35))/(F29+F35),"")</f>
         <v>0.22272727272727272</v>
       </c>
       <c r="G41" s="54">
-        <f t="shared" si="6"/>
-        <v>-0.27519379844961239</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="H41" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1841640155532147E-2</v>
       </c>
       <c r="I41" s="54" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J41" si="8">IF(J40&lt;&gt;"",((J31+J37)-(J29+J35))/(J29+J35),"")</f>
         <v>-0.49734523433688255</v>
       </c>
-      <c r="K41" s="54">
-        <f t="shared" si="6"/>
-        <v>-2.0571428571428539E-2</v>
+      <c r="K41" s="126">
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="L41" s="54">
         <v>0.88967703850401769</v>
@@ -14619,8 +15033,7 @@
         <v>12.338586408343739</v>
       </c>
       <c r="O41" s="54">
-        <f>((479.43+O37)-(10.23+O35))/(10.23+O35)</f>
-        <v>25.394932935916543</v>
+        <v>3.1240000000000001</v>
       </c>
       <c r="P41" s="54" t="e">
         <v>#VALUE!</v>
@@ -14632,367 +15045,346 @@
         <f>IF(R40&lt;&gt;"",((R31+R37)-(R29+R35))/(R29+R35),"")</f>
         <v/>
       </c>
-      <c r="S41" s="54" t="e">
-        <f>IF(S40&lt;&gt;"",((S31+S37)-(S29+S35))/(S29+S35),"")</f>
-        <v>#DIV/0!</v>
+      <c r="S41" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="T41" s="54">
         <v>-3.2220351664796178E-2</v>
       </c>
       <c r="U41" s="54"/>
       <c r="V41" s="54">
-        <f t="shared" ref="V41:CG41" si="7">IF(V40&lt;&gt;"",((V31+V37)-(V29+V35))/(V29+V35),"")</f>
+        <f t="shared" ref="V41:CG41" si="9">IF(V40&lt;&gt;"",((V31+V37)-(V29+V35))/(V29+V35),"")</f>
         <v>2.9704048964218455</v>
       </c>
-      <c r="W41" s="54">
-        <f t="shared" ref="W41" si="8">IF(W40&lt;&gt;"",((W31+W37)-(W29+W35))/(W29+W35),"")</f>
-        <v>2.6890243902439028</v>
+      <c r="W41" s="126">
+        <v>2.6890000000000001</v>
       </c>
       <c r="X41" s="54" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y41" s="54" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.2069979591836745E-2</v>
       </c>
       <c r="AA41" s="54">
-        <f t="shared" ref="AA41" si="9">IF(AA40&lt;&gt;"",((AA31+AA37)-(AA29+AA35))/(AA29+AA35),"")</f>
         <v>0</v>
       </c>
       <c r="AB41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-5.6138186304750155E-2</v>
       </c>
       <c r="AC41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.12441332497201327</v>
       </c>
       <c r="AD41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.3074287494159789E-2</v>
       </c>
-      <c r="AE41" s="54">
-        <f t="shared" ref="AE41" si="10">IF(AE40&lt;&gt;"",((AE31+AE37)-(AE29+AE35))/(AE29+AE35),"")</f>
-        <v>-7.5258239055582807E-2</v>
+      <c r="AE41" s="126">
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="AF41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27510917030567694</v>
       </c>
       <c r="AG41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5940869565217288E-3</v>
       </c>
       <c r="AH41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16640851589015748</v>
       </c>
-      <c r="AI41" s="54">
-        <f t="shared" ref="AI41" si="11">IF(AI40&lt;&gt;"",((AI31+AI37)-(AI29+AI35))/(AI29+AI35),"")</f>
-        <v>-6.5420560747663586E-2</v>
+      <c r="AI41" s="126">
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="AJ41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8947368421052631E-2</v>
       </c>
       <c r="AK41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2133676092544985E-2</v>
       </c>
       <c r="AL41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.1457286432160803E-2</v>
       </c>
-      <c r="AM41" s="54">
-        <f t="shared" ref="AM41" si="12">IF(AM40&lt;&gt;"",((AM31+AM37)-(AM29+AM35))/(AM29+AM35),"")</f>
-        <v>4.8661800486618008E-2</v>
+      <c r="AM41" s="126">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AN41" s="54" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO41" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP41" s="54">
         <f>IF(AP40&lt;&gt;"",((AP31+AP37)-(3710+AP35))/(3710+AP35),"")</f>
         <v>4.0085934759733375E-3</v>
       </c>
-      <c r="AQ41" s="54">
-        <f>IF(AQ40&lt;&gt;"",((AQ31+AQ37)-(3710+AQ35))/(3710+AQ35),"")</f>
-        <v>4.1881162202251111E-3</v>
+      <c r="AQ41" s="126">
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AR41" s="54" t="str">
-        <f t="shared" ref="AR41:AU41" si="13">IF(AR40&lt;&gt;"",((AR31+AR37)-(3710+AR35))/(3710+AR35),"")</f>
+        <f t="shared" ref="AR41:AT41" si="10">IF(AR40&lt;&gt;"",((AR31+AR37)-(3710+AR35))/(3710+AR35),"")</f>
         <v/>
       </c>
       <c r="AS41" s="54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AT41" s="54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AU41" s="54">
-        <f t="shared" si="13"/>
+      <c r="AU41" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV41" s="54" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AX41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AY41" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ41" s="54">
+        <f t="shared" si="9"/>
+        <v>-3.2220351664796178E-2</v>
+      </c>
+      <c r="BA41" s="54" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BC41" s="54">
         <v>-1</v>
       </c>
-      <c r="AV41" s="54" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW41" s="54" t="str">
-        <f t="shared" si="7"/>
+      <c r="BD41" s="54" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AX41" s="54" t="str">
-        <f t="shared" si="7"/>
+      <c r="BE41" s="54" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AY41" s="54" t="e">
-        <f t="shared" ref="AY41" si="14">IF(AY40&lt;&gt;"",((AY31+AY37)-(AY29+AY35))/(AY29+AY35),"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ41" s="54">
-        <f t="shared" si="7"/>
-        <v>-3.2220351664796178E-2</v>
-      </c>
-      <c r="BA41" s="54" t="e">
-        <f t="shared" si="7"/>
+      <c r="BF41" s="54">
+        <f t="shared" si="9"/>
+        <v>0.82668813767881455</v>
+      </c>
+      <c r="BG41" s="54">
+        <v>0.67</v>
+      </c>
+      <c r="BH41" s="54">
+        <f t="shared" si="9"/>
+        <v>-0.39158888731281272</v>
+      </c>
+      <c r="BI41" s="54">
+        <f t="shared" si="9"/>
+        <v>-0.61244594457826451</v>
+      </c>
+      <c r="BJ41" s="54">
+        <f t="shared" si="9"/>
+        <v>0.88694203281656825</v>
+      </c>
+      <c r="BK41" s="54">
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="BL41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BM41" s="54">
+        <f t="shared" si="9"/>
+        <v>-0.62587993607387027</v>
+      </c>
+      <c r="BN41" s="54"/>
+      <c r="BO41" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BQ41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BR41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BS41" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT41" s="54">
+        <f t="shared" si="9"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="BU41" s="54">
+        <f t="shared" si="9"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="BV41" s="54">
+        <f t="shared" si="9"/>
+        <v>-0.10967741935483871</v>
+      </c>
+      <c r="BW41" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="BX41" s="54">
+        <f t="shared" si="9"/>
+        <v>-4.5677694770544376E-2</v>
+      </c>
+      <c r="BY41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BZ41" s="54">
+        <f t="shared" si="9"/>
+        <v>1.439239946973045</v>
+      </c>
+      <c r="CA41" s="54">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="CB41" s="54">
+        <f t="shared" si="9"/>
+        <v>1.9632414369256473E-2</v>
+      </c>
+      <c r="CC41" s="54">
+        <f t="shared" si="9"/>
+        <v>-5.1141199226305542E-2</v>
+      </c>
+      <c r="CD41" s="54">
+        <f t="shared" si="9"/>
+        <v>4.2103870967742069E-2</v>
+      </c>
+      <c r="CE41" s="54">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="CF41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="CG41" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="CH41" s="54" t="str">
+        <f t="shared" ref="CH41:DF41" si="11">IF(CH40&lt;&gt;"",((CH31+CH37)-(CH29+CH35))/(CH29+CH35),"")</f>
+        <v/>
+      </c>
+      <c r="CI41" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ41" s="54" t="e">
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB41" s="54" t="str">
-        <f t="shared" si="7"/>
+      <c r="CK41" s="54" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CL41" s="54" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BC41" s="54">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="BD41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BE41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BF41" s="54">
-        <f t="shared" si="7"/>
-        <v>0.82668813767881455</v>
-      </c>
-      <c r="BG41" s="54">
-        <f t="shared" si="7"/>
-        <v>0.67005076142131981</v>
-      </c>
-      <c r="BH41" s="54">
-        <f t="shared" si="7"/>
-        <v>-0.39158888731281272</v>
-      </c>
-      <c r="BI41" s="54">
-        <f t="shared" si="7"/>
-        <v>-0.61244594457826451</v>
-      </c>
-      <c r="BJ41" s="54">
-        <f t="shared" si="7"/>
-        <v>0.88694203281656825</v>
-      </c>
-      <c r="BK41" s="54">
-        <f t="shared" ref="BK41" si="15">IF(BK40&lt;&gt;"",((BK31+BK37)-(BK29+BK35))/(BK29+BK35),"")</f>
-        <v>-0.57885035499726933</v>
-      </c>
-      <c r="BL41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BM41" s="54">
-        <f t="shared" si="7"/>
-        <v>-0.62587993607387027</v>
-      </c>
-      <c r="BN41" s="54"/>
-      <c r="BO41" s="54"/>
-      <c r="BP41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BQ41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BR41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BS41" s="54" t="e">
-        <f t="shared" ref="BS41" si="16">IF(BS40&lt;&gt;"",((BS31+BS37)-(BS29+BS35))/(BS29+BS35),"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BT41" s="54">
-        <f t="shared" si="7"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="BU41" s="54">
-        <f t="shared" si="7"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="BV41" s="54">
-        <f t="shared" si="7"/>
-        <v>-0.10967741935483871</v>
-      </c>
-      <c r="BW41" s="54">
-        <f t="shared" ref="BW41" si="17">IF(BW40&lt;&gt;"",((BW31+BW37)-(BW29+BW35))/(BW29+BW35),"")</f>
-        <v>0.35</v>
-      </c>
-      <c r="BX41" s="54">
-        <f t="shared" si="7"/>
-        <v>-4.5677694770544376E-2</v>
-      </c>
-      <c r="BY41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BZ41" s="54">
-        <f t="shared" si="7"/>
-        <v>1.439239946973045</v>
-      </c>
-      <c r="CA41" s="54">
-        <f t="shared" ref="CA41" si="18">IF(CA40&lt;&gt;"",((CA31+CA37)-(CA29+CA35))/(CA29+CA35),"")</f>
-        <v>1.4358974358974361</v>
-      </c>
-      <c r="CB41" s="54">
-        <f t="shared" si="7"/>
-        <v>1.9632414369256473E-2</v>
-      </c>
-      <c r="CC41" s="54">
-        <f t="shared" si="7"/>
-        <v>-5.1141199226305542E-2</v>
-      </c>
-      <c r="CD41" s="54">
-        <f t="shared" si="7"/>
-        <v>4.2103870967742069E-2</v>
-      </c>
-      <c r="CE41" s="54">
-        <f t="shared" ref="CE41" si="19">IF(CE40&lt;&gt;"",((CE31+CE37)-(CE29+CE35))/(CE29+CE35),"")</f>
-        <v>0.25852290433156744</v>
-      </c>
-      <c r="CF41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="CG41" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="CH41" s="54" t="str">
-        <f t="shared" ref="CH41:DF41" si="20">IF(CH40&lt;&gt;"",((CH31+CH37)-(CH29+CH35))/(CH29+CH35),"")</f>
-        <v/>
-      </c>
-      <c r="CI41" s="54" t="e">
-        <f t="shared" ref="CI41" si="21">IF(CI40&lt;&gt;"",((CI31+CI37)-(CI29+CI35))/(CI29+CI35),"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CJ41" s="54" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CK41" s="54" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CL41" s="54" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
       <c r="CM41" s="54">
-        <f t="shared" ref="CM41" si="22">IF(CM40&lt;&gt;"",((CM31+CM37)-(CM29+CM35))/(CM29+CM35),"")</f>
-        <v>0.44559585492227965</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="CN41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>3.0759890826235816</v>
       </c>
       <c r="CO41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>2.2739726027397262</v>
       </c>
       <c r="CP41" s="54">
         <f>IF(CP40&lt;&gt;"",((747.3+CP37)-(CP29+CP35))/(CP29+CP35),"")</f>
         <v>27.377427562212841</v>
       </c>
-      <c r="CQ41" s="54" t="e">
-        <f>IF(CQ40&lt;&gt;"",((747.3+CQ37)-(CQ29+CQ35))/(CQ29+CQ35),"")</f>
-        <v>#DIV/0!</v>
+      <c r="CQ41" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="CR41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0.74</v>
       </c>
       <c r="CS41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0.30120481325301207</v>
       </c>
       <c r="CT41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>-0.18103409090909087</v>
       </c>
       <c r="CU41" s="54">
-        <f t="shared" ref="CU41" si="23">IF(CU40&lt;&gt;"",((CU31+CU37)-(CU29+CU35))/(CU29+CU35),"")</f>
-        <v>1.7401129943502827</v>
+        <v>1.74</v>
       </c>
       <c r="CV41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>-0.64052287581699341</v>
       </c>
       <c r="CW41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>-0.90886699507389157</v>
       </c>
       <c r="CX41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>-0.89722222222222225</v>
       </c>
-      <c r="CY41" s="54" t="e">
-        <f t="shared" ref="CY41" si="24">IF(CY40&lt;&gt;"",((CY31+CY37)-(CY29+CY35))/(CY29+CY35),"")</f>
-        <v>#DIV/0!</v>
+      <c r="CY41" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="CZ41" s="54" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="DA41" s="54" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="DB41" s="54" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DC41" s="54" t="e">
-        <f t="shared" ref="DC41" si="25">IF(DC40&lt;&gt;"",((DC31+DC37)-(DC29+DC35))/(DC29+DC35),"")</f>
-        <v>#DIV/0!</v>
+      <c r="DC41" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="DD41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0.14576856649395506</v>
       </c>
       <c r="DE41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>-4.4079601990049816E-2</v>
       </c>
       <c r="DF41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0.37382864457831316</v>
       </c>
       <c r="DG41" s="54">
-        <f t="shared" ref="DG41" si="26">IF(DG40&lt;&gt;"",((DG31+DG37)-(DG29+DG35))/(DG29+DG35),"")</f>
-        <v>0.33030841060038135</v>
+        <v>0.33</v>
       </c>
       <c r="DH41" s="54">
         <v>0.29640879136287185</v>
@@ -15002,10 +15394,10 @@
       </c>
     </row>
     <row r="42" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="89">
         <f>Population_eurostat!C4</f>
         <v>8.7004710000000003</v>
@@ -15448,10 +15840,10 @@
       </c>
     </row>
     <row r="43" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="95"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="33" t="s">
         <v>275</v>
       </c>
@@ -15469,9 +15861,7 @@
       <c r="H43" s="33">
         <v>25.726902126465497</v>
       </c>
-      <c r="I43" s="33" t="e">
-        <v>#VALUE!</v>
-      </c>
+      <c r="I43" s="33"/>
       <c r="J43" s="33">
         <f>IF(((IF(OR(J27="no data",J27="n/a"),0,J27))+IF(OR(J33="no data",J33="n/a"),0,J33))&gt;0,((IF(OR(J27="no data",J27="n/a"),0,J27))+IF(OR(J33="no data",J33="n/a"),0,J33))/J42,"")</f>
         <v>28.922762887027403</v>
@@ -15835,10 +16225,10 @@
       </c>
     </row>
     <row r="44" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="95"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="33">
         <v>37.469235860909137</v>
       </c>
@@ -16222,10 +16612,10 @@
       </c>
     </row>
     <row r="45" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="95"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="33">
         <v>35.917595725564745</v>
       </c>
@@ -16721,456 +17111,456 @@
       <c r="DI46" s="1"/>
     </row>
     <row r="47" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B47" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="96"/>
+      <c r="B47" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="112"/>
       <c r="D47" s="5">
         <f>D$3</f>
         <v>2016</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" ref="E47:BP47" si="27">E$3</f>
+        <f t="shared" ref="E47:BP47" si="12">E$3</f>
         <v>2018</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="Y47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AE47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AF47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="AG47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="AH47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AI47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AJ47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="AK47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="AL47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AM47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AN47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="AO47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="AP47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AQ47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AR47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="AS47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="AT47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AU47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AV47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="AW47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="AX47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="AY47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="AZ47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="BA47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="BB47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="BC47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="BD47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="BE47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="BF47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="BG47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="BH47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="BI47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="BJ47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="BK47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="BL47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="BM47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2018</v>
       </c>
       <c r="BN47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2020</v>
       </c>
       <c r="BO47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2022</v>
       </c>
       <c r="BP47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
       <c r="BQ47" s="5">
-        <f t="shared" ref="BQ47:DI47" si="28">BQ$3</f>
+        <f t="shared" ref="BQ47:DI47" si="13">BQ$3</f>
         <v>2018</v>
       </c>
       <c r="BR47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="BS47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="BT47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="BU47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="BV47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="BW47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="BX47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="BY47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="BZ47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CA47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CB47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="CC47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="CD47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CE47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CF47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="CG47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="CH47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CI47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CJ47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="CK47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="CL47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CM47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CN47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="CO47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="CP47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CQ47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CR47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="CS47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="CT47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CU47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CV47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="CW47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="CX47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="CY47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="CZ47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="DA47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="DB47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="DC47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="DD47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="DE47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
       <c r="DF47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2020</v>
       </c>
       <c r="DG47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
       <c r="DH47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2016</v>
       </c>
       <c r="DI47" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="13"/>
         <v>2018</v>
       </c>
     </row>
     <row r="48" spans="2:113" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="97"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -17282,11 +17672,11 @@
       <c r="DH48" s="14"/>
       <c r="DI48" s="14"/>
     </row>
-    <row r="49" spans="1:113" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:211" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="98"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -17301,7 +17691,7 @@
         <v>21796853</v>
       </c>
       <c r="G49" s="19">
-        <v>25737583</v>
+        <v>21732993</v>
       </c>
       <c r="H49" s="19">
         <v>10521426</v>
@@ -17326,7 +17716,7 @@
         <v>8337220</v>
       </c>
       <c r="O49" s="19">
-        <v>8573996</v>
+        <v>8363825</v>
       </c>
       <c r="P49" s="19">
         <v>3971835</v>
@@ -17417,7 +17807,7 @@
         <v>96447928</v>
       </c>
       <c r="AQ49" s="19">
-        <v>97488798</v>
+        <v>96485350</v>
       </c>
       <c r="AR49" s="19">
         <v>146928271</v>
@@ -17430,7 +17820,7 @@
         <v>146443865</v>
       </c>
       <c r="AU49" s="19">
-        <v>146596473</v>
+        <v>146534153</v>
       </c>
       <c r="AV49" s="19">
         <v>13980026</v>
@@ -17443,7 +17833,7 @@
         <v>14269633</v>
       </c>
       <c r="AY49" s="19">
-        <v>14404305</v>
+        <v>14221283</v>
       </c>
       <c r="AZ49" s="19">
         <v>14851978</v>
@@ -17469,7 +17859,7 @@
         <v>5628608</v>
       </c>
       <c r="BG49" s="19">
-        <v>5660880</v>
+        <v>5646280</v>
       </c>
       <c r="BH49" s="19">
         <v>102359746</v>
@@ -17482,7 +17872,7 @@
         <v>102414205</v>
       </c>
       <c r="BK49" s="19">
-        <v>103974343</v>
+        <v>103676580</v>
       </c>
       <c r="BL49" s="19">
         <v>2159259</v>
@@ -17534,7 +17924,7 @@
         <v>739000</v>
       </c>
       <c r="CA49" s="19">
-        <v>739000</v>
+        <v>626000</v>
       </c>
       <c r="CB49" s="19">
         <v>21790222</v>
@@ -17547,7 +17937,7 @@
         <v>21542685</v>
       </c>
       <c r="CE49" s="19">
-        <v>21311773</v>
+        <v>21294763</v>
       </c>
       <c r="CF49" s="19">
         <v>52608507</v>
@@ -17560,7 +17950,7 @@
         <v>53769120</v>
       </c>
       <c r="CI49" s="19">
-        <v>53408101</v>
+        <v>53080978</v>
       </c>
       <c r="CJ49" s="19">
         <v>16766307</v>
@@ -17573,7 +17963,7 @@
         <v>17451417</v>
       </c>
       <c r="CM49" s="19">
-        <v>17286718</v>
+        <v>17150106</v>
       </c>
       <c r="CN49" s="19">
         <v>19790094</v>
@@ -17585,7 +17975,9 @@
         <f>'Feuil3-2020'!AP4</f>
         <v>27315139</v>
       </c>
-      <c r="CQ49" s="19"/>
+      <c r="CQ49" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CR49" s="19">
         <v>6297008</v>
       </c>
@@ -17597,7 +17989,7 @@
         <v>6538828</v>
       </c>
       <c r="CU49" s="19">
-        <v>6554303</v>
+        <v>6564302</v>
       </c>
       <c r="CV49" s="19">
         <v>2321320</v>
@@ -17609,7 +18001,9 @@
         <f>'Feuil3-2020'!AR4</f>
         <v>2360049</v>
       </c>
-      <c r="CY49" s="19"/>
+      <c r="CY49" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ49" s="19">
         <v>97513858</v>
       </c>
@@ -17621,7 +18015,7 @@
         <v>101066273</v>
       </c>
       <c r="DC49" s="19">
-        <v>101274095</v>
+        <v>101028595</v>
       </c>
       <c r="DD49" s="19">
         <v>13743215</v>
@@ -17634,7 +18028,7 @@
         <v>14514669</v>
       </c>
       <c r="DG49" s="19">
-        <v>14485766</v>
+        <v>14472380</v>
       </c>
       <c r="DH49" s="19">
         <v>91126408</v>
@@ -17643,8 +18037,8 @@
         <v>92147477</v>
       </c>
     </row>
-    <row r="50" spans="1:113" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="99"/>
+    <row r="50" spans="1:211" ht="33" x14ac:dyDescent="0.5">
+      <c r="B50" s="119"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -17788,7 +18182,9 @@
         <f>'Feuil3-2020'!AD5</f>
         <v>151814295</v>
       </c>
-      <c r="AU50" s="19"/>
+      <c r="AU50" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="AV50" s="19">
         <v>15000000</v>
       </c>
@@ -17812,7 +18208,9 @@
         <f>'Feuil3-2020'!AF5</f>
         <v>15097092</v>
       </c>
-      <c r="BC50" s="29"/>
+      <c r="BC50" s="95" t="s">
+        <v>137</v>
+      </c>
       <c r="BD50" s="19">
         <v>7048077</v>
       </c>
@@ -17862,7 +18260,9 @@
         <f>'Feuil3-2020'!AJ5</f>
         <v>8000</v>
       </c>
-      <c r="BS50" s="19"/>
+      <c r="BS50" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="BT50" s="19">
         <v>1110000</v>
       </c>
@@ -17934,7 +18334,9 @@
         <f>'Feuil3-2020'!AP5</f>
         <v>10690172</v>
       </c>
-      <c r="CQ50" s="19"/>
+      <c r="CQ50" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CR50" s="19" t="s">
         <v>137</v>
       </c>
@@ -17958,7 +18360,9 @@
         <f>'Feuil3-2020'!AR5</f>
         <v>3288000</v>
       </c>
-      <c r="CY50" s="19"/>
+      <c r="CY50" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ50" s="19">
         <v>32703489</v>
       </c>
@@ -17992,8 +18396,8 @@
         <v>105706149</v>
       </c>
     </row>
-    <row r="51" spans="1:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="99"/>
+    <row r="51" spans="1:211" ht="22" x14ac:dyDescent="0.5">
+      <c r="B51" s="119"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -18007,8 +18411,8 @@
         <f>'Feuil3-2020'!T6</f>
         <v>20895666</v>
       </c>
-      <c r="G51" s="19">
-        <v>25038916</v>
+      <c r="G51" s="30">
+        <v>21032826</v>
       </c>
       <c r="H51" s="19">
         <v>9211400</v>
@@ -18021,7 +18425,7 @@
         <v>9243430</v>
       </c>
       <c r="K51" s="19">
-        <v>9277130</v>
+        <v>9233100</v>
       </c>
       <c r="L51" s="19">
         <v>7448278</v>
@@ -18033,7 +18437,7 @@
         <v>6692709</v>
       </c>
       <c r="O51" s="19">
-        <v>6693577</v>
+        <v>6677208</v>
       </c>
       <c r="P51" s="19">
         <v>4999712</v>
@@ -18072,7 +18476,7 @@
         <v>9314302</v>
       </c>
       <c r="AA51" s="19">
-        <v>9665938</v>
+        <v>9637280</v>
       </c>
       <c r="AB51" s="19">
         <v>11598945</v>
@@ -18111,7 +18515,7 @@
         <v>5553500</v>
       </c>
       <c r="AM51" s="19">
-        <v>5608200</v>
+        <v>5589800</v>
       </c>
       <c r="AN51" s="19">
         <v>71732929</v>
@@ -18124,7 +18528,7 @@
         <v>74112273</v>
       </c>
       <c r="AQ51" s="19">
-        <v>74922618</v>
+        <v>74047855</v>
       </c>
       <c r="AR51" s="19">
         <v>111906058</v>
@@ -18137,7 +18541,7 @@
         <v>110013744</v>
       </c>
       <c r="AU51" s="19">
-        <v>109875144</v>
+        <v>109821652</v>
       </c>
       <c r="AV51" s="19">
         <v>11803450</v>
@@ -18150,7 +18554,7 @@
         <v>11946299</v>
       </c>
       <c r="AY51" s="19">
-        <v>11946299</v>
+        <v>11903296</v>
       </c>
       <c r="AZ51" s="19">
         <v>13588976</v>
@@ -18163,7 +18567,7 @@
         <v>12665039</v>
       </c>
       <c r="BC51" s="29">
-        <v>12656731</v>
+        <v>12444007</v>
       </c>
       <c r="BD51" s="19">
         <v>5080615</v>
@@ -18175,7 +18579,7 @@
         <v>5171403</v>
       </c>
       <c r="BG51" s="19">
-        <v>5137941</v>
+        <v>5132318</v>
       </c>
       <c r="BH51" s="19">
         <v>77150067</v>
@@ -18188,7 +18592,7 @@
         <v>78511139</v>
       </c>
       <c r="BK51" s="19">
-        <v>79257014</v>
+        <v>78467583</v>
       </c>
       <c r="BL51" s="19">
         <v>1588668</v>
@@ -18201,7 +18605,7 @@
         <v>1517909</v>
       </c>
       <c r="BO51" s="19">
-        <v>1437368</v>
+        <v>1407878</v>
       </c>
       <c r="BP51" s="19">
         <v>2905700</v>
@@ -18214,7 +18618,7 @@
         <v>2601215</v>
       </c>
       <c r="BS51" s="19">
-        <v>2859535</v>
+        <v>2852987</v>
       </c>
       <c r="BT51" s="19">
         <v>637438</v>
@@ -18227,7 +18631,7 @@
         <v>640500</v>
       </c>
       <c r="BW51" s="19">
-        <v>687823</v>
+        <v>685147</v>
       </c>
       <c r="BX51" s="19">
         <v>789039</v>
@@ -18253,7 +18657,7 @@
         <v>19804856</v>
       </c>
       <c r="CE51" s="19">
-        <v>19151942</v>
+        <v>19146777</v>
       </c>
       <c r="CF51" s="19">
         <v>38542418</v>
@@ -18266,7 +18670,7 @@
         <v>37534907</v>
       </c>
       <c r="CI51" s="19">
-        <v>35701271</v>
+        <v>35678129</v>
       </c>
       <c r="CJ51" s="19">
         <v>12237640</v>
@@ -18279,7 +18683,7 @@
         <v>13326390</v>
       </c>
       <c r="CM51" s="19">
-        <v>13177880</v>
+        <v>13112280</v>
       </c>
       <c r="CN51" s="19">
         <v>20142050</v>
@@ -18291,7 +18695,9 @@
         <f>'Feuil3-2020'!AP6</f>
         <v>22522093</v>
       </c>
-      <c r="CQ51" s="19"/>
+      <c r="CQ51" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CR51" s="19">
         <v>4225468</v>
       </c>
@@ -18314,7 +18720,9 @@
       <c r="CX51" s="19">
         <v>1641212</v>
       </c>
-      <c r="CY51" s="19"/>
+      <c r="CY51" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ51" s="19" t="s">
         <v>280</v>
       </c>
@@ -18326,7 +18734,7 @@
         <v>63433329</v>
       </c>
       <c r="DC51" s="19">
-        <v>63152792</v>
+        <v>62719050</v>
       </c>
       <c r="DD51" s="19">
         <v>12509265</v>
@@ -18339,7 +18747,7 @@
         <v>12819530</v>
       </c>
       <c r="DG51" s="19">
-        <v>13052640</v>
+        <v>13045890</v>
       </c>
       <c r="DH51" s="19">
         <v>71093713</v>
@@ -18348,8 +18756,8 @@
         <v>72198263</v>
       </c>
     </row>
-    <row r="52" spans="1:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="99"/>
+    <row r="52" spans="1:211" ht="22" x14ac:dyDescent="0.5">
+      <c r="B52" s="119"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -18363,8 +18771,8 @@
         <f>'Feuil3-2020'!T7</f>
         <v>122919.213</v>
       </c>
-      <c r="G52" s="19">
-        <v>131634.17300000001</v>
+      <c r="G52" s="99">
+        <v>123622</v>
       </c>
       <c r="H52" s="19">
         <v>0</v>
@@ -18388,8 +18796,8 @@
       <c r="N52" s="19">
         <v>353909</v>
       </c>
-      <c r="O52" s="19">
-        <v>328252.93420000002</v>
+      <c r="O52" s="99">
+        <v>325097</v>
       </c>
       <c r="P52" s="19" t="s">
         <v>137</v>
@@ -18402,7 +18810,7 @@
         <v>983460.35800000001</v>
       </c>
       <c r="S52" s="19">
-        <v>937060.17319999996</v>
+        <v>937060</v>
       </c>
       <c r="T52" s="19">
         <v>34117</v>
@@ -18415,7 +18823,7 @@
         <v>24865.42</v>
       </c>
       <c r="W52" s="19">
-        <v>24865.42</v>
+        <v>24865</v>
       </c>
       <c r="X52" s="19">
         <v>590554</v>
@@ -18428,7 +18836,7 @@
         <v>195501.55172641561</v>
       </c>
       <c r="AA52" s="19">
-        <v>182023.34051812949</v>
+        <v>181319</v>
       </c>
       <c r="AB52" s="19" t="s">
         <v>137</v>
@@ -18454,7 +18862,7 @@
         <v>44983.55</v>
       </c>
       <c r="AI52" s="19">
-        <v>40853.360000000001</v>
+        <v>40853</v>
       </c>
       <c r="AJ52" s="19" t="s">
         <v>137</v>
@@ -18493,7 +18901,7 @@
         <v>1809626.7035999999</v>
       </c>
       <c r="AU52" s="19">
-        <v>1765046.7945999999</v>
+        <v>1764537</v>
       </c>
       <c r="AV52" s="19">
         <v>1206205</v>
@@ -18506,7 +18914,7 @@
         <v>1014252.48</v>
       </c>
       <c r="AY52" s="19">
-        <v>935511.39</v>
+        <v>935511</v>
       </c>
       <c r="AZ52" s="19">
         <v>34117</v>
@@ -18519,7 +18927,7 @@
         <v>1167754.1561</v>
       </c>
       <c r="BC52" s="29">
-        <v>1144668.0408000001</v>
+        <v>1097565</v>
       </c>
       <c r="BD52" s="19">
         <v>184923</v>
@@ -18531,7 +18939,7 @@
         <v>201668</v>
       </c>
       <c r="BG52" s="19">
-        <v>207012.99999992779</v>
+        <v>206444</v>
       </c>
       <c r="BH52" s="19">
         <v>3406522</v>
@@ -18544,7 +18952,7 @@
         <v>2911556.9966351967</v>
       </c>
       <c r="BK52" s="19">
-        <v>2817803.8029</v>
+        <v>2811470</v>
       </c>
       <c r="BL52" s="19">
         <v>81976</v>
@@ -18557,7 +18965,7 @@
         <v>60070.775000000001</v>
       </c>
       <c r="BO52" s="19">
-        <v>60216.593000000001</v>
+        <v>55872</v>
       </c>
       <c r="BP52" s="19">
         <v>80021</v>
@@ -18570,7 +18978,7 @@
         <v>48847.676800000001</v>
       </c>
       <c r="BS52" s="19">
-        <v>43735.786599999999</v>
+        <v>42480</v>
       </c>
       <c r="BT52" s="19">
         <v>4533</v>
@@ -18583,7 +18991,7 @@
         <v>6884.4830000000002</v>
       </c>
       <c r="BW52" s="19">
-        <v>7281.6580000000004</v>
+        <v>4606</v>
       </c>
       <c r="BX52" s="19">
         <v>0</v>
@@ -18622,7 +19030,7 @@
         <v>1162917.747</v>
       </c>
       <c r="CI52" s="19">
-        <v>1001729.9451</v>
+        <v>998678</v>
       </c>
       <c r="CJ52" s="19" t="s">
         <v>139</v>
@@ -18647,7 +19055,9 @@
         <f>'Feuil3-2020'!AP7</f>
         <v>297226.5111337034</v>
       </c>
-      <c r="CQ52" s="19"/>
+      <c r="CQ52" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CR52" s="19">
         <v>652622</v>
       </c>
@@ -18659,7 +19069,7 @@
         <v>471079.61499999999</v>
       </c>
       <c r="CU52" s="19">
-        <v>403370.929</v>
+        <v>403371</v>
       </c>
       <c r="CV52" s="19">
         <v>72105</v>
@@ -18671,7 +19081,9 @@
         <f>'Feuil3-2020'!AR7</f>
         <v>115336.9727</v>
       </c>
-      <c r="CY52" s="19"/>
+      <c r="CY52" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ52" s="19">
         <v>724507</v>
       </c>
@@ -18683,7 +19095,7 @@
         <v>377963.42</v>
       </c>
       <c r="DC52" s="19">
-        <v>343505.34830000001</v>
+        <v>342865</v>
       </c>
       <c r="DD52" s="19" t="s">
         <v>137</v>
@@ -18705,369 +19117,472 @@
         <v>389181</v>
       </c>
     </row>
-    <row r="53" spans="1:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B53" s="99"/>
-      <c r="C53" s="15" t="s">
+    <row r="53" spans="1:211" s="96" customFormat="1" ht="22" x14ac:dyDescent="0.5">
+      <c r="A53" s="97"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="19">
-        <v>0</v>
-      </c>
-      <c r="F53" s="19">
+      <c r="D53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="99">
+        <v>0</v>
+      </c>
+      <c r="F53" s="99">
         <f>'Feuil3-2020'!T8</f>
         <v>0</v>
       </c>
-      <c r="G53" s="19">
-        <v>0</v>
-      </c>
-      <c r="H53" s="19">
+      <c r="G53" s="99">
+        <v>0</v>
+      </c>
+      <c r="H53" s="99">
         <v>12780</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="99">
         <v>12729</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="99">
         <f>'Feuil3-2020'!U8</f>
         <v>13913.59</v>
       </c>
-      <c r="K53" s="19">
-        <v>14051.59</v>
-      </c>
-      <c r="L53" s="19">
+      <c r="K53" s="99">
+        <v>129809</v>
+      </c>
+      <c r="L53" s="99">
         <v>411810</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="99">
         <v>378746</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="99">
         <f>'Feuil3-2020'!V8</f>
         <v>402151</v>
       </c>
-      <c r="O53" s="19">
-        <v>384808.2696</v>
-      </c>
-      <c r="P53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q53" s="19">
+      <c r="O53" s="99">
+        <v>864279</v>
+      </c>
+      <c r="P53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q53" s="99">
         <v>531345</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="99">
         <f>'Feuil3-2020'!W8</f>
         <v>350150.77850000001</v>
       </c>
-      <c r="S53" s="19">
-        <v>348311.02740000002</v>
-      </c>
-      <c r="T53" s="19">
+      <c r="S53" s="99">
+        <v>794975</v>
+      </c>
+      <c r="T53" s="99">
         <v>174994</v>
       </c>
-      <c r="U53" s="19">
+      <c r="U53" s="99">
         <v>154061</v>
       </c>
-      <c r="V53" s="19">
+      <c r="V53" s="99">
         <f>'Feuil3-2020'!X8</f>
         <v>145134.85</v>
       </c>
-      <c r="W53" s="19">
-        <v>145134.85</v>
-      </c>
-      <c r="X53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y53" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="19">
+      <c r="W53" s="99">
+        <v>145135</v>
+      </c>
+      <c r="X53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y53" s="99">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="99">
         <f>'Feuil3-2020'!Y8</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="19">
+      <c r="AA53" s="99">
+        <v>6935</v>
+      </c>
+      <c r="AB53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="99">
         <f>'Feuil3-2020'!Z8</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="19">
+      <c r="AE53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="99">
         <v>9053</v>
       </c>
-      <c r="AG53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="19">
+      <c r="AG53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="99">
         <f>'Feuil3-2020'!AA8</f>
         <v>210.28</v>
       </c>
-      <c r="AI53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="19">
+      <c r="AI53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="99">
         <f>'Feuil3-2020'!AB8</f>
         <v>0</v>
       </c>
-      <c r="AM53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="19">
+      <c r="AM53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="99">
         <f>'Feuil3-2020'!AC8</f>
         <v>50453.241600000001</v>
       </c>
-      <c r="AQ53" s="19">
-        <v>49236.941700000003</v>
-      </c>
-      <c r="AR53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT53" s="19">
+      <c r="AQ53" s="99">
+        <v>49237</v>
+      </c>
+      <c r="AR53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="99">
         <f>'Feuil3-2020'!AD8</f>
         <v>0</v>
       </c>
-      <c r="AU53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV53" s="19">
+      <c r="AU53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="99">
         <v>7899</v>
       </c>
-      <c r="AW53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="19">
+      <c r="AW53" s="99">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="99">
         <f>'Feuil3-2020'!AE8</f>
         <v>0</v>
       </c>
-      <c r="AY53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="19">
+      <c r="AY53" s="99">
+        <v>1280</v>
+      </c>
+      <c r="AZ53" s="99">
         <v>174994</v>
       </c>
-      <c r="BA53" s="29">
+      <c r="BA53" s="100">
         <v>431936</v>
       </c>
-      <c r="BB53" s="29">
+      <c r="BB53" s="100">
         <f>'Feuil3-2020'!AF8</f>
         <v>0</v>
       </c>
-      <c r="BC53" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD53" s="19">
+      <c r="BC53" s="100">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="99">
         <v>86743</v>
       </c>
-      <c r="BE53" s="19">
+      <c r="BE53" s="99">
         <v>67816</v>
       </c>
-      <c r="BF53" s="19">
+      <c r="BF53" s="99">
         <v>57365</v>
       </c>
-      <c r="BG53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BH53" s="19">
+      <c r="BG53" s="99">
+        <v>38967</v>
+      </c>
+      <c r="BH53" s="99">
         <v>565439</v>
       </c>
-      <c r="BI53" s="19">
+      <c r="BI53" s="99">
         <v>999641</v>
       </c>
-      <c r="BJ53" s="19">
+      <c r="BJ53" s="99">
         <f>'Feuil3-2020'!AH8</f>
         <v>538845.96532324166</v>
       </c>
-      <c r="BK53" s="19">
-        <v>563595.07609999995</v>
-      </c>
-      <c r="BL53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="BM53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BN53" s="19">
+      <c r="BK53" s="99">
+        <v>2038996</v>
+      </c>
+      <c r="BL53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BN53" s="99">
         <f>'Feuil3-2020'!AI8</f>
         <v>0</v>
       </c>
-      <c r="BO53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BP53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BR53" s="19">
+      <c r="BO53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BR53" s="99">
         <f>'Feuil3-2020'!AJ8</f>
         <v>0</v>
       </c>
-      <c r="BS53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BT53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BV53" s="19">
+      <c r="BS53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BT53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BV53" s="99">
         <f>'Feuil3-2020'!AK8</f>
         <v>0</v>
       </c>
-      <c r="BW53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BX53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BY53" s="19">
-        <v>0</v>
-      </c>
-      <c r="BZ53" s="19">
+      <c r="BW53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BX53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BY53" s="99">
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="99">
         <f>'Feuil3-2020'!AL8</f>
         <v>0</v>
       </c>
-      <c r="CA53" s="19">
-        <v>0</v>
-      </c>
-      <c r="CB53" s="19">
-        <v>0</v>
-      </c>
-      <c r="CC53" s="19">
-        <v>0</v>
-      </c>
-      <c r="CD53" s="19">
+      <c r="CA53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CB53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CC53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CD53" s="99">
         <f>'Feuil3-2020'!AM8</f>
         <v>0</v>
       </c>
-      <c r="CE53" s="19">
-        <v>0</v>
-      </c>
-      <c r="CF53" s="19">
+      <c r="CE53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CF53" s="99">
         <v>108123</v>
       </c>
-      <c r="CG53" s="19">
+      <c r="CG53" s="99">
         <v>123814</v>
       </c>
-      <c r="CH53" s="19">
+      <c r="CH53" s="99">
         <f>'Feuil3-2020'!AN8</f>
         <v>3642157.0224000001</v>
       </c>
-      <c r="CI53" s="19">
-        <v>1613.7946999999999</v>
-      </c>
-      <c r="CJ53" s="19">
+      <c r="CI53" s="99">
+        <v>1614</v>
+      </c>
+      <c r="CJ53" s="99">
         <v>9090</v>
       </c>
-      <c r="CK53" s="19">
+      <c r="CK53" s="99">
         <v>9090</v>
       </c>
-      <c r="CL53" s="19">
+      <c r="CL53" s="99">
         <f>'Feuil3-2020'!AO8</f>
         <v>6090</v>
       </c>
-      <c r="CM53" s="19">
-        <v>0</v>
-      </c>
-      <c r="CN53" s="19">
+      <c r="CM53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CN53" s="99">
         <v>8682147</v>
       </c>
-      <c r="CO53" s="19">
+      <c r="CO53" s="99">
         <v>7646025</v>
       </c>
-      <c r="CP53" s="19">
+      <c r="CP53" s="99">
         <f>'Feuil3-2020'!AP8</f>
         <v>9197358.3091000002</v>
       </c>
-      <c r="CQ53" s="19"/>
-      <c r="CR53" s="19">
+      <c r="CQ53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CR53" s="99">
         <v>18594</v>
       </c>
-      <c r="CS53" s="19">
+      <c r="CS53" s="99">
         <v>21873</v>
       </c>
-      <c r="CT53" s="19">
+      <c r="CT53" s="99">
         <f>'Feuil3-2020'!AQ8</f>
         <v>23232.566999999999</v>
       </c>
-      <c r="CU53" s="19">
-        <v>20186.652999999998</v>
-      </c>
-      <c r="CV53" s="19">
+      <c r="CU53" s="99">
+        <v>34139</v>
+      </c>
+      <c r="CV53" s="99">
         <v>63731</v>
       </c>
-      <c r="CW53" s="19">
+      <c r="CW53" s="99">
         <v>12673</v>
       </c>
-      <c r="CX53" s="19">
+      <c r="CX53" s="99">
         <f>'Feuil3-2020'!AR8</f>
         <v>4698.4984999999997</v>
       </c>
-      <c r="CY53" s="19"/>
-      <c r="CZ53" s="19">
+      <c r="CY53" s="99">
+        <v>0</v>
+      </c>
+      <c r="CZ53" s="99">
         <v>578641</v>
       </c>
-      <c r="DA53" s="19">
+      <c r="DA53" s="99">
         <v>520286</v>
       </c>
-      <c r="DB53" s="19">
+      <c r="DB53" s="99">
         <f>'Feuil3-2020'!AS8</f>
         <v>269666.94</v>
       </c>
-      <c r="DC53" s="19">
-        <v>221799.55</v>
-      </c>
-      <c r="DD53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="DE53" s="19">
-        <v>0</v>
-      </c>
-      <c r="DF53" s="19">
+      <c r="DC53" s="99">
+        <v>1324291</v>
+      </c>
+      <c r="DD53" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="DE53" s="99">
+        <v>0</v>
+      </c>
+      <c r="DF53" s="99">
         <f>'Feuil3-2020'!AT8</f>
         <v>0</v>
       </c>
-      <c r="DG53" s="19">
-        <v>0</v>
-      </c>
-      <c r="DH53" s="19">
+      <c r="DG53" s="99">
+        <v>0</v>
+      </c>
+      <c r="DH53" s="99">
         <v>55973</v>
       </c>
-      <c r="DI53" s="19">
-        <v>0</v>
-      </c>
+      <c r="DI53" s="99">
+        <v>0</v>
+      </c>
+      <c r="DJ53"/>
+      <c r="DK53"/>
+      <c r="DL53"/>
+      <c r="DM53"/>
+      <c r="DN53"/>
+      <c r="DO53"/>
+      <c r="DP53"/>
+      <c r="DQ53"/>
+      <c r="DR53"/>
+      <c r="DS53"/>
+      <c r="DT53"/>
+      <c r="DU53"/>
+      <c r="DV53"/>
+      <c r="DW53"/>
+      <c r="DX53"/>
+      <c r="DY53"/>
+      <c r="DZ53"/>
+      <c r="EA53"/>
+      <c r="EB53"/>
+      <c r="EC53"/>
+      <c r="ED53"/>
+      <c r="EE53"/>
+      <c r="EF53"/>
+      <c r="EG53"/>
+      <c r="EH53"/>
+      <c r="EI53"/>
+      <c r="EJ53"/>
+      <c r="EK53"/>
+      <c r="EL53"/>
+      <c r="EM53"/>
+      <c r="EN53"/>
+      <c r="EO53"/>
+      <c r="EP53"/>
+      <c r="EQ53"/>
+      <c r="ER53"/>
+      <c r="ES53"/>
+      <c r="ET53"/>
+      <c r="EU53"/>
+      <c r="EV53"/>
+      <c r="EW53"/>
+      <c r="EX53"/>
+      <c r="EY53"/>
+      <c r="EZ53"/>
+      <c r="FA53"/>
+      <c r="FB53"/>
+      <c r="FC53"/>
+      <c r="FD53"/>
+      <c r="FE53"/>
+      <c r="FF53"/>
+      <c r="FG53"/>
+      <c r="FH53"/>
+      <c r="FI53"/>
+      <c r="FJ53"/>
+      <c r="FK53"/>
+      <c r="FL53"/>
+      <c r="FM53"/>
+      <c r="FN53"/>
+      <c r="FO53"/>
+      <c r="FP53"/>
+      <c r="FQ53"/>
+      <c r="FR53"/>
+      <c r="FS53"/>
+      <c r="FT53"/>
+      <c r="FU53"/>
+      <c r="FV53"/>
+      <c r="FW53"/>
+      <c r="FX53"/>
+      <c r="FY53"/>
+      <c r="FZ53"/>
+      <c r="GA53"/>
+      <c r="GB53"/>
+      <c r="GC53"/>
+      <c r="GD53"/>
+      <c r="GE53"/>
+      <c r="GF53"/>
+      <c r="GG53"/>
+      <c r="GH53"/>
+      <c r="GI53"/>
+      <c r="GJ53"/>
+      <c r="GK53"/>
+      <c r="GL53"/>
+      <c r="GM53"/>
+      <c r="GN53"/>
+      <c r="GO53"/>
+      <c r="GP53"/>
+      <c r="GQ53"/>
+      <c r="GR53"/>
+      <c r="GS53"/>
+      <c r="GT53"/>
+      <c r="GU53"/>
+      <c r="GV53"/>
+      <c r="GW53"/>
+      <c r="GX53"/>
+      <c r="GY53"/>
+      <c r="GZ53"/>
+      <c r="HA53"/>
+      <c r="HB53"/>
+      <c r="HC53"/>
     </row>
-    <row r="54" spans="1:113" ht="22" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:211" ht="22" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="99"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -19082,7 +19597,7 @@
         <v>14520065</v>
       </c>
       <c r="G54" s="19">
-        <v>17365624</v>
+        <v>14268644</v>
       </c>
       <c r="H54" s="19">
         <v>8303578</v>
@@ -19107,7 +19622,7 @@
         <v>4509379</v>
       </c>
       <c r="O54" s="19">
-        <v>4225176</v>
+        <v>4175876</v>
       </c>
       <c r="P54" s="19" t="s">
         <v>137</v>
@@ -19197,7 +19712,7 @@
         <v>73983008</v>
       </c>
       <c r="AQ54" s="19">
-        <v>74862373</v>
+        <v>74815539</v>
       </c>
       <c r="AR54" s="19">
         <v>112861658</v>
@@ -19210,7 +19725,7 @@
         <v>111481086</v>
       </c>
       <c r="AU54" s="19">
-        <v>110558448</v>
+        <v>110515242</v>
       </c>
       <c r="AV54" s="19">
         <v>11124869</v>
@@ -19249,7 +19764,7 @@
         <v>4912243</v>
       </c>
       <c r="BG54" s="19">
-        <v>4888913</v>
+        <v>4883790</v>
       </c>
       <c r="BH54" s="19">
         <v>71214186</v>
@@ -19262,7 +19777,7 @@
         <v>71586489</v>
       </c>
       <c r="BK54" s="19">
-        <v>73655020</v>
+        <v>73510113</v>
       </c>
       <c r="BL54" s="19">
         <v>1376457</v>
@@ -19340,7 +19855,7 @@
         <v>37492534</v>
       </c>
       <c r="CI54" s="19">
-        <v>36254491</v>
+        <v>36249477</v>
       </c>
       <c r="CJ54" s="19">
         <v>12231550</v>
@@ -19353,7 +19868,7 @@
         <v>13042800</v>
       </c>
       <c r="CM54" s="19">
-        <v>13132980</v>
+        <v>13112280</v>
       </c>
       <c r="CN54" s="19">
         <v>12770774</v>
@@ -19365,7 +19880,9 @@
         <f>'Feuil3-2020'!AP9</f>
         <v>13121869</v>
       </c>
-      <c r="CQ54" s="19"/>
+      <c r="CQ54" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CR54" s="19">
         <v>3828435</v>
       </c>
@@ -19377,7 +19894,7 @@
         <v>3980389</v>
       </c>
       <c r="CU54" s="19">
-        <v>3895422</v>
+        <v>3905421</v>
       </c>
       <c r="CV54" s="19">
         <v>1872115</v>
@@ -19389,7 +19906,9 @@
         <f>'Feuil3-2020'!AR9</f>
         <v>1496759</v>
       </c>
-      <c r="CY54" s="19"/>
+      <c r="CY54" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="CZ54" s="19">
         <v>68609082</v>
       </c>
@@ -19401,7 +19920,7 @@
         <v>64975449</v>
       </c>
       <c r="DC54" s="19">
-        <v>64432742</v>
+        <v>64241792</v>
       </c>
       <c r="DD54" s="19">
         <v>11351122</v>
@@ -19414,7 +19933,7 @@
         <v>11025759</v>
       </c>
       <c r="DG54" s="19">
-        <v>11410048</v>
+        <v>11405471</v>
       </c>
       <c r="DH54" s="19">
         <v>70673712</v>
@@ -19423,7 +19942,7 @@
         <v>72323849</v>
       </c>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:211" x14ac:dyDescent="0.5">
       <c r="Q56" t="s">
         <v>215</v>
       </c>
@@ -19433,20 +19952,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="DH1:DI1"/>
     <mergeCell ref="DD1:DG1"/>
     <mergeCell ref="CZ1:DC1"/>
@@ -19463,28 +19986,24 @@
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="F39:G40">
-    <cfRule type="iconSet" priority="31">
+  <conditionalFormatting sqref="D41:K41">
+    <cfRule type="iconSet" priority="88">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -19492,8 +20011,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:K41">
-    <cfRule type="iconSet" priority="88">
+  <conditionalFormatting sqref="F39:G40">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -19573,7 +20092,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL39:AM40">
+  <conditionalFormatting sqref="AL39:AM40 AN39:AQ39">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -19582,7 +20101,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP39:AU40">
+  <conditionalFormatting sqref="AP40:AU40 AR39:AU39">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -19753,7 +20272,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DH39:DI41 CN39:CO40 AJ39:AK40 P39:Q41 D39:E41 H39:I40 L39:M41 T39:U41 X39:Y40 AB39:AC40 AF39:AG40 AN39:AO40 AV39:AW40 AZ39:BA40 BD39:BE40 BH39:BI40 BL39:BM40 BP39:BQ40 BT39:BU40 BX39:BY40 CB39:CC40 CF39:CG40 CJ39:CK40 CR39:CS40 CV39:CW40 CZ39:DA40 DD39:DE40">
+  <conditionalFormatting sqref="DH39:DI41 CN39:CO40 AJ39:AK40 P39:Q41 D39:E40 H39:I40 L39:M41 T39:U41 X39:Y40 AB39:AC40 AF39:AG40 AN40:AO40 AV39:AW40 AZ39:BA40 BD39:BE40 BH39:BI40 BL39:BM40 BP39:BQ40 BT39:BU40 BX39:BY40 CB39:CC40 CF39:CG40 CJ39:CK40 CR39:CS40 CV39:CW40 CZ39:DA40 DD39:DE40">
     <cfRule type="iconSet" priority="565">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -20173,7 +20692,7 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -20293,7 +20812,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="109"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
@@ -20411,7 +20930,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="110"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -20529,7 +21048,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="109" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -20649,7 +21168,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="109"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="8" t="s">
         <v>216</v>
       </c>
@@ -20767,7 +21286,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="110"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -20885,10 +21404,10 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="118"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="21">
         <f>article_17_synthesis_table!F12</f>
         <v>0</v>
@@ -21003,10 +21522,10 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="17" t="str">
         <f>article_17_synthesis_table!F13</f>
         <v>no data</v>
@@ -21155,7 +21674,7 @@
       <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -21275,7 +21794,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="110"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
@@ -21393,7 +21912,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -21513,7 +22032,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="110"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
@@ -21665,7 +22184,7 @@
       <c r="AD19" s="7"/>
     </row>
     <row r="20" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -21785,7 +22304,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="110"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
@@ -21903,7 +22422,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="109" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -22023,7 +22542,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="110"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -22266,7 +22785,7 @@
       <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="120" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -22386,7 +22905,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="115"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -22504,7 +23023,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="115"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
@@ -22622,7 +23141,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="115"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -22740,7 +23259,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="115"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
@@ -22858,7 +23377,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="116"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
@@ -22976,7 +23495,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="120" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -23096,7 +23615,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="115"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="12" t="s">
         <v>24</v>
       </c>
@@ -23214,7 +23733,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="115"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
@@ -23332,7 +23851,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="115"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
@@ -23450,7 +23969,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A37" s="115"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
@@ -23568,7 +24087,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A38" s="116"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
@@ -24040,10 +24559,10 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="101"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="20">
         <f>article_17_synthesis_table!F42</f>
         <v>8.9010639999999999</v>
@@ -24158,10 +24677,10 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="95"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="33" t="str">
         <f>article_17_synthesis_table!F43</f>
         <v/>
@@ -24276,10 +24795,10 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="95"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="33">
         <f>article_17_synthesis_table!F44</f>
         <v>24.716146294420533</v>
@@ -24394,10 +24913,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="95"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="33">
         <f>article_17_synthesis_table!F45</f>
         <v>30.221106150905104</v>
@@ -24512,10 +25031,10 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A47" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="96"/>
+      <c r="A47" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="112"/>
       <c r="C47" s="5">
         <v>2020</v>
       </c>
@@ -24602,10 +25121,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="97"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -24636,7 +25155,7 @@
       <c r="AD48" s="14"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A49" s="98"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="15" t="s">
         <v>35</v>
       </c>
@@ -24754,7 +25273,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A50" s="99"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="15" t="s">
         <v>36</v>
       </c>
@@ -24872,7 +25391,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A51" s="99"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="15" t="s">
         <v>37</v>
       </c>
@@ -24990,7 +25509,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A52" s="99"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="15" t="s">
         <v>38</v>
       </c>
@@ -25108,7 +25627,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A53" s="99"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="15" t="s">
         <v>39</v>
       </c>
@@ -25226,7 +25745,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A54" s="99"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="15" t="s">
         <v>40</v>
       </c>
@@ -25345,14 +25864,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -25362,6 +25873,14 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <conditionalFormatting sqref="C39:AD41">
     <cfRule type="iconSet" priority="58">
@@ -26123,10 +26642,10 @@
       </c>
     </row>
     <row r="3" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B3" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="96"/>
+      <c r="B3" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="112"/>
       <c r="D3" s="4">
         <v>2014</v>
       </c>
@@ -26696,7 +27215,7 @@
       <c r="DJ5" s="7"/>
     </row>
     <row r="6" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -27037,7 +27556,7 @@
       </c>
     </row>
     <row r="7" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -27376,7 +27895,7 @@
       </c>
     </row>
     <row r="8" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -27715,7 +28234,7 @@
       </c>
     </row>
     <row r="9" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="109" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -28056,7 +28575,7 @@
       </c>
     </row>
     <row r="10" spans="2:114" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -28395,7 +28914,7 @@
       </c>
     </row>
     <row r="11" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -28734,10 +29253,10 @@
       </c>
     </row>
     <row r="12" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="107"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="21">
         <f>IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -29184,10 +29703,10 @@
       </c>
     </row>
     <row r="13" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="9" t="s">
         <v>139</v>
       </c>
@@ -29640,7 +30159,7 @@
       <c r="DJ14" s="7"/>
     </row>
     <row r="15" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -29981,7 +30500,7 @@
       </c>
     </row>
     <row r="16" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -30320,7 +30839,7 @@
       </c>
     </row>
     <row r="17" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -30661,7 +31180,7 @@
       </c>
     </row>
     <row r="18" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="103"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -31117,7 +31636,7 @@
       <c r="DJ19" s="7"/>
     </row>
     <row r="20" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -31487,7 +32006,7 @@
       </c>
     </row>
     <row r="21" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -31937,7 +32456,7 @@
       </c>
     </row>
     <row r="22" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="105" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -32278,7 +32797,7 @@
       </c>
     </row>
     <row r="23" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B23" s="104"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -32617,10 +33136,10 @@
       </c>
     </row>
     <row r="25" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B25" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="96"/>
+      <c r="B25" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="112"/>
       <c r="D25" s="4">
         <v>2014</v>
       </c>
@@ -32956,10 +33475,10 @@
       </c>
     </row>
     <row r="26" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -33073,7 +33592,7 @@
       <c r="DJ26" s="11"/>
     </row>
     <row r="27" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="113" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -33414,7 +33933,7 @@
       </c>
     </row>
     <row r="28" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B28" s="100"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -33751,7 +34270,7 @@
       </c>
     </row>
     <row r="29" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="100"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -34088,7 +34607,7 @@
       </c>
     </row>
     <row r="30" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B30" s="100"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -34425,7 +34944,7 @@
       </c>
     </row>
     <row r="31" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="100"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -34762,7 +35281,7 @@
       </c>
     </row>
     <row r="32" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B32" s="100"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -35099,7 +35618,7 @@
       </c>
     </row>
     <row r="33" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -35440,7 +35959,7 @@
       </c>
     </row>
     <row r="34" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B34" s="100"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -35777,7 +36296,7 @@
       </c>
     </row>
     <row r="35" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="100"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -36114,7 +36633,7 @@
       </c>
     </row>
     <row r="36" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B36" s="100"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -36451,7 +36970,7 @@
       </c>
     </row>
     <row r="37" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="100"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -36788,7 +37307,7 @@
       </c>
     </row>
     <row r="38" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B38" s="100"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -37488,7 +38007,7 @@
         <v>53.000001500000053</v>
       </c>
     </row>
-    <row r="40" spans="2:114" ht="22" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:114" x14ac:dyDescent="0.5">
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
         <v>29</v>
@@ -38285,10 +38804,10 @@
       </c>
     </row>
     <row r="42" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="22">
         <v>8.5077859999999994</v>
       </c>
@@ -38651,10 +39170,10 @@
       </c>
     </row>
     <row r="43" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="95"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="33">
         <v>36.202132963852172</v>
       </c>
@@ -39017,10 +39536,10 @@
       </c>
     </row>
     <row r="44" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="95"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="33">
         <v>38.67046021138755</v>
       </c>
@@ -39383,10 +39902,10 @@
       </c>
     </row>
     <row r="45" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="95"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="33">
         <v>39.258157175086446</v>
       </c>
@@ -40084,10 +40603,10 @@
       </c>
     </row>
     <row r="47" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B47" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="96"/>
+      <c r="B47" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="112"/>
       <c r="D47" s="4">
         <v>2014</v>
       </c>
@@ -40423,10 +40942,10 @@
       </c>
     </row>
     <row r="48" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="97"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -40543,7 +41062,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="98"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -40909,7 +41428,7 @@
       </c>
     </row>
     <row r="50" spans="1:114" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="99"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -41269,7 +41788,7 @@
       </c>
     </row>
     <row r="51" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="99"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -41635,7 +42154,7 @@
       </c>
     </row>
     <row r="52" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="99"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -42001,7 +42520,7 @@
       </c>
     </row>
     <row r="53" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B53" s="99"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
@@ -42370,7 +42889,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="99"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -42748,14 +43267,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B6:B8"/>
@@ -42768,6 +43279,14 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:F41 H39:J40 L39:N41 P39:R41 T39:V41 X39:Z40 AB39:AD40 AF39:AH40 AJ39:AL40 AN39:AP40 AR39:AT40 AV39:AX40 AZ39:BB40 BD39:BF40 BH39:BJ40 BL39:BN40 BP39:BR40 BT39:BV40 BX39:BZ40 CB39:CD40 CF39:CH40 CJ39:CL40 CN39:CP40 CR39:CT40 CV39:CX40 CZ39:DB40 DD39:DF40 DH39:DJ41">
     <cfRule type="iconSet" priority="30">

--- a/Article_17_EU-2022.xlsx
+++ b/Article_17_EU-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59F21D-E1EA-404C-8CFB-5C195DEC5A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D88DA-0916-4EC6-B0B0-76688B7752C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1313" yWindow="907" windowWidth="14614" windowHeight="10053" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="article_17_synthesis_table" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="391">
   <si>
     <t>Forecast for investments needs by national authorities</t>
   </si>
@@ -1459,9 +1459,6 @@
     <t>2026-2031</t>
   </si>
   <si>
-    <t>2027-2029</t>
-  </si>
-  <si>
     <t>2025-2029</t>
   </si>
   <si>
@@ -1484,9 +1481,6 @@
   </si>
   <si>
     <t>2030-2030</t>
-  </si>
-  <si>
-    <t>2025-2033</t>
   </si>
   <si>
     <t>2028-2029</t>
@@ -1531,28 +1525,10 @@
     <t>2024-2030</t>
   </si>
   <si>
-    <t>2024-2031</t>
-  </si>
-  <si>
-    <t>2024-2036</t>
-  </si>
-  <si>
-    <t>2024-2034</t>
-  </si>
-  <si>
     <t>2025 - 2032</t>
   </si>
   <si>
-    <t>2024 - 2030</t>
-  </si>
-  <si>
     <t>2030 - 2030</t>
-  </si>
-  <si>
-    <t>2024 - 2033</t>
-  </si>
-  <si>
-    <t>2024 - 2027</t>
   </si>
   <si>
     <t>2027 - 2028</t>
@@ -1561,31 +1537,43 @@
     <t>2026 - 2026</t>
   </si>
   <si>
-    <t>2024 - 2031</t>
-  </si>
-  <si>
     <t>2026 - 2030</t>
   </si>
   <si>
     <t>2024 - 2032</t>
   </si>
   <si>
-    <t>2024 - 2025</t>
+    <t>3296.5 (+IAS 523)</t>
   </si>
   <si>
-    <t>2024 - 2036</t>
+    <t>2023-2036</t>
   </si>
   <si>
-    <t>2024 - 2035</t>
+    <t>2023-2034</t>
   </si>
   <si>
-    <t>2024 - 2034</t>
+    <t>2023 - 2033</t>
   </si>
   <si>
-    <t>2024 - 2028</t>
+    <t>2023 - 2027</t>
   </si>
   <si>
-    <t>3296.5 (+IAS 523)</t>
+    <t>2023 - 2031</t>
+  </si>
+  <si>
+    <t>2023 - 2025</t>
+  </si>
+  <si>
+    <t>2023 - 2036</t>
+  </si>
+  <si>
+    <t>2023 - 2035</t>
+  </si>
+  <si>
+    <t>2023 - 2034</t>
+  </si>
+  <si>
+    <t>2023 - 2028</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2066,6 +2054,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2081,7 +2171,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2345,6 +2435,152 @@
     <xf numFmtId="3" fontId="4" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2420,7 +2656,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2720,9 +2955,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:HC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45:C45"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2739,7 +2974,8 @@
     <col min="20" max="23" width="11.87890625" customWidth="1"/>
     <col min="24" max="24" width="14.52734375" customWidth="1"/>
     <col min="25" max="25" width="18.52734375" customWidth="1"/>
-    <col min="26" max="27" width="13.234375" customWidth="1"/>
+    <col min="26" max="26" width="13.234375" customWidth="1"/>
+    <col min="27" max="27" width="13.234375" style="142" customWidth="1"/>
     <col min="28" max="39" width="11.87890625" customWidth="1"/>
     <col min="40" max="40" width="15.64453125" customWidth="1"/>
     <col min="41" max="43" width="18.1171875" customWidth="1"/>
@@ -2781,172 +3017,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" s="88" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="101" t="s">
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="101" t="s">
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="101" t="s">
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="101" t="s">
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="101" t="s">
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="101" t="s">
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="101" t="s">
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="101" t="s">
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="101" t="s">
+      <c r="AK1" s="156"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="101" t="s">
+      <c r="AO1" s="156"/>
+      <c r="AP1" s="156"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="101" t="s">
+      <c r="AS1" s="156"/>
+      <c r="AT1" s="156"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="101" t="s">
+      <c r="AW1" s="156"/>
+      <c r="AX1" s="156"/>
+      <c r="AY1" s="157"/>
+      <c r="AZ1" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="103"/>
-      <c r="BD1" s="101" t="s">
+      <c r="BA1" s="156"/>
+      <c r="BB1" s="156"/>
+      <c r="BC1" s="157"/>
+      <c r="BD1" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="103"/>
-      <c r="BH1" s="101" t="s">
+      <c r="BE1" s="156"/>
+      <c r="BF1" s="156"/>
+      <c r="BG1" s="157"/>
+      <c r="BH1" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="103"/>
-      <c r="BL1" s="101" t="s">
+      <c r="BI1" s="156"/>
+      <c r="BJ1" s="156"/>
+      <c r="BK1" s="157"/>
+      <c r="BL1" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="103"/>
-      <c r="BP1" s="101" t="s">
+      <c r="BM1" s="156"/>
+      <c r="BN1" s="156"/>
+      <c r="BO1" s="157"/>
+      <c r="BP1" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="102"/>
-      <c r="BR1" s="102"/>
-      <c r="BS1" s="103"/>
-      <c r="BT1" s="101" t="s">
+      <c r="BQ1" s="156"/>
+      <c r="BR1" s="156"/>
+      <c r="BS1" s="157"/>
+      <c r="BT1" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="102"/>
-      <c r="BV1" s="102"/>
-      <c r="BW1" s="103"/>
-      <c r="BX1" s="101" t="s">
+      <c r="BU1" s="156"/>
+      <c r="BV1" s="156"/>
+      <c r="BW1" s="157"/>
+      <c r="BX1" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="BY1" s="102"/>
-      <c r="BZ1" s="102"/>
-      <c r="CA1" s="103"/>
-      <c r="CB1" s="101" t="s">
+      <c r="BY1" s="156"/>
+      <c r="BZ1" s="156"/>
+      <c r="CA1" s="157"/>
+      <c r="CB1" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="103"/>
-      <c r="CF1" s="101" t="s">
+      <c r="CC1" s="156"/>
+      <c r="CD1" s="156"/>
+      <c r="CE1" s="157"/>
+      <c r="CF1" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="102"/>
-      <c r="CH1" s="102"/>
-      <c r="CI1" s="103"/>
-      <c r="CJ1" s="101" t="s">
+      <c r="CG1" s="156"/>
+      <c r="CH1" s="156"/>
+      <c r="CI1" s="157"/>
+      <c r="CJ1" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="103"/>
-      <c r="CN1" s="101" t="s">
+      <c r="CK1" s="156"/>
+      <c r="CL1" s="156"/>
+      <c r="CM1" s="157"/>
+      <c r="CN1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="102"/>
-      <c r="CP1" s="102"/>
-      <c r="CQ1" s="103"/>
-      <c r="CR1" s="101" t="s">
+      <c r="CO1" s="156"/>
+      <c r="CP1" s="156"/>
+      <c r="CQ1" s="157"/>
+      <c r="CR1" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="102"/>
-      <c r="CT1" s="102"/>
-      <c r="CU1" s="103"/>
-      <c r="CV1" s="101" t="s">
+      <c r="CS1" s="156"/>
+      <c r="CT1" s="156"/>
+      <c r="CU1" s="157"/>
+      <c r="CV1" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="CW1" s="102"/>
-      <c r="CX1" s="102"/>
-      <c r="CY1" s="103"/>
-      <c r="CZ1" s="101" t="s">
+      <c r="CW1" s="156"/>
+      <c r="CX1" s="156"/>
+      <c r="CY1" s="157"/>
+      <c r="CZ1" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="DA1" s="102"/>
-      <c r="DB1" s="102"/>
-      <c r="DC1" s="103"/>
-      <c r="DD1" s="101" t="s">
+      <c r="DA1" s="156"/>
+      <c r="DB1" s="156"/>
+      <c r="DC1" s="157"/>
+      <c r="DD1" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="DE1" s="102"/>
-      <c r="DF1" s="102"/>
-      <c r="DG1" s="103"/>
-      <c r="DH1" s="101" t="s">
+      <c r="DE1" s="156"/>
+      <c r="DF1" s="156"/>
+      <c r="DG1" s="157"/>
+      <c r="DH1" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="DI1" s="103"/>
+      <c r="DI1" s="157"/>
     </row>
     <row r="2" spans="2:113" s="90" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="91" t="s">
@@ -3018,10 +3254,10 @@
       <c r="Z2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="91" t="s">
+      <c r="AA2" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="91" t="s">
+      <c r="AB2" s="119" t="s">
         <v>75</v>
       </c>
       <c r="AC2" s="91" t="s">
@@ -3281,10 +3517,10 @@
       </c>
     </row>
     <row r="3" spans="2:113" s="93" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="106"/>
+      <c r="B3" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="160"/>
       <c r="D3" s="92">
         <v>2016</v>
       </c>
@@ -3351,13 +3587,13 @@
       <c r="Y3" s="92">
         <v>2018</v>
       </c>
-      <c r="Z3" s="92">
+      <c r="Z3" s="102">
         <v>2020</v>
       </c>
-      <c r="AA3" s="92">
+      <c r="AA3" s="137">
         <v>2022</v>
       </c>
-      <c r="AB3" s="92">
+      <c r="AB3" s="120">
         <v>2016</v>
       </c>
       <c r="AC3" s="92">
@@ -3643,9 +3879,9 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="121"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
@@ -3759,9 +3995,9 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="122"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -3849,7 +4085,7 @@
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3913,7 +4149,7 @@
         <v>311.6832</v>
       </c>
       <c r="W6" s="16">
-        <v>458.75907100000001</v>
+        <v>476.96700499999997</v>
       </c>
       <c r="X6" s="16">
         <v>0</v>
@@ -3921,13 +4157,13 @@
       <c r="Y6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB6" s="16" t="s">
+      <c r="Z6" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA6" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC6" s="17" t="s">
@@ -3997,7 +4233,7 @@
         <v>1398.55</v>
       </c>
       <c r="AY6" s="17">
-        <v>1079.33962</v>
+        <v>1110.6904500000001</v>
       </c>
       <c r="AZ6" s="16">
         <v>272.83999999999997</v>
@@ -4009,7 +4245,7 @@
         <v>86.287999999999997</v>
       </c>
       <c r="BC6" s="24">
-        <v>150.2662</v>
+        <v>184.30680000000001</v>
       </c>
       <c r="BD6" s="16">
         <v>387.88</v>
@@ -4021,7 +4257,7 @@
         <v>545.20000000000005</v>
       </c>
       <c r="BG6" s="16">
-        <v>657.7</v>
+        <v>692.9</v>
       </c>
       <c r="BH6" s="16">
         <v>32691.360000000001</v>
@@ -4033,7 +4269,7 @@
         <v>1004.8419</v>
       </c>
       <c r="BK6" s="16">
-        <v>1607.19666725</v>
+        <v>2604.97123225</v>
       </c>
       <c r="BL6" s="16">
         <v>50.09</v>
@@ -4044,8 +4280,8 @@
       <c r="BN6" s="16">
         <v>131.65209200000001</v>
       </c>
-      <c r="BO6" s="16" t="s">
-        <v>137</v>
+      <c r="BO6" s="16">
+        <v>130.56135699999999</v>
       </c>
       <c r="BP6" s="16">
         <v>1.08</v>
@@ -4105,7 +4341,7 @@
         <v>519.85</v>
       </c>
       <c r="CI6" s="17">
-        <v>560.47109999999998</v>
+        <v>820.92930000000001</v>
       </c>
       <c r="CJ6" s="16">
         <v>0</v>
@@ -4177,7 +4413,7 @@
         <v>8.84</v>
       </c>
       <c r="DG6" s="17">
-        <v>33.56</v>
+        <v>46.16</v>
       </c>
       <c r="DH6" s="16">
         <v>12302.64</v>
@@ -4187,7 +4423,7 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="104"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -4249,7 +4485,7 @@
         <v>11.2</v>
       </c>
       <c r="W7" s="16">
-        <v>57.671999999999997</v>
+        <v>68.870157000000006</v>
       </c>
       <c r="X7" s="16">
         <v>0</v>
@@ -4257,13 +4493,13 @@
       <c r="Y7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB7" s="16" t="s">
+      <c r="Z7" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA7" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC7" s="17" t="s">
@@ -4333,7 +4569,7 @@
         <v>1168.558</v>
       </c>
       <c r="AY7" s="17">
-        <v>917.43867699999998</v>
+        <v>944.0868825</v>
       </c>
       <c r="AZ7" s="16">
         <v>12.04</v>
@@ -4345,7 +4581,7 @@
         <v>39.706400000000002</v>
       </c>
       <c r="BC7" s="24">
-        <v>136.62430000000001</v>
+        <v>167.21279999999999</v>
       </c>
       <c r="BD7" s="16" t="s">
         <v>137</v>
@@ -4380,8 +4616,8 @@
       <c r="BN7" s="16">
         <v>90.776180999999994</v>
       </c>
-      <c r="BO7" s="16" t="s">
-        <v>137</v>
+      <c r="BO7" s="16">
+        <v>89.925944000000001</v>
       </c>
       <c r="BP7" s="16">
         <v>1.08</v>
@@ -4523,7 +4759,7 @@
       </c>
     </row>
     <row r="8" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="104"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4573,7 +4809,7 @@
         <v>336</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="T8" s="16" t="s">
         <v>232</v>
@@ -4585,7 +4821,7 @@
         <v>307</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="X8" s="16">
         <v>0</v>
@@ -4593,13 +4829,13 @@
       <c r="Y8" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB8" s="16" t="s">
+      <c r="Z8" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA8" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC8" s="17" t="s">
@@ -4669,7 +4905,7 @@
         <v>292</v>
       </c>
       <c r="AY8" s="17" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="AZ8" s="16" t="s">
         <v>232</v>
@@ -4681,7 +4917,7 @@
         <v>337</v>
       </c>
       <c r="BC8" s="24" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="BD8" s="16" t="s">
         <v>154</v>
@@ -4693,7 +4929,7 @@
         <v>290</v>
       </c>
       <c r="BG8" s="16" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="BH8" s="16" t="s">
         <v>233</v>
@@ -4705,7 +4941,7 @@
         <v>290</v>
       </c>
       <c r="BK8" s="16" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="BL8" s="16" t="s">
         <v>181</v>
@@ -4717,7 +4953,7 @@
         <v>335</v>
       </c>
       <c r="BO8" s="16" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="BP8" s="16" t="s">
         <v>153</v>
@@ -4729,7 +4965,7 @@
         <v>137</v>
       </c>
       <c r="BS8" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BT8" s="16">
         <v>0</v>
@@ -4777,7 +5013,7 @@
         <v>292</v>
       </c>
       <c r="CI8" s="17" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="CJ8" s="16" t="s">
         <v>234</v>
@@ -4813,7 +5049,7 @@
         <v>307</v>
       </c>
       <c r="CU8" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CV8" s="16" t="s">
         <v>235</v>
@@ -4837,7 +5073,7 @@
         <v>290</v>
       </c>
       <c r="DC8" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="DD8" s="16" t="s">
         <v>137</v>
@@ -4849,7 +5085,7 @@
         <v>312</v>
       </c>
       <c r="DG8" s="17" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="DH8" s="16" t="s">
         <v>181</v>
@@ -4859,7 +5095,7 @@
       </c>
     </row>
     <row r="9" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4931,13 +5167,13 @@
       <c r="Y9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="105">
         <v>245.1</v>
       </c>
-      <c r="AA9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AA9" s="140">
+        <v>4.72</v>
+      </c>
+      <c r="AB9" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC9" s="17" t="s">
@@ -4971,7 +5207,7 @@
         <v>12.4</v>
       </c>
       <c r="AM9" s="17">
-        <v>1.1000000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="AN9" s="16">
         <v>228</v>
@@ -4983,7 +5219,7 @@
         <v>758.95111699999995</v>
       </c>
       <c r="AQ9" s="16">
-        <v>1059.6138182</v>
+        <v>1154.7580602</v>
       </c>
       <c r="AR9" s="16" t="s">
         <v>137</v>
@@ -5007,7 +5243,7 @@
         <v>696.01</v>
       </c>
       <c r="AY9" s="17">
-        <v>423.80489999999998</v>
+        <v>462.49009999999998</v>
       </c>
       <c r="AZ9" s="16">
         <v>145.44</v>
@@ -5031,7 +5267,7 @@
         <v>732.7</v>
       </c>
       <c r="BG9" s="94">
-        <v>800.8</v>
+        <v>811.3</v>
       </c>
       <c r="BH9" s="16">
         <v>151350.82</v>
@@ -5043,7 +5279,7 @@
         <v>3326.6045600000002</v>
       </c>
       <c r="BK9" s="16">
-        <v>2834.4006395400002</v>
+        <v>3392.4550969299999</v>
       </c>
       <c r="BL9" s="16">
         <v>0.74</v>
@@ -5054,8 +5290,8 @@
       <c r="BN9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BO9" s="17" t="s">
-        <v>137</v>
+      <c r="BO9" s="17">
+        <v>3.2</v>
       </c>
       <c r="BP9" s="16">
         <v>3.12</v>
@@ -5115,7 +5351,7 @@
         <v>221.42</v>
       </c>
       <c r="CI9" s="17">
-        <v>623.06719999999996</v>
+        <v>702.39160000000004</v>
       </c>
       <c r="CJ9" s="16">
         <v>111.33</v>
@@ -5127,7 +5363,7 @@
         <v>124.947</v>
       </c>
       <c r="CM9" s="17">
-        <v>126.199</v>
+        <v>130.30500000000001</v>
       </c>
       <c r="CN9" s="16">
         <v>1917.43</v>
@@ -5175,7 +5411,7 @@
         <v>2494.4960000000001</v>
       </c>
       <c r="DC9" s="16">
-        <v>2483.9290000000001</v>
+        <v>2529.7570000000001</v>
       </c>
       <c r="DD9" s="16">
         <v>101</v>
@@ -5197,7 +5433,7 @@
       </c>
     </row>
     <row r="10" spans="2:113" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="110"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -5267,13 +5503,13 @@
       <c r="Y10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB10" s="16" t="s">
+      <c r="Z10" s="105">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC10" s="17" t="s">
@@ -5343,7 +5579,7 @@
         <v>563.52949999999998</v>
       </c>
       <c r="AY10" s="17">
-        <v>346.12433499999997</v>
+        <v>375.37130500000001</v>
       </c>
       <c r="AZ10" s="16">
         <v>30.07</v>
@@ -5379,7 +5615,7 @@
         <v>144.7867</v>
       </c>
       <c r="BK10" s="16">
-        <v>210.56724156000001</v>
+        <v>214.3526937</v>
       </c>
       <c r="BL10" s="16" t="s">
         <v>137</v>
@@ -5463,7 +5699,7 @@
         <v>39.066000000000003</v>
       </c>
       <c r="CM10" s="17">
-        <v>41.595999999999997</v>
+        <v>44.720999999999997</v>
       </c>
       <c r="CN10" s="16">
         <v>898.38999999999896</v>
@@ -5511,7 +5747,7 @@
         <v>52.3</v>
       </c>
       <c r="DC10" s="16">
-        <v>319.7</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="DD10" s="16" t="s">
         <v>137</v>
@@ -5533,7 +5769,7 @@
       </c>
     </row>
     <row r="11" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="111"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -5559,7 +5795,7 @@
         <v>341</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>239</v>
@@ -5571,7 +5807,7 @@
         <v>290</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>196</v>
@@ -5583,7 +5819,7 @@
         <v>330</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="T11" s="16" t="s">
         <v>231</v>
@@ -5595,7 +5831,7 @@
         <v>307</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="X11" s="16">
         <v>0</v>
@@ -5603,13 +5839,13 @@
       <c r="Y11" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="AA11" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AA11" s="140" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB11" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC11" s="17" t="s">
@@ -5631,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AJ11" s="16" t="s">
         <v>191</v>
@@ -5643,7 +5879,7 @@
         <v>312</v>
       </c>
       <c r="AM11" s="17" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AN11" s="16" t="s">
         <v>240</v>
@@ -5655,7 +5891,7 @@
         <v>332</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AR11" s="16" t="s">
         <v>137</v>
@@ -5679,7 +5915,7 @@
         <v>292</v>
       </c>
       <c r="AY11" s="17" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="AZ11" s="16" t="s">
         <v>231</v>
@@ -5691,7 +5927,7 @@
         <v>309</v>
       </c>
       <c r="BC11" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="BD11" s="16" t="s">
         <v>231</v>
@@ -5703,7 +5939,7 @@
         <v>333</v>
       </c>
       <c r="BG11" s="16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="BH11" s="16" t="s">
         <v>193</v>
@@ -5715,7 +5951,7 @@
         <v>332</v>
       </c>
       <c r="BK11" s="16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="BL11" s="16" t="s">
         <v>172</v>
@@ -5727,7 +5963,7 @@
         <v>137</v>
       </c>
       <c r="BO11" s="17" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="BP11" s="16" t="s">
         <v>193</v>
@@ -5787,7 +6023,7 @@
         <v>287</v>
       </c>
       <c r="CI11" s="17" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="CJ11" s="16" t="s">
         <v>188</v>
@@ -5799,7 +6035,7 @@
         <v>292</v>
       </c>
       <c r="CM11" s="17" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="CN11" s="16" t="s">
         <v>194</v>
@@ -5823,7 +6059,7 @@
         <v>290</v>
       </c>
       <c r="CU11" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="CV11" s="16" t="s">
         <v>193</v>
@@ -5847,7 +6083,7 @@
         <v>287</v>
       </c>
       <c r="DC11" s="16" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="DD11" s="16" t="s">
         <v>192</v>
@@ -5869,10 +6105,10 @@
       </c>
     </row>
     <row r="12" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="21">
         <f t="shared" ref="D12:BO12" si="0">IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -5951,7 +6187,7 @@
       </c>
       <c r="W12" s="16">
         <f t="shared" si="0"/>
-        <v>612.87215200000003</v>
+        <v>631.08008599999994</v>
       </c>
       <c r="X12" s="16">
         <f t="shared" si="0"/>
@@ -5961,15 +6197,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="106">
         <f t="shared" si="0"/>
         <v>245.1</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="141">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
+        <v>4.72</v>
+      </c>
+      <c r="AB12" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6015,7 +6251,7 @@
       </c>
       <c r="AM12" s="16">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="AN12" s="16">
         <f t="shared" si="0"/>
@@ -6031,7 +6267,7 @@
       </c>
       <c r="AQ12" s="16">
         <f t="shared" si="0"/>
-        <v>1099.2784062000001</v>
+        <v>1194.4226482000001</v>
       </c>
       <c r="AR12" s="16">
         <f t="shared" si="0"/>
@@ -6063,7 +6299,7 @@
       </c>
       <c r="AY12" s="16">
         <f t="shared" si="0"/>
-        <v>1503.1445199999998</v>
+        <v>1573.18055</v>
       </c>
       <c r="AZ12" s="16">
         <f t="shared" si="0"/>
@@ -6079,7 +6315,7 @@
       </c>
       <c r="BC12" s="16">
         <f t="shared" si="0"/>
-        <v>339.30451700000003</v>
+        <v>373.34511700000002</v>
       </c>
       <c r="BD12" s="16">
         <f t="shared" si="0"/>
@@ -6095,7 +6331,7 @@
       </c>
       <c r="BG12" s="16">
         <f t="shared" si="0"/>
-        <v>1458.5</v>
+        <v>1504.1999999999998</v>
       </c>
       <c r="BH12" s="16">
         <f t="shared" si="0"/>
@@ -6111,7 +6347,7 @@
       </c>
       <c r="BK12" s="16">
         <f t="shared" si="0"/>
-        <v>4441.5973067900004</v>
+        <v>5997.4263291799998</v>
       </c>
       <c r="BL12" s="16">
         <f t="shared" si="0"/>
@@ -6127,7 +6363,7 @@
       </c>
       <c r="BO12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133.76135699999998</v>
       </c>
       <c r="BP12" s="16">
         <f t="shared" ref="BP12:DI12" si="1">IF(BP6="n/a",0,IF(BP6="no data",0,BP6))+IF(BP9="n/a",0,IF(BP9="no data",0,BP9))</f>
@@ -6203,7 +6439,7 @@
       </c>
       <c r="CI12" s="16">
         <f t="shared" si="1"/>
-        <v>1183.5382999999999</v>
+        <v>1523.3209000000002</v>
       </c>
       <c r="CJ12" s="16">
         <f t="shared" si="1"/>
@@ -6219,7 +6455,7 @@
       </c>
       <c r="CM12" s="16">
         <f t="shared" si="1"/>
-        <v>126.199</v>
+        <v>130.30500000000001</v>
       </c>
       <c r="CN12" s="16">
         <f t="shared" si="1"/>
@@ -6283,7 +6519,7 @@
       </c>
       <c r="DC12" s="16">
         <f t="shared" si="1"/>
-        <v>2732.527</v>
+        <v>2778.355</v>
       </c>
       <c r="DD12" s="16">
         <f t="shared" si="1"/>
@@ -6299,7 +6535,7 @@
       </c>
       <c r="DG12" s="16">
         <f t="shared" si="1"/>
-        <v>79.72</v>
+        <v>92.32</v>
       </c>
       <c r="DH12" s="16">
         <f t="shared" si="1"/>
@@ -6311,10 +6547,10 @@
       </c>
     </row>
     <row r="13" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="108"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
@@ -6337,7 +6573,7 @@
         <v>341</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>140</v>
@@ -6349,7 +6585,7 @@
         <v>290</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>141</v>
@@ -6361,7 +6597,7 @@
         <v>330</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T13" s="32" t="s">
         <v>196</v>
@@ -6373,7 +6609,7 @@
         <v>307</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>137</v>
@@ -6381,13 +6617,13 @@
       <c r="Y13" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="Z13" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="AA13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB13" s="17" t="s">
+      <c r="AA13" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB13" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC13" s="17" t="s">
@@ -6409,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>191</v>
@@ -6421,7 +6657,7 @@
         <v>312</v>
       </c>
       <c r="AM13" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AN13" s="16" t="s">
         <v>240</v>
@@ -6433,7 +6669,7 @@
         <v>332</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AR13" s="17" t="s">
         <v>137</v>
@@ -6457,7 +6693,7 @@
         <v>292</v>
       </c>
       <c r="AY13" s="17" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="AZ13" s="9" t="s">
         <v>195</v>
@@ -6469,7 +6705,7 @@
         <v>309</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BD13" s="9" t="s">
         <v>177</v>
@@ -6481,7 +6717,7 @@
         <v>290</v>
       </c>
       <c r="BG13" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BH13" s="9" t="s">
         <v>183</v>
@@ -6493,7 +6729,7 @@
         <v>332</v>
       </c>
       <c r="BK13" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="BL13" s="9" t="s">
         <v>181</v>
@@ -6505,7 +6741,7 @@
         <v>335</v>
       </c>
       <c r="BO13" s="9" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="BP13" s="9" t="s">
         <v>193</v>
@@ -6517,7 +6753,7 @@
         <v>137</v>
       </c>
       <c r="BS13" s="17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="BT13" s="17" t="s">
         <v>137</v>
@@ -6541,7 +6777,7 @@
         <v>334</v>
       </c>
       <c r="CA13" s="17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="CB13" s="34" t="s">
         <v>139</v>
@@ -6565,7 +6801,7 @@
         <v>287</v>
       </c>
       <c r="CI13" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CJ13" s="17" t="s">
         <v>188</v>
@@ -6577,7 +6813,7 @@
         <v>292</v>
       </c>
       <c r="CM13" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CN13" s="9" t="s">
         <v>194</v>
@@ -6601,7 +6837,7 @@
         <v>290</v>
       </c>
       <c r="CU13" s="9" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="CV13" s="9" t="s">
         <v>193</v>
@@ -6625,7 +6861,7 @@
         <v>290</v>
       </c>
       <c r="DC13" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DD13" s="9" t="s">
         <v>192</v>
@@ -6637,7 +6873,7 @@
         <v>309</v>
       </c>
       <c r="DG13" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="DH13" s="9" t="s">
         <v>192</v>
@@ -6673,9 +6909,9 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="122"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -6763,7 +6999,7 @@
       <c r="DI14" s="7"/>
     </row>
     <row r="15" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6835,13 +7071,13 @@
       <c r="Y15" s="17">
         <v>0</v>
       </c>
-      <c r="Z15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="17" t="s">
+      <c r="Z15" s="105">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="140">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC15" s="17">
@@ -7101,7 +7337,7 @@
       </c>
     </row>
     <row r="16" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="104"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -7171,13 +7407,13 @@
       <c r="Y16" s="17">
         <v>0</v>
       </c>
-      <c r="Z16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17" t="s">
+      <c r="Z16" s="105">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="140">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC16" s="17">
@@ -7437,7 +7673,7 @@
       </c>
     </row>
     <row r="17" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -7509,13 +7745,13 @@
       <c r="Y17" s="17">
         <v>0</v>
       </c>
-      <c r="Z17" s="17">
+      <c r="Z17" s="105">
         <v>1</v>
       </c>
-      <c r="AA17" s="17">
+      <c r="AA17" s="140">
         <v>1</v>
       </c>
-      <c r="AB17" s="17" t="s">
+      <c r="AB17" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC17" s="17">
@@ -7775,7 +8011,7 @@
       </c>
     </row>
     <row r="18" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="104"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -7845,13 +8081,13 @@
       <c r="Y18" s="17">
         <v>0</v>
       </c>
-      <c r="Z18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="17" t="s">
+      <c r="Z18" s="105">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="140">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC18" s="17">
@@ -8137,9 +8373,9 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="122"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
@@ -8227,7 +8463,7 @@
       <c r="DI19" s="7"/>
     </row>
     <row r="20" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -8301,14 +8537,14 @@
       <c r="Y20" s="17">
         <v>0</v>
       </c>
-      <c r="Z20" s="17">
+      <c r="Z20" s="105">
         <f>'Feuil3-2020'!L8</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB20" s="17">
+      <c r="AA20" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB20" s="124">
         <v>0</v>
       </c>
       <c r="AC20" s="17">
@@ -8589,7 +8825,7 @@
       </c>
     </row>
     <row r="21" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="104"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -8675,14 +8911,14 @@
         <f>'Feuil3-2020'!E8</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="17">
+      <c r="Z21" s="105">
         <f>'Feuil3-2020'!F8</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB21" s="17">
+      <c r="AA21" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB21" s="124">
         <f>'Feuil3-2020'!D9</f>
         <v>0</v>
       </c>
@@ -9007,7 +9243,7 @@
       </c>
     </row>
     <row r="22" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -9079,13 +9315,13 @@
       <c r="Y22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z22" s="17">
+      <c r="Z22" s="105">
         <v>1641600</v>
       </c>
-      <c r="AA22" s="17">
+      <c r="AA22" s="140">
         <v>10000</v>
       </c>
-      <c r="AB22" s="17" t="s">
+      <c r="AB22" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC22" s="17" t="s">
@@ -9345,7 +9581,7 @@
       </c>
     </row>
     <row r="23" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B23" s="105"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -9415,13 +9651,13 @@
       <c r="Y23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Z23" s="17">
+      <c r="Z23" s="105">
         <v>1750000</v>
       </c>
-      <c r="AA23" s="17">
+      <c r="AA23" s="140">
         <v>35000</v>
       </c>
-      <c r="AB23" s="17" t="s">
+      <c r="AB23" s="124" t="s">
         <v>137</v>
       </c>
       <c r="AC23" s="17" t="s">
@@ -9682,10 +9918,10 @@
     </row>
     <row r="24" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="112"/>
+      <c r="B25" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="166"/>
       <c r="D25" s="5">
         <f>D$3</f>
         <v>2016</v>
@@ -9774,15 +10010,15 @@
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="Z25" s="107">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="143">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB25" s="125">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
@@ -10128,10 +10364,10 @@
       </c>
     </row>
     <row r="26" spans="2:113" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="170"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -10154,9 +10390,9 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="126"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -10244,7 +10480,7 @@
       <c r="DI26" s="11"/>
     </row>
     <row r="27" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -10316,13 +10552,13 @@
       <c r="Y27" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="Z27" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA27" s="28">
+      <c r="Z27" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA27" s="145">
         <v>325</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AB27" s="127">
         <v>413.33333333333331</v>
       </c>
       <c r="AC27" s="18">
@@ -10582,7 +10818,7 @@
       </c>
     </row>
     <row r="28" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B28" s="113"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -10606,7 +10842,7 @@
         <v>291</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>137</v>
@@ -10642,7 +10878,7 @@
         <v>300</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="X28" s="18" t="s">
         <v>247</v>
@@ -10650,13 +10886,13 @@
       <c r="Y28" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="Z28" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA28" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB28" s="18" t="s">
+      <c r="Z28" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA28" s="145" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB28" s="127" t="s">
         <v>248</v>
       </c>
       <c r="AC28" s="18" t="s">
@@ -10690,7 +10926,7 @@
         <v>297</v>
       </c>
       <c r="AM28" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN28" s="18" t="s">
         <v>137</v>
@@ -10762,7 +10998,7 @@
         <v>296</v>
       </c>
       <c r="BK28" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BL28" s="18" t="s">
         <v>252</v>
@@ -10786,7 +11022,7 @@
         <v>285</v>
       </c>
       <c r="BS28" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="BT28" s="18" t="s">
         <v>165</v>
@@ -10810,7 +11046,7 @@
         <v>295</v>
       </c>
       <c r="CA28" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="CB28" s="18" t="s">
         <v>253</v>
@@ -10822,7 +11058,7 @@
         <v>273</v>
       </c>
       <c r="CE28" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="CF28" s="18" t="s">
         <v>137</v>
@@ -10846,7 +11082,7 @@
         <v>137</v>
       </c>
       <c r="CM28" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CN28" s="18" t="s">
         <v>246</v>
@@ -10916,7 +11152,7 @@
       </c>
     </row>
     <row r="29" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="113"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10984,13 +11220,13 @@
       <c r="Y29" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="110">
         <v>300</v>
       </c>
-      <c r="AA29" s="18">
+      <c r="AA29" s="146">
         <v>325</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AB29" s="127">
         <v>540.5</v>
       </c>
       <c r="AC29" s="18">
@@ -11036,7 +11272,7 @@
         <v>316</v>
       </c>
       <c r="AQ29" s="18" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AR29" s="28">
         <v>1989</v>
@@ -11250,7 +11486,7 @@
       </c>
     </row>
     <row r="30" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B30" s="113"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -11310,7 +11546,7 @@
         <v>305</v>
       </c>
       <c r="W30" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="X30" s="18" t="s">
         <v>199</v>
@@ -11318,13 +11554,13 @@
       <c r="Y30" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="Z30" s="18" t="s">
+      <c r="Z30" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="AA30" s="18" t="s">
+      <c r="AA30" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="AB30" s="18" t="s">
+      <c r="AB30" s="127" t="s">
         <v>165</v>
       </c>
       <c r="AC30" s="18" t="s">
@@ -11334,7 +11570,7 @@
         <v>303</v>
       </c>
       <c r="AE30" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF30" s="18" t="s">
         <v>199</v>
@@ -11406,7 +11642,7 @@
         <v>304</v>
       </c>
       <c r="BC30" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="BD30" s="18" t="s">
         <v>137</v>
@@ -11418,7 +11654,7 @@
         <v>305</v>
       </c>
       <c r="BG30" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BH30" s="18" t="s">
         <v>259</v>
@@ -11478,7 +11714,7 @@
         <v>135</v>
       </c>
       <c r="CA30" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="CB30" s="18" t="s">
         <v>260</v>
@@ -11514,7 +11750,7 @@
         <v>137</v>
       </c>
       <c r="CM30" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="CN30" s="18" t="s">
         <v>259</v>
@@ -11574,7 +11810,7 @@
         <v>302</v>
       </c>
       <c r="DG30" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="DH30" s="18" t="s">
         <v>259</v>
@@ -11584,7 +11820,7 @@
       </c>
     </row>
     <row r="31" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="113"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -11652,13 +11888,13 @@
       <c r="Y31" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="Z31" s="18">
+      <c r="Z31" s="110">
         <v>284.28570999999999</v>
       </c>
-      <c r="AA31" s="18">
+      <c r="AA31" s="146">
         <v>325</v>
       </c>
-      <c r="AB31" s="18">
+      <c r="AB31" s="127">
         <v>510</v>
       </c>
       <c r="AC31" s="18">
@@ -11918,7 +12154,7 @@
       </c>
     </row>
     <row r="32" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B32" s="113"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -11942,7 +12178,7 @@
         <v>292</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>265</v>
@@ -11954,7 +12190,7 @@
         <v>307</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>266</v>
@@ -11966,7 +12202,7 @@
         <v>345</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T32" s="18" t="s">
         <v>195</v>
@@ -11978,7 +12214,7 @@
         <v>307</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X32" s="18" t="s">
         <v>200</v>
@@ -11986,13 +12222,13 @@
       <c r="Y32" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="Z32" s="18" t="s">
+      <c r="Z32" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="AA32" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB32" s="18" t="s">
+      <c r="AA32" s="146" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB32" s="127" t="s">
         <v>160</v>
       </c>
       <c r="AC32" s="18" t="s">
@@ -12026,7 +12262,7 @@
         <v>309</v>
       </c>
       <c r="AM32" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN32" s="18" t="s">
         <v>213</v>
@@ -12086,7 +12322,7 @@
         <v>292</v>
       </c>
       <c r="BG32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BH32" s="18" t="s">
         <v>267</v>
@@ -12098,7 +12334,7 @@
         <v>292</v>
       </c>
       <c r="BK32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BL32" s="18" t="s">
         <v>182</v>
@@ -12158,7 +12394,7 @@
         <v>312</v>
       </c>
       <c r="CE32" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CF32" s="18" t="s">
         <v>271</v>
@@ -12182,7 +12418,7 @@
         <v>313</v>
       </c>
       <c r="CM32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CN32" s="18" t="s">
         <v>272</v>
@@ -12242,7 +12478,7 @@
         <v>232</v>
       </c>
       <c r="DG32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DH32" s="18" t="s">
         <v>267</v>
@@ -12252,7 +12488,7 @@
       </c>
     </row>
     <row r="33" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="167" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -12324,13 +12560,13 @@
       <c r="Y33" s="18">
         <v>130</v>
       </c>
-      <c r="Z33" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA33" s="28">
+      <c r="Z33" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA33" s="145">
         <v>199</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AB33" s="127">
         <v>206.66666666666666</v>
       </c>
       <c r="AC33" s="18">
@@ -12590,7 +12826,7 @@
       </c>
     </row>
     <row r="34" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B34" s="113"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -12614,7 +12850,7 @@
         <v>291</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>137</v>
@@ -12650,7 +12886,7 @@
         <v>300</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="X34" s="18" t="s">
         <v>247</v>
@@ -12658,13 +12894,13 @@
       <c r="Y34" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="Z34" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA34" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB34" s="18" t="s">
+      <c r="Z34" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA34" s="145" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB34" s="127" t="s">
         <v>248</v>
       </c>
       <c r="AC34" s="18" t="s">
@@ -12698,7 +12934,7 @@
         <v>297</v>
       </c>
       <c r="AM34" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN34" s="18" t="s">
         <v>137</v>
@@ -12770,7 +13006,7 @@
         <v>296</v>
       </c>
       <c r="BK34" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BL34" s="18" t="s">
         <v>252</v>
@@ -12794,7 +13030,7 @@
         <v>285</v>
       </c>
       <c r="BS34" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="BT34" s="18" t="s">
         <v>165</v>
@@ -12818,7 +13054,7 @@
         <v>295</v>
       </c>
       <c r="CA34" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="CB34" s="18" t="s">
         <v>253</v>
@@ -12830,7 +13066,7 @@
         <v>273</v>
       </c>
       <c r="CE34" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="CF34" s="18" t="s">
         <v>137</v>
@@ -12854,7 +13090,7 @@
         <v>137</v>
       </c>
       <c r="CM34" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CN34" s="18" t="s">
         <v>246</v>
@@ -12924,7 +13160,7 @@
       </c>
     </row>
     <row r="35" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="113"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -12992,13 +13228,13 @@
       <c r="Y35" s="18">
         <v>130</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="110">
         <v>190</v>
       </c>
-      <c r="AA35" s="18">
+      <c r="AA35" s="146">
         <v>199</v>
       </c>
-      <c r="AB35" s="18">
+      <c r="AB35" s="127">
         <v>270</v>
       </c>
       <c r="AC35" s="18">
@@ -13258,7 +13494,7 @@
       </c>
     </row>
     <row r="36" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B36" s="113"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -13318,7 +13554,7 @@
         <v>305</v>
       </c>
       <c r="W36" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="X36" s="18" t="s">
         <v>199</v>
@@ -13326,13 +13562,13 @@
       <c r="Y36" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="Z36" s="18" t="s">
+      <c r="Z36" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="AA36" s="18" t="s">
+      <c r="AA36" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="AB36" s="18" t="s">
+      <c r="AB36" s="127" t="s">
         <v>165</v>
       </c>
       <c r="AC36" s="18" t="s">
@@ -13342,7 +13578,7 @@
         <v>303</v>
       </c>
       <c r="AE36" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF36" s="18" t="s">
         <v>199</v>
@@ -13414,7 +13650,7 @@
         <v>304</v>
       </c>
       <c r="BC36" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="BD36" s="18" t="s">
         <v>137</v>
@@ -13426,7 +13662,7 @@
         <v>305</v>
       </c>
       <c r="BG36" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BH36" s="18" t="s">
         <v>259</v>
@@ -13486,7 +13722,7 @@
         <v>135</v>
       </c>
       <c r="CA36" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="CB36" s="18" t="s">
         <v>199</v>
@@ -13522,7 +13758,7 @@
         <v>137</v>
       </c>
       <c r="CM36" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="CN36" s="18" t="s">
         <v>259</v>
@@ -13582,7 +13818,7 @@
         <v>302</v>
       </c>
       <c r="DG36" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="DH36" s="18" t="s">
         <v>259</v>
@@ -13592,7 +13828,7 @@
       </c>
     </row>
     <row r="37" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="113"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -13660,13 +13896,13 @@
       <c r="Y37" s="18">
         <v>130</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z37" s="110">
         <v>190</v>
       </c>
-      <c r="AA37" s="18">
+      <c r="AA37" s="146">
         <v>199</v>
       </c>
-      <c r="AB37" s="18">
+      <c r="AB37" s="127">
         <v>255</v>
       </c>
       <c r="AC37" s="18">
@@ -13926,7 +14162,7 @@
       </c>
     </row>
     <row r="38" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B38" s="113"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -13950,7 +14186,7 @@
         <v>292</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L38" s="18" t="s">
         <v>265</v>
@@ -13962,7 +14198,7 @@
         <v>307</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P38" s="18" t="s">
         <v>266</v>
@@ -13974,7 +14210,7 @@
         <v>345</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T38" s="18" t="s">
         <v>195</v>
@@ -13986,7 +14222,7 @@
         <v>307</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X38" s="18" t="s">
         <v>200</v>
@@ -13994,13 +14230,13 @@
       <c r="Y38" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="Z38" s="28" t="s">
+      <c r="Z38" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="AA38" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB38" s="18" t="s">
+      <c r="AA38" s="145" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB38" s="127" t="s">
         <v>160</v>
       </c>
       <c r="AC38" s="18" t="s">
@@ -14034,7 +14270,7 @@
         <v>309</v>
       </c>
       <c r="AM38" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN38" s="18" t="s">
         <v>213</v>
@@ -14094,7 +14330,7 @@
         <v>292</v>
       </c>
       <c r="BG38" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BH38" s="18" t="s">
         <v>267</v>
@@ -14106,7 +14342,7 @@
         <v>292</v>
       </c>
       <c r="BK38" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BL38" s="18" t="s">
         <v>137</v>
@@ -14166,7 +14402,7 @@
         <v>312</v>
       </c>
       <c r="CE38" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CF38" s="18" t="s">
         <v>271</v>
@@ -14188,7 +14424,7 @@
         <v>313</v>
       </c>
       <c r="CM38" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CN38" s="18" t="s">
         <v>272</v>
@@ -14248,7 +14484,7 @@
         <v>232</v>
       </c>
       <c r="DG38" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DH38" s="18" t="s">
         <v>267</v>
@@ -14331,14 +14567,14 @@
       <c r="Y39" s="2">
         <v>-10.25</v>
       </c>
-      <c r="Z39" s="2" t="str">
+      <c r="Z39" s="111" t="str">
         <f>IF(Z27&lt;&gt;"no data",IF(Z33&lt;&gt;"no data",IF(Z29&lt;&gt;"no data",IF(Z35&lt;&gt;"no data",(Z29+Z35)-(Z27+Z33),""),""),""),"")</f>
         <v/>
       </c>
-      <c r="AA39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="2">
+      <c r="AA39" s="147">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="128">
         <v>190.5</v>
       </c>
       <c r="AC39" s="2">
@@ -14698,14 +14934,14 @@
       <c r="Y40" s="2">
         <v>-7.875</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="111">
         <f>IF(Z29&lt;&gt;"no data",IF(Z37&lt;&gt;"no data",IF(Z31&lt;&gt;"no data",IF(Z35&lt;&gt;"no data",(Z31+Z37)-(Z29+Z35),""),""),""),"")</f>
         <v>-15.714290000000005</v>
       </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="2">
+      <c r="AA40" s="147">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="128">
         <v>-45.5</v>
       </c>
       <c r="AC40" s="2">
@@ -15019,7 +15255,7 @@
         <f t="shared" ref="J41" si="8">IF(J40&lt;&gt;"",((J31+J37)-(J29+J35))/(J29+J35),"")</f>
         <v>-0.49734523433688255</v>
       </c>
-      <c r="K41" s="126">
+      <c r="K41" s="101">
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="L41" s="54">
@@ -15056,7 +15292,7 @@
         <f t="shared" ref="V41:CG41" si="9">IF(V40&lt;&gt;"",((V31+V37)-(V29+V35))/(V29+V35),"")</f>
         <v>2.9704048964218455</v>
       </c>
-      <c r="W41" s="126">
+      <c r="W41" s="101">
         <v>2.6890000000000001</v>
       </c>
       <c r="X41" s="54" t="e">
@@ -15067,14 +15303,14 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z41" s="54">
+      <c r="Z41" s="112">
         <f t="shared" si="9"/>
         <v>-3.2069979591836745E-2</v>
       </c>
-      <c r="AA41" s="54">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="54">
+      <c r="AA41" s="148">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="129">
         <f t="shared" si="9"/>
         <v>-5.6138186304750155E-2</v>
       </c>
@@ -15086,7 +15322,7 @@
         <f t="shared" si="9"/>
         <v>-6.3074287494159789E-2</v>
       </c>
-      <c r="AE41" s="126">
+      <c r="AE41" s="101">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="AF41" s="54">
@@ -15101,7 +15337,7 @@
         <f t="shared" si="9"/>
         <v>0.16640851589015748</v>
       </c>
-      <c r="AI41" s="126">
+      <c r="AI41" s="101">
         <v>-6.5000000000000002E-2</v>
       </c>
       <c r="AJ41" s="54">
@@ -15116,7 +15352,7 @@
         <f t="shared" si="9"/>
         <v>4.1457286432160803E-2</v>
       </c>
-      <c r="AM41" s="126">
+      <c r="AM41" s="101">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AN41" s="54" t="e">
@@ -15131,7 +15367,7 @@
         <f>IF(AP40&lt;&gt;"",((AP31+AP37)-(3710+AP35))/(3710+AP35),"")</f>
         <v>4.0085934759733375E-3</v>
       </c>
-      <c r="AQ41" s="126">
+      <c r="AQ41" s="101">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AR41" s="54" t="str">
@@ -15394,10 +15630,10 @@
       </c>
     </row>
     <row r="42" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="114"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="89">
         <f>Population_eurostat!C4</f>
         <v>8.7004710000000003</v>
@@ -15486,15 +15722,15 @@
         <f>Population_eurostat!D9</f>
         <v>10.610054999999999</v>
       </c>
-      <c r="Z42" s="89">
+      <c r="Z42" s="113">
         <f>Population_eurostat!E9</f>
         <v>10.693939</v>
       </c>
-      <c r="AA42" s="89">
+      <c r="AA42" s="149">
         <f>Population_eurostat!F9</f>
         <v>10.5</v>
       </c>
-      <c r="AB42" s="89">
+      <c r="AB42" s="130">
         <f>Population_eurostat!C10</f>
         <v>5.7072510000000003</v>
       </c>
@@ -15840,10 +16076,10 @@
       </c>
     </row>
     <row r="43" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="169"/>
       <c r="D43" s="33" t="s">
         <v>275</v>
       </c>
@@ -15918,15 +16154,15 @@
       <c r="Y43" s="33">
         <v>40.716094308653446</v>
       </c>
-      <c r="Z43" s="33" t="str">
+      <c r="Z43" s="114" t="str">
         <f>IF(((IF(OR(Z27="no data",Z27="n/a"),0,Z27))+IF(OR(Z33="no data",Z33="n/a"),0,Z33))&gt;0,((IF(OR(Z27="no data",Z27="n/a"),0,Z27))+IF(OR(Z33="no data",Z33="n/a"),0,Z33))/Z42,"")</f>
         <v/>
       </c>
-      <c r="AA43" s="33">
+      <c r="AA43" s="150">
         <f>IF(((IF(OR(AA27="no data",AA27="n/a"),0,AA27))+IF(OR(AA33="no data",AA33="n/a"),0,AA33))&gt;0,((IF(OR(AA27="no data",AA27="n/a"),0,AA27))+IF(OR(AA33="no data",AA33="n/a"),0,AA33))/AA42,"")</f>
         <v>49.904761904761905</v>
       </c>
-      <c r="AB43" s="33">
+      <c r="AB43" s="131">
         <v>108.63373627688706</v>
       </c>
       <c r="AC43" s="33">
@@ -16225,10 +16461,10 @@
       </c>
     </row>
     <row r="44" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="115"/>
+      <c r="C44" s="169"/>
       <c r="D44" s="33">
         <v>37.469235860909137</v>
       </c>
@@ -16305,15 +16541,15 @@
       <c r="Y44" s="33">
         <v>39.726467016429233</v>
       </c>
-      <c r="Z44" s="33">
+      <c r="Z44" s="114">
         <f>IF(((IF(OR(Z29="no data",Z29="n/a"),0,Z29))+IF(OR(Z35="no data",Z35="n/a"),0,Z35))&gt;0,((IF(OR(Z29="no data",Z29="n/a"),0,Z29))+IF(OR(Z35="no data",Z35="n/a"),0,Z35))/Z42,"")</f>
         <v>45.820347394912204</v>
       </c>
-      <c r="AA44" s="33">
+      <c r="AA44" s="150">
         <f>IF(((IF(OR(AA29="no data",AA29="n/a"),0,AA29))+IF(OR(AA35="no data",AA35="n/a"),0,AA35))&gt;0,((IF(OR(AA29="no data",AA29="n/a"),0,AA29))+IF(OR(AA35="no data",AA35="n/a"),0,AA35))/AA42,"")</f>
         <v>49.904761904761905</v>
       </c>
-      <c r="AB44" s="33">
+      <c r="AB44" s="131">
         <v>142.01232782647898</v>
       </c>
       <c r="AC44" s="33">
@@ -16612,10 +16848,10 @@
       </c>
     </row>
     <row r="45" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="115"/>
+      <c r="C45" s="169"/>
       <c r="D45" s="33">
         <v>35.917595725564745</v>
       </c>
@@ -16692,15 +16928,15 @@
       <c r="Y45" s="33">
         <v>38.984246547261066</v>
       </c>
-      <c r="Z45" s="33">
+      <c r="Z45" s="114">
         <f>IF(((IF(OR(Z31="no data",Z31="n/a"),0,Z31))+IF(OR(Z37="no data",Z37="n/a"),0,Z37))&gt;0,((IF(OR(Z31="no data",Z31="n/a"),0,Z31))+IF(OR(Z37="no data",Z37="n/a"),0,Z37))/Z42,"")</f>
         <v>44.3508897890665</v>
       </c>
-      <c r="AA45" s="33">
+      <c r="AA45" s="150">
         <f>IF(((IF(OR(AA31="no data",AA31="n/a"),0,AA31))+IF(OR(AA37="no data",AA37="n/a"),0,AA37))&gt;0,((IF(OR(AA31="no data",AA31="n/a"),0,AA31))+IF(OR(AA37="no data",AA37="n/a"),0,AA37))/AA42,"")</f>
         <v>49.904761904761905</v>
       </c>
-      <c r="AB45" s="33">
+      <c r="AB45" s="131">
         <v>134.04001330938485</v>
       </c>
       <c r="AC45" s="33">
@@ -17021,9 +17257,9 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
+      <c r="Z46" s="115"/>
+      <c r="AA46" s="151"/>
+      <c r="AB46" s="132"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -17111,10 +17347,10 @@
       <c r="DI46" s="1"/>
     </row>
     <row r="47" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B47" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="112"/>
+      <c r="B47" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="166"/>
       <c r="D47" s="5">
         <f>D$3</f>
         <v>2016</v>
@@ -17203,15 +17439,15 @@
         <f t="shared" si="12"/>
         <v>2018</v>
       </c>
-      <c r="Z47" s="5">
+      <c r="Z47" s="107">
         <f t="shared" si="12"/>
         <v>2020</v>
       </c>
-      <c r="AA47" s="5">
+      <c r="AA47" s="143">
         <f t="shared" si="12"/>
         <v>2022</v>
       </c>
-      <c r="AB47" s="5">
+      <c r="AB47" s="125">
         <f t="shared" si="12"/>
         <v>2016</v>
       </c>
@@ -17557,10 +17793,10 @@
       </c>
     </row>
     <row r="48" spans="2:113" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="117"/>
+      <c r="C48" s="171"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -17583,9 +17819,9 @@
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
+      <c r="Z48" s="116"/>
+      <c r="AA48" s="152"/>
+      <c r="AB48" s="133"/>
       <c r="AC48" s="14"/>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
@@ -17676,7 +17912,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="118"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -17750,14 +17986,14 @@
       <c r="Y49" s="19">
         <v>15461192</v>
       </c>
-      <c r="Z49" s="19">
+      <c r="Z49" s="117">
         <f>'Feuil3-2020'!Y4</f>
         <v>14828588</v>
       </c>
-      <c r="AA49" s="19">
+      <c r="AA49" s="153">
         <v>14955989</v>
       </c>
-      <c r="AB49" s="19">
+      <c r="AB49" s="134">
         <v>11310855</v>
       </c>
       <c r="AC49" s="19">
@@ -18038,7 +18274,7 @@
       </c>
     </row>
     <row r="50" spans="1:211" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="119"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -18113,14 +18349,14 @@
       <c r="Y50" s="19">
         <v>15471234</v>
       </c>
-      <c r="Z50" s="19">
+      <c r="Z50" s="117">
         <f>'Feuil3-2020'!Y5</f>
         <v>14899862</v>
       </c>
-      <c r="AA50" s="19">
+      <c r="AA50" s="153">
         <v>15000000</v>
       </c>
-      <c r="AB50" s="19">
+      <c r="AB50" s="134">
         <v>11371338</v>
       </c>
       <c r="AC50" s="19">
@@ -18397,7 +18633,7 @@
       </c>
     </row>
     <row r="51" spans="1:211" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="119"/>
+      <c r="B51" s="173"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -18471,14 +18707,14 @@
       <c r="Y51" s="19">
         <v>9482202</v>
       </c>
-      <c r="Z51" s="19">
+      <c r="Z51" s="117">
         <f>'Feuil3-2020'!Y6</f>
         <v>9314302</v>
       </c>
-      <c r="AA51" s="19">
+      <c r="AA51" s="153">
         <v>9637280</v>
       </c>
-      <c r="AB51" s="19">
+      <c r="AB51" s="134">
         <v>11598945</v>
       </c>
       <c r="AC51" s="19">
@@ -18757,7 +18993,7 @@
       </c>
     </row>
     <row r="52" spans="1:211" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="119"/>
+      <c r="B52" s="173"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -18831,14 +19067,14 @@
       <c r="Y52" s="19">
         <v>503305</v>
       </c>
-      <c r="Z52" s="19">
+      <c r="Z52" s="117">
         <f>'Feuil3-2020'!Y7</f>
         <v>195501.55172641561</v>
       </c>
-      <c r="AA52" s="19">
+      <c r="AA52" s="153">
         <v>181319</v>
       </c>
-      <c r="AB52" s="19" t="s">
+      <c r="AB52" s="134" t="s">
         <v>137</v>
       </c>
       <c r="AC52" s="19">
@@ -19119,7 +19355,7 @@
     </row>
     <row r="53" spans="1:211" s="96" customFormat="1" ht="22" x14ac:dyDescent="0.5">
       <c r="A53" s="97"/>
-      <c r="B53" s="119"/>
+      <c r="B53" s="173"/>
       <c r="C53" s="98" t="s">
         <v>39</v>
       </c>
@@ -19194,14 +19430,14 @@
       <c r="Y53" s="99">
         <v>0</v>
       </c>
-      <c r="Z53" s="99">
+      <c r="Z53" s="118">
         <f>'Feuil3-2020'!Y8</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="99">
+      <c r="AA53" s="154">
         <v>6935</v>
       </c>
-      <c r="AB53" s="99" t="s">
+      <c r="AB53" s="135" t="s">
         <v>137</v>
       </c>
       <c r="AC53" s="99">
@@ -19582,7 +19818,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="119"/>
+      <c r="B54" s="173"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -19655,14 +19891,14 @@
       <c r="Y54" s="19">
         <v>9524430</v>
       </c>
-      <c r="Z54" s="19">
+      <c r="Z54" s="117">
         <f>'Feuil3-2020'!Y9</f>
         <v>9016813</v>
       </c>
-      <c r="AA54" s="19">
+      <c r="AA54" s="153">
         <v>9839685</v>
       </c>
-      <c r="AB54" s="19">
+      <c r="AB54" s="134">
         <v>7216809</v>
       </c>
       <c r="AC54" s="19">
@@ -20692,7 +20928,7 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="163" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -20812,7 +21048,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="110"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
@@ -20930,7 +21166,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="111"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -21048,7 +21284,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="163" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -21168,7 +21404,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="110"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="8" t="s">
         <v>216</v>
       </c>
@@ -21286,7 +21522,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="111"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -21404,10 +21640,10 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="21">
         <f>article_17_synthesis_table!F12</f>
         <v>0</v>
@@ -21522,10 +21758,10 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="124"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="17" t="str">
         <f>article_17_synthesis_table!F13</f>
         <v>no data</v>
@@ -21674,7 +21910,7 @@
       <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="163" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -21794,7 +22030,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="111"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
@@ -21912,7 +22148,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="163" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -22032,7 +22268,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="111"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
@@ -22184,7 +22420,7 @@
       <c r="AD19" s="7"/>
     </row>
     <row r="20" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="163" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -22304,7 +22540,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="111"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
@@ -22422,7 +22658,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="163" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -22542,7 +22778,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="111"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -22785,7 +23021,7 @@
       <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="174" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -22905,7 +23141,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="121"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -23023,7 +23259,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="121"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
@@ -23141,7 +23377,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="121"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -23259,7 +23495,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="121"/>
+      <c r="A31" s="175"/>
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
@@ -23377,7 +23613,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="122"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
@@ -23495,7 +23731,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="120" t="s">
+      <c r="A33" s="174" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -23615,7 +23851,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="121"/>
+      <c r="A34" s="175"/>
       <c r="B34" s="12" t="s">
         <v>24</v>
       </c>
@@ -23733,7 +23969,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="121"/>
+      <c r="A35" s="175"/>
       <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
@@ -23851,7 +24087,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="121"/>
+      <c r="A36" s="175"/>
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
@@ -23969,7 +24205,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A37" s="121"/>
+      <c r="A37" s="175"/>
       <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
@@ -24087,7 +24323,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A38" s="122"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
@@ -24559,10 +24795,10 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="114"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="20">
         <f>article_17_synthesis_table!F42</f>
         <v>8.9010639999999999</v>
@@ -24677,10 +24913,10 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="115"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="33" t="str">
         <f>article_17_synthesis_table!F43</f>
         <v/>
@@ -24795,10 +25031,10 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="33">
         <f>article_17_synthesis_table!F44</f>
         <v>24.716146294420533</v>
@@ -24913,10 +25149,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A45" s="115" t="s">
+      <c r="A45" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="115"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="33">
         <f>article_17_synthesis_table!F45</f>
         <v>30.221106150905104</v>
@@ -25031,10 +25267,10 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A47" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="112"/>
+      <c r="A47" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="166"/>
       <c r="C47" s="5">
         <v>2020</v>
       </c>
@@ -25121,10 +25357,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="117"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -25155,7 +25391,7 @@
       <c r="AD48" s="14"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A49" s="118"/>
+      <c r="A49" s="172"/>
       <c r="B49" s="15" t="s">
         <v>35</v>
       </c>
@@ -25273,7 +25509,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A50" s="119"/>
+      <c r="A50" s="173"/>
       <c r="B50" s="15" t="s">
         <v>36</v>
       </c>
@@ -25391,7 +25627,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A51" s="119"/>
+      <c r="A51" s="173"/>
       <c r="B51" s="15" t="s">
         <v>37</v>
       </c>
@@ -25509,7 +25745,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A52" s="119"/>
+      <c r="A52" s="173"/>
       <c r="B52" s="15" t="s">
         <v>38</v>
       </c>
@@ -25627,7 +25863,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A53" s="119"/>
+      <c r="A53" s="173"/>
       <c r="B53" s="15" t="s">
         <v>39</v>
       </c>
@@ -25745,7 +25981,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A54" s="119"/>
+      <c r="A54" s="173"/>
       <c r="B54" s="15" t="s">
         <v>40</v>
       </c>
@@ -26642,10 +26878,10 @@
       </c>
     </row>
     <row r="3" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B3" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="112"/>
+      <c r="B3" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="166"/>
       <c r="D3" s="4">
         <v>2014</v>
       </c>
@@ -27215,7 +27451,7 @@
       <c r="DJ5" s="7"/>
     </row>
     <row r="6" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -27556,7 +27792,7 @@
       </c>
     </row>
     <row r="7" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="104"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -27895,7 +28131,7 @@
       </c>
     </row>
     <row r="8" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="104"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -28234,7 +28470,7 @@
       </c>
     </row>
     <row r="9" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -28575,7 +28811,7 @@
       </c>
     </row>
     <row r="10" spans="2:114" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="110"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -28914,7 +29150,7 @@
       </c>
     </row>
     <row r="11" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="111"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -29253,10 +29489,10 @@
       </c>
     </row>
     <row r="12" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="21">
         <f>IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -29703,10 +29939,10 @@
       </c>
     </row>
     <row r="13" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="108"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="9" t="s">
         <v>139</v>
       </c>
@@ -30159,7 +30395,7 @@
       <c r="DJ14" s="7"/>
     </row>
     <row r="15" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -30500,7 +30736,7 @@
       </c>
     </row>
     <row r="16" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="104"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -30839,7 +31075,7 @@
       </c>
     </row>
     <row r="17" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -31180,7 +31416,7 @@
       </c>
     </row>
     <row r="18" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="104"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -31636,7 +31872,7 @@
       <c r="DJ19" s="7"/>
     </row>
     <row r="20" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32006,7 +32242,7 @@
       </c>
     </row>
     <row r="21" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="104"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -32456,7 +32692,7 @@
       </c>
     </row>
     <row r="22" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -32797,7 +33033,7 @@
       </c>
     </row>
     <row r="23" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B23" s="105"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -33136,10 +33372,10 @@
       </c>
     </row>
     <row r="25" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B25" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="112"/>
+      <c r="B25" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="166"/>
       <c r="D25" s="4">
         <v>2014</v>
       </c>
@@ -33475,10 +33711,10 @@
       </c>
     </row>
     <row r="26" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="125"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -33592,7 +33828,7 @@
       <c r="DJ26" s="11"/>
     </row>
     <row r="27" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -33933,7 +34169,7 @@
       </c>
     </row>
     <row r="28" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B28" s="113"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -34270,7 +34506,7 @@
       </c>
     </row>
     <row r="29" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="113"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -34607,7 +34843,7 @@
       </c>
     </row>
     <row r="30" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B30" s="113"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -34944,7 +35180,7 @@
       </c>
     </row>
     <row r="31" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="113"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -35281,7 +35517,7 @@
       </c>
     </row>
     <row r="32" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B32" s="113"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -35618,7 +35854,7 @@
       </c>
     </row>
     <row r="33" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="167" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -35959,7 +36195,7 @@
       </c>
     </row>
     <row r="34" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B34" s="113"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -36296,7 +36532,7 @@
       </c>
     </row>
     <row r="35" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="113"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -36633,7 +36869,7 @@
       </c>
     </row>
     <row r="36" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B36" s="113"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -36970,7 +37206,7 @@
       </c>
     </row>
     <row r="37" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="113"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -37307,7 +37543,7 @@
       </c>
     </row>
     <row r="38" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B38" s="113"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -38804,10 +39040,10 @@
       </c>
     </row>
     <row r="42" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="114"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="22">
         <v>8.5077859999999994</v>
       </c>
@@ -39170,10 +39406,10 @@
       </c>
     </row>
     <row r="43" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="169"/>
       <c r="D43" s="33">
         <v>36.202132963852172</v>
       </c>
@@ -39536,10 +39772,10 @@
       </c>
     </row>
     <row r="44" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="115"/>
+      <c r="C44" s="169"/>
       <c r="D44" s="33">
         <v>38.67046021138755</v>
       </c>
@@ -39902,10 +40138,10 @@
       </c>
     </row>
     <row r="45" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="115"/>
+      <c r="C45" s="169"/>
       <c r="D45" s="33">
         <v>39.258157175086446</v>
       </c>
@@ -40603,10 +40839,10 @@
       </c>
     </row>
     <row r="47" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B47" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="112"/>
+      <c r="B47" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="166"/>
       <c r="D47" s="4">
         <v>2014</v>
       </c>
@@ -40942,10 +41178,10 @@
       </c>
     </row>
     <row r="48" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="117"/>
+      <c r="C48" s="171"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -41062,7 +41298,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="118"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -41428,7 +41664,7 @@
       </c>
     </row>
     <row r="50" spans="1:114" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="119"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -41788,7 +42024,7 @@
       </c>
     </row>
     <row r="51" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="119"/>
+      <c r="B51" s="173"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -42154,7 +42390,7 @@
       </c>
     </row>
     <row r="52" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="119"/>
+      <c r="B52" s="173"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -42520,7 +42756,7 @@
       </c>
     </row>
     <row r="53" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B53" s="119"/>
+      <c r="B53" s="173"/>
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
@@ -42889,7 +43125,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="119"/>
+      <c r="B54" s="173"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>

--- a/Article_17_EU-2022.xlsx
+++ b/Article_17_EU-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D88DA-0916-4EC6-B0B0-76688B7752C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800E647-89BA-489E-8A02-1ED54FC20B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="397">
   <si>
     <t>Forecast for investments needs by national authorities</t>
   </si>
@@ -1522,9 +1522,6 @@
     <t>2024-2032</t>
   </si>
   <si>
-    <t>2024-2030</t>
-  </si>
-  <si>
     <t>2025 - 2032</t>
   </si>
   <si>
@@ -1540,40 +1537,61 @@
     <t>2026 - 2030</t>
   </si>
   <si>
-    <t>2024 - 2032</t>
-  </si>
-  <si>
     <t>3296.5 (+IAS 523)</t>
   </si>
   <si>
-    <t>2023-2036</t>
+    <t>2027-2029</t>
   </si>
   <si>
-    <t>2023-2034</t>
+    <t>2027-2030</t>
   </si>
   <si>
-    <t>2023 - 2033</t>
+    <t>2025-2026</t>
   </si>
   <si>
-    <t>2023 - 2027</t>
+    <t>2025-2030</t>
   </si>
   <si>
-    <t>2023 - 2031</t>
+    <t>2025-2031</t>
   </si>
   <si>
-    <t>2023 - 2025</t>
+    <t>2025-2036</t>
   </si>
   <si>
-    <t>2023 - 2036</t>
+    <t>2025-2033</t>
   </si>
   <si>
-    <t>2023 - 2035</t>
+    <t>2025-2034</t>
   </si>
   <si>
-    <t>2023 - 2034</t>
+    <t>2027 - 2030</t>
   </si>
   <si>
-    <t>2023 - 2028</t>
+    <t>2025 - 2033</t>
+  </si>
+  <si>
+    <t>2025 - 2027</t>
+  </si>
+  <si>
+    <t>2025 - 2031</t>
+  </si>
+  <si>
+    <t>2025 - 2030</t>
+  </si>
+  <si>
+    <t>2025 - 2025</t>
+  </si>
+  <si>
+    <t>2025 - 2036</t>
+  </si>
+  <si>
+    <t>2025 - 2035</t>
+  </si>
+  <si>
+    <t>2025 - 2034</t>
+  </si>
+  <si>
+    <t>2025 - 2028</t>
   </si>
 </sst>
 </file>
@@ -2581,14 +2599,29 @@
     <xf numFmtId="3" fontId="4" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2614,29 +2647,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3017,172 +3035,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" s="88" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="155" t="s">
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="155" t="s">
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="155" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="155" t="s">
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="155" t="s">
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="155" t="s">
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="156"/>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="155" t="s">
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="156"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="155" t="s">
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="156"/>
-      <c r="AP1" s="156"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="155" t="s">
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="156"/>
-      <c r="AT1" s="156"/>
-      <c r="AU1" s="157"/>
-      <c r="AV1" s="155" t="s">
+      <c r="AS1" s="173"/>
+      <c r="AT1" s="173"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="156"/>
-      <c r="AX1" s="156"/>
-      <c r="AY1" s="157"/>
-      <c r="AZ1" s="155" t="s">
+      <c r="AW1" s="173"/>
+      <c r="AX1" s="173"/>
+      <c r="AY1" s="172"/>
+      <c r="AZ1" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="156"/>
-      <c r="BB1" s="156"/>
-      <c r="BC1" s="157"/>
-      <c r="BD1" s="155" t="s">
+      <c r="BA1" s="173"/>
+      <c r="BB1" s="173"/>
+      <c r="BC1" s="172"/>
+      <c r="BD1" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="156"/>
-      <c r="BF1" s="156"/>
-      <c r="BG1" s="157"/>
-      <c r="BH1" s="155" t="s">
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="172"/>
+      <c r="BH1" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="156"/>
-      <c r="BJ1" s="156"/>
-      <c r="BK1" s="157"/>
-      <c r="BL1" s="155" t="s">
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="173"/>
+      <c r="BK1" s="172"/>
+      <c r="BL1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="156"/>
-      <c r="BN1" s="156"/>
-      <c r="BO1" s="157"/>
-      <c r="BP1" s="155" t="s">
+      <c r="BM1" s="173"/>
+      <c r="BN1" s="173"/>
+      <c r="BO1" s="172"/>
+      <c r="BP1" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="156"/>
-      <c r="BR1" s="156"/>
-      <c r="BS1" s="157"/>
-      <c r="BT1" s="155" t="s">
+      <c r="BQ1" s="173"/>
+      <c r="BR1" s="173"/>
+      <c r="BS1" s="172"/>
+      <c r="BT1" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="156"/>
-      <c r="BV1" s="156"/>
-      <c r="BW1" s="157"/>
-      <c r="BX1" s="155" t="s">
+      <c r="BU1" s="173"/>
+      <c r="BV1" s="173"/>
+      <c r="BW1" s="172"/>
+      <c r="BX1" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="BY1" s="156"/>
-      <c r="BZ1" s="156"/>
-      <c r="CA1" s="157"/>
-      <c r="CB1" s="155" t="s">
+      <c r="BY1" s="173"/>
+      <c r="BZ1" s="173"/>
+      <c r="CA1" s="172"/>
+      <c r="CB1" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="CC1" s="156"/>
-      <c r="CD1" s="156"/>
-      <c r="CE1" s="157"/>
-      <c r="CF1" s="155" t="s">
+      <c r="CC1" s="173"/>
+      <c r="CD1" s="173"/>
+      <c r="CE1" s="172"/>
+      <c r="CF1" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="156"/>
-      <c r="CH1" s="156"/>
-      <c r="CI1" s="157"/>
-      <c r="CJ1" s="155" t="s">
+      <c r="CG1" s="173"/>
+      <c r="CH1" s="173"/>
+      <c r="CI1" s="172"/>
+      <c r="CJ1" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="CK1" s="156"/>
-      <c r="CL1" s="156"/>
-      <c r="CM1" s="157"/>
-      <c r="CN1" s="155" t="s">
+      <c r="CK1" s="173"/>
+      <c r="CL1" s="173"/>
+      <c r="CM1" s="172"/>
+      <c r="CN1" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="156"/>
-      <c r="CP1" s="156"/>
-      <c r="CQ1" s="157"/>
-      <c r="CR1" s="155" t="s">
+      <c r="CO1" s="173"/>
+      <c r="CP1" s="173"/>
+      <c r="CQ1" s="172"/>
+      <c r="CR1" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="156"/>
-      <c r="CT1" s="156"/>
-      <c r="CU1" s="157"/>
-      <c r="CV1" s="155" t="s">
+      <c r="CS1" s="173"/>
+      <c r="CT1" s="173"/>
+      <c r="CU1" s="172"/>
+      <c r="CV1" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="CW1" s="156"/>
-      <c r="CX1" s="156"/>
-      <c r="CY1" s="157"/>
-      <c r="CZ1" s="155" t="s">
+      <c r="CW1" s="173"/>
+      <c r="CX1" s="173"/>
+      <c r="CY1" s="172"/>
+      <c r="CZ1" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="DA1" s="156"/>
-      <c r="DB1" s="156"/>
-      <c r="DC1" s="157"/>
-      <c r="DD1" s="155" t="s">
+      <c r="DA1" s="173"/>
+      <c r="DB1" s="173"/>
+      <c r="DC1" s="172"/>
+      <c r="DD1" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="DE1" s="156"/>
-      <c r="DF1" s="156"/>
-      <c r="DG1" s="157"/>
-      <c r="DH1" s="155" t="s">
+      <c r="DE1" s="173"/>
+      <c r="DF1" s="173"/>
+      <c r="DG1" s="172"/>
+      <c r="DH1" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="DI1" s="157"/>
+      <c r="DI1" s="172"/>
     </row>
     <row r="2" spans="2:113" s="90" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="91" t="s">
@@ -3517,10 +3535,10 @@
       </c>
     </row>
     <row r="3" spans="2:113" s="93" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="160"/>
+      <c r="B3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="165"/>
       <c r="D3" s="92">
         <v>2016</v>
       </c>
@@ -4085,7 +4103,7 @@
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="163" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -4137,7 +4155,7 @@
         <v>1975.79</v>
       </c>
       <c r="S6" s="16">
-        <v>2629.15</v>
+        <v>2488.29</v>
       </c>
       <c r="T6" s="16">
         <v>272.83999999999997</v>
@@ -4149,7 +4167,7 @@
         <v>311.6832</v>
       </c>
       <c r="W6" s="16">
-        <v>476.96700499999997</v>
+        <v>458.75907100000001</v>
       </c>
       <c r="X6" s="16">
         <v>0</v>
@@ -4209,7 +4227,7 @@
         <v>39.664588000000002</v>
       </c>
       <c r="AQ6" s="17">
-        <v>39.664588000000002</v>
+        <v>29.633088000000001</v>
       </c>
       <c r="AR6" s="16" t="s">
         <v>137</v>
@@ -4233,7 +4251,7 @@
         <v>1398.55</v>
       </c>
       <c r="AY6" s="17">
-        <v>1110.6904500000001</v>
+        <v>1012.182</v>
       </c>
       <c r="AZ6" s="16">
         <v>272.83999999999997</v>
@@ -4245,7 +4263,7 @@
         <v>86.287999999999997</v>
       </c>
       <c r="BC6" s="24">
-        <v>184.30680000000001</v>
+        <v>28.806100000000001</v>
       </c>
       <c r="BD6" s="16">
         <v>387.88</v>
@@ -4257,7 +4275,7 @@
         <v>545.20000000000005</v>
       </c>
       <c r="BG6" s="16">
-        <v>692.9</v>
+        <v>657.7</v>
       </c>
       <c r="BH6" s="16">
         <v>32691.360000000001</v>
@@ -4269,7 +4287,7 @@
         <v>1004.8419</v>
       </c>
       <c r="BK6" s="16">
-        <v>2604.97123225</v>
+        <v>1439.48662825</v>
       </c>
       <c r="BL6" s="16">
         <v>50.09</v>
@@ -4280,8 +4298,8 @@
       <c r="BN6" s="16">
         <v>131.65209200000001</v>
       </c>
-      <c r="BO6" s="16">
-        <v>130.56135699999999</v>
+      <c r="BO6" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="BP6" s="16">
         <v>1.08</v>
@@ -4304,8 +4322,8 @@
       <c r="BV6" s="16">
         <v>8</v>
       </c>
-      <c r="BW6" s="16">
-        <v>8</v>
+      <c r="BW6" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="BX6" s="16" t="s">
         <v>137</v>
@@ -4341,7 +4359,7 @@
         <v>519.85</v>
       </c>
       <c r="CI6" s="17">
-        <v>820.92930000000001</v>
+        <v>473.35500000000002</v>
       </c>
       <c r="CJ6" s="16">
         <v>0</v>
@@ -4401,7 +4419,7 @@
         <v>1403.69</v>
       </c>
       <c r="DC6" s="16">
-        <v>248.59800000000001</v>
+        <v>243.44499999999999</v>
       </c>
       <c r="DD6" s="16" t="s">
         <v>137</v>
@@ -4413,7 +4431,7 @@
         <v>8.84</v>
       </c>
       <c r="DG6" s="17">
-        <v>46.16</v>
+        <v>27.7</v>
       </c>
       <c r="DH6" s="16">
         <v>12302.64</v>
@@ -4423,7 +4441,7 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="158"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -4473,7 +4491,7 @@
         <v>1233.47</v>
       </c>
       <c r="S7" s="16">
-        <v>1687.29</v>
+        <v>1588.28</v>
       </c>
       <c r="T7" s="16">
         <v>12.04</v>
@@ -4485,7 +4503,7 @@
         <v>11.2</v>
       </c>
       <c r="W7" s="16">
-        <v>68.870157000000006</v>
+        <v>57.671999999999997</v>
       </c>
       <c r="X7" s="16">
         <v>0</v>
@@ -4569,7 +4587,7 @@
         <v>1168.558</v>
       </c>
       <c r="AY7" s="17">
-        <v>944.0868825</v>
+        <v>860.35469999999998</v>
       </c>
       <c r="AZ7" s="16">
         <v>12.04</v>
@@ -4581,7 +4599,7 @@
         <v>39.706400000000002</v>
       </c>
       <c r="BC7" s="24">
-        <v>167.21279999999999</v>
+        <v>24.359400000000001</v>
       </c>
       <c r="BD7" s="16" t="s">
         <v>137</v>
@@ -4605,7 +4623,7 @@
         <v>260.24</v>
       </c>
       <c r="BK7" s="16">
-        <v>669.71140820000005</v>
+        <v>638.52298474999998</v>
       </c>
       <c r="BL7" s="16">
         <v>35.46</v>
@@ -4616,8 +4634,8 @@
       <c r="BN7" s="16">
         <v>90.776180999999994</v>
       </c>
-      <c r="BO7" s="16">
-        <v>89.925944000000001</v>
+      <c r="BO7" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="BP7" s="16">
         <v>1.08</v>
@@ -4640,8 +4658,8 @@
       <c r="BV7" s="16">
         <v>0</v>
       </c>
-      <c r="BW7" s="16">
-        <v>0</v>
+      <c r="BW7" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="BX7" s="16" t="s">
         <v>137</v>
@@ -4759,7 +4777,7 @@
       </c>
     </row>
     <row r="8" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="158"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +4827,7 @@
         <v>336</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="T8" s="16" t="s">
         <v>232</v>
@@ -4821,7 +4839,7 @@
         <v>307</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="X8" s="16">
         <v>0</v>
@@ -4881,7 +4899,7 @@
         <v>283</v>
       </c>
       <c r="AQ8" s="17" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="AR8" s="16" t="s">
         <v>137</v>
@@ -4905,7 +4923,7 @@
         <v>292</v>
       </c>
       <c r="AY8" s="17" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="AZ8" s="16" t="s">
         <v>232</v>
@@ -4917,7 +4935,7 @@
         <v>337</v>
       </c>
       <c r="BC8" s="24" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="BD8" s="16" t="s">
         <v>154</v>
@@ -4929,7 +4947,7 @@
         <v>290</v>
       </c>
       <c r="BG8" s="16" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="BH8" s="16" t="s">
         <v>233</v>
@@ -4941,7 +4959,7 @@
         <v>290</v>
       </c>
       <c r="BK8" s="16" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="BL8" s="16" t="s">
         <v>181</v>
@@ -4953,7 +4971,7 @@
         <v>335</v>
       </c>
       <c r="BO8" s="16" t="s">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="BP8" s="16" t="s">
         <v>153</v>
@@ -4977,7 +4995,7 @@
         <v>286</v>
       </c>
       <c r="BW8" s="16" t="s">
-        <v>286</v>
+        <v>137</v>
       </c>
       <c r="BX8" s="16" t="s">
         <v>137</v>
@@ -5013,7 +5031,7 @@
         <v>292</v>
       </c>
       <c r="CI8" s="17" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="CJ8" s="16" t="s">
         <v>234</v>
@@ -5073,7 +5091,7 @@
         <v>290</v>
       </c>
       <c r="DC8" s="16" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="DD8" s="16" t="s">
         <v>137</v>
@@ -5085,7 +5103,7 @@
         <v>312</v>
       </c>
       <c r="DG8" s="17" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="DH8" s="16" t="s">
         <v>181</v>
@@ -5095,7 +5113,7 @@
       </c>
     </row>
     <row r="9" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -5123,7 +5141,7 @@
         <v>28.388000000000002</v>
       </c>
       <c r="K9" s="17">
-        <v>84.549000000000007</v>
+        <v>81.823999999999998</v>
       </c>
       <c r="L9" s="16">
         <v>732</v>
@@ -5159,7 +5177,7 @@
         <v>131</v>
       </c>
       <c r="W9" s="16">
-        <v>154.11308099999999</v>
+        <v>122.78712</v>
       </c>
       <c r="X9" s="16">
         <v>0</v>
@@ -5170,8 +5188,8 @@
       <c r="Z9" s="105">
         <v>245.1</v>
       </c>
-      <c r="AA9" s="140">
-        <v>4.72</v>
+      <c r="AA9" s="140" t="s">
+        <v>137</v>
       </c>
       <c r="AB9" s="123" t="s">
         <v>137</v>
@@ -5207,7 +5225,7 @@
         <v>12.4</v>
       </c>
       <c r="AM9" s="17">
-        <v>2.15</v>
+        <v>0.6</v>
       </c>
       <c r="AN9" s="16">
         <v>228</v>
@@ -5219,7 +5237,7 @@
         <v>758.95111699999995</v>
       </c>
       <c r="AQ9" s="16">
-        <v>1154.7580602</v>
+        <v>901.59135901000002</v>
       </c>
       <c r="AR9" s="16" t="s">
         <v>137</v>
@@ -5243,7 +5261,7 @@
         <v>696.01</v>
       </c>
       <c r="AY9" s="17">
-        <v>462.49009999999998</v>
+        <v>411.03149999999999</v>
       </c>
       <c r="AZ9" s="16">
         <v>145.44</v>
@@ -5255,7 +5273,7 @@
         <v>140.65</v>
       </c>
       <c r="BC9" s="24">
-        <v>189.03831700000001</v>
+        <v>126.06979699999999</v>
       </c>
       <c r="BD9" s="16">
         <v>603.33000000000004</v>
@@ -5267,7 +5285,7 @@
         <v>732.7</v>
       </c>
       <c r="BG9" s="94">
-        <v>811.3</v>
+        <v>244.1</v>
       </c>
       <c r="BH9" s="16">
         <v>151350.82</v>
@@ -5279,7 +5297,7 @@
         <v>3326.6045600000002</v>
       </c>
       <c r="BK9" s="16">
-        <v>3392.4550969299999</v>
+        <v>2209.4706684900002</v>
       </c>
       <c r="BL9" s="16">
         <v>0.74</v>
@@ -5290,8 +5308,8 @@
       <c r="BN9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BO9" s="17">
-        <v>3.2</v>
+      <c r="BO9" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="BP9" s="16">
         <v>3.12</v>
@@ -5351,7 +5369,7 @@
         <v>221.42</v>
       </c>
       <c r="CI9" s="17">
-        <v>702.39160000000004</v>
+        <v>543.01020000000005</v>
       </c>
       <c r="CJ9" s="16">
         <v>111.33</v>
@@ -5363,7 +5381,7 @@
         <v>124.947</v>
       </c>
       <c r="CM9" s="17">
-        <v>130.30500000000001</v>
+        <v>115.746</v>
       </c>
       <c r="CN9" s="16">
         <v>1917.43</v>
@@ -5411,7 +5429,7 @@
         <v>2494.4960000000001</v>
       </c>
       <c r="DC9" s="16">
-        <v>2529.7570000000001</v>
+        <v>2165.0889999999999</v>
       </c>
       <c r="DD9" s="16">
         <v>101</v>
@@ -5423,7 +5441,7 @@
         <v>8.84</v>
       </c>
       <c r="DG9" s="16">
-        <v>46.16</v>
+        <v>33.56</v>
       </c>
       <c r="DH9" s="16">
         <v>128.51</v>
@@ -5433,7 +5451,7 @@
       </c>
     </row>
     <row r="10" spans="2:113" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="164"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -5495,7 +5513,7 @@
         <v>28</v>
       </c>
       <c r="W10" s="16">
-        <v>31.314511</v>
+        <v>9.7250519999999998</v>
       </c>
       <c r="X10" s="16">
         <v>0</v>
@@ -5555,7 +5573,7 @@
         <v>62.28</v>
       </c>
       <c r="AQ10" s="16">
-        <v>70.861999999999995</v>
+        <v>66.081999999999994</v>
       </c>
       <c r="AR10" s="16" t="s">
         <v>137</v>
@@ -5579,7 +5597,7 @@
         <v>563.52949999999998</v>
       </c>
       <c r="AY10" s="17">
-        <v>375.37130500000001</v>
+        <v>335.28394500000002</v>
       </c>
       <c r="AZ10" s="16">
         <v>30.07</v>
@@ -5591,7 +5609,7 @@
         <v>114.42</v>
       </c>
       <c r="BC10" s="24">
-        <v>158.48191299999999</v>
+        <v>101.34254300000001</v>
       </c>
       <c r="BD10" s="16">
         <v>112.86</v>
@@ -5602,8 +5620,8 @@
       <c r="BF10" s="16">
         <v>54.2</v>
       </c>
-      <c r="BG10" s="94">
-        <v>54.2</v>
+      <c r="BG10" s="94" t="s">
+        <v>137</v>
       </c>
       <c r="BH10" s="16" t="s">
         <v>137</v>
@@ -5615,7 +5633,7 @@
         <v>144.7867</v>
       </c>
       <c r="BK10" s="16">
-        <v>214.3526937</v>
+        <v>203.87224155999999</v>
       </c>
       <c r="BL10" s="16" t="s">
         <v>137</v>
@@ -5699,7 +5717,7 @@
         <v>39.066000000000003</v>
       </c>
       <c r="CM10" s="17">
-        <v>44.720999999999997</v>
+        <v>34.93</v>
       </c>
       <c r="CN10" s="16">
         <v>898.38999999999896</v>
@@ -5747,7 +5765,7 @@
         <v>52.3</v>
       </c>
       <c r="DC10" s="16">
-        <v>322.10000000000002</v>
+        <v>310</v>
       </c>
       <c r="DD10" s="16" t="s">
         <v>137</v>
@@ -5769,7 +5787,7 @@
       </c>
     </row>
     <row r="11" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="165"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>341</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>239</v>
@@ -5819,7 +5837,7 @@
         <v>330</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="T11" s="16" t="s">
         <v>231</v>
@@ -5831,7 +5849,7 @@
         <v>307</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="X11" s="16">
         <v>0</v>
@@ -5843,7 +5861,7 @@
         <v>342</v>
       </c>
       <c r="AA11" s="140" t="s">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="AB11" s="123" t="s">
         <v>137</v>
@@ -5879,7 +5897,7 @@
         <v>312</v>
       </c>
       <c r="AM11" s="17" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="AN11" s="16" t="s">
         <v>240</v>
@@ -5891,7 +5909,7 @@
         <v>332</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AR11" s="16" t="s">
         <v>137</v>
@@ -5915,7 +5933,7 @@
         <v>292</v>
       </c>
       <c r="AY11" s="17" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="AZ11" s="16" t="s">
         <v>231</v>
@@ -5927,7 +5945,7 @@
         <v>309</v>
       </c>
       <c r="BC11" s="24" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="BD11" s="16" t="s">
         <v>231</v>
@@ -5939,7 +5957,7 @@
         <v>333</v>
       </c>
       <c r="BG11" s="16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="BH11" s="16" t="s">
         <v>193</v>
@@ -5951,7 +5969,7 @@
         <v>332</v>
       </c>
       <c r="BK11" s="16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="BL11" s="16" t="s">
         <v>172</v>
@@ -5963,7 +5981,7 @@
         <v>137</v>
       </c>
       <c r="BO11" s="17" t="s">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="BP11" s="16" t="s">
         <v>193</v>
@@ -6023,7 +6041,7 @@
         <v>287</v>
       </c>
       <c r="CI11" s="17" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="CJ11" s="16" t="s">
         <v>188</v>
@@ -6035,7 +6053,7 @@
         <v>292</v>
       </c>
       <c r="CM11" s="17" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="CN11" s="16" t="s">
         <v>194</v>
@@ -6083,7 +6101,7 @@
         <v>287</v>
       </c>
       <c r="DC11" s="16" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="DD11" s="16" t="s">
         <v>192</v>
@@ -6095,7 +6113,7 @@
         <v>343</v>
       </c>
       <c r="DG11" s="16" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="DH11" s="16" t="s">
         <v>241</v>
@@ -6105,10 +6123,10 @@
       </c>
     </row>
     <row r="12" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="21">
         <f t="shared" ref="D12:BO12" si="0">IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -6139,7 +6157,7 @@
       </c>
       <c r="K12" s="16">
         <f t="shared" si="0"/>
-        <v>84.549000000000007</v>
+        <v>81.823999999999998</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
@@ -6171,7 +6189,7 @@
       </c>
       <c r="S12" s="16">
         <f t="shared" si="0"/>
-        <v>3776.9</v>
+        <v>3636.04</v>
       </c>
       <c r="T12" s="16">
         <f t="shared" si="0"/>
@@ -6187,7 +6205,7 @@
       </c>
       <c r="W12" s="16">
         <f t="shared" si="0"/>
-        <v>631.08008599999994</v>
+        <v>581.54619100000002</v>
       </c>
       <c r="X12" s="16">
         <f t="shared" si="0"/>
@@ -6203,7 +6221,7 @@
       </c>
       <c r="AA12" s="141">
         <f t="shared" si="0"/>
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="123">
         <f t="shared" si="0"/>
@@ -6251,7 +6269,7 @@
       </c>
       <c r="AM12" s="16">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>0.6</v>
       </c>
       <c r="AN12" s="16">
         <f t="shared" si="0"/>
@@ -6267,7 +6285,7 @@
       </c>
       <c r="AQ12" s="16">
         <f t="shared" si="0"/>
-        <v>1194.4226482000001</v>
+        <v>931.22444701000006</v>
       </c>
       <c r="AR12" s="16">
         <f t="shared" si="0"/>
@@ -6299,7 +6317,7 @@
       </c>
       <c r="AY12" s="16">
         <f t="shared" si="0"/>
-        <v>1573.18055</v>
+        <v>1423.2135000000001</v>
       </c>
       <c r="AZ12" s="16">
         <f t="shared" si="0"/>
@@ -6315,7 +6333,7 @@
       </c>
       <c r="BC12" s="16">
         <f t="shared" si="0"/>
-        <v>373.34511700000002</v>
+        <v>154.87589700000001</v>
       </c>
       <c r="BD12" s="16">
         <f t="shared" si="0"/>
@@ -6331,7 +6349,7 @@
       </c>
       <c r="BG12" s="16">
         <f t="shared" si="0"/>
-        <v>1504.1999999999998</v>
+        <v>901.80000000000007</v>
       </c>
       <c r="BH12" s="16">
         <f t="shared" si="0"/>
@@ -6347,7 +6365,7 @@
       </c>
       <c r="BK12" s="16">
         <f t="shared" si="0"/>
-        <v>5997.4263291799998</v>
+        <v>3648.9572967399999</v>
       </c>
       <c r="BL12" s="16">
         <f t="shared" si="0"/>
@@ -6363,7 +6381,7 @@
       </c>
       <c r="BO12" s="16">
         <f t="shared" si="0"/>
-        <v>133.76135699999998</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="16">
         <f t="shared" ref="BP12:DI12" si="1">IF(BP6="n/a",0,IF(BP6="no data",0,BP6))+IF(BP9="n/a",0,IF(BP9="no data",0,BP9))</f>
@@ -6395,7 +6413,7 @@
       </c>
       <c r="BW12" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="16">
         <f t="shared" si="1"/>
@@ -6439,7 +6457,7 @@
       </c>
       <c r="CI12" s="16">
         <f t="shared" si="1"/>
-        <v>1523.3209000000002</v>
+        <v>1016.3652000000001</v>
       </c>
       <c r="CJ12" s="16">
         <f t="shared" si="1"/>
@@ -6455,7 +6473,7 @@
       </c>
       <c r="CM12" s="16">
         <f t="shared" si="1"/>
-        <v>130.30500000000001</v>
+        <v>115.746</v>
       </c>
       <c r="CN12" s="16">
         <f t="shared" si="1"/>
@@ -6519,7 +6537,7 @@
       </c>
       <c r="DC12" s="16">
         <f t="shared" si="1"/>
-        <v>2778.355</v>
+        <v>2408.5340000000001</v>
       </c>
       <c r="DD12" s="16">
         <f t="shared" si="1"/>
@@ -6535,7 +6553,7 @@
       </c>
       <c r="DG12" s="16">
         <f t="shared" si="1"/>
-        <v>92.32</v>
+        <v>61.260000000000005</v>
       </c>
       <c r="DH12" s="16">
         <f t="shared" si="1"/>
@@ -6547,10 +6565,10 @@
       </c>
     </row>
     <row r="13" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="162"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
@@ -6573,7 +6591,7 @@
         <v>341</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>140</v>
@@ -6585,7 +6603,7 @@
         <v>290</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>141</v>
@@ -6597,7 +6615,7 @@
         <v>330</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="T13" s="32" t="s">
         <v>196</v>
@@ -6609,7 +6627,7 @@
         <v>307</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>137</v>
@@ -6621,7 +6639,7 @@
         <v>342</v>
       </c>
       <c r="AA13" s="140" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AB13" s="124" t="s">
         <v>137</v>
@@ -6645,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>191</v>
@@ -6657,7 +6675,7 @@
         <v>312</v>
       </c>
       <c r="AM13" s="17" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AN13" s="16" t="s">
         <v>240</v>
@@ -6669,7 +6687,7 @@
         <v>332</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AR13" s="17" t="s">
         <v>137</v>
@@ -6693,7 +6711,7 @@
         <v>292</v>
       </c>
       <c r="AY13" s="17" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="AZ13" s="9" t="s">
         <v>195</v>
@@ -6705,7 +6723,7 @@
         <v>309</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="BD13" s="9" t="s">
         <v>177</v>
@@ -6717,7 +6735,7 @@
         <v>290</v>
       </c>
       <c r="BG13" s="9" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="BH13" s="9" t="s">
         <v>183</v>
@@ -6729,7 +6747,7 @@
         <v>332</v>
       </c>
       <c r="BK13" s="9" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="BL13" s="9" t="s">
         <v>181</v>
@@ -6741,7 +6759,7 @@
         <v>335</v>
       </c>
       <c r="BO13" s="9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="BP13" s="9" t="s">
         <v>193</v>
@@ -6753,7 +6771,7 @@
         <v>137</v>
       </c>
       <c r="BS13" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BT13" s="17" t="s">
         <v>137</v>
@@ -6777,7 +6795,7 @@
         <v>334</v>
       </c>
       <c r="CA13" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CB13" s="34" t="s">
         <v>139</v>
@@ -6801,7 +6819,7 @@
         <v>287</v>
       </c>
       <c r="CI13" s="17" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="CJ13" s="17" t="s">
         <v>188</v>
@@ -6813,7 +6831,7 @@
         <v>292</v>
       </c>
       <c r="CM13" s="17" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="CN13" s="9" t="s">
         <v>194</v>
@@ -6837,7 +6855,7 @@
         <v>290</v>
       </c>
       <c r="CU13" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CV13" s="9" t="s">
         <v>193</v>
@@ -6861,7 +6879,7 @@
         <v>290</v>
       </c>
       <c r="DC13" s="9" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="DD13" s="9" t="s">
         <v>192</v>
@@ -6873,7 +6891,7 @@
         <v>309</v>
       </c>
       <c r="DG13" s="16" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="DH13" s="9" t="s">
         <v>192</v>
@@ -6999,7 +7017,7 @@
       <c r="DI14" s="7"/>
     </row>
     <row r="15" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="163" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -7337,7 +7355,7 @@
       </c>
     </row>
     <row r="16" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="158"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -7673,7 +7691,7 @@
       </c>
     </row>
     <row r="17" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -7701,7 +7719,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="17">
         <v>211</v>
@@ -7725,7 +7743,7 @@
         <v>60</v>
       </c>
       <c r="S17" s="17">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T17" s="17">
         <v>7</v>
@@ -7737,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="W17" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17" s="17">
         <v>6</v>
@@ -7749,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="124" t="s">
         <v>137</v>
@@ -7785,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="AM17" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="17">
         <v>140</v>
@@ -7797,7 +7815,7 @@
         <v>336</v>
       </c>
       <c r="AQ17" s="17">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="AR17" s="17" t="s">
         <v>137</v>
@@ -7821,7 +7839,7 @@
         <v>123</v>
       </c>
       <c r="AY17" s="17">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="AZ17" s="17">
         <v>7</v>
@@ -7833,7 +7851,7 @@
         <v>6</v>
       </c>
       <c r="BC17" s="27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD17" s="17">
         <v>29</v>
@@ -7845,7 +7863,7 @@
         <v>6</v>
       </c>
       <c r="BG17" s="17">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BH17" s="17">
         <v>1860</v>
@@ -7857,7 +7875,7 @@
         <v>1292</v>
       </c>
       <c r="BK17" s="17">
-        <v>1231</v>
+        <v>895</v>
       </c>
       <c r="BL17" s="17">
         <v>1</v>
@@ -7869,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="17">
         <v>1</v>
@@ -7929,7 +7947,7 @@
         <v>163</v>
       </c>
       <c r="CI17" s="17">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="CJ17" s="17">
         <v>49</v>
@@ -7941,7 +7959,7 @@
         <v>22</v>
       </c>
       <c r="CM17" s="17">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="CN17" s="17">
         <v>650</v>
@@ -7989,7 +8007,7 @@
         <v>388</v>
       </c>
       <c r="DC17" s="17">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="DD17" s="17">
         <v>12</v>
@@ -8001,7 +8019,7 @@
         <v>5</v>
       </c>
       <c r="DG17" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DH17" s="17">
         <v>34</v>
@@ -8011,7 +8029,7 @@
       </c>
     </row>
     <row r="18" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="158"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -8463,7 +8481,7 @@
       <c r="DI19" s="7"/>
     </row>
     <row r="20" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="163" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -8825,7 +8843,7 @@
       </c>
     </row>
     <row r="21" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="158"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -9243,7 +9261,7 @@
       </c>
     </row>
     <row r="22" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="164" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -9271,7 +9289,7 @@
         <v>42700</v>
       </c>
       <c r="K22" s="17">
-        <v>207800</v>
+        <v>205600</v>
       </c>
       <c r="L22" s="17">
         <v>11900</v>
@@ -9295,7 +9313,7 @@
         <v>3926259</v>
       </c>
       <c r="S22" s="17">
-        <v>3828886</v>
+        <v>3790565</v>
       </c>
       <c r="T22" s="17">
         <v>263467</v>
@@ -9307,7 +9325,7 @@
         <v>231467</v>
       </c>
       <c r="W22" s="17">
-        <v>118800</v>
+        <v>74900</v>
       </c>
       <c r="X22" s="17">
         <v>0</v>
@@ -9318,8 +9336,8 @@
       <c r="Z22" s="105">
         <v>1641600</v>
       </c>
-      <c r="AA22" s="140">
-        <v>10000</v>
+      <c r="AA22" s="140" t="s">
+        <v>137</v>
       </c>
       <c r="AB22" s="124" t="s">
         <v>137</v>
@@ -9355,7 +9373,7 @@
         <v>51100</v>
       </c>
       <c r="AM22" s="17">
-        <v>189100</v>
+        <v>120000</v>
       </c>
       <c r="AN22" s="17">
         <v>3690214</v>
@@ -9367,7 +9385,7 @@
         <v>4406823</v>
       </c>
       <c r="AQ22" s="17">
-        <v>19125803</v>
+        <v>16031758</v>
       </c>
       <c r="AR22" s="17" t="s">
         <v>137</v>
@@ -9391,7 +9409,7 @@
         <v>837430</v>
       </c>
       <c r="AY22" s="17">
-        <v>825783</v>
+        <v>516110</v>
       </c>
       <c r="AZ22" s="17">
         <v>263467</v>
@@ -9403,7 +9421,7 @@
         <v>766167</v>
       </c>
       <c r="BC22" s="17">
-        <v>474076</v>
+        <v>208006</v>
       </c>
       <c r="BD22" s="17">
         <v>2813393</v>
@@ -9415,7 +9433,7 @@
         <v>2353294</v>
       </c>
       <c r="BG22" s="17">
-        <v>2930356</v>
+        <v>66582</v>
       </c>
       <c r="BH22" s="17">
         <v>58939277</v>
@@ -9427,7 +9445,7 @@
         <v>42762321</v>
       </c>
       <c r="BK22" s="17">
-        <v>38201390</v>
+        <v>30573497</v>
       </c>
       <c r="BL22" s="17">
         <v>21000</v>
@@ -9438,8 +9456,8 @@
       <c r="BN22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BO22" s="17">
-        <v>20000</v>
+      <c r="BO22" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="BP22" s="17">
         <v>71363</v>
@@ -9499,7 +9517,7 @@
         <v>6578245</v>
       </c>
       <c r="CI22" s="17">
-        <v>8049547</v>
+        <v>5342536</v>
       </c>
       <c r="CJ22" s="17">
         <v>1498130</v>
@@ -9511,7 +9529,7 @@
         <v>754349</v>
       </c>
       <c r="CM22" s="17">
-        <v>1341380</v>
+        <v>1126430</v>
       </c>
       <c r="CN22" s="17">
         <v>15990026</v>
@@ -9559,7 +9577,7 @@
         <v>8123195</v>
       </c>
       <c r="DC22" s="17">
-        <v>8162615</v>
+        <v>6832489</v>
       </c>
       <c r="DD22" s="17">
         <v>251500</v>
@@ -9571,7 +9589,7 @@
         <v>22900</v>
       </c>
       <c r="DG22" s="17">
-        <v>29600</v>
+        <v>22200</v>
       </c>
       <c r="DH22" s="17">
         <v>1880299</v>
@@ -9581,7 +9599,7 @@
       </c>
     </row>
     <row r="23" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B23" s="159"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -9607,7 +9625,7 @@
         <v>46000</v>
       </c>
       <c r="K23" s="17">
-        <v>238860</v>
+        <v>236160</v>
       </c>
       <c r="L23" s="17">
         <v>2338976</v>
@@ -9631,7 +9649,7 @@
         <v>5475174</v>
       </c>
       <c r="S23" s="17">
-        <v>5185894</v>
+        <v>5142329</v>
       </c>
       <c r="T23" s="17">
         <v>337883</v>
@@ -9643,7 +9661,7 @@
         <v>452850</v>
       </c>
       <c r="W23" s="17">
-        <v>340183</v>
+        <v>260300</v>
       </c>
       <c r="X23" s="17">
         <v>0</v>
@@ -9654,8 +9672,8 @@
       <c r="Z23" s="105">
         <v>1750000</v>
       </c>
-      <c r="AA23" s="140">
-        <v>35000</v>
+      <c r="AA23" s="140" t="s">
+        <v>137</v>
       </c>
       <c r="AB23" s="124" t="s">
         <v>137</v>
@@ -9691,7 +9709,7 @@
         <v>49100</v>
       </c>
       <c r="AM23" s="17">
-        <v>206400</v>
+        <v>135000</v>
       </c>
       <c r="AN23" s="17">
         <v>3835707</v>
@@ -9703,7 +9721,7 @@
         <v>5754232</v>
       </c>
       <c r="AQ23" s="17">
-        <v>23797204</v>
+        <v>19634054</v>
       </c>
       <c r="AR23" s="17" t="s">
         <v>137</v>
@@ -9727,7 +9745,7 @@
         <v>1184699</v>
       </c>
       <c r="AY23" s="17">
-        <v>1162232</v>
+        <v>753603</v>
       </c>
       <c r="AZ23" s="17">
         <v>337883</v>
@@ -9739,7 +9757,7 @@
         <v>762033</v>
       </c>
       <c r="BC23" s="27">
-        <v>505464</v>
+        <v>226017</v>
       </c>
       <c r="BD23" s="17">
         <v>3331911</v>
@@ -9751,7 +9769,7 @@
         <v>2482300</v>
       </c>
       <c r="BG23" s="17">
-        <v>3133533</v>
+        <v>91650</v>
       </c>
       <c r="BH23" s="17">
         <v>132272023</v>
@@ -9763,7 +9781,7 @@
         <v>106565049</v>
       </c>
       <c r="BK23" s="17">
-        <v>90813245</v>
+        <v>44239665</v>
       </c>
       <c r="BL23" s="17">
         <v>28317</v>
@@ -9774,8 +9792,8 @@
       <c r="BN23" s="17">
         <v>0</v>
       </c>
-      <c r="BO23" s="17">
-        <v>30000</v>
+      <c r="BO23" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="BP23" s="17">
         <v>72000</v>
@@ -9835,7 +9853,7 @@
         <v>11913043</v>
       </c>
       <c r="CI23" s="17">
-        <v>10468419</v>
+        <v>6904042</v>
       </c>
       <c r="CJ23" s="17">
         <v>2019037</v>
@@ -9847,7 +9865,7 @@
         <v>1206456</v>
       </c>
       <c r="CM23" s="17">
-        <v>1694546</v>
+        <v>1425937</v>
       </c>
       <c r="CN23" s="17">
         <v>20301297</v>
@@ -9895,7 +9913,7 @@
         <v>9354671</v>
       </c>
       <c r="DC23" s="17">
-        <v>9758245</v>
+        <v>8426069</v>
       </c>
       <c r="DD23" s="17">
         <v>307500</v>
@@ -9907,7 +9925,7 @@
         <v>27770</v>
       </c>
       <c r="DG23" s="17">
-        <v>38750</v>
+        <v>30000</v>
       </c>
       <c r="DH23" s="17">
         <v>2251527</v>
@@ -9918,10 +9936,10 @@
     </row>
     <row r="24" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="166"/>
+      <c r="B25" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="156"/>
       <c r="D25" s="5">
         <f>D$3</f>
         <v>2016</v>
@@ -10364,10 +10382,10 @@
       </c>
     </row>
     <row r="26" spans="2:113" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="170"/>
+      <c r="C26" s="162"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -10480,7 +10498,7 @@
       <c r="DI26" s="11"/>
     </row>
     <row r="27" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="160" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -10818,7 +10836,7 @@
       </c>
     </row>
     <row r="28" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B28" s="167"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -11152,7 +11170,7 @@
       </c>
     </row>
     <row r="29" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="167"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -11272,7 +11290,7 @@
         <v>316</v>
       </c>
       <c r="AQ29" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AR29" s="28">
         <v>1989</v>
@@ -11486,7 +11504,7 @@
       </c>
     </row>
     <row r="30" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B30" s="167"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -11820,7 +11838,7 @@
       </c>
     </row>
     <row r="31" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="167"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -12154,7 +12172,7 @@
       </c>
     </row>
     <row r="32" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B32" s="167"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -12488,7 +12506,7 @@
       </c>
     </row>
     <row r="33" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -12826,7 +12844,7 @@
       </c>
     </row>
     <row r="34" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B34" s="167"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -13160,7 +13178,7 @@
       </c>
     </row>
     <row r="35" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="167"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -13494,7 +13512,7 @@
       </c>
     </row>
     <row r="36" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B36" s="167"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -13828,7 +13846,7 @@
       </c>
     </row>
     <row r="37" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="167"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -14162,7 +14180,7 @@
       </c>
     </row>
     <row r="38" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B38" s="167"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -14874,7 +14892,7 @@
         <v>49</v>
       </c>
       <c r="G40" s="2">
-        <v>-106</v>
+        <v>-32</v>
       </c>
       <c r="H40" s="2">
         <v>1.7866666666666902</v>
@@ -14887,7 +14905,7 @@
         <v>-173.28999999999996</v>
       </c>
       <c r="K40" s="2">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="L40" s="2">
         <v>133.48714285714283</v>
@@ -14913,7 +14931,7 @@
         <v/>
       </c>
       <c r="S40" s="2">
-        <v>428</v>
+        <v>128</v>
       </c>
       <c r="T40" s="2">
         <v>-1</v>
@@ -14926,7 +14944,7 @@
         <v>47.318549999999995</v>
       </c>
       <c r="W40" s="2">
-        <v>88</v>
+        <v>-22</v>
       </c>
       <c r="X40" s="2">
         <v>0.10000000000002274</v>
@@ -14952,7 +14970,7 @@
         <v>-50.625</v>
       </c>
       <c r="AE40" s="2">
-        <v>-61</v>
+        <v>19</v>
       </c>
       <c r="AF40" s="2">
         <v>5.6700000000000017</v>
@@ -14965,7 +14983,7 @@
         <v>5.3933000000000035</v>
       </c>
       <c r="AI40" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="2">
         <v>11</v>
@@ -14978,7 +14996,7 @@
         <v>16.5</v>
       </c>
       <c r="AM40" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="2">
         <v>779</v>
@@ -14991,7 +15009,7 @@
         <v>22.856999999999971</v>
       </c>
       <c r="AQ40" s="2">
-        <v>-86</v>
+        <v>-357</v>
       </c>
       <c r="AR40" s="2" t="str">
         <f t="shared" ref="AR40:AT40" si="6">IF(AR29&lt;&gt;"no data",IF(AR37&lt;&gt;"no data",IF(AR31&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR31+AR37)-(3710+AR35),""),""),""),"")</f>
@@ -15019,7 +15037,7 @@
         <v/>
       </c>
       <c r="AY40" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AZ40" s="2">
         <v>-1.7225000000000037</v>
@@ -15032,7 +15050,7 @@
         <v/>
       </c>
       <c r="BC40" s="2">
-        <v>-62</v>
+        <v>-32</v>
       </c>
       <c r="BD40" s="2" t="s">
         <v>275</v>
@@ -15045,7 +15063,7 @@
         <v>346.93340000000001</v>
       </c>
       <c r="BG40" s="2">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="BH40" s="2">
         <v>-483.11299999999983</v>
@@ -15071,7 +15089,7 @@
         <v>9.3479679999999998</v>
       </c>
       <c r="BO40" s="2">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="BP40" s="2" t="s">
         <v>275</v>
@@ -15097,7 +15115,7 @@
         <v>-8.5</v>
       </c>
       <c r="BW40" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BX40" s="2">
         <v>-0.42800000000000082</v>
@@ -15110,7 +15128,7 @@
         <v>16.285000000000004</v>
       </c>
       <c r="CA40" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="CB40" s="2">
         <v>23.5</v>
@@ -15123,7 +15141,7 @@
         <v>54.166630000000168</v>
       </c>
       <c r="CE40" s="2">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="CF40" s="2" t="s">
         <v>275</v>
@@ -15136,7 +15154,7 @@
         <v/>
       </c>
       <c r="CI40" s="2">
-        <v>2877</v>
+        <v>1711</v>
       </c>
       <c r="CJ40" s="2">
         <v>-22.905999999999999</v>
@@ -15175,7 +15193,7 @@
         <v>-15.930999999999997</v>
       </c>
       <c r="CU40" s="2">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="CV40" s="2">
         <v>-49</v>
@@ -15201,7 +15219,7 @@
         <v/>
       </c>
       <c r="DC40" s="2">
-        <v>764</v>
+        <v>506</v>
       </c>
       <c r="DD40" s="2">
         <v>84.399999999999977</v>
@@ -15630,10 +15648,10 @@
       </c>
     </row>
     <row r="42" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B42" s="168" t="s">
+      <c r="B42" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="168"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="89">
         <f>Population_eurostat!C4</f>
         <v>8.7004710000000003</v>
@@ -16076,10 +16094,10 @@
       </c>
     </row>
     <row r="43" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B43" s="169" t="s">
+      <c r="B43" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="169"/>
+      <c r="C43" s="155"/>
       <c r="D43" s="33" t="s">
         <v>275</v>
       </c>
@@ -16461,10 +16479,10 @@
       </c>
     </row>
     <row r="44" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="169"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="33">
         <v>37.469235860909137</v>
       </c>
@@ -16848,10 +16866,10 @@
       </c>
     </row>
     <row r="45" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="169"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="33">
         <v>35.917595725564745</v>
       </c>
@@ -17347,10 +17365,10 @@
       <c r="DI46" s="1"/>
     </row>
     <row r="47" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B47" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="166"/>
+      <c r="B47" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="156"/>
       <c r="D47" s="5">
         <f>D$3</f>
         <v>2016</v>
@@ -17793,10 +17811,10 @@
       </c>
     </row>
     <row r="48" spans="2:113" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="171"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -17912,7 +17930,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="172"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -18274,7 +18292,7 @@
       </c>
     </row>
     <row r="50" spans="1:211" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="173"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -18633,7 +18651,7 @@
       </c>
     </row>
     <row r="51" spans="1:211" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="173"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -18993,7 +19011,7 @@
       </c>
     </row>
     <row r="52" spans="1:211" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="173"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -19355,7 +19373,7 @@
     </row>
     <row r="53" spans="1:211" s="96" customFormat="1" ht="22" x14ac:dyDescent="0.5">
       <c r="A53" s="97"/>
-      <c r="B53" s="173"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="98" t="s">
         <v>39</v>
       </c>
@@ -19818,7 +19836,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="173"/>
+      <c r="B54" s="159"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -20188,24 +20206,20 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="DH1:DI1"/>
     <mergeCell ref="DD1:DG1"/>
     <mergeCell ref="CZ1:DC1"/>
@@ -20222,20 +20236,24 @@
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D41:K41">
@@ -20928,7 +20946,7 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -21048,7 +21066,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="164"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
@@ -21166,7 +21184,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="165"/>
+      <c r="A8" s="170"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -21284,7 +21302,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="168" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -21404,7 +21422,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="164"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="8" t="s">
         <v>216</v>
       </c>
@@ -21522,7 +21540,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="165"/>
+      <c r="A11" s="170"/>
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -21910,7 +21928,7 @@
       <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="168" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -22030,7 +22048,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="165"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
@@ -22148,7 +22166,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="168" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -22268,7 +22286,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="165"/>
+      <c r="A18" s="170"/>
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
@@ -22420,7 +22438,7 @@
       <c r="AD19" s="7"/>
     </row>
     <row r="20" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="168" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -22540,7 +22558,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="165"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
@@ -22658,7 +22676,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="168" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -22778,7 +22796,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="165"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -24795,10 +24813,10 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="168"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="20">
         <f>article_17_synthesis_table!F42</f>
         <v>8.9010639999999999</v>
@@ -24913,10 +24931,10 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="169"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="33" t="str">
         <f>article_17_synthesis_table!F43</f>
         <v/>
@@ -25031,10 +25049,10 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="169"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="33">
         <f>article_17_synthesis_table!F44</f>
         <v>24.716146294420533</v>
@@ -25149,10 +25167,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="169"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="33">
         <f>article_17_synthesis_table!F45</f>
         <v>30.221106150905104</v>
@@ -25267,10 +25285,10 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A47" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="166"/>
+      <c r="A47" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="156"/>
       <c r="C47" s="5">
         <v>2020</v>
       </c>
@@ -25357,10 +25375,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A48" s="171" t="s">
+      <c r="A48" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="171"/>
+      <c r="B48" s="157"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -25391,7 +25409,7 @@
       <c r="AD48" s="14"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A49" s="172"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="15" t="s">
         <v>35</v>
       </c>
@@ -25509,7 +25527,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A50" s="173"/>
+      <c r="A50" s="159"/>
       <c r="B50" s="15" t="s">
         <v>36</v>
       </c>
@@ -25627,7 +25645,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A51" s="173"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="15" t="s">
         <v>37</v>
       </c>
@@ -25745,7 +25763,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A52" s="173"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="15" t="s">
         <v>38</v>
       </c>
@@ -25863,7 +25881,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A53" s="173"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="15" t="s">
         <v>39</v>
       </c>
@@ -25981,7 +25999,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A54" s="173"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="15" t="s">
         <v>40</v>
       </c>
@@ -26100,6 +26118,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -26109,14 +26135,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <conditionalFormatting sqref="C39:AD41">
     <cfRule type="iconSet" priority="58">
@@ -26878,10 +26896,10 @@
       </c>
     </row>
     <row r="3" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B3" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="166"/>
+      <c r="B3" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="156"/>
       <c r="D3" s="4">
         <v>2014</v>
       </c>
@@ -27451,7 +27469,7 @@
       <c r="DJ5" s="7"/>
     </row>
     <row r="6" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="163" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -27792,7 +27810,7 @@
       </c>
     </row>
     <row r="7" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="158"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -28131,7 +28149,7 @@
       </c>
     </row>
     <row r="8" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="158"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -28470,7 +28488,7 @@
       </c>
     </row>
     <row r="9" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -28811,7 +28829,7 @@
       </c>
     </row>
     <row r="10" spans="2:114" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="164"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -29150,7 +29168,7 @@
       </c>
     </row>
     <row r="11" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="165"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -29489,10 +29507,10 @@
       </c>
     </row>
     <row r="12" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="21">
         <f>IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -29939,10 +29957,10 @@
       </c>
     </row>
     <row r="13" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="162"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="9" t="s">
         <v>139</v>
       </c>
@@ -30395,7 +30413,7 @@
       <c r="DJ14" s="7"/>
     </row>
     <row r="15" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="163" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -30736,7 +30754,7 @@
       </c>
     </row>
     <row r="16" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="158"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -31075,7 +31093,7 @@
       </c>
     </row>
     <row r="17" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -31416,7 +31434,7 @@
       </c>
     </row>
     <row r="18" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="158"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -31872,7 +31890,7 @@
       <c r="DJ19" s="7"/>
     </row>
     <row r="20" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="163" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32242,7 +32260,7 @@
       </c>
     </row>
     <row r="21" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="158"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -32692,7 +32710,7 @@
       </c>
     </row>
     <row r="22" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="164" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -33033,7 +33051,7 @@
       </c>
     </row>
     <row r="23" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B23" s="159"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -33372,10 +33390,10 @@
       </c>
     </row>
     <row r="25" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B25" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="166"/>
+      <c r="B25" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="156"/>
       <c r="D25" s="4">
         <v>2014</v>
       </c>
@@ -33828,7 +33846,7 @@
       <c r="DJ26" s="11"/>
     </row>
     <row r="27" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="160" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -34169,7 +34187,7 @@
       </c>
     </row>
     <row r="28" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B28" s="167"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -34506,7 +34524,7 @@
       </c>
     </row>
     <row r="29" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="167"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -34843,7 +34861,7 @@
       </c>
     </row>
     <row r="30" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B30" s="167"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -35180,7 +35198,7 @@
       </c>
     </row>
     <row r="31" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="167"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -35517,7 +35535,7 @@
       </c>
     </row>
     <row r="32" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B32" s="167"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -35854,7 +35872,7 @@
       </c>
     </row>
     <row r="33" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -36195,7 +36213,7 @@
       </c>
     </row>
     <row r="34" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B34" s="167"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -36532,7 +36550,7 @@
       </c>
     </row>
     <row r="35" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="167"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -36869,7 +36887,7 @@
       </c>
     </row>
     <row r="36" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B36" s="167"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -37206,7 +37224,7 @@
       </c>
     </row>
     <row r="37" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="167"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -37543,7 +37561,7 @@
       </c>
     </row>
     <row r="38" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B38" s="167"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -39040,10 +39058,10 @@
       </c>
     </row>
     <row r="42" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B42" s="168" t="s">
+      <c r="B42" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="168"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="22">
         <v>8.5077859999999994</v>
       </c>
@@ -39406,10 +39424,10 @@
       </c>
     </row>
     <row r="43" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B43" s="169" t="s">
+      <c r="B43" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="169"/>
+      <c r="C43" s="155"/>
       <c r="D43" s="33">
         <v>36.202132963852172</v>
       </c>
@@ -39772,10 +39790,10 @@
       </c>
     </row>
     <row r="44" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="169"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="33">
         <v>38.67046021138755</v>
       </c>
@@ -40138,10 +40156,10 @@
       </c>
     </row>
     <row r="45" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="169"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="33">
         <v>39.258157175086446</v>
       </c>
@@ -40839,10 +40857,10 @@
       </c>
     </row>
     <row r="47" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B47" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="166"/>
+      <c r="B47" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="156"/>
       <c r="D47" s="4">
         <v>2014</v>
       </c>
@@ -41178,10 +41196,10 @@
       </c>
     </row>
     <row r="48" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="171"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -41298,7 +41316,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="172"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -41664,7 +41682,7 @@
       </c>
     </row>
     <row r="50" spans="1:114" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="173"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -42024,7 +42042,7 @@
       </c>
     </row>
     <row r="51" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="173"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -42390,7 +42408,7 @@
       </c>
     </row>
     <row r="52" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="173"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -42756,7 +42774,7 @@
       </c>
     </row>
     <row r="53" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B53" s="173"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
@@ -43125,7 +43143,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="173"/>
+      <c r="B54" s="159"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -43503,6 +43521,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B6:B8"/>
@@ -43515,14 +43541,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:F41 H39:J40 L39:N41 P39:R41 T39:V41 X39:Z40 AB39:AD40 AF39:AH40 AJ39:AL40 AN39:AP40 AR39:AT40 AV39:AX40 AZ39:BB40 BD39:BF40 BH39:BJ40 BL39:BN40 BP39:BR40 BT39:BV40 BX39:BZ40 CB39:CD40 CF39:CH40 CJ39:CL40 CN39:CP40 CR39:CT40 CV39:CX40 CZ39:DB40 DD39:DF40 DH39:DJ41">
     <cfRule type="iconSet" priority="30">

--- a/Article_17_EU-2022.xlsx
+++ b/Article_17_EU-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800E647-89BA-489E-8A02-1ED54FC20B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CC7D8-E117-4E5F-A868-FD4BFC5F567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="397">
   <si>
     <t>Forecast for investments needs by national authorities</t>
   </si>
@@ -2189,7 +2189,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2481,7 +2481,6 @@
     <xf numFmtId="3" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="9" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2528,7 +2527,6 @@
     <xf numFmtId="3" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="9" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2579,7 +2577,6 @@
     <xf numFmtId="3" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="9" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2599,29 +2596,14 @@
     <xf numFmtId="3" fontId="4" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2647,14 +2629,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2973,9 +2970,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:HC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DB40" sqref="DB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2993,7 +2990,7 @@
     <col min="24" max="24" width="14.52734375" customWidth="1"/>
     <col min="25" max="25" width="18.52734375" customWidth="1"/>
     <col min="26" max="26" width="13.234375" customWidth="1"/>
-    <col min="27" max="27" width="13.234375" style="142" customWidth="1"/>
+    <col min="27" max="27" width="13.234375" style="140" customWidth="1"/>
     <col min="28" max="39" width="11.87890625" customWidth="1"/>
     <col min="40" max="40" width="15.64453125" customWidth="1"/>
     <col min="41" max="43" width="18.1171875" customWidth="1"/>
@@ -3035,172 +3032,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" s="88" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="171" t="s">
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="171" t="s">
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="171" t="s">
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="171" t="s">
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="171" t="s">
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="171" t="s">
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="171" t="s">
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="171" t="s">
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="171" t="s">
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="154"/>
+      <c r="AN1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="171" t="s">
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="172"/>
-      <c r="AV1" s="171" t="s">
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="154"/>
+      <c r="AV1" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="172"/>
-      <c r="AZ1" s="171" t="s">
+      <c r="AW1" s="153"/>
+      <c r="AX1" s="153"/>
+      <c r="AY1" s="154"/>
+      <c r="AZ1" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="172"/>
-      <c r="BD1" s="171" t="s">
+      <c r="BA1" s="153"/>
+      <c r="BB1" s="153"/>
+      <c r="BC1" s="154"/>
+      <c r="BD1" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="172"/>
-      <c r="BH1" s="171" t="s">
+      <c r="BE1" s="153"/>
+      <c r="BF1" s="153"/>
+      <c r="BG1" s="154"/>
+      <c r="BH1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
-      <c r="BK1" s="172"/>
-      <c r="BL1" s="171" t="s">
+      <c r="BI1" s="153"/>
+      <c r="BJ1" s="153"/>
+      <c r="BK1" s="154"/>
+      <c r="BL1" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="173"/>
-      <c r="BO1" s="172"/>
-      <c r="BP1" s="171" t="s">
+      <c r="BM1" s="153"/>
+      <c r="BN1" s="153"/>
+      <c r="BO1" s="154"/>
+      <c r="BP1" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="173"/>
-      <c r="BR1" s="173"/>
-      <c r="BS1" s="172"/>
-      <c r="BT1" s="171" t="s">
+      <c r="BQ1" s="153"/>
+      <c r="BR1" s="153"/>
+      <c r="BS1" s="154"/>
+      <c r="BT1" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="173"/>
-      <c r="BV1" s="173"/>
-      <c r="BW1" s="172"/>
-      <c r="BX1" s="171" t="s">
+      <c r="BU1" s="153"/>
+      <c r="BV1" s="153"/>
+      <c r="BW1" s="154"/>
+      <c r="BX1" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="BY1" s="173"/>
-      <c r="BZ1" s="173"/>
-      <c r="CA1" s="172"/>
-      <c r="CB1" s="171" t="s">
+      <c r="BY1" s="153"/>
+      <c r="BZ1" s="153"/>
+      <c r="CA1" s="154"/>
+      <c r="CB1" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="CC1" s="173"/>
-      <c r="CD1" s="173"/>
-      <c r="CE1" s="172"/>
-      <c r="CF1" s="171" t="s">
+      <c r="CC1" s="153"/>
+      <c r="CD1" s="153"/>
+      <c r="CE1" s="154"/>
+      <c r="CF1" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="173"/>
-      <c r="CH1" s="173"/>
-      <c r="CI1" s="172"/>
-      <c r="CJ1" s="171" t="s">
+      <c r="CG1" s="153"/>
+      <c r="CH1" s="153"/>
+      <c r="CI1" s="154"/>
+      <c r="CJ1" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="CK1" s="173"/>
-      <c r="CL1" s="173"/>
-      <c r="CM1" s="172"/>
-      <c r="CN1" s="171" t="s">
+      <c r="CK1" s="153"/>
+      <c r="CL1" s="153"/>
+      <c r="CM1" s="154"/>
+      <c r="CN1" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="173"/>
-      <c r="CP1" s="173"/>
-      <c r="CQ1" s="172"/>
-      <c r="CR1" s="171" t="s">
+      <c r="CO1" s="153"/>
+      <c r="CP1" s="153"/>
+      <c r="CQ1" s="154"/>
+      <c r="CR1" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="173"/>
-      <c r="CT1" s="173"/>
-      <c r="CU1" s="172"/>
-      <c r="CV1" s="171" t="s">
+      <c r="CS1" s="153"/>
+      <c r="CT1" s="153"/>
+      <c r="CU1" s="154"/>
+      <c r="CV1" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="CW1" s="173"/>
-      <c r="CX1" s="173"/>
-      <c r="CY1" s="172"/>
-      <c r="CZ1" s="171" t="s">
+      <c r="CW1" s="153"/>
+      <c r="CX1" s="153"/>
+      <c r="CY1" s="154"/>
+      <c r="CZ1" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="DA1" s="173"/>
-      <c r="DB1" s="173"/>
-      <c r="DC1" s="172"/>
-      <c r="DD1" s="171" t="s">
+      <c r="DA1" s="153"/>
+      <c r="DB1" s="153"/>
+      <c r="DC1" s="154"/>
+      <c r="DD1" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="DE1" s="173"/>
-      <c r="DF1" s="173"/>
-      <c r="DG1" s="172"/>
-      <c r="DH1" s="171" t="s">
+      <c r="DE1" s="153"/>
+      <c r="DF1" s="153"/>
+      <c r="DG1" s="154"/>
+      <c r="DH1" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="DI1" s="172"/>
+      <c r="DI1" s="154"/>
     </row>
     <row r="2" spans="2:113" s="90" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="91" t="s">
@@ -3272,10 +3269,10 @@
       <c r="Z2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="136" t="s">
+      <c r="AA2" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="119" t="s">
+      <c r="AB2" s="118" t="s">
         <v>75</v>
       </c>
       <c r="AC2" s="91" t="s">
@@ -3535,10 +3532,10 @@
       </c>
     </row>
     <row r="3" spans="2:113" s="93" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="165"/>
+      <c r="B3" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="157"/>
       <c r="D3" s="92">
         <v>2016</v>
       </c>
@@ -3608,10 +3605,10 @@
       <c r="Z3" s="102">
         <v>2020</v>
       </c>
-      <c r="AA3" s="137">
+      <c r="AA3" s="135">
         <v>2022</v>
       </c>
-      <c r="AB3" s="120">
+      <c r="AB3" s="119">
         <v>2016</v>
       </c>
       <c r="AC3" s="92">
@@ -3898,8 +3895,8 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="103"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="121"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="120"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
@@ -4014,8 +4011,8 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="104"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="122"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="121"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -4103,7 +4100,7 @@
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="155" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -4178,10 +4175,10 @@
       <c r="Z6" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AA6" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB6" s="123" t="s">
+      <c r="AA6" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="122" t="s">
         <v>137</v>
       </c>
       <c r="AC6" s="17" t="s">
@@ -4441,7 +4438,7 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="163"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -4514,10 +4511,10 @@
       <c r="Z7" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AA7" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB7" s="123" t="s">
+      <c r="AA7" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="122" t="s">
         <v>137</v>
       </c>
       <c r="AC7" s="17" t="s">
@@ -4777,7 +4774,7 @@
       </c>
     </row>
     <row r="8" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="163"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -4850,10 +4847,10 @@
       <c r="Z8" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AA8" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB8" s="123" t="s">
+      <c r="AA8" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="122" t="s">
         <v>137</v>
       </c>
       <c r="AC8" s="17" t="s">
@@ -5113,7 +5110,7 @@
       </c>
     </row>
     <row r="9" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -5188,10 +5185,10 @@
       <c r="Z9" s="105">
         <v>245.1</v>
       </c>
-      <c r="AA9" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB9" s="123" t="s">
+      <c r="AA9" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB9" s="122" t="s">
         <v>137</v>
       </c>
       <c r="AC9" s="17" t="s">
@@ -5451,7 +5448,7 @@
       </c>
     </row>
     <row r="10" spans="2:113" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="169"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -5524,10 +5521,10 @@
       <c r="Z10" s="105">
         <v>0</v>
       </c>
-      <c r="AA10" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB10" s="123" t="s">
+      <c r="AA10" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" s="122" t="s">
         <v>137</v>
       </c>
       <c r="AC10" s="17" t="s">
@@ -5787,7 +5784,7 @@
       </c>
     </row>
     <row r="11" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="170"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -5860,10 +5857,10 @@
       <c r="Z11" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="AA11" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB11" s="123" t="s">
+      <c r="AA11" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB11" s="122" t="s">
         <v>137</v>
       </c>
       <c r="AC11" s="17" t="s">
@@ -6123,10 +6120,10 @@
       </c>
     </row>
     <row r="12" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="21">
         <f t="shared" ref="D12:BO12" si="0">IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -6219,11 +6216,11 @@
         <f t="shared" si="0"/>
         <v>245.1</v>
       </c>
-      <c r="AA12" s="141">
+      <c r="AA12" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="123">
+      <c r="AB12" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6565,10 +6562,10 @@
       </c>
     </row>
     <row r="13" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="167"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
@@ -6638,10 +6635,10 @@
       <c r="Z13" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="AA13" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB13" s="124" t="s">
+      <c r="AA13" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB13" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC13" s="17" t="s">
@@ -6928,8 +6925,8 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="104"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="122"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="121"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -7017,7 +7014,7 @@
       <c r="DI14" s="7"/>
     </row>
     <row r="15" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="155" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -7092,10 +7089,10 @@
       <c r="Z15" s="105">
         <v>0</v>
       </c>
-      <c r="AA15" s="140">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="124" t="s">
+      <c r="AA15" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC15" s="17">
@@ -7355,7 +7352,7 @@
       </c>
     </row>
     <row r="16" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="163"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -7428,10 +7425,10 @@
       <c r="Z16" s="105">
         <v>0</v>
       </c>
-      <c r="AA16" s="140">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="124" t="s">
+      <c r="AA16" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC16" s="17">
@@ -7691,7 +7688,7 @@
       </c>
     </row>
     <row r="17" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -7766,10 +7763,10 @@
       <c r="Z17" s="105">
         <v>1</v>
       </c>
-      <c r="AA17" s="140">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="124" t="s">
+      <c r="AA17" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC17" s="17">
@@ -8029,7 +8026,7 @@
       </c>
     </row>
     <row r="18" spans="2:113" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="163"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -8102,10 +8099,10 @@
       <c r="Z18" s="105">
         <v>0</v>
       </c>
-      <c r="AA18" s="140">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="124" t="s">
+      <c r="AA18" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC18" s="17">
@@ -8392,8 +8389,8 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="104"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="122"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="121"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
@@ -8481,7 +8478,7 @@
       <c r="DI19" s="7"/>
     </row>
     <row r="20" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="155" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -8559,10 +8556,10 @@
         <f>'Feuil3-2020'!L8</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB20" s="124">
+      <c r="AA20" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB20" s="123">
         <v>0</v>
       </c>
       <c r="AC20" s="17">
@@ -8843,7 +8840,7 @@
       </c>
     </row>
     <row r="21" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="163"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -8933,10 +8930,10 @@
         <f>'Feuil3-2020'!F8</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB21" s="124">
+      <c r="AA21" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB21" s="123">
         <f>'Feuil3-2020'!D9</f>
         <v>0</v>
       </c>
@@ -9261,7 +9258,7 @@
       </c>
     </row>
     <row r="22" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -9336,10 +9333,10 @@
       <c r="Z22" s="105">
         <v>1641600</v>
       </c>
-      <c r="AA22" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB22" s="124" t="s">
+      <c r="AA22" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB22" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC22" s="17" t="s">
@@ -9599,7 +9596,7 @@
       </c>
     </row>
     <row r="23" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B23" s="164"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -9672,10 +9669,10 @@
       <c r="Z23" s="105">
         <v>1750000</v>
       </c>
-      <c r="AA23" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB23" s="124" t="s">
+      <c r="AA23" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB23" s="123" t="s">
         <v>137</v>
       </c>
       <c r="AC23" s="17" t="s">
@@ -9936,10 +9933,10 @@
     </row>
     <row r="24" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:113" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="156"/>
+      <c r="B25" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="163"/>
       <c r="D25" s="5">
         <f>D$3</f>
         <v>2016</v>
@@ -10032,11 +10029,11 @@
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="AA25" s="143">
+      <c r="AA25" s="141">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="AB25" s="125">
+      <c r="AB25" s="124">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
@@ -10382,10 +10379,10 @@
       </c>
     </row>
     <row r="26" spans="2:113" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="162"/>
+      <c r="C26" s="167"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -10409,8 +10406,8 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="108"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="126"/>
+      <c r="AA26" s="142"/>
+      <c r="AB26" s="125"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -10498,7 +10495,7 @@
       <c r="DI26" s="11"/>
     </row>
     <row r="27" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="164" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -10573,10 +10570,10 @@
       <c r="Z27" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="AA27" s="145">
+      <c r="AA27" s="143">
         <v>325</v>
       </c>
-      <c r="AB27" s="127">
+      <c r="AB27" s="126">
         <v>413.33333333333331</v>
       </c>
       <c r="AC27" s="18">
@@ -10836,7 +10833,7 @@
       </c>
     </row>
     <row r="28" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B28" s="160"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -10907,10 +10904,10 @@
       <c r="Z28" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="AA28" s="145" t="s">
+      <c r="AA28" s="143" t="s">
         <v>363</v>
       </c>
-      <c r="AB28" s="127" t="s">
+      <c r="AB28" s="126" t="s">
         <v>248</v>
       </c>
       <c r="AC28" s="18" t="s">
@@ -11170,7 +11167,7 @@
       </c>
     </row>
     <row r="29" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="160"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -11241,10 +11238,10 @@
       <c r="Z29" s="110">
         <v>300</v>
       </c>
-      <c r="AA29" s="146">
+      <c r="AA29" s="144">
         <v>325</v>
       </c>
-      <c r="AB29" s="127">
+      <c r="AB29" s="126">
         <v>540.5</v>
       </c>
       <c r="AC29" s="18">
@@ -11504,7 +11501,7 @@
       </c>
     </row>
     <row r="30" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B30" s="160"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -11575,10 +11572,10 @@
       <c r="Z30" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="AA30" s="146" t="s">
+      <c r="AA30" s="144" t="s">
         <v>286</v>
       </c>
-      <c r="AB30" s="127" t="s">
+      <c r="AB30" s="126" t="s">
         <v>165</v>
       </c>
       <c r="AC30" s="18" t="s">
@@ -11838,7 +11835,7 @@
       </c>
     </row>
     <row r="31" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="160"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -11909,10 +11906,10 @@
       <c r="Z31" s="110">
         <v>284.28570999999999</v>
       </c>
-      <c r="AA31" s="146">
+      <c r="AA31" s="144">
         <v>325</v>
       </c>
-      <c r="AB31" s="127">
+      <c r="AB31" s="126">
         <v>510</v>
       </c>
       <c r="AC31" s="18">
@@ -12172,7 +12169,7 @@
       </c>
     </row>
     <row r="32" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B32" s="160"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -12243,10 +12240,10 @@
       <c r="Z32" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="AA32" s="146" t="s">
+      <c r="AA32" s="144" t="s">
         <v>357</v>
       </c>
-      <c r="AB32" s="127" t="s">
+      <c r="AB32" s="126" t="s">
         <v>160</v>
       </c>
       <c r="AC32" s="18" t="s">
@@ -12506,7 +12503,7 @@
       </c>
     </row>
     <row r="33" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="164" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -12581,10 +12578,10 @@
       <c r="Z33" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="AA33" s="145">
+      <c r="AA33" s="143">
         <v>199</v>
       </c>
-      <c r="AB33" s="127">
+      <c r="AB33" s="126">
         <v>206.66666666666666</v>
       </c>
       <c r="AC33" s="18">
@@ -12844,7 +12841,7 @@
       </c>
     </row>
     <row r="34" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B34" s="160"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -12915,10 +12912,10 @@
       <c r="Z34" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="AA34" s="145" t="s">
+      <c r="AA34" s="143" t="s">
         <v>363</v>
       </c>
-      <c r="AB34" s="127" t="s">
+      <c r="AB34" s="126" t="s">
         <v>248</v>
       </c>
       <c r="AC34" s="18" t="s">
@@ -13178,7 +13175,7 @@
       </c>
     </row>
     <row r="35" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="160"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -13249,10 +13246,10 @@
       <c r="Z35" s="110">
         <v>190</v>
       </c>
-      <c r="AA35" s="146">
+      <c r="AA35" s="144">
         <v>199</v>
       </c>
-      <c r="AB35" s="127">
+      <c r="AB35" s="126">
         <v>270</v>
       </c>
       <c r="AC35" s="18">
@@ -13512,7 +13509,7 @@
       </c>
     </row>
     <row r="36" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B36" s="160"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -13583,10 +13580,10 @@
       <c r="Z36" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="AA36" s="146" t="s">
+      <c r="AA36" s="144" t="s">
         <v>286</v>
       </c>
-      <c r="AB36" s="127" t="s">
+      <c r="AB36" s="126" t="s">
         <v>165</v>
       </c>
       <c r="AC36" s="18" t="s">
@@ -13846,7 +13843,7 @@
       </c>
     </row>
     <row r="37" spans="2:113" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="160"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -13917,10 +13914,10 @@
       <c r="Z37" s="110">
         <v>190</v>
       </c>
-      <c r="AA37" s="146">
+      <c r="AA37" s="144">
         <v>199</v>
       </c>
-      <c r="AB37" s="127">
+      <c r="AB37" s="126">
         <v>255</v>
       </c>
       <c r="AC37" s="18">
@@ -14180,7 +14177,7 @@
       </c>
     </row>
     <row r="38" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B38" s="160"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -14251,10 +14248,10 @@
       <c r="Z38" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="AA38" s="145" t="s">
+      <c r="AA38" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="AB38" s="127" t="s">
+      <c r="AB38" s="126" t="s">
         <v>160</v>
       </c>
       <c r="AC38" s="18" t="s">
@@ -14516,364 +14513,445 @@
       <c r="C39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f>IF(F27&lt;&gt;"no data",IF(F33&lt;&gt;"no data",IF(F29&lt;&gt;"no data",IF(F35&lt;&gt;"no data",(F29+F35)-(F27+F33),""),""),""),"")</f>
-        <v/>
+      <c r="D39" s="2">
+        <f xml:space="preserve"> IF(ISNUMBER(D29),D29,0)+IF(ISNUMBER(D35),D35,0)</f>
+        <v>326</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39:BP39" si="4" xml:space="preserve"> IF(ISNUMBER(E29),E29,0)+IF(ISNUMBER(E35),E35,0)</f>
+        <v>316</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="4"/>
+        <v>220</v>
       </c>
       <c r="G39" s="2">
+        <f t="shared" si="4"/>
         <v>387</v>
       </c>
       <c r="H39" s="2">
-        <v>-140.12</v>
-      </c>
-      <c r="I39" s="2"/>
+        <f t="shared" si="4"/>
+        <v>150.88</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="2">
-        <f>IF(J27&lt;&gt;"no data",IF(J33&lt;&gt;"no data",IF(J29&lt;&gt;"no data",IF(J35&lt;&gt;"no data",(J29+J35)-(J27+J33),""),""),""),"")</f>
-        <v>15.169199999999933</v>
+        <f t="shared" si="4"/>
+        <v>348.42999999999995</v>
       </c>
       <c r="K39" s="2">
-        <v>12</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N39" s="2" t="str">
-        <f>IF(N27&lt;&gt;"no data",IF(N33&lt;&gt;"no data",IF(N29&lt;&gt;"no data",IF(N35&lt;&gt;"no data",(N29+N35)-(N27+N33),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="4"/>
+        <v>150.04000000000002</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="4"/>
+        <v>18.39</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="4"/>
+        <v>31.786660000000001</v>
       </c>
       <c r="O39" s="2">
+        <f t="shared" si="4"/>
+        <v>59.5</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="4"/>
+        <v>53.46</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="4"/>
+        <v>15.93</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="4"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="4"/>
+        <v>524</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="4"/>
+        <v>810.5</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="4"/>
+        <v>782.33260000000007</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" si="4"/>
+        <v>802.625</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="4"/>
+        <v>813.19999999999993</v>
+      </c>
+      <c r="AF39" s="2">
+        <f t="shared" si="4"/>
+        <v>20.61</v>
+      </c>
+      <c r="AG39" s="2">
+        <f t="shared" si="4"/>
+        <v>28.75</v>
+      </c>
+      <c r="AH39" s="2">
+        <f t="shared" si="4"/>
+        <v>32.409999999999997</v>
+      </c>
+      <c r="AI39" s="2">
+        <f t="shared" si="4"/>
+        <v>32.1</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="AK39" s="2">
+        <f t="shared" si="4"/>
+        <v>389</v>
+      </c>
+      <c r="AL39" s="2">
+        <f t="shared" si="4"/>
+        <v>398</v>
+      </c>
+      <c r="AM39" s="2">
+        <f t="shared" si="4"/>
+        <v>411</v>
+      </c>
+      <c r="AN39" s="2">
+        <f t="shared" si="4"/>
+        <v>1270</v>
+      </c>
+      <c r="AO39" s="2">
+        <f t="shared" si="4"/>
+        <v>1270</v>
+      </c>
+      <c r="AP39" s="2">
+        <f t="shared" si="4"/>
+        <v>1992</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f t="shared" si="4"/>
+        <v>2020.5</v>
+      </c>
+      <c r="AR39" s="2">
+        <f t="shared" si="4"/>
+        <v>2929</v>
+      </c>
+      <c r="AS39" s="2">
+        <f t="shared" si="4"/>
+        <v>3902</v>
+      </c>
+      <c r="AT39" s="2">
+        <f t="shared" si="4"/>
+        <v>3809</v>
+      </c>
+      <c r="AU39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
+        <f t="shared" si="4"/>
+        <v>53.46</v>
+      </c>
+      <c r="BA39" s="2">
+        <f t="shared" si="4"/>
+        <v>94.447499999999991</v>
+      </c>
+      <c r="BB39" s="2">
+        <f t="shared" si="4"/>
+        <v>138.98839999999998</v>
+      </c>
+      <c r="BC39" s="2">
+        <f t="shared" si="4"/>
+        <v>62.4</v>
+      </c>
+      <c r="BD39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="2">
+        <f t="shared" si="4"/>
+        <v>419.66660000000002</v>
+      </c>
+      <c r="BG39" s="2">
+        <f t="shared" si="4"/>
+        <v>551.6</v>
+      </c>
+      <c r="BH39" s="2">
+        <f t="shared" si="4"/>
+        <v>1233.7249999999999</v>
+      </c>
+      <c r="BI39" s="2">
+        <f t="shared" si="4"/>
+        <v>988.06</v>
+      </c>
+      <c r="BJ39" s="2">
+        <f t="shared" si="4"/>
+        <v>1446.9825000000001</v>
+      </c>
+      <c r="BK39" s="2">
+        <f t="shared" si="4"/>
+        <v>1464.8000000000002</v>
+      </c>
+      <c r="BL39" s="2">
+        <f t="shared" si="4"/>
+        <v>56.314999999999998</v>
+      </c>
+      <c r="BM39" s="2">
+        <f t="shared" si="4"/>
+        <v>56.314999999999998</v>
+      </c>
+      <c r="BN39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BO39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BP39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="2">
+        <f t="shared" ref="BQ39:DI39" si="5" xml:space="preserve"> IF(ISNUMBER(BQ29),BQ29,0)+IF(ISNUMBER(BQ35),BQ35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BR39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="BU39" s="2">
+        <f t="shared" si="5"/>
+        <v>77.5</v>
+      </c>
+      <c r="BV39" s="2">
+        <f t="shared" si="5"/>
+        <v>77.5</v>
+      </c>
+      <c r="BW39" s="2">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="R39" s="2" t="str">
-        <f>IF(R27&lt;&gt;"no data",IF(R33&lt;&gt;"no data",IF(R29&lt;&gt;"no data",IF(R35&lt;&gt;"no data",(R29+R35)-(R27+R33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>26</v>
-      </c>
-      <c r="U39" s="2">
-        <v>-23.575700000000001</v>
-      </c>
-      <c r="V39" s="2">
-        <f>IF(V27&lt;&gt;"no data",IF(V33&lt;&gt;"no data",IF(V29&lt;&gt;"no data",IF(V35&lt;&gt;"no data",(V29+V35)-(V27+V33),""),""),""),"")</f>
-        <v>-28.998699999999999</v>
-      </c>
-      <c r="W39" s="2">
-        <v>-3</v>
-      </c>
-      <c r="X39" s="2">
-        <v>-4.5</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>-10.25</v>
-      </c>
-      <c r="Z39" s="111" t="str">
-        <f>IF(Z27&lt;&gt;"no data",IF(Z33&lt;&gt;"no data",IF(Z29&lt;&gt;"no data",IF(Z35&lt;&gt;"no data",(Z29+Z35)-(Z27+Z33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="AA39" s="147">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="128">
-        <v>190.5</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>162.33270000000005</v>
-      </c>
-      <c r="AD39" s="2">
-        <f>IF(AD27&lt;&gt;"no data",IF(AD33&lt;&gt;"no data",IF(AD29&lt;&gt;"no data",IF(AD35&lt;&gt;"no data",(AD29+AD35)-(AD27+AD33),""),""),""),"")</f>
-        <v>182.62509999999997</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>9.5250000000000021</v>
-      </c>
-      <c r="AH39" s="2">
-        <f>IF(AH27&lt;&gt;"no data",IF(AH33&lt;&gt;"no data",IF(AH29&lt;&gt;"no data",IF(AH35&lt;&gt;"no data",(AH29+AH35)-(AH27+AH33),""),""),""),"")</f>
-        <v>8.1099999999999959</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>7</v>
-      </c>
-      <c r="AJ39" s="2">
-        <v>15.25</v>
-      </c>
-      <c r="AK39" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="AL39" s="2">
-        <f>IF(AL27&lt;&gt;"no data",IF(AL33&lt;&gt;"no data",IF(AL29&lt;&gt;"no data",IF(AL35&lt;&gt;"no data",(AL29+AL35)-(AL27+AL33),""),""),""),"")</f>
-        <v>11.5</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AN39" s="2" t="str">
-        <f t="shared" ref="AN39:AP39" si="4">IF(AN27&lt;&gt;"no data",IF(AN33&lt;&gt;"no data",IF(AN29&lt;&gt;"no data",IF(AN35&lt;&gt;"no data",(AN29+AN35)-(AN27+AN33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="AO39" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP39" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AQ39" s="2">
-        <v>5840</v>
-      </c>
-      <c r="AR39" s="2" t="str">
-        <f t="shared" ref="AR39:AT39" si="5">IF(AR27&lt;&gt;"no data",IF(AR33&lt;&gt;"no data",IF(AR29&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR29+AR35)-(AR27+AR33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="AS39" s="2" t="str">
+      <c r="BX39" s="2">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AT39" s="2" t="str">
+        <v>9.370000000000001</v>
+      </c>
+      <c r="BY39" s="2">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AU39" s="2">
-        <v>-3996</v>
-      </c>
-      <c r="AV39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX39" s="2" t="str">
-        <f>IF(AX27&lt;&gt;"no data",IF(AX33&lt;&gt;"no data",IF(AX29&lt;&gt;"no data",IF(AX35&lt;&gt;"no data",(AX29+AX35)-(AX27+AX33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="AY39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="2">
-        <v>26.684999999999999</v>
-      </c>
-      <c r="BA39" s="2">
-        <v>-23.575700000000001</v>
-      </c>
-      <c r="BB39" s="2" t="str">
-        <f>IF(BB27&lt;&gt;"no data",IF(BB33&lt;&gt;"no data",IF(BB29&lt;&gt;"no data",IF(BB35&lt;&gt;"no data",(BB29+BB35)-(BB27+BB33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="BC39" s="2">
-        <v>62</v>
-      </c>
-      <c r="BD39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BE39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BF39" s="2" t="str">
-        <f>IF(BF27&lt;&gt;"no data",IF(BF33&lt;&gt;"no data",IF(BF29&lt;&gt;"no data",IF(BF35&lt;&gt;"no data",(BF29+BF35)-(BF27+BF33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="BG39" s="2">
-        <v>552</v>
-      </c>
-      <c r="BH39" s="2">
-        <v>909.83863636363628</v>
-      </c>
-      <c r="BI39" s="2">
-        <v>666.70666999999992</v>
-      </c>
-      <c r="BJ39" s="2">
-        <f>IF(BJ27&lt;&gt;"no data",IF(BJ33&lt;&gt;"no data",IF(BJ29&lt;&gt;"no data",IF(BJ35&lt;&gt;"no data",(BJ29+BJ35)-(BJ27+BJ33),""),""),""),"")</f>
-        <v>1004.7163300000001</v>
-      </c>
-      <c r="BK39" s="2">
-        <v>828</v>
-      </c>
-      <c r="BL39" s="2">
-        <v>9.4738888888888866</v>
-      </c>
-      <c r="BM39" s="2">
-        <v>20.801000000000002</v>
-      </c>
-      <c r="BN39" s="2">
-        <f>IF(BN27&lt;&gt;"no data",IF(BN33&lt;&gt;"no data",IF(BN29&lt;&gt;"no data",IF(BN35&lt;&gt;"no data",(BN29+BN35)-(BN27+BN33),""),""),""),"")</f>
-        <v>-22.073900000000002</v>
-      </c>
-      <c r="BO39" s="2">
-        <v>-22</v>
-      </c>
-      <c r="BP39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BR39" s="2" t="str">
-        <f>IF(BR27&lt;&gt;"no data",IF(BR33&lt;&gt;"no data",IF(BR29&lt;&gt;"no data",IF(BR35&lt;&gt;"no data",(BR29+BR35)-(BR27+BR33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="BS39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="BT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="2">
+        <f t="shared" si="5"/>
+        <v>11.315</v>
+      </c>
+      <c r="CA39" s="2">
+        <f t="shared" si="5"/>
+        <v>11.7</v>
+      </c>
+      <c r="CB39" s="2">
+        <f t="shared" si="5"/>
+        <v>1197</v>
+      </c>
+      <c r="CC39" s="2">
+        <f t="shared" si="5"/>
+        <v>1292.5</v>
+      </c>
+      <c r="CD39" s="2">
+        <f t="shared" si="5"/>
+        <v>1286.5</v>
+      </c>
+      <c r="CE39" s="2">
+        <f t="shared" si="5"/>
+        <v>1604.5</v>
+      </c>
+      <c r="CF39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CH39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CI39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CJ39" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="BU39" s="2">
-        <v>-6.1666000000000025</v>
-      </c>
-      <c r="BV39" s="2">
-        <f>IF(BV27&lt;&gt;"no data",IF(BV33&lt;&gt;"no data",IF(BV29&lt;&gt;"no data",IF(BV35&lt;&gt;"no data",(BV29+BV35)-(BV27+BV33),""),""),""),"")</f>
-        <v>-4.9284999999999997</v>
-      </c>
-      <c r="BW39" s="2">
-        <v>-21</v>
-      </c>
-      <c r="BX39" s="2">
-        <v>4.668000000000001</v>
-      </c>
-      <c r="BY39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BZ39" s="2">
-        <f>IF(BZ27&lt;&gt;"no data",IF(BZ33&lt;&gt;"no data",IF(BZ29&lt;&gt;"no data",IF(BZ35&lt;&gt;"no data",(BZ29+BZ35)-(BZ27+BZ33),""),""),""),"")</f>
-        <v>2.8394999999999992</v>
-      </c>
-      <c r="CA39" s="2">
-        <v>3</v>
-      </c>
-      <c r="CB39" s="2">
-        <v>-91</v>
-      </c>
-      <c r="CC39" s="2">
-        <v>51.099999999999909</v>
-      </c>
-      <c r="CD39" s="2">
-        <f>IF(CD27&lt;&gt;"no data",IF(CD33&lt;&gt;"no data",IF(CD29&lt;&gt;"no data",IF(CD35&lt;&gt;"no data",(CD29+CD35)-(CD27+CD33),""),""),""),"")</f>
-        <v>46.500029999999924</v>
-      </c>
-      <c r="CE39" s="2">
-        <v>355</v>
-      </c>
-      <c r="CF39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CG39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CH39" s="2" t="str">
-        <f>IF(CH27&lt;&gt;"no data",IF(CH33&lt;&gt;"no data",IF(CH29&lt;&gt;"no data",IF(CH35&lt;&gt;"no data",(CH29+CH35)-(CH27+CH33),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="CI39" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CK39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CL39" s="2" t="str">
-        <f>IF(CL27&lt;&gt;"no data",IF(CL33&lt;&gt;"no data",IF(CL29&lt;&gt;"no data",IF(CL35&lt;&gt;"no data",(CL29+CL35)-(CL27+CL33),""),""),""),"")</f>
-        <v/>
+      <c r="CK39" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="CL39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="CM39" s="2">
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>19.3</v>
       </c>
       <c r="CN39" s="2">
-        <v>43.331999999999994</v>
+        <f t="shared" si="5"/>
+        <v>182.38</v>
       </c>
       <c r="CO39" s="2">
-        <v>86.401999999999987</v>
+        <f t="shared" si="5"/>
+        <v>219</v>
       </c>
       <c r="CP39" s="2">
-        <f>IF(CP27&lt;&gt;"no data",IF(CP33&lt;&gt;"no data",IF(CP29&lt;&gt;"no data",IF(CP35&lt;&gt;"no data",(CP29+CP35)-(CP27+CP33),""),""),""),"")</f>
-        <v>-119.64290000000003</v>
+        <f t="shared" si="5"/>
+        <v>37.652999999999999</v>
       </c>
       <c r="CQ39" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CR39" s="2">
-        <v>-63.600000000000023</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="CS39" s="2">
-        <v>-63.285640000000001</v>
+        <f t="shared" si="5"/>
+        <v>83</v>
       </c>
       <c r="CT39" s="2">
-        <f>IF(CT27&lt;&gt;"no data",IF(CT33&lt;&gt;"no data",IF(CT29&lt;&gt;"no data",IF(CT35&lt;&gt;"no data",(CT29+CT35)-(CT27+CT33),""),""),""),"")</f>
-        <v>-58.285671428570993</v>
+        <f t="shared" si="5"/>
+        <v>88</v>
       </c>
       <c r="CU39" s="2">
-        <v>-109</v>
+        <f t="shared" si="5"/>
+        <v>35.4</v>
       </c>
       <c r="CV39" s="2">
-        <v>-31.136363636363626</v>
+        <f t="shared" si="5"/>
+        <v>76.5</v>
       </c>
       <c r="CW39" s="2">
-        <v>-0.42338399999999865</v>
+        <f t="shared" si="5"/>
+        <v>101.5</v>
       </c>
       <c r="CX39" s="2">
-        <f>IF(CX27&lt;&gt;"no data",IF(CX33&lt;&gt;"no data",IF(CX29&lt;&gt;"no data",IF(CX35&lt;&gt;"no data",(CX29+CX35)-(CX27+CX33),""),""),""),"")</f>
-        <v>-12.714269999999999</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="CY39" s="2">
-        <v>0</v>
-      </c>
-      <c r="CZ39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DA39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB39" s="2" t="str">
-        <f>IF(DB27&lt;&gt;"no data",IF(DB33&lt;&gt;"no data",IF(DB29&lt;&gt;"no data",IF(DB35&lt;&gt;"no data",(DB29+DB35)-(DB27+DB33),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CZ39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="DA39" s="2">
+        <f t="shared" si="5"/>
+        <v>18.39</v>
+      </c>
+      <c r="DB39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="DC39" s="2">
-        <v>0</v>
-      </c>
-      <c r="DD39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DE39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DF39" s="2" t="str">
-        <f>IF(DF27&lt;&gt;"no data",IF(DF33&lt;&gt;"no data",IF(DF29&lt;&gt;"no data",IF(DF35&lt;&gt;"no data",(DF29+DF35)-(DF27+DF33),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="DD39" s="2">
+        <f t="shared" si="5"/>
+        <v>579</v>
+      </c>
+      <c r="DE39" s="2">
+        <f t="shared" si="5"/>
+        <v>402</v>
+      </c>
+      <c r="DF39" s="2">
+        <f t="shared" si="5"/>
+        <v>996</v>
       </c>
       <c r="DG39" s="2">
-        <v>1521</v>
+        <f t="shared" si="5"/>
+        <v>1520.7</v>
       </c>
       <c r="DH39" s="2">
-        <v>-256</v>
+        <f t="shared" si="5"/>
+        <v>1141.1199999999999</v>
       </c>
       <c r="DI39" s="2">
-        <v>53.000001500000053</v>
+        <f t="shared" si="5"/>
+        <v>1095.26</v>
       </c>
     </row>
     <row r="40" spans="2:113" x14ac:dyDescent="0.5">
@@ -14882,363 +14960,444 @@
         <v>29</v>
       </c>
       <c r="D40" s="2">
-        <v>-13.5</v>
+        <f xml:space="preserve"> IF(ISNUMBER(D31),D31,0)+IF(ISNUMBER(D37),D37,0)</f>
+        <v>312.5</v>
       </c>
       <c r="E40" s="2">
-        <v>-56</v>
+        <f t="shared" ref="E40:BP40" si="6" xml:space="preserve"> IF(ISNUMBER(E31),E31,0)+IF(ISNUMBER(E37),E37,0)</f>
+        <v>260</v>
       </c>
       <c r="F40" s="2">
-        <f>IF(F29&lt;&gt;"no data",IF(F37&lt;&gt;"no data",IF(F31&lt;&gt;"no data",IF(F35&lt;&gt;"no data",(F31+F37)-(F29+F35),""),""),""),"")</f>
-        <v>49</v>
+        <f t="shared" si="6"/>
+        <v>269</v>
       </c>
       <c r="G40" s="2">
-        <v>-32</v>
+        <f t="shared" si="6"/>
+        <v>280.5</v>
       </c>
       <c r="H40" s="2">
-        <v>1.7866666666666902</v>
+        <f t="shared" si="6"/>
+        <v>152.66666666666669</v>
       </c>
       <c r="I40" s="2">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <f>IF(J29&lt;&gt;"no data",IF(J37&lt;&gt;"no data",IF(J31&lt;&gt;"no data",IF(J35&lt;&gt;"no data",(J31+J37)-(J29+J35),""),""),""),"")</f>
-        <v>-173.28999999999996</v>
+        <f t="shared" si="6"/>
+        <v>175.14</v>
       </c>
       <c r="K40" s="2">
-        <v>-8</v>
+        <f t="shared" si="6"/>
+        <v>342.8</v>
       </c>
       <c r="L40" s="2">
-        <v>133.48714285714283</v>
+        <f t="shared" si="6"/>
+        <v>283.52714285714285</v>
       </c>
       <c r="M40" s="2">
-        <v>271.66000000000003</v>
+        <f t="shared" si="6"/>
+        <v>290.05</v>
       </c>
       <c r="N40" s="2">
-        <f>IF(N29&lt;&gt;"no data",IF(N37&lt;&gt;"no data",IF(N31&lt;&gt;"no data",IF(N35&lt;&gt;"no data",(479.43+N37)-(10.23+N35),""),""),""),"")</f>
-        <v>518.42619000000002</v>
+        <f t="shared" si="6"/>
+        <v>81.01285</v>
       </c>
       <c r="O40" s="2">
-        <v>186</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="R40" s="2" t="str">
-        <f>IF(R29&lt;&gt;"no data",IF(R37&lt;&gt;"no data",IF(R31&lt;&gt;"no data",IF(R35&lt;&gt;"no data",(R31+R37)-(R29+R35),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>245.4</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="6"/>
+        <v>353.875</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="6"/>
+        <v>431.08375000000001</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="6"/>
+        <v>281.99540000000002</v>
       </c>
       <c r="S40" s="2">
-        <v>128</v>
+        <f t="shared" si="6"/>
+        <v>427.79999999999995</v>
       </c>
       <c r="T40" s="2">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>51.737499999999997</v>
       </c>
       <c r="U40" s="2">
+        <f t="shared" si="6"/>
         <v>47.545556000000005</v>
       </c>
       <c r="V40" s="2">
-        <f>IF(V29&lt;&gt;"no data",IF(V37&lt;&gt;"no data",IF(V31&lt;&gt;"no data",IF(V35&lt;&gt;"no data",(V31+V37)-(V29+V35),""),""),""),"")</f>
-        <v>47.318549999999995</v>
+        <f t="shared" si="6"/>
+        <v>63.248549999999994</v>
       </c>
       <c r="W40" s="2">
-        <v>-22</v>
+        <f t="shared" si="6"/>
+        <v>121</v>
       </c>
       <c r="X40" s="2">
-        <v>0.10000000000002274</v>
+        <f t="shared" si="6"/>
+        <v>116.5</v>
       </c>
       <c r="Y40" s="2">
-        <v>-7.875</v>
-      </c>
-      <c r="Z40" s="111">
-        <f>IF(Z29&lt;&gt;"no data",IF(Z37&lt;&gt;"no data",IF(Z31&lt;&gt;"no data",IF(Z35&lt;&gt;"no data",(Z31+Z37)-(Z29+Z35),""),""),""),"")</f>
-        <v>-15.714290000000005</v>
-      </c>
-      <c r="AA40" s="147">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="128">
-        <v>-45.5</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="6"/>
+        <v>474.28570999999999</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="6"/>
+        <v>765</v>
       </c>
       <c r="AC40" s="2">
-        <v>-97.33260000000007</v>
+        <f t="shared" si="6"/>
+        <v>685</v>
       </c>
       <c r="AD40" s="2">
-        <f>IF(AD29&lt;&gt;"no data",IF(AD37&lt;&gt;"no data",IF(AD31&lt;&gt;"no data",IF(AD35&lt;&gt;"no data",(AD31+AD37)-(AD29+AD35),""),""),""),"")</f>
-        <v>-50.625</v>
+        <f t="shared" si="6"/>
+        <v>752</v>
       </c>
       <c r="AE40" s="2">
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>752</v>
       </c>
       <c r="AF40" s="2">
-        <v>5.6700000000000017</v>
+        <f t="shared" si="6"/>
+        <v>26.28</v>
       </c>
       <c r="AG40" s="2">
-        <v>0.1033299999999997</v>
+        <f t="shared" si="6"/>
+        <v>28.85333</v>
       </c>
       <c r="AH40" s="2">
-        <f>IF(AH29&lt;&gt;"no data",IF(AH37&lt;&gt;"no data",IF(AH31&lt;&gt;"no data",IF(AH35&lt;&gt;"no data",(AH31+AH37)-(AH29+AH35),""),""),""),"")</f>
-        <v>5.3933000000000035</v>
+        <f t="shared" si="6"/>
+        <v>37.8033</v>
       </c>
       <c r="AI40" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="AJ40" s="2">
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>391</v>
       </c>
       <c r="AK40" s="2">
-        <v>12.5</v>
+        <f t="shared" si="6"/>
+        <v>401.5</v>
       </c>
       <c r="AL40" s="2">
-        <f>IF(AL29&lt;&gt;"no data",IF(AL37&lt;&gt;"no data",IF(AL31&lt;&gt;"no data",IF(AL35&lt;&gt;"no data",(AL31+AL37)-(AL29+AL35),""),""),""),"")</f>
-        <v>16.5</v>
+        <f t="shared" si="6"/>
+        <v>414.5</v>
       </c>
       <c r="AM40" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>431</v>
       </c>
       <c r="AN40" s="2">
-        <v>779</v>
-      </c>
-      <c r="AO40" s="2" t="s">
-        <v>275</v>
+        <f t="shared" si="6"/>
+        <v>1550</v>
+      </c>
+      <c r="AO40" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AP40" s="2">
-        <f>IF(AP29&lt;&gt;"no data",IF(AP37&lt;&gt;"no data",IF(AP31&lt;&gt;"no data",IF(AP35&lt;&gt;"no data",(AP31+AP37)-(3710+AP35),""),""),""),"")</f>
-        <v>22.856999999999971</v>
+        <f t="shared" si="6"/>
+        <v>5724.857</v>
       </c>
       <c r="AQ40" s="2">
-        <v>-357</v>
-      </c>
-      <c r="AR40" s="2" t="str">
-        <f t="shared" ref="AR40:AT40" si="6">IF(AR29&lt;&gt;"no data",IF(AR37&lt;&gt;"no data",IF(AR31&lt;&gt;"no data",IF(AR35&lt;&gt;"no data",(AR31+AR37)-(3710+AR35),""),""),""),"")</f>
-        <v/>
-      </c>
-      <c r="AS40" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AT40" s="2" t="str">
+        <v>5754.5</v>
+      </c>
+      <c r="AR40" s="2">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AU40" s="2">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV40" s="2">
+        <f t="shared" si="6"/>
         <v>177.2</v>
       </c>
-      <c r="AW40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX40" s="2" t="str">
-        <f>IF(AX29&lt;&gt;"no data",IF(AX37&lt;&gt;"no data",IF(AX31&lt;&gt;"no data",IF(AX35&lt;&gt;"no data",(AX31+AX37)-(AX29+AX35),""),""),""),"")</f>
-        <v/>
+      <c r="AW40" s="2">
+        <f t="shared" si="6"/>
+        <v>167.904999</v>
+      </c>
+      <c r="AX40" s="2">
+        <f t="shared" si="6"/>
+        <v>179.4299</v>
       </c>
       <c r="AY40" s="2">
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>133.6</v>
       </c>
       <c r="AZ40" s="2">
-        <v>-1.7225000000000037</v>
+        <f t="shared" si="6"/>
+        <v>51.737499999999997</v>
       </c>
       <c r="BA40" s="2">
-        <v>47.545556000000005</v>
-      </c>
-      <c r="BB40" s="2" t="str">
-        <f>IF(BB29&lt;&gt;"no data",IF(BB37&lt;&gt;"no data",IF(BB31&lt;&gt;"no data",IF(BB35&lt;&gt;"no data",(BB31+BB37)-(BB29+BB35),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BB40" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BC40" s="2">
-        <v>-32</v>
-      </c>
-      <c r="BD40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BE40" s="2" t="s">
-        <v>275</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2">
+        <f t="shared" si="6"/>
+        <v>322.89999999999998</v>
+      </c>
+      <c r="BE40" s="2">
+        <f t="shared" si="6"/>
+        <v>539.62599999999998</v>
       </c>
       <c r="BF40" s="2">
-        <f>IF(BF29&lt;&gt;"no data",IF(BF37&lt;&gt;"no data",IF(BF31&lt;&gt;"no data",IF(BF35&lt;&gt;"no data",(BF31+BF37)-(BF29+BF35),""),""),""),"")</f>
-        <v>346.93340000000001</v>
+        <f t="shared" si="6"/>
+        <v>766.6</v>
       </c>
       <c r="BG40" s="2">
-        <v>205</v>
+        <f t="shared" si="6"/>
+        <v>921.2</v>
       </c>
       <c r="BH40" s="2">
-        <v>-483.11299999999983</v>
+        <f t="shared" si="6"/>
+        <v>750.61200000000008</v>
       </c>
       <c r="BI40" s="2">
-        <v>-605.13333999999998</v>
+        <f t="shared" si="6"/>
+        <v>382.92665999999997</v>
       </c>
       <c r="BJ40" s="2">
-        <f>IF(BJ29&lt;&gt;"no data",IF(BJ37&lt;&gt;"no data",IF(BJ31&lt;&gt;"no data",IF(BJ35&lt;&gt;"no data",(BJ31+BJ37)-(BJ29+BJ35),""),""),""),"")</f>
-        <v>1283.3896</v>
+        <f t="shared" si="6"/>
+        <v>2730.3721</v>
       </c>
       <c r="BK40" s="2">
-        <v>-848</v>
-      </c>
-      <c r="BL40" s="2" t="s">
-        <v>275</v>
+        <f t="shared" si="6"/>
+        <v>616.9</v>
+      </c>
+      <c r="BL40" s="2">
+        <f t="shared" si="6"/>
+        <v>22.444285714285716</v>
       </c>
       <c r="BM40" s="2">
-        <v>-35.246428600000002</v>
+        <f t="shared" si="6"/>
+        <v>21.0685714</v>
       </c>
       <c r="BN40" s="2">
-        <f>IF(BN29&lt;&gt;"no data",IF(BN37&lt;&gt;"no data",IF(BN31&lt;&gt;"no data",IF(BN35&lt;&gt;"no data",(BN31+BN37)-(BN29+BN35),""),""),""),"")</f>
+        <f t="shared" si="6"/>
         <v>9.3479679999999998</v>
       </c>
       <c r="BO40" s="2">
-        <v>-11</v>
-      </c>
-      <c r="BP40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="BR40" s="2" t="str">
-        <f>IF(BR29&lt;&gt;"no data",IF(BR37&lt;&gt;"no data",IF(BR31&lt;&gt;"no data",IF(BR35&lt;&gt;"no data",(BR31+BR37)-(BR29+BR35),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>10.6</v>
+      </c>
+      <c r="BP40" s="2">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="BQ40" s="2">
+        <f t="shared" ref="BQ40:DI40" si="7" xml:space="preserve"> IF(ISNUMBER(BQ31),BQ31,0)+IF(ISNUMBER(BQ37),BQ37,0)</f>
+        <v>18.795000000000002</v>
+      </c>
+      <c r="BR40" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BS40" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT40" s="2">
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v>87.5</v>
       </c>
       <c r="BU40" s="2">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>82.5</v>
       </c>
       <c r="BV40" s="2">
-        <f>IF(BV29&lt;&gt;"no data",IF(BV37&lt;&gt;"no data",IF(BV31&lt;&gt;"no data",IF(BV35&lt;&gt;"no data",(BV31+BV37)-(BV29+BV35),""),""),""),"")</f>
-        <v>-8.5</v>
+        <f t="shared" si="7"/>
+        <v>69</v>
       </c>
       <c r="BW40" s="2">
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>81</v>
       </c>
       <c r="BX40" s="2">
-        <v>-0.42800000000000082</v>
-      </c>
-      <c r="BY40" s="2" t="s">
-        <v>275</v>
+        <f t="shared" si="7"/>
+        <v>8.9420000000000002</v>
+      </c>
+      <c r="BY40" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BZ40" s="2">
-        <f>IF(BZ29&lt;&gt;"no data",IF(BZ37&lt;&gt;"no data",IF(BZ31&lt;&gt;"no data",IF(BZ35&lt;&gt;"no data",(BZ31+BZ37)-(BZ29+BZ35),""),""),""),"")</f>
-        <v>16.285000000000004</v>
+        <f t="shared" si="7"/>
+        <v>27.6</v>
       </c>
       <c r="CA40" s="2">
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>28.5</v>
       </c>
       <c r="CB40" s="2">
-        <v>23.5</v>
+        <f t="shared" si="7"/>
+        <v>1220.5</v>
       </c>
       <c r="CC40" s="2">
-        <v>-66.099999999999909</v>
+        <f t="shared" si="7"/>
+        <v>1226.4000000000001</v>
       </c>
       <c r="CD40" s="2">
-        <f>IF(CD29&lt;&gt;"no data",IF(CD37&lt;&gt;"no data",IF(CD31&lt;&gt;"no data",IF(CD35&lt;&gt;"no data",(CD31+CD37)-(CD29+CD35),""),""),""),"")</f>
-        <v>54.166630000000168</v>
+        <f t="shared" si="7"/>
+        <v>1340.6666300000002</v>
       </c>
       <c r="CE40" s="2">
-        <v>389</v>
-      </c>
-      <c r="CF40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CG40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CH40" s="2" t="str">
-        <f>IF(CH29&lt;&gt;"no data",IF(CH37&lt;&gt;"no data",IF(CH31&lt;&gt;"no data",IF(CH35&lt;&gt;"no data",(CH31+CH37)-(CH29+CH35),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>2019.3</v>
+      </c>
+      <c r="CF40" s="2">
+        <f t="shared" si="7"/>
+        <v>1043.6833333333334</v>
+      </c>
+      <c r="CG40" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CH40" s="2">
+        <f t="shared" si="7"/>
+        <v>773.67375000000004</v>
       </c>
       <c r="CI40" s="2">
-        <v>1711</v>
+        <f t="shared" si="7"/>
+        <v>2877.2</v>
       </c>
       <c r="CJ40" s="2">
-        <v>-22.905999999999999</v>
+        <f t="shared" si="7"/>
+        <v>21.094000000000001</v>
       </c>
       <c r="CK40" s="2">
-        <v>7.8053333000000009</v>
-      </c>
-      <c r="CL40" s="2" t="str">
-        <f>IF(CL29&lt;&gt;"no data",IF(CL37&lt;&gt;"no data",IF(CL31&lt;&gt;"no data",IF(CL35&lt;&gt;"no data",(CL31+CL37)-(CL29+CL35),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>40.805333300000001</v>
+      </c>
+      <c r="CL40" s="2">
+        <f t="shared" si="7"/>
+        <v>19.77026</v>
       </c>
       <c r="CM40" s="2">
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>27.9</v>
       </c>
       <c r="CN40" s="2">
-        <v>560.99888888888881</v>
+        <f t="shared" si="7"/>
+        <v>743.37888888888881</v>
       </c>
       <c r="CO40" s="2">
-        <v>498</v>
+        <f t="shared" si="7"/>
+        <v>717</v>
       </c>
       <c r="CP40" s="2">
-        <f>IF(CP29&lt;&gt;"no data",IF(CP37&lt;&gt;"no data",IF(CP31&lt;&gt;"no data",IF(CP35&lt;&gt;"no data",(747.3+CP37)-(CP29+CP35),""),""),""),"")</f>
-        <v>1030.8422800000001</v>
+        <f t="shared" si="7"/>
+        <v>321.19528000000003</v>
       </c>
       <c r="CQ40" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CR40" s="2">
-        <v>74</v>
+        <f t="shared" si="7"/>
+        <v>174</v>
       </c>
       <c r="CS40" s="2">
-        <v>24.999999500000001</v>
+        <f t="shared" si="7"/>
+        <v>107.9999995</v>
       </c>
       <c r="CT40" s="2">
-        <f>IF(CT29&lt;&gt;"no data",IF(CT37&lt;&gt;"no data",IF(CT31&lt;&gt;"no data",IF(CT35&lt;&gt;"no data",(CT31+CT37)-(CT29+CT35),""),""),""),"")</f>
-        <v>-15.930999999999997</v>
+        <f t="shared" si="7"/>
+        <v>72.069000000000003</v>
       </c>
       <c r="CU40" s="2">
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>97</v>
       </c>
       <c r="CV40" s="2">
-        <v>-49</v>
+        <f t="shared" si="7"/>
+        <v>27.5</v>
       </c>
       <c r="CW40" s="2">
-        <v>-92.25</v>
+        <f t="shared" si="7"/>
+        <v>9.25</v>
       </c>
       <c r="CX40" s="2">
-        <f>IF(CX29&lt;&gt;"no data",IF(CX37&lt;&gt;"no data",IF(CX31&lt;&gt;"no data",IF(CX35&lt;&gt;"no data",(CX31+CX37)-(CX29+CX35),""),""),""),"")</f>
-        <v>-80.75</v>
+        <f t="shared" si="7"/>
+        <v>9.25</v>
       </c>
       <c r="CY40" s="2">
-        <v>0</v>
-      </c>
-      <c r="CZ40" s="2" t="s">
-        <v>275</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CZ40" s="2">
+        <f t="shared" si="7"/>
+        <v>489.19999999999987</v>
       </c>
       <c r="DA40" s="2">
-        <v>908.45062500000006</v>
-      </c>
-      <c r="DB40" s="2" t="str">
-        <f>IF(DB29&lt;&gt;"no data",IF(DB37&lt;&gt;"no data",IF(DB31&lt;&gt;"no data",IF(DB35&lt;&gt;"no data",(DB31+DB37)-(DB29+DB35),""),""),""),"")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>547.05062499999997</v>
+      </c>
+      <c r="DB40" s="2">
+        <f t="shared" si="7"/>
+        <v>607.45881999999995</v>
       </c>
       <c r="DC40" s="2">
-        <v>506</v>
+        <f t="shared" si="7"/>
+        <v>764.09999999999991</v>
       </c>
       <c r="DD40" s="2">
-        <v>84.399999999999977</v>
+        <f t="shared" si="7"/>
+        <v>663.4</v>
       </c>
       <c r="DE40" s="2">
-        <v>-1912.72</v>
+        <f t="shared" si="7"/>
+        <v>384.28</v>
       </c>
       <c r="DF40" s="2">
-        <f>IF(DF29&lt;&gt;"no data",IF(DF37&lt;&gt;"no data",IF(DF31&lt;&gt;"no data",IF(DF35&lt;&gt;"no data",(DF31+DF37)-(DF29+DF35),""),""),""),"")</f>
-        <v>372.33332999999993</v>
+        <f t="shared" si="7"/>
+        <v>1368.3333299999999</v>
       </c>
       <c r="DG40" s="2">
-        <v>502</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
       <c r="DH40" s="2">
-        <v>338.23800000000028</v>
+        <f t="shared" si="7"/>
+        <v>1479.3580000000002</v>
       </c>
       <c r="DI40" s="2">
-        <v>33.296000000000049</v>
+        <f t="shared" si="7"/>
+        <v>1128.556</v>
       </c>
     </row>
     <row r="41" spans="2:113" x14ac:dyDescent="0.5">
@@ -15251,7 +15410,7 @@
         <v>-4.1411042944785273E-2</v>
       </c>
       <c r="E41" s="54">
-        <f t="shared" ref="E41:I41" si="7">IF((E40&lt;&gt;"" &amp; E40 &gt; 0),((E31+E37)-(E29+E35))/(E29+E35),"")</f>
+        <f t="shared" ref="E41:I41" si="8">IF((E40&lt;&gt;"" &amp; E40 &gt; 0),((E31+E37)-(E29+E35))/(E29+E35),"")</f>
         <v>-0.17721518987341772</v>
       </c>
       <c r="F41" s="54">
@@ -15262,15 +15421,15 @@
         <v>-0.27500000000000002</v>
       </c>
       <c r="H41" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1841640155532147E-2</v>
       </c>
       <c r="I41" s="54" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="54">
-        <f t="shared" ref="J41" si="8">IF(J40&lt;&gt;"",((J31+J37)-(J29+J35))/(J29+J35),"")</f>
+        <f t="shared" ref="J41" si="9">IF(J40&lt;&gt;"",((J31+J37)-(J29+J35))/(J29+J35),"")</f>
         <v>-0.49734523433688255</v>
       </c>
       <c r="K41" s="101">
@@ -15295,9 +15454,9 @@
       <c r="Q41" s="54" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R41" s="54" t="str">
+      <c r="R41" s="54" t="e">
         <f>IF(R40&lt;&gt;"",((R31+R37)-(R29+R35))/(R29+R35),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="S41" s="54" t="s">
         <v>137</v>
@@ -15307,79 +15466,79 @@
       </c>
       <c r="U41" s="54"/>
       <c r="V41" s="54">
-        <f t="shared" ref="V41:CG41" si="9">IF(V40&lt;&gt;"",((V31+V37)-(V29+V35))/(V29+V35),"")</f>
+        <f t="shared" ref="V41:CG41" si="10">IF(V40&lt;&gt;"",((V31+V37)-(V29+V35))/(V29+V35),"")</f>
         <v>2.9704048964218455</v>
       </c>
       <c r="W41" s="101">
         <v>2.6890000000000001</v>
       </c>
       <c r="X41" s="54" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y41" s="54" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z41" s="112">
-        <f t="shared" si="9"/>
+      <c r="Z41" s="111">
+        <f t="shared" si="10"/>
         <v>-3.2069979591836745E-2</v>
       </c>
-      <c r="AA41" s="148">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="129">
-        <f t="shared" si="9"/>
+      <c r="AA41" s="145">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="127">
+        <f t="shared" si="10"/>
         <v>-5.6138186304750155E-2</v>
       </c>
       <c r="AC41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.12441332497201327</v>
       </c>
       <c r="AD41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6.3074287494159789E-2</v>
       </c>
       <c r="AE41" s="101">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="AF41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.27510917030567694</v>
       </c>
       <c r="AG41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5940869565217288E-3</v>
       </c>
       <c r="AH41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16640851589015748</v>
       </c>
       <c r="AI41" s="101">
         <v>-6.5000000000000002E-2</v>
       </c>
       <c r="AJ41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8947368421052631E-2</v>
       </c>
       <c r="AK41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2133676092544985E-2</v>
       </c>
       <c r="AL41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.1457286432160803E-2</v>
       </c>
       <c r="AM41" s="101">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AN41" s="54" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AO41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AO41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP41" s="54">
         <f>IF(AP40&lt;&gt;"",((AP31+AP37)-(3710+AP35))/(3710+AP35),"")</f>
@@ -15388,189 +15547,189 @@
       <c r="AQ41" s="101">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="AR41" s="54" t="str">
-        <f t="shared" ref="AR41:AT41" si="10">IF(AR40&lt;&gt;"",((AR31+AR37)-(3710+AR35))/(3710+AR35),"")</f>
-        <v/>
-      </c>
-      <c r="AS41" s="54" t="str">
+      <c r="AR41" s="54" t="e">
+        <f t="shared" ref="AR41:AT41" si="11">IF(AR40&lt;&gt;"",((AR31+AR37)-(3710+AR35))/(3710+AR35),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS41" s="54" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT41" s="54" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU41" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV41" s="54" t="e">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AT41" s="54" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW41" s="54" t="e">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AU41" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV41" s="54" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AX41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AY41" s="54" t="s">
         <v>137</v>
       </c>
       <c r="AZ41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.2220351664796178E-2</v>
       </c>
       <c r="BA41" s="54" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="BB41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="BC41" s="54">
         <v>-1</v>
       </c>
-      <c r="BD41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="BE41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="BD41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="BF41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.82668813767881455</v>
       </c>
       <c r="BG41" s="54">
         <v>0.67</v>
       </c>
       <c r="BH41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.39158888731281272</v>
       </c>
       <c r="BI41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.61244594457826451</v>
       </c>
       <c r="BJ41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.88694203281656825</v>
       </c>
       <c r="BK41" s="54">
         <v>-0.57899999999999996</v>
       </c>
-      <c r="BL41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="BL41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="BM41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.62587993607387027</v>
       </c>
       <c r="BN41" s="54"/>
       <c r="BO41" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="BP41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="BQ41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="BR41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="BP41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="BS41" s="54" t="s">
         <v>137</v>
       </c>
       <c r="BT41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="BU41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="BV41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.10967741935483871</v>
       </c>
       <c r="BW41" s="54">
         <v>0.35</v>
       </c>
       <c r="BX41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4.5677694770544376E-2</v>
       </c>
-      <c r="BY41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="BY41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="BZ41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.439239946973045</v>
       </c>
       <c r="CA41" s="54">
         <v>1.4359999999999999</v>
       </c>
       <c r="CB41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9632414369256473E-2</v>
       </c>
       <c r="CC41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.1141199226305542E-2</v>
       </c>
       <c r="CD41" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.2103870967742069E-2</v>
       </c>
       <c r="CE41" s="54">
         <v>0.25900000000000001</v>
       </c>
-      <c r="CF41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="CG41" s="54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="CH41" s="54" t="str">
-        <f t="shared" ref="CH41:DF41" si="11">IF(CH40&lt;&gt;"",((CH31+CH37)-(CH29+CH35))/(CH29+CH35),"")</f>
-        <v/>
+      <c r="CF41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CG41" s="54" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CH41" s="54" t="e">
+        <f t="shared" ref="CH41:DF41" si="12">IF(CH40&lt;&gt;"",((CH31+CH37)-(CH29+CH35))/(CH29+CH35),"")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="CI41" s="54" t="s">
         <v>137</v>
       </c>
       <c r="CJ41" s="54" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="CK41" s="54" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="CL41" s="54" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="CL41" s="54" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
       </c>
       <c r="CM41" s="54">
         <v>0.44600000000000001</v>
       </c>
       <c r="CN41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0759890826235816</v>
       </c>
       <c r="CO41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2739726027397262</v>
       </c>
       <c r="CP41" s="54">
@@ -15581,60 +15740,60 @@
         <v>137</v>
       </c>
       <c r="CR41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74</v>
       </c>
       <c r="CS41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.30120481325301207</v>
       </c>
       <c r="CT41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.18103409090909087</v>
       </c>
       <c r="CU41" s="54">
         <v>1.74</v>
       </c>
       <c r="CV41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.64052287581699341</v>
       </c>
       <c r="CW41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.90886699507389157</v>
       </c>
       <c r="CX41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.89722222222222225</v>
       </c>
       <c r="CY41" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="CZ41" s="54" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="CZ41" s="54" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
       </c>
       <c r="DA41" s="54" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="DB41" s="54" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="DB41" s="54" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
       </c>
       <c r="DC41" s="54" t="s">
         <v>137</v>
       </c>
       <c r="DD41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14576856649395506</v>
       </c>
       <c r="DE41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.4079601990049816E-2</v>
       </c>
       <c r="DF41" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.37382864457831316</v>
       </c>
       <c r="DG41" s="54">
@@ -15648,10 +15807,10 @@
       </c>
     </row>
     <row r="42" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B42" s="161" t="s">
+      <c r="B42" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="161"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="89">
         <f>Population_eurostat!C4</f>
         <v>8.7004710000000003</v>
@@ -15740,15 +15899,15 @@
         <f>Population_eurostat!D9</f>
         <v>10.610054999999999</v>
       </c>
-      <c r="Z42" s="113">
+      <c r="Z42" s="112">
         <f>Population_eurostat!E9</f>
         <v>10.693939</v>
       </c>
-      <c r="AA42" s="149">
+      <c r="AA42" s="146">
         <f>Population_eurostat!F9</f>
         <v>10.5</v>
       </c>
-      <c r="AB42" s="130">
+      <c r="AB42" s="128">
         <f>Population_eurostat!C10</f>
         <v>5.7072510000000003</v>
       </c>
@@ -16094,10 +16253,10 @@
       </c>
     </row>
     <row r="43" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="155"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="33" t="s">
         <v>275</v>
       </c>
@@ -16172,15 +16331,15 @@
       <c r="Y43" s="33">
         <v>40.716094308653446</v>
       </c>
-      <c r="Z43" s="114" t="str">
+      <c r="Z43" s="113" t="str">
         <f>IF(((IF(OR(Z27="no data",Z27="n/a"),0,Z27))+IF(OR(Z33="no data",Z33="n/a"),0,Z33))&gt;0,((IF(OR(Z27="no data",Z27="n/a"),0,Z27))+IF(OR(Z33="no data",Z33="n/a"),0,Z33))/Z42,"")</f>
         <v/>
       </c>
-      <c r="AA43" s="150">
+      <c r="AA43" s="147">
         <f>IF(((IF(OR(AA27="no data",AA27="n/a"),0,AA27))+IF(OR(AA33="no data",AA33="n/a"),0,AA33))&gt;0,((IF(OR(AA27="no data",AA27="n/a"),0,AA27))+IF(OR(AA33="no data",AA33="n/a"),0,AA33))/AA42,"")</f>
         <v>49.904761904761905</v>
       </c>
-      <c r="AB43" s="131">
+      <c r="AB43" s="129">
         <v>108.63373627688706</v>
       </c>
       <c r="AC43" s="33">
@@ -16479,10 +16638,10 @@
       </c>
     </row>
     <row r="44" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="155"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="33">
         <v>37.469235860909137</v>
       </c>
@@ -16559,15 +16718,15 @@
       <c r="Y44" s="33">
         <v>39.726467016429233</v>
       </c>
-      <c r="Z44" s="114">
+      <c r="Z44" s="113">
         <f>IF(((IF(OR(Z29="no data",Z29="n/a"),0,Z29))+IF(OR(Z35="no data",Z35="n/a"),0,Z35))&gt;0,((IF(OR(Z29="no data",Z29="n/a"),0,Z29))+IF(OR(Z35="no data",Z35="n/a"),0,Z35))/Z42,"")</f>
         <v>45.820347394912204</v>
       </c>
-      <c r="AA44" s="150">
+      <c r="AA44" s="147">
         <f>IF(((IF(OR(AA29="no data",AA29="n/a"),0,AA29))+IF(OR(AA35="no data",AA35="n/a"),0,AA35))&gt;0,((IF(OR(AA29="no data",AA29="n/a"),0,AA29))+IF(OR(AA35="no data",AA35="n/a"),0,AA35))/AA42,"")</f>
         <v>49.904761904761905</v>
       </c>
-      <c r="AB44" s="131">
+      <c r="AB44" s="129">
         <v>142.01232782647898</v>
       </c>
       <c r="AC44" s="33">
@@ -16866,10 +17025,10 @@
       </c>
     </row>
     <row r="45" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="155"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="33">
         <v>35.917595725564745</v>
       </c>
@@ -16946,15 +17105,15 @@
       <c r="Y45" s="33">
         <v>38.984246547261066</v>
       </c>
-      <c r="Z45" s="114">
+      <c r="Z45" s="113">
         <f>IF(((IF(OR(Z31="no data",Z31="n/a"),0,Z31))+IF(OR(Z37="no data",Z37="n/a"),0,Z37))&gt;0,((IF(OR(Z31="no data",Z31="n/a"),0,Z31))+IF(OR(Z37="no data",Z37="n/a"),0,Z37))/Z42,"")</f>
         <v>44.3508897890665</v>
       </c>
-      <c r="AA45" s="150">
+      <c r="AA45" s="147">
         <f>IF(((IF(OR(AA31="no data",AA31="n/a"),0,AA31))+IF(OR(AA37="no data",AA37="n/a"),0,AA37))&gt;0,((IF(OR(AA31="no data",AA31="n/a"),0,AA31))+IF(OR(AA37="no data",AA37="n/a"),0,AA37))/AA42,"")</f>
         <v>49.904761904761905</v>
       </c>
-      <c r="AB45" s="131">
+      <c r="AB45" s="129">
         <v>134.04001330938485</v>
       </c>
       <c r="AC45" s="33">
@@ -17275,9 +17434,9 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="115"/>
-      <c r="AA46" s="151"/>
-      <c r="AB46" s="132"/>
+      <c r="Z46" s="114"/>
+      <c r="AA46" s="148"/>
+      <c r="AB46" s="130"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -17365,456 +17524,456 @@
       <c r="DI46" s="1"/>
     </row>
     <row r="47" spans="2:113" x14ac:dyDescent="0.5">
-      <c r="B47" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="156"/>
+      <c r="B47" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="163"/>
       <c r="D47" s="5">
         <f>D$3</f>
         <v>2016</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" ref="E47:BP47" si="12">E$3</f>
+        <f t="shared" ref="E47:BP47" si="13">E$3</f>
         <v>2018</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="M47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="P47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="R47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="S47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="T47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="U47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="V47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="W47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="Y47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="Z47" s="107">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AA47" s="143">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AB47" s="125">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="AC47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="AD47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AE47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AF47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="AG47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="AH47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AI47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AJ47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="AK47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="AL47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AM47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AN47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="AO47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="AP47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AQ47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AR47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="AS47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="AT47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AU47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AV47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="AW47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="AX47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="AY47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="AZ47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="BA47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="BB47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="BC47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="BD47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="BE47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="BF47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="BG47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="BH47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="BI47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="BJ47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="BK47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="BL47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="BM47" s="5">
-        <f t="shared" si="12"/>
-        <v>2018</v>
-      </c>
-      <c r="BN47" s="5">
-        <f t="shared" si="12"/>
-        <v>2020</v>
-      </c>
-      <c r="BO47" s="5">
-        <f t="shared" si="12"/>
-        <v>2022</v>
-      </c>
-      <c r="BP47" s="5">
-        <f t="shared" si="12"/>
-        <v>2016</v>
-      </c>
-      <c r="BQ47" s="5">
-        <f t="shared" ref="BQ47:DI47" si="13">BQ$3</f>
-        <v>2018</v>
-      </c>
-      <c r="BR47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="BS47" s="5">
+      <c r="G47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="BT47" s="5">
+      <c r="H47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="BU47" s="5">
+      <c r="I47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="BV47" s="5">
+      <c r="J47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="BW47" s="5">
+      <c r="K47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="BX47" s="5">
+      <c r="L47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="BY47" s="5">
+      <c r="M47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="BZ47" s="5">
+      <c r="N47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CA47" s="5">
+      <c r="O47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CB47" s="5">
+      <c r="P47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="CC47" s="5">
+      <c r="Q47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="CD47" s="5">
+      <c r="R47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CE47" s="5">
+      <c r="S47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CF47" s="5">
+      <c r="T47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="CG47" s="5">
+      <c r="U47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="CH47" s="5">
+      <c r="V47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CI47" s="5">
+      <c r="W47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CJ47" s="5">
+      <c r="X47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="CK47" s="5">
+      <c r="Y47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="CL47" s="5">
+      <c r="Z47" s="107">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CM47" s="5">
+      <c r="AA47" s="141">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CN47" s="5">
+      <c r="AB47" s="124">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="CO47" s="5">
+      <c r="AC47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="CP47" s="5">
+      <c r="AD47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CQ47" s="5">
+      <c r="AE47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CR47" s="5">
+      <c r="AF47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="CS47" s="5">
+      <c r="AG47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="CT47" s="5">
+      <c r="AH47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CU47" s="5">
+      <c r="AI47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CV47" s="5">
+      <c r="AJ47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="CW47" s="5">
+      <c r="AK47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="CX47" s="5">
+      <c r="AL47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="CY47" s="5">
+      <c r="AM47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="CZ47" s="5">
+      <c r="AN47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="DA47" s="5">
+      <c r="AO47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="DB47" s="5">
+      <c r="AP47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="DC47" s="5">
+      <c r="AQ47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="DD47" s="5">
+      <c r="AR47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="DE47" s="5">
+      <c r="AS47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="DF47" s="5">
+      <c r="AT47" s="5">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="DG47" s="5">
+      <c r="AU47" s="5">
         <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="DH47" s="5">
+      <c r="AV47" s="5">
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="DI47" s="5">
+      <c r="AW47" s="5">
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
+      <c r="AX47" s="5">
+        <f t="shared" si="13"/>
+        <v>2020</v>
+      </c>
+      <c r="AY47" s="5">
+        <f t="shared" si="13"/>
+        <v>2022</v>
+      </c>
+      <c r="AZ47" s="5">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="BA47" s="5">
+        <f t="shared" si="13"/>
+        <v>2018</v>
+      </c>
+      <c r="BB47" s="5">
+        <f t="shared" si="13"/>
+        <v>2020</v>
+      </c>
+      <c r="BC47" s="5">
+        <f t="shared" si="13"/>
+        <v>2022</v>
+      </c>
+      <c r="BD47" s="5">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="BE47" s="5">
+        <f t="shared" si="13"/>
+        <v>2018</v>
+      </c>
+      <c r="BF47" s="5">
+        <f t="shared" si="13"/>
+        <v>2020</v>
+      </c>
+      <c r="BG47" s="5">
+        <f t="shared" si="13"/>
+        <v>2022</v>
+      </c>
+      <c r="BH47" s="5">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="BI47" s="5">
+        <f t="shared" si="13"/>
+        <v>2018</v>
+      </c>
+      <c r="BJ47" s="5">
+        <f t="shared" si="13"/>
+        <v>2020</v>
+      </c>
+      <c r="BK47" s="5">
+        <f t="shared" si="13"/>
+        <v>2022</v>
+      </c>
+      <c r="BL47" s="5">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="BM47" s="5">
+        <f t="shared" si="13"/>
+        <v>2018</v>
+      </c>
+      <c r="BN47" s="5">
+        <f t="shared" si="13"/>
+        <v>2020</v>
+      </c>
+      <c r="BO47" s="5">
+        <f t="shared" si="13"/>
+        <v>2022</v>
+      </c>
+      <c r="BP47" s="5">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="BQ47" s="5">
+        <f t="shared" ref="BQ47:DI47" si="14">BQ$3</f>
+        <v>2018</v>
+      </c>
+      <c r="BR47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="BS47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="BT47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="BU47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="BV47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="BW47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="BX47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="BY47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="BZ47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CA47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CB47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="CC47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="CD47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CE47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CF47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="CG47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="CH47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CI47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CJ47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="CK47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="CL47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CM47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CN47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="CO47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="CP47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CQ47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CR47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="CS47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="CT47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CU47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CV47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="CW47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="CX47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="CY47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="CZ47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="DA47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="DB47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="DC47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="DD47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="DE47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="DF47" s="5">
+        <f t="shared" si="14"/>
+        <v>2020</v>
+      </c>
+      <c r="DG47" s="5">
+        <f t="shared" si="14"/>
+        <v>2022</v>
+      </c>
+      <c r="DH47" s="5">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="DI47" s="5">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
     </row>
     <row r="48" spans="2:113" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="157"/>
+      <c r="C48" s="168"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -17837,9 +17996,9 @@
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
-      <c r="Z48" s="116"/>
-      <c r="AA48" s="152"/>
-      <c r="AB48" s="133"/>
+      <c r="Z48" s="115"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="131"/>
       <c r="AC48" s="14"/>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
@@ -17930,7 +18089,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="158"/>
+      <c r="B49" s="169"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -18004,14 +18163,14 @@
       <c r="Y49" s="19">
         <v>15461192</v>
       </c>
-      <c r="Z49" s="117">
+      <c r="Z49" s="116">
         <f>'Feuil3-2020'!Y4</f>
         <v>14828588</v>
       </c>
-      <c r="AA49" s="153">
+      <c r="AA49" s="150">
         <v>14955989</v>
       </c>
-      <c r="AB49" s="134">
+      <c r="AB49" s="132">
         <v>11310855</v>
       </c>
       <c r="AC49" s="19">
@@ -18292,7 +18451,7 @@
       </c>
     </row>
     <row r="50" spans="1:211" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="159"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -18367,14 +18526,14 @@
       <c r="Y50" s="19">
         <v>15471234</v>
       </c>
-      <c r="Z50" s="117">
+      <c r="Z50" s="116">
         <f>'Feuil3-2020'!Y5</f>
         <v>14899862</v>
       </c>
-      <c r="AA50" s="153">
+      <c r="AA50" s="150">
         <v>15000000</v>
       </c>
-      <c r="AB50" s="134">
+      <c r="AB50" s="132">
         <v>11371338</v>
       </c>
       <c r="AC50" s="19">
@@ -18651,7 +18810,7 @@
       </c>
     </row>
     <row r="51" spans="1:211" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="159"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -18725,14 +18884,14 @@
       <c r="Y51" s="19">
         <v>9482202</v>
       </c>
-      <c r="Z51" s="117">
+      <c r="Z51" s="116">
         <f>'Feuil3-2020'!Y6</f>
         <v>9314302</v>
       </c>
-      <c r="AA51" s="153">
+      <c r="AA51" s="150">
         <v>9637280</v>
       </c>
-      <c r="AB51" s="134">
+      <c r="AB51" s="132">
         <v>11598945</v>
       </c>
       <c r="AC51" s="19">
@@ -19011,7 +19170,7 @@
       </c>
     </row>
     <row r="52" spans="1:211" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="159"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -19085,14 +19244,14 @@
       <c r="Y52" s="19">
         <v>503305</v>
       </c>
-      <c r="Z52" s="117">
+      <c r="Z52" s="116">
         <f>'Feuil3-2020'!Y7</f>
         <v>195501.55172641561</v>
       </c>
-      <c r="AA52" s="153">
+      <c r="AA52" s="150">
         <v>181319</v>
       </c>
-      <c r="AB52" s="134" t="s">
+      <c r="AB52" s="132" t="s">
         <v>137</v>
       </c>
       <c r="AC52" s="19">
@@ -19373,7 +19532,7 @@
     </row>
     <row r="53" spans="1:211" s="96" customFormat="1" ht="22" x14ac:dyDescent="0.5">
       <c r="A53" s="97"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="170"/>
       <c r="C53" s="98" t="s">
         <v>39</v>
       </c>
@@ -19448,14 +19607,14 @@
       <c r="Y53" s="99">
         <v>0</v>
       </c>
-      <c r="Z53" s="118">
+      <c r="Z53" s="117">
         <f>'Feuil3-2020'!Y8</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="154">
+      <c r="AA53" s="151">
         <v>6935</v>
       </c>
-      <c r="AB53" s="135" t="s">
+      <c r="AB53" s="133" t="s">
         <v>137</v>
       </c>
       <c r="AC53" s="99">
@@ -19836,7 +19995,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="159"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -19909,14 +20068,14 @@
       <c r="Y54" s="19">
         <v>9524430</v>
       </c>
-      <c r="Z54" s="117">
+      <c r="Z54" s="116">
         <f>'Feuil3-2020'!Y9</f>
         <v>9016813</v>
       </c>
-      <c r="AA54" s="153">
+      <c r="AA54" s="150">
         <v>9839685</v>
       </c>
-      <c r="AB54" s="134">
+      <c r="AB54" s="132">
         <v>7216809</v>
       </c>
       <c r="AC54" s="19">
@@ -20206,20 +20365,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="DH1:DI1"/>
     <mergeCell ref="DD1:DG1"/>
     <mergeCell ref="CZ1:DC1"/>
@@ -20236,24 +20399,20 @@
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D41:K41">
@@ -20265,25 +20424,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:G40">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K40">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N39:O41">
+  <conditionalFormatting sqref="N41:O41">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -20292,17 +20433,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R39:S41">
+  <conditionalFormatting sqref="R41:S41">
     <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V39:W40">
-    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -20319,214 +20451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z39:AA40">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD39:AE40">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH39:AI40">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL39:AM40 AN39:AQ39">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP40:AU40 AR39:AU39">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX39:AY40">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB39:BB40">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC39:BC40">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF39:BF40">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG39:BG40">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ39:BK40">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN39:BO40">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR39:BS40">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV39:BW40">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ39:CA40">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD39:CE40">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH39:CI40">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CL39:CM40">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CP39:CQ40">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CT39:CU40">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX39:CY40">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DB39:DC40">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DF39:DG40">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DH39:DI41 CN39:CO40 AJ39:AK40 P39:Q41 D39:E40 H39:I40 L39:M41 T39:U41 X39:Y40 AB39:AC40 AF39:AG40 AN40:AO40 AV39:AW40 AZ39:BA40 BD39:BE40 BH39:BI40 BL39:BM40 BP39:BQ40 BT39:BU40 BX39:BY40 CB39:CC40 CF39:CG40 CJ39:CK40 CR39:CS40 CV39:CW40 CZ39:DA40 DD39:DE40">
+  <conditionalFormatting sqref="DH41:DI41 P41:Q41 L41:M41 T41:U41 D39:DI40">
     <cfRule type="iconSet" priority="565">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -20946,7 +20871,7 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="160" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -21066,7 +20991,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="169"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
@@ -21184,7 +21109,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="170"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -21302,7 +21227,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="160" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -21422,7 +21347,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="169"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="8" t="s">
         <v>216</v>
       </c>
@@ -21540,7 +21465,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="170"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -21658,10 +21583,10 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="178"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="21">
         <f>article_17_synthesis_table!F12</f>
         <v>0</v>
@@ -21776,10 +21701,10 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="178"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="17" t="str">
         <f>article_17_synthesis_table!F13</f>
         <v>no data</v>
@@ -21928,7 +21853,7 @@
       <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="160" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -22048,7 +21973,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="170"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
@@ -22166,7 +22091,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="168" t="s">
+      <c r="A17" s="160" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -22286,7 +22211,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="170"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
@@ -22438,7 +22363,7 @@
       <c r="AD19" s="7"/>
     </row>
     <row r="20" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="168" t="s">
+      <c r="A20" s="160" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -22558,7 +22483,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="170"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
@@ -22676,7 +22601,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="160" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -22796,7 +22721,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="170"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -23039,7 +22964,7 @@
       <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="174" t="s">
+      <c r="A27" s="171" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -23159,7 +23084,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="175"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -23277,7 +23202,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="175"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
@@ -23395,7 +23320,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="175"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -23513,7 +23438,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="175"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
@@ -23631,7 +23556,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="176"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
@@ -23749,7 +23674,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="174" t="s">
+      <c r="A33" s="171" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -23869,7 +23794,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="175"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="12" t="s">
         <v>24</v>
       </c>
@@ -23987,7 +23912,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="175"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
@@ -24105,7 +24030,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="175"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
@@ -24223,7 +24148,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A37" s="175"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
@@ -24341,7 +24266,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A38" s="176"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="12" t="s">
         <v>22</v>
       </c>
@@ -24463,113 +24388,113 @@
       <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="2">
         <f>article_17_synthesis_table!F39</f>
-        <v/>
+        <v>220</v>
       </c>
       <c r="D39" s="2">
         <f>article_17_synthesis_table!J39</f>
-        <v>15.169199999999933</v>
-      </c>
-      <c r="E39" s="2" t="str">
+        <v>348.42999999999995</v>
+      </c>
+      <c r="E39" s="2">
         <f>article_17_synthesis_table!N39</f>
-        <v/>
+        <v>31.786660000000001</v>
       </c>
       <c r="F39" s="2">
         <f>article_17_synthesis_table!V39</f>
-        <v>-28.998699999999999</v>
-      </c>
-      <c r="G39" s="2" t="str">
+        <v>15.93</v>
+      </c>
+      <c r="G39" s="2">
         <f>article_17_synthesis_table!Z39</f>
-        <v/>
-      </c>
-      <c r="H39" s="2" t="str">
+        <v>490</v>
+      </c>
+      <c r="H39" s="2">
         <f>article_17_synthesis_table!AT39</f>
-        <v/>
+        <v>3809</v>
       </c>
       <c r="I39" s="2">
         <f>article_17_synthesis_table!AD39</f>
-        <v>182.62509999999997</v>
+        <v>802.625</v>
       </c>
       <c r="J39" s="2">
         <f>article_17_synthesis_table!AH39</f>
-        <v>8.1099999999999959</v>
-      </c>
-      <c r="K39" s="2" t="str">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="K39" s="2">
         <f>article_17_synthesis_table!AX39</f>
-        <v/>
-      </c>
-      <c r="L39" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <f>article_17_synthesis_table!DB39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
         <f>article_17_synthesis_table!AL39</f>
-        <v>11.5</v>
-      </c>
-      <c r="N39" s="2" t="str">
+        <v>398</v>
+      </c>
+      <c r="N39" s="2">
         <f>article_17_synthesis_table!AP39</f>
-        <v/>
-      </c>
-      <c r="O39" s="2" t="str">
+        <v>1992</v>
+      </c>
+      <c r="O39" s="2">
         <f>article_17_synthesis_table!R39</f>
-        <v/>
-      </c>
-      <c r="P39" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
         <f>article_17_synthesis_table!BB39</f>
-        <v/>
-      </c>
-      <c r="Q39" s="2" t="str">
+        <v>138.98839999999998</v>
+      </c>
+      <c r="Q39" s="2">
         <f>article_17_synthesis_table!BF39</f>
-        <v/>
+        <v>419.66660000000002</v>
       </c>
       <c r="R39" s="2">
         <f>article_17_synthesis_table!BJ39</f>
-        <v>1004.7163300000001</v>
+        <v>1446.9825000000001</v>
       </c>
       <c r="S39" s="2">
         <f>article_17_synthesis_table!BN39</f>
-        <v>-22.073900000000002</v>
-      </c>
-      <c r="T39" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
         <f>article_17_synthesis_table!BR39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
         <f>article_17_synthesis_table!BV39</f>
-        <v>-4.9284999999999997</v>
+        <v>77.5</v>
       </c>
       <c r="V39" s="2">
         <f>article_17_synthesis_table!BZ39</f>
-        <v>2.8394999999999992</v>
+        <v>11.315</v>
       </c>
       <c r="W39" s="2">
         <f>article_17_synthesis_table!CD39</f>
-        <v>46.500029999999924</v>
-      </c>
-      <c r="X39" s="2" t="str">
+        <v>1286.5</v>
+      </c>
+      <c r="X39" s="2">
         <f>article_17_synthesis_table!CH39</f>
-        <v/>
-      </c>
-      <c r="Y39" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
         <f>article_17_synthesis_table!CL39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Z39" s="2">
         <f>article_17_synthesis_table!CP39</f>
-        <v>-119.64290000000003</v>
-      </c>
-      <c r="AA39" s="2" t="str">
+        <v>37.652999999999999</v>
+      </c>
+      <c r="AA39" s="2">
         <f>article_17_synthesis_table!DF39</f>
-        <v/>
+        <v>996</v>
       </c>
       <c r="AB39" s="2">
         <f>article_17_synthesis_table!CX39</f>
-        <v>-12.714269999999999</v>
+        <v>90</v>
       </c>
       <c r="AC39" s="2">
         <f>article_17_synthesis_table!CT39</f>
-        <v>-58.285671428570993</v>
+        <v>88</v>
       </c>
       <c r="AD39" s="2">
         <f>article_17_synthesis_table!DJ39</f>
@@ -24583,111 +24508,111 @@
       </c>
       <c r="C40" s="2">
         <f>article_17_synthesis_table!F40</f>
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="D40" s="2">
         <f>article_17_synthesis_table!J40</f>
-        <v>-173.28999999999996</v>
+        <v>175.14</v>
       </c>
       <c r="E40" s="2">
         <f>article_17_synthesis_table!N40</f>
-        <v>518.42619000000002</v>
+        <v>81.01285</v>
       </c>
       <c r="F40" s="2">
         <f>article_17_synthesis_table!V40</f>
-        <v>47.318549999999995</v>
+        <v>63.248549999999994</v>
       </c>
       <c r="G40" s="2">
         <f>article_17_synthesis_table!Z40</f>
-        <v>-15.714290000000005</v>
-      </c>
-      <c r="H40" s="2" t="str">
+        <v>474.28570999999999</v>
+      </c>
+      <c r="H40" s="2">
         <f>article_17_synthesis_table!AT40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
         <f>article_17_synthesis_table!AD40</f>
-        <v>-50.625</v>
+        <v>752</v>
       </c>
       <c r="J40" s="2">
         <f>article_17_synthesis_table!AH40</f>
-        <v>5.3933000000000035</v>
-      </c>
-      <c r="K40" s="2" t="str">
+        <v>37.8033</v>
+      </c>
+      <c r="K40" s="2">
         <f>article_17_synthesis_table!AX40</f>
-        <v/>
-      </c>
-      <c r="L40" s="2" t="str">
+        <v>179.4299</v>
+      </c>
+      <c r="L40" s="2">
         <f>article_17_synthesis_table!DB40</f>
-        <v/>
+        <v>607.45881999999995</v>
       </c>
       <c r="M40" s="2">
         <f>article_17_synthesis_table!AL40</f>
-        <v>16.5</v>
+        <v>414.5</v>
       </c>
       <c r="N40" s="2">
         <f>article_17_synthesis_table!AP40</f>
-        <v>22.856999999999971</v>
-      </c>
-      <c r="O40" s="2" t="str">
+        <v>5724.857</v>
+      </c>
+      <c r="O40" s="2">
         <f>article_17_synthesis_table!R40</f>
-        <v/>
-      </c>
-      <c r="P40" s="2" t="str">
+        <v>281.99540000000002</v>
+      </c>
+      <c r="P40" s="2">
         <f>article_17_synthesis_table!BB40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q40" s="2">
         <f>article_17_synthesis_table!BF40</f>
-        <v>346.93340000000001</v>
+        <v>766.6</v>
       </c>
       <c r="R40" s="2">
         <f>article_17_synthesis_table!BJ40</f>
-        <v>1283.3896</v>
+        <v>2730.3721</v>
       </c>
       <c r="S40" s="2">
         <f>article_17_synthesis_table!BN40</f>
         <v>9.3479679999999998</v>
       </c>
-      <c r="T40" s="2" t="str">
+      <c r="T40" s="2">
         <f>article_17_synthesis_table!BR40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
         <f>article_17_synthesis_table!BV40</f>
-        <v>-8.5</v>
+        <v>69</v>
       </c>
       <c r="V40" s="2">
         <f>article_17_synthesis_table!BZ40</f>
-        <v>16.285000000000004</v>
+        <v>27.6</v>
       </c>
       <c r="W40" s="2">
         <f>article_17_synthesis_table!CD40</f>
-        <v>54.166630000000168</v>
-      </c>
-      <c r="X40" s="2" t="str">
+        <v>1340.6666300000002</v>
+      </c>
+      <c r="X40" s="2">
         <f>article_17_synthesis_table!CH40</f>
-        <v/>
-      </c>
-      <c r="Y40" s="2" t="str">
+        <v>773.67375000000004</v>
+      </c>
+      <c r="Y40" s="2">
         <f>article_17_synthesis_table!CL40</f>
-        <v/>
+        <v>19.77026</v>
       </c>
       <c r="Z40" s="2">
         <f>article_17_synthesis_table!CP40</f>
-        <v>1030.8422800000001</v>
+        <v>321.19528000000003</v>
       </c>
       <c r="AA40" s="2">
         <f>article_17_synthesis_table!DF40</f>
-        <v>372.33332999999993</v>
+        <v>1368.3333299999999</v>
       </c>
       <c r="AB40" s="2">
         <f>article_17_synthesis_table!CX40</f>
-        <v>-80.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC40" s="2">
         <f>article_17_synthesis_table!CT40</f>
-        <v>-15.930999999999997</v>
+        <v>72.069000000000003</v>
       </c>
       <c r="AD40" s="2">
         <f>article_17_synthesis_table!DJ40</f>
@@ -24719,9 +24644,9 @@
         <f>article_17_synthesis_table!Z41</f>
         <v>-3.2069979591836745E-2</v>
       </c>
-      <c r="H41" s="55" t="str">
+      <c r="H41" s="55" t="e">
         <f>article_17_synthesis_table!AT41</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I41" s="55">
         <f>article_17_synthesis_table!AD41</f>
@@ -24731,13 +24656,13 @@
         <f>article_17_synthesis_table!AH41</f>
         <v>0.16640851589015748</v>
       </c>
-      <c r="K41" s="55" t="str">
+      <c r="K41" s="55" t="e">
         <f>article_17_synthesis_table!AX41</f>
-        <v/>
-      </c>
-      <c r="L41" s="55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L41" s="55" t="e">
         <f>article_17_synthesis_table!DB41</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="M41" s="55">
         <f>article_17_synthesis_table!AL41</f>
@@ -24747,13 +24672,13 @@
         <f>article_17_synthesis_table!AP41</f>
         <v>4.0085934759733375E-3</v>
       </c>
-      <c r="O41" s="55" t="str">
+      <c r="O41" s="55" t="e">
         <f>article_17_synthesis_table!R41</f>
-        <v/>
-      </c>
-      <c r="P41" s="55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P41" s="55" t="e">
         <f>article_17_synthesis_table!BB41</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="Q41" s="55">
         <f>article_17_synthesis_table!BF41</f>
@@ -24767,9 +24692,9 @@
         <f>article_17_synthesis_table!BN41</f>
         <v>0</v>
       </c>
-      <c r="T41" s="55" t="str">
+      <c r="T41" s="55" t="e">
         <f>article_17_synthesis_table!BR41</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="U41" s="55">
         <f>article_17_synthesis_table!BV41</f>
@@ -24783,13 +24708,13 @@
         <f>article_17_synthesis_table!CD41</f>
         <v>4.2103870967742069E-2</v>
       </c>
-      <c r="X41" s="55" t="str">
+      <c r="X41" s="55" t="e">
         <f>article_17_synthesis_table!CH41</f>
-        <v/>
-      </c>
-      <c r="Y41" s="55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y41" s="55" t="e">
         <f>article_17_synthesis_table!CL41</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="Z41" s="55">
         <f>article_17_synthesis_table!CP41</f>
@@ -24813,10 +24738,10 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="161"/>
+      <c r="B42" s="165"/>
       <c r="C42" s="20">
         <f>article_17_synthesis_table!F42</f>
         <v>8.9010639999999999</v>
@@ -24931,10 +24856,10 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="155"/>
+      <c r="B43" s="166"/>
       <c r="C43" s="33" t="str">
         <f>article_17_synthesis_table!F43</f>
         <v/>
@@ -25049,10 +24974,10 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="155"/>
+      <c r="B44" s="166"/>
       <c r="C44" s="33">
         <f>article_17_synthesis_table!F44</f>
         <v>24.716146294420533</v>
@@ -25167,10 +25092,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="155"/>
+      <c r="B45" s="166"/>
       <c r="C45" s="33">
         <f>article_17_synthesis_table!F45</f>
         <v>30.221106150905104</v>
@@ -25285,10 +25210,10 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A47" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="156"/>
+      <c r="A47" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="163"/>
       <c r="C47" s="5">
         <v>2020</v>
       </c>
@@ -25375,10 +25300,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A48" s="157" t="s">
+      <c r="A48" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="157"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -25409,7 +25334,7 @@
       <c r="AD48" s="14"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A49" s="158"/>
+      <c r="A49" s="169"/>
       <c r="B49" s="15" t="s">
         <v>35</v>
       </c>
@@ -25527,7 +25452,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A50" s="159"/>
+      <c r="A50" s="170"/>
       <c r="B50" s="15" t="s">
         <v>36</v>
       </c>
@@ -25645,7 +25570,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A51" s="159"/>
+      <c r="A51" s="170"/>
       <c r="B51" s="15" t="s">
         <v>37</v>
       </c>
@@ -25763,7 +25688,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A52" s="159"/>
+      <c r="A52" s="170"/>
       <c r="B52" s="15" t="s">
         <v>38</v>
       </c>
@@ -25881,7 +25806,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A53" s="159"/>
+      <c r="A53" s="170"/>
       <c r="B53" s="15" t="s">
         <v>39</v>
       </c>
@@ -25999,7 +25924,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="22" x14ac:dyDescent="0.5">
-      <c r="A54" s="159"/>
+      <c r="A54" s="170"/>
       <c r="B54" s="15" t="s">
         <v>40</v>
       </c>
@@ -26118,14 +26043,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -26135,6 +26052,14 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <conditionalFormatting sqref="C39:AD41">
     <cfRule type="iconSet" priority="58">
@@ -26896,10 +26821,10 @@
       </c>
     </row>
     <row r="3" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B3" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="156"/>
+      <c r="B3" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="163"/>
       <c r="D3" s="4">
         <v>2014</v>
       </c>
@@ -27469,7 +27394,7 @@
       <c r="DJ5" s="7"/>
     </row>
     <row r="6" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="155" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -27810,7 +27735,7 @@
       </c>
     </row>
     <row r="7" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="163"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="8" t="s">
         <v>216</v>
       </c>
@@ -28149,7 +28074,7 @@
       </c>
     </row>
     <row r="8" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="163"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -28488,7 +28413,7 @@
       </c>
     </row>
     <row r="9" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="160" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -28829,7 +28754,7 @@
       </c>
     </row>
     <row r="10" spans="2:114" ht="13.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="169"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="8" t="s">
         <v>216</v>
       </c>
@@ -29168,7 +29093,7 @@
       </c>
     </row>
     <row r="11" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="170"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
@@ -29507,10 +29432,10 @@
       </c>
     </row>
     <row r="12" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="21">
         <f>IF(D6="n/a",0,IF(D6="no data",0,D6))+IF(D9="n/a",0,IF(D9="no data",0,D9))</f>
         <v>0</v>
@@ -29957,10 +29882,10 @@
       </c>
     </row>
     <row r="13" spans="2:114" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="167"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="9" t="s">
         <v>139</v>
       </c>
@@ -30413,7 +30338,7 @@
       <c r="DJ14" s="7"/>
     </row>
     <row r="15" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="155" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -30754,7 +30679,7 @@
       </c>
     </row>
     <row r="16" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="163"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
@@ -31093,7 +31018,7 @@
       </c>
     </row>
     <row r="17" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -31434,7 +31359,7 @@
       </c>
     </row>
     <row r="18" spans="2:114" ht="22.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="163"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -31890,7 +31815,7 @@
       <c r="DJ19" s="7"/>
     </row>
     <row r="20" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="155" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32260,7 +32185,7 @@
       </c>
     </row>
     <row r="21" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B21" s="163"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
@@ -32710,7 +32635,7 @@
       </c>
     </row>
     <row r="22" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -33051,7 +32976,7 @@
       </c>
     </row>
     <row r="23" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B23" s="164"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
@@ -33390,10 +33315,10 @@
       </c>
     </row>
     <row r="25" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B25" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="156"/>
+      <c r="B25" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="163"/>
       <c r="D25" s="4">
         <v>2014</v>
       </c>
@@ -33729,10 +33654,10 @@
       </c>
     </row>
     <row r="26" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B26" s="179" t="s">
+      <c r="B26" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="179"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -33846,7 +33771,7 @@
       <c r="DJ26" s="11"/>
     </row>
     <row r="27" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="164" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -34187,7 +34112,7 @@
       </c>
     </row>
     <row r="28" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B28" s="160"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
@@ -34524,7 +34449,7 @@
       </c>
     </row>
     <row r="29" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B29" s="160"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="12" t="s">
         <v>23</v>
       </c>
@@ -34861,7 +34786,7 @@
       </c>
     </row>
     <row r="30" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B30" s="160"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="12" t="s">
         <v>24</v>
       </c>
@@ -35198,7 +35123,7 @@
       </c>
     </row>
     <row r="31" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B31" s="160"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="12" t="s">
         <v>25</v>
       </c>
@@ -35535,7 +35460,7 @@
       </c>
     </row>
     <row r="32" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B32" s="160"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
@@ -35872,7 +35797,7 @@
       </c>
     </row>
     <row r="33" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="164" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -36213,7 +36138,7 @@
       </c>
     </row>
     <row r="34" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B34" s="160"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
@@ -36550,7 +36475,7 @@
       </c>
     </row>
     <row r="35" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B35" s="160"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
@@ -36887,7 +36812,7 @@
       </c>
     </row>
     <row r="36" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B36" s="160"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
@@ -37224,7 +37149,7 @@
       </c>
     </row>
     <row r="37" spans="2:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B37" s="160"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
@@ -37561,7 +37486,7 @@
       </c>
     </row>
     <row r="38" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B38" s="160"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="12" t="s">
         <v>22</v>
       </c>
@@ -39058,10 +38983,10 @@
       </c>
     </row>
     <row r="42" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B42" s="161" t="s">
+      <c r="B42" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="161"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="22">
         <v>8.5077859999999994</v>
       </c>
@@ -39424,10 +39349,10 @@
       </c>
     </row>
     <row r="43" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="155"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="33">
         <v>36.202132963852172</v>
       </c>
@@ -39790,10 +39715,10 @@
       </c>
     </row>
     <row r="44" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="155"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="33">
         <v>38.67046021138755</v>
       </c>
@@ -40156,10 +40081,10 @@
       </c>
     </row>
     <row r="45" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="155"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="33">
         <v>39.258157175086446</v>
       </c>
@@ -40857,10 +40782,10 @@
       </c>
     </row>
     <row r="47" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B47" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="156"/>
+      <c r="B47" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="163"/>
       <c r="D47" s="4">
         <v>2014</v>
       </c>
@@ -41196,10 +41121,10 @@
       </c>
     </row>
     <row r="48" spans="2:114" x14ac:dyDescent="0.5">
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="157"/>
+      <c r="C48" s="168"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -41316,7 +41241,7 @@
       <c r="A49" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="158"/>
+      <c r="B49" s="169"/>
       <c r="C49" s="15" t="s">
         <v>35</v>
       </c>
@@ -41682,7 +41607,7 @@
       </c>
     </row>
     <row r="50" spans="1:114" ht="33" x14ac:dyDescent="0.5">
-      <c r="B50" s="159"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="15" t="s">
         <v>36</v>
       </c>
@@ -42042,7 +41967,7 @@
       </c>
     </row>
     <row r="51" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B51" s="159"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="15" t="s">
         <v>37</v>
       </c>
@@ -42408,7 +42333,7 @@
       </c>
     </row>
     <row r="52" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B52" s="159"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -42774,7 +42699,7 @@
       </c>
     </row>
     <row r="53" spans="1:114" ht="22" x14ac:dyDescent="0.5">
-      <c r="B53" s="159"/>
+      <c r="B53" s="170"/>
       <c r="C53" s="15" t="s">
         <v>39</v>
       </c>
@@ -43143,7 +43068,7 @@
       <c r="A54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="159"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="15" t="s">
         <v>40</v>
       </c>
@@ -43521,14 +43446,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B6:B8"/>
@@ -43541,6 +43458,14 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:F41 H39:J40 L39:N41 P39:R41 T39:V41 X39:Z40 AB39:AD40 AF39:AH40 AJ39:AL40 AN39:AP40 AR39:AT40 AV39:AX40 AZ39:BB40 BD39:BF40 BH39:BJ40 BL39:BN40 BP39:BR40 BT39:BV40 BX39:BZ40 CB39:CD40 CF39:CH40 CJ39:CL40 CN39:CP40 CR39:CT40 CV39:CX40 CZ39:DB40 DD39:DF40 DH39:DJ41">
     <cfRule type="iconSet" priority="30">
